--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6FE537E4-217A-4E9A-A7A0-CD1C7BABF0EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2EB1B964-F88F-4678-964E-E934B46F6673}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="429">
   <si>
     <t>nt_total</t>
   </si>
@@ -1379,6 +1379,9 @@
   </si>
   <si>
     <t>pt_habit_swim</t>
+  </si>
+  <si>
+    <t>Range is 0 to 1.</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2057,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2089,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43411</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,7 +2240,9 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -2251,7 +2256,9 @@
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -2265,7 +2272,9 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -2279,7 +2288,9 @@
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -2293,7 +2304,9 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -2307,7 +2320,9 @@
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -2321,7 +2336,9 @@
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -2335,7 +2352,9 @@
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -2349,7 +2368,9 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -2363,7 +2384,9 @@
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -2377,7 +2400,9 @@
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -2391,7 +2416,9 @@
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -2405,7 +2432,9 @@
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -2419,7 +2448,9 @@
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -2433,7 +2464,9 @@
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
@@ -2447,7 +2480,9 @@
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -2801,7 +2836,9 @@
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
@@ -2815,7 +2852,9 @@
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
@@ -2843,7 +2882,9 @@
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -2857,7 +2898,9 @@
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
@@ -2885,7 +2928,9 @@
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
@@ -2899,7 +2944,9 @@
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
@@ -2913,7 +2960,9 @@
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -2943,7 +2992,9 @@
         <v>374</v>
       </c>
       <c r="E64" s="20"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
@@ -2959,7 +3010,9 @@
         <v>374</v>
       </c>
       <c r="E65" s="20"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
@@ -2989,7 +3042,9 @@
         <v>374</v>
       </c>
       <c r="E67" s="20"/>
-      <c r="F67" s="7"/>
+      <c r="F67" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
@@ -3003,7 +3058,9 @@
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
@@ -3017,7 +3074,9 @@
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
@@ -3097,7 +3156,9 @@
       <c r="E74" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="F74" s="7"/>
+      <c r="F74" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
@@ -3113,7 +3174,9 @@
       <c r="E75" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="F75" s="7"/>
+      <c r="F75" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
@@ -3129,7 +3192,9 @@
       <c r="E76" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="F76" s="7"/>
+      <c r="F76" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
@@ -3145,7 +3210,9 @@
       <c r="E77" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="F77" s="7"/>
+      <c r="F77" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
@@ -3161,7 +3228,9 @@
       <c r="E78" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="F78" s="7"/>
+      <c r="F78" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
@@ -3177,7 +3246,9 @@
       <c r="E79" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="F79" s="7"/>
+      <c r="F79" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
@@ -3193,7 +3264,9 @@
       <c r="E80" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="F80" s="7"/>
+      <c r="F80" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
@@ -3209,7 +3282,9 @@
       <c r="E81" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="F81" s="7"/>
+      <c r="F81" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
@@ -3223,7 +3298,9 @@
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
@@ -3237,7 +3314,9 @@
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="7"/>
+      <c r="F83" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
@@ -3251,7 +3330,9 @@
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
-      <c r="F84" s="7"/>
+      <c r="F84" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
@@ -3265,7 +3346,9 @@
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
@@ -3279,7 +3362,9 @@
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
-      <c r="F86" s="7"/>
+      <c r="F86" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
@@ -3293,7 +3378,9 @@
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
-      <c r="F87" s="7"/>
+      <c r="F87" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
@@ -3307,7 +3394,9 @@
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
-      <c r="F88" s="7"/>
+      <c r="F88" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
@@ -3419,7 +3508,9 @@
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="7"/>
+      <c r="F96" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
@@ -3433,7 +3524,9 @@
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
-      <c r="F97" s="7"/>
+      <c r="F97" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
@@ -3447,7 +3540,9 @@
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
-      <c r="F98" s="7"/>
+      <c r="F98" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
@@ -3461,7 +3556,9 @@
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
-      <c r="F99" s="7"/>
+      <c r="F99" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
@@ -3475,7 +3572,9 @@
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
@@ -3489,7 +3588,9 @@
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="7"/>
+      <c r="F101" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
@@ -3503,7 +3604,9 @@
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="7"/>
+      <c r="F102" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
@@ -3517,7 +3620,9 @@
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
-      <c r="F103" s="9"/>
+      <c r="F103" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -3531,7 +3636,9 @@
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
-      <c r="F104" s="7"/>
+      <c r="F104" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
@@ -3545,7 +3652,9 @@
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
-      <c r="F105" s="7"/>
+      <c r="F105" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
@@ -3629,7 +3738,9 @@
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
-      <c r="F111" s="7"/>
+      <c r="F111" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
@@ -3643,7 +3754,9 @@
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
-      <c r="F112" s="7"/>
+      <c r="F112" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
@@ -3657,7 +3770,9 @@
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
-      <c r="F113" s="7"/>
+      <c r="F113" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
@@ -3671,7 +3786,9 @@
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
-      <c r="F114" s="7"/>
+      <c r="F114" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
@@ -3685,7 +3802,9 @@
       </c>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
-      <c r="F115" s="7"/>
+      <c r="F115" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
@@ -3699,7 +3818,9 @@
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
-      <c r="F116" s="7"/>
+      <c r="F116" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
@@ -3713,7 +3834,9 @@
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
-      <c r="F117" s="7"/>
+      <c r="F117" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
@@ -3727,7 +3850,9 @@
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
-      <c r="F118" s="7"/>
+      <c r="F118" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
@@ -3741,7 +3866,9 @@
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
-      <c r="F119" s="7"/>
+      <c r="F119" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
@@ -3755,7 +3882,9 @@
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
-      <c r="F120" s="7"/>
+      <c r="F120" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
@@ -3811,7 +3940,9 @@
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="15"/>
-      <c r="F124" s="7"/>
+      <c r="F124" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
@@ -3825,7 +3956,9 @@
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
-      <c r="F125" s="7"/>
+      <c r="F125" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
@@ -3839,7 +3972,9 @@
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
@@ -3853,7 +3988,9 @@
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
-      <c r="F127" s="7"/>
+      <c r="F127" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
@@ -3867,7 +4004,9 @@
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
-      <c r="F128" s="7"/>
+      <c r="F128" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
@@ -3881,7 +4020,9 @@
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
-      <c r="F129" s="7"/>
+      <c r="F129" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
@@ -3895,7 +4036,9 @@
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
-      <c r="F130" s="7"/>
+      <c r="F130" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
@@ -3909,7 +4052,9 @@
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
@@ -3923,7 +4068,9 @@
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
-      <c r="F132" s="7"/>
+      <c r="F132" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
@@ -3937,7 +4084,9 @@
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
-      <c r="F133" s="7"/>
+      <c r="F133" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
@@ -3951,7 +4100,9 @@
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
-      <c r="F134" s="7"/>
+      <c r="F134" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
@@ -3965,7 +4116,9 @@
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
-      <c r="F135" s="7"/>
+      <c r="F135" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
@@ -3979,7 +4132,9 @@
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
-      <c r="F136" s="7"/>
+      <c r="F136" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
@@ -3993,7 +4148,9 @@
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
-      <c r="F137" s="7"/>
+      <c r="F137" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
@@ -4007,7 +4164,9 @@
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
-      <c r="F138" s="7"/>
+      <c r="F138" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
@@ -4021,7 +4180,9 @@
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
-      <c r="F139" s="7"/>
+      <c r="F139" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
@@ -4391,7 +4552,9 @@
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
-      <c r="F165" s="11"/>
+      <c r="F165" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
@@ -4405,7 +4568,9 @@
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
-      <c r="F166" s="7"/>
+      <c r="F166" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
@@ -4419,7 +4584,9 @@
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
-      <c r="F167" s="7"/>
+      <c r="F167" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
@@ -4433,7 +4600,9 @@
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
-      <c r="F168" s="7"/>
+      <c r="F168" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
@@ -4447,7 +4616,9 @@
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
-      <c r="F169" s="7"/>
+      <c r="F169" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
@@ -4463,7 +4634,9 @@
         <v>374</v>
       </c>
       <c r="E170" s="15"/>
-      <c r="F170" s="7"/>
+      <c r="F170" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
@@ -4477,7 +4650,9 @@
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
-      <c r="F171" s="7"/>
+      <c r="F171" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
@@ -4491,7 +4666,9 @@
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
-      <c r="F172" s="7"/>
+      <c r="F172" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
@@ -4505,7 +4682,9 @@
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
-      <c r="F173" s="7"/>
+      <c r="F173" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
@@ -4519,7 +4698,9 @@
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
-      <c r="F174" s="7"/>
+      <c r="F174" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
@@ -4533,7 +4714,9 @@
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
-      <c r="F175" s="7"/>
+      <c r="F175" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
@@ -4547,7 +4730,9 @@
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
-      <c r="F176" s="7"/>
+      <c r="F176" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
@@ -4561,7 +4746,9 @@
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
-      <c r="F177" s="7"/>
+      <c r="F177" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
@@ -4577,7 +4764,9 @@
         <v>374</v>
       </c>
       <c r="E178" s="15"/>
-      <c r="F178" s="7"/>
+      <c r="F178" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
@@ -4591,7 +4780,9 @@
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
-      <c r="F179" s="7"/>
+      <c r="F179" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
@@ -4605,7 +4796,9 @@
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
-      <c r="F180" s="7"/>
+      <c r="F180" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
@@ -4619,7 +4812,9 @@
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
-      <c r="F181" s="7"/>
+      <c r="F181" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
@@ -4633,7 +4828,9 @@
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
-      <c r="F182" s="7"/>
+      <c r="F182" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
@@ -4647,7 +4844,9 @@
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
-      <c r="F183" s="7"/>
+      <c r="F183" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
@@ -4661,7 +4860,9 @@
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
-      <c r="F184" s="7"/>
+      <c r="F184" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
@@ -4675,7 +4876,9 @@
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
-      <c r="F185" s="7"/>
+      <c r="F185" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
@@ -4689,7 +4892,9 @@
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
-      <c r="F186" s="7"/>
+      <c r="F186" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
@@ -4703,7 +4908,9 @@
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
-      <c r="F187" s="7"/>
+      <c r="F187" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
@@ -4717,7 +4924,9 @@
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
-      <c r="F188" s="7"/>
+      <c r="F188" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
@@ -4731,7 +4940,9 @@
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
-      <c r="F189" s="7"/>
+      <c r="F189" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
@@ -4745,7 +4956,9 @@
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
-      <c r="F190" s="7"/>
+      <c r="F190" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
@@ -4759,7 +4972,9 @@
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
-      <c r="F191" s="7"/>
+      <c r="F191" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
@@ -4773,7 +4988,9 @@
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
-      <c r="F192" s="7"/>
+      <c r="F192" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
@@ -4787,7 +5004,9 @@
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
-      <c r="F193" s="7"/>
+      <c r="F193" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
@@ -4803,7 +5022,9 @@
         <v>374</v>
       </c>
       <c r="E194" s="15"/>
-      <c r="F194" s="7"/>
+      <c r="F194" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
@@ -4817,7 +5038,9 @@
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
-      <c r="F195" s="7"/>
+      <c r="F195" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
@@ -4831,16 +5054,21 @@
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
-      <c r="F196" s="7"/>
+      <c r="F196" s="9" t="s">
+        <v>428</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:F196" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;D&amp;CPage &amp;P of &amp;N&amp;R&amp;F</oddFooter>
   </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="2" max="195" man="1"/>
+  </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2EB1B964-F88F-4678-964E-E934B46F6673}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A2174014-4EE4-4873-8B31-79A945516A38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="441">
   <si>
     <t>nt_total</t>
   </si>
@@ -502,9 +502,6 @@
     <t>BCGcalc  metric.values() output</t>
   </si>
   <si>
-    <t>Metric.Name</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1382,6 +1379,45 @@
   </si>
   <si>
     <t>Range is 0 to 1.</t>
+  </si>
+  <si>
+    <t>nt_longlived</t>
+  </si>
+  <si>
+    <t>nt_noteworthy</t>
+  </si>
+  <si>
+    <t>number of taxa - long lived</t>
+  </si>
+  <si>
+    <t>number of taxa - noteworthy</t>
+  </si>
+  <si>
+    <t>LONGLIVED</t>
+  </si>
+  <si>
+    <t>NOTEWORTHY</t>
+  </si>
+  <si>
+    <t>nt_ffg2_pred</t>
+  </si>
+  <si>
+    <t>number of taxa - predator (2nd FFG column)</t>
+  </si>
+  <si>
+    <t>FFG2</t>
+  </si>
+  <si>
+    <t>pi_tv2_intol</t>
+  </si>
+  <si>
+    <t>percent individuals - intolerant (tolerance value 2)</t>
+  </si>
+  <si>
+    <t>TOLVAL2</t>
+  </si>
+  <si>
+    <t>METRIC_NAME</t>
   </si>
 </sst>
 </file>
@@ -2051,13 +2087,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,7 +2116,7 @@
         <v>134</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -2089,7 +2125,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43430</v>
+        <v>43455</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2100,22 +2136,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>136</v>
-      </c>
       <c r="C5" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,7 +2159,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -2135,7 +2171,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -2147,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -2159,13 +2195,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="1"/>
@@ -2175,10 +2211,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2189,10 +2225,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -2203,15 +2239,15 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,10 +2255,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2233,15 +2269,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2249,15 +2285,15 @@
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2265,15 +2301,15 @@
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,15 +2317,15 @@
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,15 +2333,15 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2313,15 +2349,15 @@
         <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2329,15 +2365,15 @@
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,15 +2381,15 @@
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,15 +2397,15 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2377,15 +2413,15 @@
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2393,15 +2429,15 @@
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2409,15 +2445,15 @@
         <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2425,15 +2461,15 @@
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2441,15 +2477,15 @@
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2457,15 +2493,15 @@
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2473,15 +2509,15 @@
         <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2489,13 +2525,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="7"/>
@@ -2505,10 +2541,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -2519,10 +2555,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -2533,10 +2569,10 @@
         <v>27</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -2547,10 +2583,10 @@
         <v>28</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -2561,10 +2597,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -2575,10 +2611,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -2589,10 +2625,10 @@
         <v>31</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -2600,13 +2636,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -2617,13 +2653,13 @@
         <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="7"/>
@@ -2633,10 +2669,10 @@
         <v>33</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -2644,13 +2680,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -2661,10 +2697,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -2675,10 +2711,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -2686,13 +2722,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -2703,10 +2739,10 @@
         <v>36</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
@@ -2714,13 +2750,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -2731,10 +2767,10 @@
         <v>37</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -2745,10 +2781,10 @@
         <v>38</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
@@ -2756,13 +2792,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -2770,13 +2806,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>413</v>
-      </c>
       <c r="C50" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -2787,10 +2823,10 @@
         <v>39</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -2801,10 +2837,10 @@
         <v>40</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -2815,10 +2851,10 @@
         <v>41</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -2829,15 +2865,15 @@
         <v>42</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2845,15 +2881,15 @@
         <v>43</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2861,10 +2897,10 @@
         <v>44</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
@@ -2875,15 +2911,15 @@
         <v>45</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2891,26 +2927,26 @@
         <v>46</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
@@ -2918,61 +2954,61 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
@@ -2980,49 +3016,49 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
@@ -3030,260 +3066,260 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3291,15 +3327,15 @@
         <v>47</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3307,15 +3343,15 @@
         <v>48</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3323,15 +3359,15 @@
         <v>49</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3339,15 +3375,15 @@
         <v>50</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3355,15 +3391,15 @@
         <v>51</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3371,15 +3407,15 @@
         <v>52</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3387,15 +3423,15 @@
         <v>53</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,10 +3439,10 @@
         <v>54</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
@@ -3417,10 +3453,10 @@
         <v>55</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
@@ -3431,10 +3467,10 @@
         <v>56</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
@@ -3445,10 +3481,10 @@
         <v>57</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
@@ -3459,10 +3495,10 @@
         <v>58</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
@@ -3473,10 +3509,10 @@
         <v>59</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -3487,10 +3523,10 @@
         <v>60</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
@@ -3501,15 +3537,15 @@
         <v>61</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3517,15 +3553,15 @@
         <v>62</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3533,15 +3569,15 @@
         <v>63</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3549,15 +3585,15 @@
         <v>64</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3565,15 +3601,15 @@
         <v>65</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3581,15 +3617,15 @@
         <v>66</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3597,15 +3633,15 @@
         <v>67</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
       <c r="F102" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3613,15 +3649,15 @@
         <v>68</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
       <c r="F103" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3629,15 +3665,15 @@
         <v>69</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
       <c r="F104" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,15 +3681,15 @@
         <v>70</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
       <c r="F105" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3661,10 +3697,10 @@
         <v>71</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
@@ -3672,13 +3708,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
@@ -3686,13 +3722,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
@@ -3703,10 +3739,10 @@
         <v>72</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
@@ -3714,13 +3750,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
@@ -3731,47 +3767,47 @@
         <v>73</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="F111" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
       <c r="F112" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3779,31 +3815,31 @@
         <v>74</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3811,47 +3847,47 @@
         <v>75</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
       <c r="F118" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3859,31 +3895,31 @@
         <v>76</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
       <c r="F119" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
       <c r="F120" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3891,10 +3927,10 @@
         <v>77</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
@@ -3905,10 +3941,10 @@
         <v>78</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
@@ -3919,10 +3955,10 @@
         <v>79</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
@@ -3933,15 +3969,15 @@
         <v>80</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="15"/>
       <c r="F124" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3949,15 +3985,15 @@
         <v>81</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3965,15 +4001,15 @@
         <v>82</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
       <c r="F126" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3981,15 +4017,15 @@
         <v>83</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3997,15 +4033,15 @@
         <v>84</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4013,15 +4049,15 @@
         <v>85</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4029,159 +4065,159 @@
         <v>86</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
       <c r="F130" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
       <c r="F132" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
       <c r="F133" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
       <c r="F134" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
       <c r="F135" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
       <c r="F136" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
       <c r="F137" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
       <c r="F138" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
       <c r="F139" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4189,10 +4225,10 @@
         <v>87</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
@@ -4203,10 +4239,10 @@
         <v>88</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
@@ -4217,10 +4253,10 @@
         <v>89</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
@@ -4231,10 +4267,10 @@
         <v>90</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
@@ -4245,10 +4281,10 @@
         <v>91</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
@@ -4259,10 +4295,10 @@
         <v>92</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
@@ -4273,10 +4309,10 @@
         <v>93</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
@@ -4287,10 +4323,10 @@
         <v>94</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
@@ -4298,13 +4334,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
@@ -4312,13 +4348,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
@@ -4329,10 +4365,10 @@
         <v>95</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -4343,13 +4379,13 @@
         <v>96</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E151" s="15"/>
       <c r="F151" s="11"/>
@@ -4359,10 +4395,10 @@
         <v>97</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
@@ -4373,13 +4409,13 @@
         <v>98</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E153" s="15"/>
       <c r="F153" s="12"/>
@@ -4389,10 +4425,10 @@
         <v>99</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
@@ -4403,10 +4439,10 @@
         <v>100</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
@@ -4417,10 +4453,10 @@
         <v>101</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
@@ -4428,13 +4464,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
@@ -4445,10 +4481,10 @@
         <v>102</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
@@ -4459,10 +4495,10 @@
         <v>103</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
@@ -4473,10 +4509,10 @@
         <v>104</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
@@ -4487,10 +4523,10 @@
         <v>105</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
@@ -4501,10 +4537,10 @@
         <v>106</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
@@ -4515,10 +4551,10 @@
         <v>107</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
@@ -4529,47 +4565,47 @@
         <v>108</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E164" s="15"/>
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4577,15 +4613,15 @@
         <v>109</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4593,15 +4629,15 @@
         <v>110</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4609,15 +4645,15 @@
         <v>111</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
       <c r="F169" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4625,33 +4661,33 @@
         <v>112</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E170" s="15"/>
       <c r="F170" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
       <c r="F171" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4659,15 +4695,15 @@
         <v>113</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4675,31 +4711,31 @@
         <v>114</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
       <c r="F174" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4707,15 +4743,15 @@
         <v>115</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4723,15 +4759,15 @@
         <v>116</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4739,15 +4775,15 @@
         <v>117</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4755,17 +4791,17 @@
         <v>118</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E178" s="15"/>
       <c r="F178" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4773,15 +4809,15 @@
         <v>119</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4789,47 +4825,47 @@
         <v>120</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
       <c r="F180" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
       <c r="F181" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
       <c r="F182" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4837,15 +4873,15 @@
         <v>121</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4853,15 +4889,15 @@
         <v>122</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
       <c r="F184" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4869,15 +4905,15 @@
         <v>123</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4885,15 +4921,15 @@
         <v>124</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4901,15 +4937,15 @@
         <v>125</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4917,15 +4953,15 @@
         <v>126</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4933,31 +4969,31 @@
         <v>127</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
       <c r="F189" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
       <c r="F190" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4965,15 +5001,15 @@
         <v>128</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
       <c r="F191" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4981,15 +5017,15 @@
         <v>129</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
       <c r="F192" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4997,15 +5033,15 @@
         <v>130</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5013,17 +5049,17 @@
         <v>131</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E194" s="15"/>
       <c r="F194" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5031,15 +5067,15 @@
         <v>132</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5047,15 +5083,73 @@
         <v>133</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
         <v>428</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="9"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="9"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="9"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="9" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5093,18 +5187,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5114,7 +5208,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B7" s="32" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
@@ -5123,7 +5217,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B8" s="32" t="str">
         <f ca="1">MID(CELL("filename",B8),FIND("[",CELL("filename",B8)),(FIND("]",CELL("filename",B8))-FIND("[",CELL("filename",B8)))+1)</f>
@@ -5132,7 +5226,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B9" s="33" t="str">
         <f ca="1">MID(CELL("filename",B9),FIND("]",CELL("filename",B9))+1,LEN(CELL("filename",B9))-FIND("]",CELL("filename",B9)))</f>
@@ -5141,36 +5235,36 @@
     </row>
     <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B15" t="s">
         <v>398</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="35" t="s">
         <v>399</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" t="s">
         <v>401</v>
-      </c>
-      <c r="B16" t="s">
-        <v>402</v>
       </c>
       <c r="C16" s="36" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
@@ -5179,10 +5273,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" t="s">
         <v>403</v>
-      </c>
-      <c r="B17" t="s">
-        <v>404</v>
       </c>
       <c r="C17" s="37" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A2174014-4EE4-4873-8B31-79A945516A38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B212DF0C-D6E6-4516-B3DF-F6646C0EBE02}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$F$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$F$236</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="518">
   <si>
     <t>nt_total</t>
   </si>
@@ -154,9 +154,6 @@
     <t>pi_Gast</t>
   </si>
   <si>
-    <t>pi_Iso</t>
-  </si>
-  <si>
     <t>pi_NonIns</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>x_HBI</t>
   </si>
   <si>
-    <t>x_Shan_Num</t>
-  </si>
-  <si>
     <t>x_Shan_e</t>
   </si>
   <si>
@@ -661,9 +655,6 @@
     <t>percent individuals - Class Gastropoda</t>
   </si>
   <si>
-    <t>percent individuals - Class Isopoda</t>
-  </si>
-  <si>
     <t>percent individuals - Class not Insecta</t>
   </si>
   <si>
@@ -703,12 +694,6 @@
     <t>number of taxa - Order Ephemeroptera</t>
   </si>
   <si>
-    <t>percent individuals - Orders Ephemeroptera, Plecoptera &amp; Trichoptera (EPT)</t>
-  </si>
-  <si>
-    <t>number of taxa - Orders Ephemeroptera, Plecoptera &amp; Trichoptera (EPT)</t>
-  </si>
-  <si>
     <t>number of taxa - Class Gastropoda</t>
   </si>
   <si>
@@ -793,9 +778,6 @@
     <t>percent taxa - Order Diptera</t>
   </si>
   <si>
-    <t>percent taxa - Orders Ephemeroptera, Plecoptera &amp; Trichoptera (EPT)</t>
-  </si>
-  <si>
     <t>percent taxa - Class Gastropoda</t>
   </si>
   <si>
@@ -1252,9 +1234,6 @@
     <t>Shannon Wiener Diversity Index (log base 10) - x_Shan_Num/log(10)</t>
   </si>
   <si>
-    <t>Shannon Wiener Diversity Index (partial calculation) [sum(N_TAXA/log(ni_total)]</t>
-  </si>
-  <si>
     <t>N_TAXA, TaxaID</t>
   </si>
   <si>
@@ -1418,6 +1397,258 @@
   </si>
   <si>
     <t>METRIC_NAME</t>
+  </si>
+  <si>
+    <t>nt_NonIns</t>
+  </si>
+  <si>
+    <t>nt_Odon</t>
+  </si>
+  <si>
+    <t>nt_POET</t>
+  </si>
+  <si>
+    <t>nt_Tromb</t>
+  </si>
+  <si>
+    <t>nt_Tubif</t>
+  </si>
+  <si>
+    <t>pi_Cru</t>
+  </si>
+  <si>
+    <t>pi_CruMol</t>
+  </si>
+  <si>
+    <t>pi_EphemNoCae</t>
+  </si>
+  <si>
+    <t>pi_EphemNoCaeBae</t>
+  </si>
+  <si>
+    <t>pi_Hydro</t>
+  </si>
+  <si>
+    <t>pi_Insect</t>
+  </si>
+  <si>
+    <t>pi_Isop</t>
+  </si>
+  <si>
+    <t>pi_Mol</t>
+  </si>
+  <si>
+    <t>pi_TricNoHydro</t>
+  </si>
+  <si>
+    <t>pi_Tubif</t>
+  </si>
+  <si>
+    <t>pt_Coleo</t>
+  </si>
+  <si>
+    <t>pt_Ephem</t>
+  </si>
+  <si>
+    <t>pt_Insect</t>
+  </si>
+  <si>
+    <t>pt_NonIns</t>
+  </si>
+  <si>
+    <t>pt_Odon</t>
+  </si>
+  <si>
+    <t>pt_Oligo</t>
+  </si>
+  <si>
+    <t>pt_Pleco</t>
+  </si>
+  <si>
+    <t>pt_POET</t>
+  </si>
+  <si>
+    <t>pt_Trich</t>
+  </si>
+  <si>
+    <t>pt_Chiro</t>
+  </si>
+  <si>
+    <t>pi_Tanyp</t>
+  </si>
+  <si>
+    <t>pi_COC2Chi</t>
+  </si>
+  <si>
+    <t>pi_Colesens</t>
+  </si>
+  <si>
+    <t>pi_tv_intol</t>
+  </si>
+  <si>
+    <t>pi_tv_toler</t>
+  </si>
+  <si>
+    <t>pt_tv_intol</t>
+  </si>
+  <si>
+    <t>pt_tv_toler</t>
+  </si>
+  <si>
+    <t>nt_tv_ntol</t>
+  </si>
+  <si>
+    <t>nt_tv_stol</t>
+  </si>
+  <si>
+    <t>pi_tv_ntol</t>
+  </si>
+  <si>
+    <t>pi_tv_stol</t>
+  </si>
+  <si>
+    <t>pt_tv_ntol</t>
+  </si>
+  <si>
+    <t>pt_tv_stol</t>
+  </si>
+  <si>
+    <t>SubPhylum</t>
+  </si>
+  <si>
+    <t>SubPhylum and Phylum</t>
+  </si>
+  <si>
+    <t>Order and Family</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>SubFamily</t>
+  </si>
+  <si>
+    <t>number of taxa - not Class Insecta</t>
+  </si>
+  <si>
+    <t>number of taxa - Order Odonanta</t>
+  </si>
+  <si>
+    <t>number of taxa - Orders Plecoptera, Odonanta, Ephemeroptera, and Trichoptera (POET)</t>
+  </si>
+  <si>
+    <t>number of taxa - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)</t>
+  </si>
+  <si>
+    <t>number of taxa - Family Trombidformes</t>
+  </si>
+  <si>
+    <t>number of taxa - Family Tubificidae</t>
+  </si>
+  <si>
+    <t>percent individuals - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)</t>
+  </si>
+  <si>
+    <t>percent taxa - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)</t>
+  </si>
+  <si>
+    <t>percent individuals - SubPhylum Crustacea</t>
+  </si>
+  <si>
+    <t>percent of individuals - SubPhylum Crustacea and Phylum Mollusca</t>
+  </si>
+  <si>
+    <t>percent of individuals - Order Ephemeroptera and not Family Caenidae</t>
+  </si>
+  <si>
+    <t>percent of individuals - Order Ephemeroptera and not Family Caenidae or Baetidae</t>
+  </si>
+  <si>
+    <t>percent of individuals - Family Hydropsychidae</t>
+  </si>
+  <si>
+    <t>percent of individuals - Class Insecta</t>
+  </si>
+  <si>
+    <t>percent of individuals - Order Isoptera</t>
+  </si>
+  <si>
+    <t>percent of individuals - Phylum Mollusca</t>
+  </si>
+  <si>
+    <t>percent of individuals - Order Trichopter and not Family Hydropsychidae</t>
+  </si>
+  <si>
+    <t>percent of individuals - Family Tibuficidae</t>
+  </si>
+  <si>
+    <t>percent of taxa - Order Coleoptera</t>
+  </si>
+  <si>
+    <t>percent of taxa - Order Ephemeroptera</t>
+  </si>
+  <si>
+    <t>percent of taxa - Class Insecta</t>
+  </si>
+  <si>
+    <t>percent of taxa - not Class Insecta</t>
+  </si>
+  <si>
+    <t>percent of taxa - Order Odonata</t>
+  </si>
+  <si>
+    <t>percent of taxa - Class Oligochaeta</t>
+  </si>
+  <si>
+    <t>percent of taxa - Order Plecoptera</t>
+  </si>
+  <si>
+    <t>percent of taxa - Orders Plecoptera, Odonata, Ephemeroptera, and Trichoptera (POET)</t>
+  </si>
+  <si>
+    <t>percent of taxa - Trichoptera</t>
+  </si>
+  <si>
+    <t>percent of taxa - Family Chironomidae</t>
+  </si>
+  <si>
+    <t>percent of individuals - SubFamily Tanypodinae</t>
+  </si>
+  <si>
+    <t>percent of individuals - Genera Chironomus, Cricotopus, Cricotopus/Orthocladius, or Orthocladius of Family Chironomidae</t>
+  </si>
+  <si>
+    <t>percent of individuals - Order Coleoptera and not Family Hydrophilidae</t>
+  </si>
+  <si>
+    <t>percent of individuals - tolerance value - tolerant ≥ 7</t>
+  </si>
+  <si>
+    <t>percent of taxa - tolerance value - tolerant ≥ 7</t>
+  </si>
+  <si>
+    <t>percent of individuals - tolerance value - intolerant ≤ 3</t>
+  </si>
+  <si>
+    <t>percent of taxa - tolerance value - intolerant ≤ 3</t>
+  </si>
+  <si>
+    <t>number of taxa - tolerance value - ntol &lt; 6</t>
+  </si>
+  <si>
+    <t>percent of individuals - tolerance value - ntol &lt; 6</t>
+  </si>
+  <si>
+    <t>percent of taxa - tolerance value - ntol &lt; 6</t>
+  </si>
+  <si>
+    <t>number of taxa - tolerance value - stol ≥ 8</t>
+  </si>
+  <si>
+    <t>percent of individuals - tolerance value - stol ≥ 8</t>
+  </si>
+  <si>
+    <t>percent of taxa - tolerance value - stol ≥ 8</t>
   </si>
 </sst>
 </file>
@@ -2087,13 +2318,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,10 +2344,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -2125,33 +2356,33 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43455</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A196)</f>
-        <v>191</v>
+        <f>SUBTOTAL(3,A6:A236)</f>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -2171,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -2183,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -2195,13 +2426,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="1"/>
@@ -2211,10 +2442,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2225,10 +2456,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -2239,15 +2470,15 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,10 +2486,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2266,285 +2497,255 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="D14" s="16"/>
+        <v>368</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>367</v>
+      </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>17</v>
+        <v>401</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>202</v>
+        <v>410</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>187</v>
+        <v>480</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="D23" s="16"/>
+        <v>339</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>367</v>
+      </c>
       <c r="E23" s="16"/>
-      <c r="F23" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
-      <c r="F24" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>189</v>
+        <v>409</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>23</v>
+        <v>399</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>192</v>
+        <v>408</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>434</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>193</v>
+        <v>477</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>194</v>
+        <v>478</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>373</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -2552,13 +2753,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>26</v>
+        <v>402</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>196</v>
+        <v>407</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -2566,13 +2767,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -2580,13 +2781,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>28</v>
+        <v>436</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>198</v>
+        <v>479</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -2594,13 +2795,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -2608,13 +2809,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>30</v>
+        <v>403</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>200</v>
+        <v>406</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -2622,13 +2823,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>31</v>
+        <v>404</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>201</v>
+        <v>405</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -2636,13 +2837,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>417</v>
+        <v>204</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -2650,29 +2851,27 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>32</v>
+        <v>437</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>203</v>
+        <v>481</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>373</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>204</v>
+        <v>482</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -2680,769 +2879,777 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>407</v>
+        <v>9</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>416</v>
+        <v>178</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>406</v>
+        <v>12</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>349</v>
+        <v>472</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>208</v>
+        <v>440</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>486</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>345</v>
+        <v>473</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>410</v>
+        <v>15</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>413</v>
+        <v>182</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>209</v>
+        <v>441</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>487</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>345</v>
+        <v>474</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>210</v>
+        <v>442</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>488</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>349</v>
+        <v>474</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>211</v>
+        <v>483</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>214</v>
+        <v>443</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>489</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>359</v>
+        <v>444</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>490</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>360</v>
+        <v>445</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>491</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>361</v>
+        <v>446</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>492</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>369</v>
+        <v>475</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>356</v>
+        <v>186</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>357</v>
+        <v>187</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>370</v>
+        <v>189</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>362</v>
+        <v>190</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>363</v>
+        <v>447</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>493</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>373</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>364</v>
+        <v>448</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>373</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
-      <c r="F66" s="7"/>
+      <c r="F66" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>373</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>368</v>
+        <v>449</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="D70" s="16"/>
-      <c r="E70" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="F70" s="7"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>216</v>
+        <v>450</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>496</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="D71" s="16"/>
-      <c r="E71" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="F71" s="7"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>218</v>
+        <v>484</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="D72" s="16"/>
-      <c r="E72" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="F72" s="7"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="D73" s="16"/>
-      <c r="E73" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="F73" s="7"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>220</v>
+        <v>451</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>497</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="D74" s="16"/>
-      <c r="E74" s="16" t="s">
-        <v>373</v>
-      </c>
+      <c r="E74" s="16"/>
       <c r="F74" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="D75" s="16"/>
-      <c r="E75" s="16" t="s">
-        <v>373</v>
-      </c>
+      <c r="E75" s="16"/>
       <c r="F75" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>222</v>
+        <v>452</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>498</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="D76" s="16"/>
-      <c r="E76" s="16" t="s">
-        <v>373</v>
-      </c>
+      <c r="E76" s="16"/>
       <c r="F76" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>223</v>
+        <v>453</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>499</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="D77" s="16"/>
-      <c r="E77" s="16" t="s">
-        <v>373</v>
-      </c>
+      <c r="E77" s="16"/>
       <c r="F77" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>224</v>
+        <v>454</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>500</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="D78" s="16"/>
-      <c r="E78" s="16" t="s">
-        <v>373</v>
-      </c>
+      <c r="E78" s="16"/>
       <c r="F78" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>225</v>
+        <v>455</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>501</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="D79" s="16"/>
-      <c r="E79" s="16" t="s">
-        <v>373</v>
-      </c>
+      <c r="E79" s="16"/>
       <c r="F79" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>226</v>
+        <v>456</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>502</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="D80" s="16"/>
-      <c r="E80" s="16" t="s">
-        <v>373</v>
-      </c>
+      <c r="E80" s="16"/>
       <c r="F80" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>227</v>
+        <v>457</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>503</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="D81" s="16"/>
-      <c r="E81" s="16" t="s">
-        <v>373</v>
-      </c>
+      <c r="E81" s="16"/>
       <c r="F81" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F82" s="9"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F83" s="9"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>231</v>
+        <v>458</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>504</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>233</v>
+        <v>459</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>505</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>346</v>
+        <v>476</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>234</v>
+        <v>460</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>506</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>293</v>
+        <v>353</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
@@ -3450,41 +3657,45 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>257</v>
+        <v>355</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>254</v>
+        <v>363</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
-      <c r="F91" s="7"/>
+      <c r="F91" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
@@ -3492,215 +3703,219 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>259</v>
+        <v>351</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="7"/>
+      <c r="F93" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>260</v>
+        <v>352</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="7"/>
+      <c r="F94" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>254</v>
+        <v>363</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F96" s="9"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>263</v>
+        <v>357</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D97" s="16"/>
+        <v>382</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>367</v>
+      </c>
       <c r="E97" s="16"/>
       <c r="F97" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D98" s="16"/>
+        <v>382</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>367</v>
+      </c>
       <c r="E98" s="16"/>
       <c r="F98" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>265</v>
+        <v>360</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
-      <c r="F99" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>266</v>
+        <v>361</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D100" s="16"/>
+        <v>365</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>367</v>
+      </c>
       <c r="E100" s="16"/>
       <c r="F100" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
       <c r="F102" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>269</v>
+        <v>461</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>507</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>254</v>
+        <v>474</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
       <c r="F103" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>69</v>
+        <v>421</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>270</v>
+        <v>423</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>254</v>
+        <v>425</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
-      <c r="F104" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F104" s="9"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>70</v>
+        <v>422</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>271</v>
+        <v>424</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>254</v>
+        <v>426</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
-      <c r="F105" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F105" s="9"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>71</v>
+        <v>427</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>237</v>
+        <v>428</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>255</v>
+        <v>429</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
@@ -3708,625 +3923,651 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>418</v>
+        <v>145</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
+      <c r="E107" s="16" t="s">
+        <v>367</v>
+      </c>
       <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>419</v>
+        <v>146</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
+      <c r="E108" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
+      <c r="E109" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="F109" s="7"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>420</v>
+        <v>148</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
+      <c r="E110" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="F110" s="7"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
+      <c r="E111" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="F111" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>421</v>
+        <v>150</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
+      <c r="E112" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="F112" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>422</v>
+        <v>151</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
+      <c r="E113" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="F113" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
+      <c r="E114" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="F114" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>423</v>
+        <v>153</v>
       </c>
       <c r="B115" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C115" s="21" t="s">
-        <v>255</v>
-      </c>
       <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
+      <c r="E115" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="F115" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
+      <c r="E116" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="F116" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>424</v>
+        <v>155</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
+      <c r="E117" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="F117" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>425</v>
+        <v>156</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
+      <c r="E118" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="F118" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
-      <c r="F119" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F119" s="9"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>426</v>
+        <v>54</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
-      <c r="F120" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>272</v>
+        <v>462</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
-      <c r="F121" s="7"/>
+      <c r="F121" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>273</v>
+        <v>463</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>508</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
-      <c r="F122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>274</v>
+        <v>464</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>511</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
-      <c r="F123" s="7"/>
+      <c r="F123" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>275</v>
+        <v>465</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>509</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="15"/>
       <c r="F124" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>276</v>
+        <v>466</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>512</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
-      <c r="F125" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F125" s="9"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>277</v>
+        <v>467</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>515</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
-      <c r="F126" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F126" s="9"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>278</v>
+        <v>468</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>513</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>279</v>
+        <v>469</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>516</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>280</v>
+        <v>470</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>514</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>352</v>
+        <v>471</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>517</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
       <c r="F130" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>159</v>
+        <v>430</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>281</v>
+        <v>431</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>386</v>
+        <v>248</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
-      <c r="F132" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F132" s="9"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>386</v>
+        <v>248</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
-      <c r="F133" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F133" s="9"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>386</v>
+        <v>248</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
-      <c r="F134" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F134" s="9"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>386</v>
+        <v>248</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
-      <c r="F135" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F135" s="9"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>386</v>
+        <v>248</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
-      <c r="F136" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F136" s="9"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>386</v>
+        <v>248</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
       <c r="F137" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>386</v>
+        <v>248</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
       <c r="F138" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>386</v>
+        <v>248</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
       <c r="F139" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
-      <c r="F140" s="7"/>
+      <c r="F140" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
-      <c r="F141" s="7"/>
+      <c r="F141" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>385</v>
+        <v>261</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
-      <c r="F142" s="7"/>
+      <c r="F142" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>382</v>
+        <v>262</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
-      <c r="F143" s="7"/>
+      <c r="F143" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
-      <c r="F144" s="7"/>
+      <c r="F144" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>384</v>
+        <v>264</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
-      <c r="F145" s="7"/>
+      <c r="F145" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
-      <c r="F146" s="7"/>
+      <c r="F146" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>355</v>
+        <v>249</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
@@ -4334,13 +4575,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>168</v>
+        <v>411</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>343</v>
+        <v>233</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
@@ -4348,13 +4589,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>169</v>
+        <v>412</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
@@ -4362,13 +4603,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -4376,171 +4617,187 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>96</v>
+        <v>413</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>373</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D151" s="16"/>
       <c r="E151" s="15"/>
       <c r="F151" s="11"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
-      <c r="F152" s="11"/>
+      <c r="F152" s="11" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>373</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D153" s="16"/>
       <c r="E153" s="15"/>
-      <c r="F153" s="12"/>
+      <c r="F153" s="12" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>99</v>
+        <v>415</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
-      <c r="F154" s="12"/>
+      <c r="F154" s="12" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
-      <c r="F155" s="12"/>
+      <c r="F155" s="12" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>101</v>
+        <v>416</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
-      <c r="F156" s="12"/>
+      <c r="F156" s="12" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
-      <c r="F157" s="12"/>
+      <c r="F157" s="12" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>102</v>
+        <v>417</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
-      <c r="F158" s="12"/>
+      <c r="F158" s="12" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>103</v>
+        <v>418</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="7"/>
+      <c r="F159" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
-      <c r="F160" s="7"/>
+      <c r="F160" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>105</v>
+        <v>419</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
-      <c r="F161" s="7"/>
+      <c r="F161" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
@@ -4548,13 +4805,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>354</v>
+        <v>250</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
@@ -4562,547 +4819,511 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>373</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D164" s="16"/>
       <c r="E164" s="15"/>
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
       <c r="F169" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D170" s="16" t="s">
-        <v>373</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D170" s="16"/>
       <c r="E170" s="15"/>
       <c r="F170" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
       <c r="F171" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
       <c r="F174" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D178" s="16" t="s">
-        <v>373</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D178" s="16"/>
       <c r="E178" s="15"/>
       <c r="F178" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
       <c r="F180" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
-      <c r="F181" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F181" s="9"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>353</v>
+        <v>247</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
-      <c r="F182" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F182" s="9"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
-      <c r="F183" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F183" s="9"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
-      <c r="F184" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F184" s="9"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
-      <c r="F185" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F185" s="9"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
-      <c r="F186" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F186" s="9"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
-      <c r="F187" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F187" s="9"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
-      <c r="F188" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F188" s="9"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
-      <c r="F189" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F189" s="9"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
-      <c r="F190" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F190" s="9"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D191" s="15"/>
+        <v>347</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="E191" s="15"/>
-      <c r="F191" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F191" s="9"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
-      <c r="F192" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F192" s="9"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D193" s="15"/>
+        <v>347</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="E193" s="15"/>
-      <c r="F193" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F193" s="9"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D194" s="16" t="s">
-        <v>373</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D194" s="16"/>
       <c r="E194" s="15"/>
-      <c r="F194" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F194" s="9"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
-      <c r="F195" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F195" s="9"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
-      <c r="F196" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="F196" s="9"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>428</v>
+        <v>168</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>430</v>
+        <v>297</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>432</v>
+        <v>347</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -5110,13 +5331,13 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>429</v>
+        <v>100</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>431</v>
+        <v>298</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>433</v>
+        <v>347</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -5124,13 +5345,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>434</v>
+        <v>101</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>435</v>
+        <v>299</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -5138,22 +5359,596 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>437</v>
+        <v>102</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>438</v>
+        <v>300</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>439</v>
+        <v>347</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
-      <c r="F200" s="9" t="s">
-        <v>427</v>
+      <c r="F200" s="9"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="9"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C202" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="9"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="9"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="E204" s="15"/>
+      <c r="F204" s="9"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D210" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="E210" s="15"/>
+      <c r="F210" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C211" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C212" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C213" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C214" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C215" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C216" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D216" s="15"/>
+      <c r="E216" s="15"/>
+      <c r="F216" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C217" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C218" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D218" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="E218" s="15"/>
+      <c r="F218" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15"/>
+      <c r="F219" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C220" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15"/>
+      <c r="F221" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C222" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C223" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C224" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D224" s="15"/>
+      <c r="E224" s="15"/>
+      <c r="F224" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C226" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D226" s="15"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C227" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15"/>
+      <c r="F227" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C228" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D228" s="15"/>
+      <c r="E228" s="15"/>
+      <c r="F228" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C229" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D229" s="15"/>
+      <c r="E229" s="15"/>
+      <c r="F229" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C230" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D230" s="15"/>
+      <c r="E230" s="15"/>
+      <c r="F230" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C231" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15"/>
+      <c r="F231" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C232" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C233" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15"/>
+      <c r="F233" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C234" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D234" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="E234" s="15"/>
+      <c r="F234" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C235" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C236" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D236" s="15"/>
+      <c r="E236" s="15"/>
+      <c r="F236" s="9" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:F196" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:F236" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5187,18 +5982,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5208,7 +6003,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B7" s="32" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
@@ -5217,7 +6012,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B8" s="32" t="str">
         <f ca="1">MID(CELL("filename",B8),FIND("[",CELL("filename",B8)),(FIND("]",CELL("filename",B8))-FIND("[",CELL("filename",B8)))+1)</f>
@@ -5226,7 +6021,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B9" s="33" t="str">
         <f ca="1">MID(CELL("filename",B9),FIND("]",CELL("filename",B9))+1,LEN(CELL("filename",B9))-FIND("]",CELL("filename",B9)))</f>
@@ -5235,36 +6030,36 @@
     </row>
     <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B16" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C16" s="36" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
@@ -5273,10 +6068,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B17" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C17" s="37" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B212DF0C-D6E6-4516-B3DF-F6646C0EBE02}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0516C563-430D-407A-9BC6-793F4BDD5655}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8400" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$F$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$F$237</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="521">
   <si>
     <t>nt_total</t>
   </si>
@@ -1357,9 +1357,6 @@
     <t>pt_habit_swim</t>
   </si>
   <si>
-    <t>Range is 0 to 1.</t>
-  </si>
-  <si>
     <t>nt_longlived</t>
   </si>
   <si>
@@ -1649,6 +1646,18 @@
   </si>
   <si>
     <t>percent of taxa - tolerance value - stol ≥ 8</t>
+  </si>
+  <si>
+    <t>Range is 0 to 100.</t>
+  </si>
+  <si>
+    <t>pi_Baet</t>
+  </si>
+  <si>
+    <t>percent individuals - Family Baetidae</t>
+  </si>
+  <si>
+    <t>Faimly</t>
   </si>
 </sst>
 </file>
@@ -2318,13 +2327,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,13 +2370,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A236)</f>
-        <v>231</v>
+        <f>SUBTOTAL(3,A6:A237)</f>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>133</v>
@@ -2628,7 +2637,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>339</v>
@@ -2711,10 +2720,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>340</v>
@@ -2725,10 +2734,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>339</v>
@@ -2781,10 +2790,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>339</v>
@@ -2851,10 +2860,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>339</v>
@@ -2865,10 +2874,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>343</v>
@@ -2889,528 +2898,528 @@
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="7" t="s">
-        <v>420</v>
+      <c r="F41" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>179</v>
+      <c r="A42" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>519</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
-      <c r="F42" s="7" t="s">
-        <v>420</v>
+      <c r="F42" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
-      <c r="F43" s="7" t="s">
-        <v>420</v>
+      <c r="F43" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>180</v>
+        <v>11</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
-      <c r="F44" s="7" t="s">
-        <v>420</v>
+      <c r="F44" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>181</v>
+        <v>12</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="7" t="s">
-        <v>420</v>
+      <c r="F45" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>485</v>
+        <v>13</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>472</v>
+        <v>342</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
-      <c r="F46" s="7" t="s">
-        <v>420</v>
+      <c r="F46" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="7" t="s">
-        <v>420</v>
+      <c r="F47" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>183</v>
+        <v>439</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>485</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>339</v>
+        <v>472</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
-      <c r="F48" s="7" t="s">
-        <v>420</v>
+      <c r="F48" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>182</v>
+        <v>14</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>339</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
-      <c r="F49" s="7" t="s">
-        <v>420</v>
+      <c r="F49" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>339</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
-      <c r="F50" s="7" t="s">
-        <v>420</v>
+      <c r="F50" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>441</v>
+        <v>16</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>487</v>
+        <v>184</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>474</v>
+        <v>339</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
-      <c r="F51" s="7" t="s">
-        <v>420</v>
+      <c r="F51" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="7" t="s">
-        <v>420</v>
+      <c r="F52" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>483</v>
+        <v>441</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>487</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="7" t="s">
-        <v>420</v>
+      <c r="F53" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>185</v>
+        <v>482</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
+      <c r="A55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
       <c r="F55" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="7" t="s">
-        <v>420</v>
+      <c r="F56" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>475</v>
+        <v>339</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>186</v>
+        <v>445</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>491</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>340</v>
+        <v>474</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
-      <c r="F59" s="7" t="s">
-        <v>420</v>
+      <c r="F59" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>339</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
-      <c r="F63" s="7" t="s">
-        <v>420</v>
+      <c r="F63" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>493</v>
+        <v>23</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>474</v>
+        <v>339</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>223</v>
+        <v>447</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>493</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
-      <c r="F66" s="7" t="s">
-        <v>420</v>
+      <c r="F66" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>495</v>
+        <v>47</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>224</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C69" s="16" t="s">
+      <c r="A69" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C69" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
       <c r="F69" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>339</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="7" t="s">
-        <v>420</v>
+      <c r="F70" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>496</v>
+        <v>49</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>339</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="7" t="s">
-        <v>420</v>
+      <c r="F71" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>484</v>
+        <v>449</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>339</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
-      <c r="F72" s="7" t="s">
-        <v>420</v>
+      <c r="F72" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>227</v>
+        <v>483</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="7" t="s">
-        <v>420</v>
+      <c r="F73" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>497</v>
+        <v>51</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>340</v>
@@ -3418,15 +3427,15 @@
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>228</v>
+        <v>450</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>496</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>340</v>
@@ -3434,15 +3443,15 @@
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>498</v>
+        <v>52</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>340</v>
@@ -3450,63 +3459,63 @@
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>339</v>
@@ -3514,15 +3523,15 @@
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>339</v>
@@ -3530,29 +3539,31 @@
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>205</v>
+        <v>456</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>502</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="9"/>
+      <c r="F82" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>343</v>
@@ -3563,26 +3574,24 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>343</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
-      <c r="F84" s="9" t="s">
-        <v>420</v>
-      </c>
+      <c r="F84" s="9"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>504</v>
+        <v>41</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>343</v>
@@ -3590,203 +3599,201 @@
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>209</v>
+        <v>457</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>503</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
+        <v>343</v>
+      </c>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
       <c r="F86" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>505</v>
+        <v>42</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
+        <v>344</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
       <c r="F87" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>342</v>
+        <v>475</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>363</v>
+        <v>459</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
-      <c r="F89" s="7"/>
+      <c r="F89" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>363</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
-      <c r="F90" s="7" t="s">
-        <v>420</v>
-      </c>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>355</v>
+        <v>44</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="C91" s="21" t="s">
         <v>363</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
-      <c r="F91" s="7" t="s">
-        <v>420</v>
+      <c r="F91" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
-      <c r="F92" s="7"/>
+      <c r="F92" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C93" s="21" t="s">
         <v>365</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="7" t="s">
-        <v>420</v>
-      </c>
+      <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>352</v>
+        <v>135</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>351</v>
       </c>
       <c r="C94" s="21" t="s">
         <v>365</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="7" t="s">
-        <v>420</v>
+      <c r="F94" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="7" t="s">
-        <v>420</v>
+      <c r="F95" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="9"/>
+      <c r="F96" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>367</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="D97" s="16"/>
       <c r="E97" s="16"/>
-      <c r="F97" s="9" t="s">
-        <v>420</v>
-      </c>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C98" s="21" t="s">
         <v>382</v>
@@ -3796,112 +3803,116 @@
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="D99" s="16"/>
+        <v>382</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>367</v>
+      </c>
       <c r="E99" s="16"/>
-      <c r="F99" s="9"/>
+      <c r="F99" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="D100" s="16" t="s">
-        <v>367</v>
-      </c>
+      <c r="D100" s="16"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="9" t="s">
-        <v>420</v>
-      </c>
+      <c r="F100" s="9"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C101" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="D101" s="16"/>
+      <c r="D101" s="16" t="s">
+        <v>367</v>
+      </c>
       <c r="E101" s="16"/>
       <c r="F101" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>208</v>
+        <v>362</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
       <c r="F102" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>507</v>
+        <v>144</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>474</v>
+        <v>359</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
       <c r="F103" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>423</v>
+        <v>460</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>506</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
-      <c r="F104" s="9"/>
+      <c r="F104" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="C105" s="21" t="s">
         <v>424</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>426</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -3909,56 +3920,54 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
-      <c r="F106" s="7"/>
+      <c r="F106" s="9"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>145</v>
+      <c r="A107" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>210</v>
+        <v>427</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>246</v>
+        <v>428</v>
       </c>
       <c r="D107" s="16"/>
-      <c r="E107" s="16" t="s">
-        <v>367</v>
-      </c>
+      <c r="E107" s="16"/>
       <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>211</v>
+        <v>145</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15" t="s">
+      <c r="D108" s="16"/>
+      <c r="E108" s="16" t="s">
         <v>367</v>
       </c>
       <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>147</v>
+      <c r="A109" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C109" s="21" t="s">
         <v>246</v>
@@ -3970,11 +3979,11 @@
       <c r="F109" s="7"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>148</v>
+      <c r="A110" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C110" s="21" t="s">
         <v>246</v>
@@ -3986,11 +3995,11 @@
       <c r="F110" s="7"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>149</v>
+      <c r="A111" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C111" s="21" t="s">
         <v>246</v>
@@ -3999,16 +4008,14 @@
       <c r="E111" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="F111" s="9" t="s">
-        <v>420</v>
-      </c>
+      <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>150</v>
+      <c r="A112" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C112" s="21" t="s">
         <v>246</v>
@@ -4018,15 +4025,15 @@
         <v>367</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C113" s="21" t="s">
         <v>246</v>
@@ -4036,15 +4043,15 @@
         <v>367</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>152</v>
+      <c r="A114" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C114" s="21" t="s">
         <v>246</v>
@@ -4054,15 +4061,15 @@
         <v>367</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>153</v>
+      <c r="A115" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C115" s="21" t="s">
         <v>246</v>
@@ -4072,15 +4079,15 @@
         <v>367</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>154</v>
+      <c r="A116" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C116" s="21" t="s">
         <v>246</v>
@@ -4090,15 +4097,15 @@
         <v>367</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
-        <v>155</v>
+      <c r="A117" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C117" s="21" t="s">
         <v>246</v>
@@ -4108,15 +4115,15 @@
         <v>367</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>222</v>
+        <v>155</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="C118" s="21" t="s">
         <v>246</v>
@@ -4126,29 +4133,33 @@
         <v>367</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B120" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="C119" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="9"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="C120" s="21" t="s">
         <v>247</v>
@@ -4158,59 +4169,57 @@
       <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>510</v>
+      <c r="A121" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="C121" s="21" t="s">
         <v>247</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
-      <c r="F121" s="7" t="s">
-        <v>420</v>
-      </c>
+      <c r="F121" s="9"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C122" s="21" t="s">
         <v>247</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
-      <c r="F122" s="7" t="s">
-        <v>420</v>
+      <c r="F122" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C123" s="21" t="s">
         <v>247</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
-      <c r="F123" s="7" t="s">
-        <v>420</v>
+      <c r="F123" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C124" s="21" t="s">
         <v>247</v>
@@ -4218,29 +4227,31 @@
       <c r="D124" s="15"/>
       <c r="E124" s="15"/>
       <c r="F124" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C125" s="21" t="s">
         <v>247</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
-      <c r="F125" s="9"/>
+      <c r="F125" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C126" s="21" t="s">
         <v>247</v>
@@ -4251,26 +4262,24 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C127" s="21" t="s">
         <v>247</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
-      <c r="F127" s="9" t="s">
-        <v>420</v>
-      </c>
+      <c r="F127" s="9"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C128" s="21" t="s">
         <v>247</v>
@@ -4278,15 +4287,15 @@
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C129" s="21" t="s">
         <v>247</v>
@@ -4294,61 +4303,63 @@
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="C130" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C130" s="21" t="s">
         <v>247</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
       <c r="F130" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>432</v>
+        <v>470</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>55</v>
+        <v>429</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>248</v>
+        <v>431</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
-      <c r="F132" s="9"/>
+      <c r="F132" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>248</v>
@@ -4359,10 +4370,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>248</v>
@@ -4373,10 +4384,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>248</v>
@@ -4387,10 +4398,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>248</v>
@@ -4401,26 +4412,24 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
-      <c r="F137" s="9" t="s">
-        <v>420</v>
-      </c>
+      <c r="F137" s="9"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>248</v>
@@ -4428,15 +4437,15 @@
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
       <c r="F138" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>248</v>
@@ -4444,143 +4453,145 @@
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
       <c r="F139" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
-      <c r="F140" s="7" t="s">
-        <v>420</v>
+      <c r="F140" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
-      <c r="F141" s="7" t="s">
-        <v>420</v>
+      <c r="F141" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>261</v>
+      <c r="A142" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
-      <c r="F142" s="7" t="s">
-        <v>420</v>
+      <c r="F142" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
-        <v>66</v>
+      <c r="A143" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
-      <c r="F143" s="7" t="s">
-        <v>420</v>
+      <c r="F143" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
-      <c r="F144" s="7" t="s">
-        <v>420</v>
+      <c r="F144" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
-      <c r="F145" s="7" t="s">
-        <v>420</v>
+      <c r="F145" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>265</v>
+        <v>68</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>264</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
-      <c r="F146" s="7" t="s">
-        <v>420</v>
+      <c r="F146" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>231</v>
+        <v>69</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
-      <c r="F147" s="7"/>
+      <c r="F147" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C148" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C148" s="16" t="s">
         <v>249</v>
       </c>
       <c r="D148" s="15"/>
@@ -4589,24 +4600,24 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C149" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
-      <c r="F149" s="11"/>
+      <c r="F149" s="7"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>232</v>
+        <v>412</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="C150" s="21" t="s">
         <v>249</v>
@@ -4617,242 +4628,240 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>413</v>
+        <v>71</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C151" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D151" s="16"/>
+      <c r="D151" s="15"/>
       <c r="E151" s="15"/>
       <c r="F151" s="11"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>72</v>
+        <v>413</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C152" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D152" s="15"/>
+      <c r="D152" s="16"/>
       <c r="E152" s="15"/>
-      <c r="F152" s="11" t="s">
-        <v>420</v>
-      </c>
+      <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>414</v>
+        <v>72</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C153" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D153" s="16"/>
+      <c r="D153" s="15"/>
       <c r="E153" s="15"/>
-      <c r="F153" s="12" t="s">
-        <v>420</v>
+      <c r="F153" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C154" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D154" s="15"/>
+      <c r="D154" s="16"/>
       <c r="E154" s="15"/>
-      <c r="F154" s="12" t="s">
-        <v>420</v>
+      <c r="F154" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>73</v>
+        <v>415</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C155" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
-      <c r="F155" s="12" t="s">
-        <v>420</v>
+      <c r="F155" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>416</v>
+        <v>73</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C156" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
-      <c r="F156" s="12" t="s">
-        <v>420</v>
+      <c r="F156" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>74</v>
+        <v>416</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C157" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
-      <c r="F157" s="12" t="s">
-        <v>420</v>
+      <c r="F157" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>417</v>
+        <v>74</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C158" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
-      <c r="F158" s="12" t="s">
-        <v>420</v>
+      <c r="F158" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C159" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="7" t="s">
-        <v>420</v>
+      <c r="F159" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C160" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
-      <c r="F160" s="7" t="s">
-        <v>420</v>
+      <c r="F160" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C161" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
-      <c r="F161" s="7" t="s">
-        <v>420</v>
+      <c r="F161" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
-      <c r="F162" s="12"/>
+      <c r="F162" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>267</v>
+        <v>76</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="C163" s="21" t="s">
         <v>250</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
-      <c r="F163" s="11"/>
+      <c r="F163" s="12"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C164" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D164" s="16"/>
+      <c r="D164" s="15"/>
       <c r="E164" s="15"/>
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>269</v>
+        <v>78</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>268</v>
       </c>
       <c r="C165" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D165" s="15"/>
+      <c r="D165" s="16"/>
       <c r="E165" s="15"/>
-      <c r="F165" s="9" t="s">
-        <v>420</v>
-      </c>
+      <c r="F165" s="11"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C166" s="21" t="s">
         <v>250</v>
@@ -4860,15 +4869,15 @@
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>271</v>
+        <v>80</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="C167" s="21" t="s">
         <v>250</v>
@@ -4876,15 +4885,15 @@
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C168" s="21" t="s">
         <v>250</v>
@@ -4892,15 +4901,15 @@
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C169" s="21" t="s">
         <v>250</v>
@@ -4908,63 +4917,63 @@
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
       <c r="F169" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C170" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D170" s="16"/>
+      <c r="D170" s="15"/>
       <c r="E170" s="15"/>
       <c r="F170" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="D171" s="15"/>
+        <v>250</v>
+      </c>
+      <c r="D171" s="16"/>
       <c r="E171" s="15"/>
       <c r="F171" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>379</v>
@@ -4972,15 +4981,15 @@
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C174" s="21" t="s">
         <v>379</v>
@@ -4988,15 +4997,15 @@
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
       <c r="F174" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C175" s="21" t="s">
         <v>379</v>
@@ -5004,15 +5013,15 @@
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C176" s="21" t="s">
         <v>379</v>
@@ -5020,15 +5029,15 @@
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C177" s="21" t="s">
         <v>379</v>
@@ -5036,47 +5045,47 @@
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C178" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="D178" s="16"/>
+      <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C179" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="D179" s="15"/>
+      <c r="D179" s="16"/>
       <c r="E179" s="15"/>
       <c r="F179" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>283</v>
+        <v>164</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="C180" s="21" t="s">
         <v>379</v>
@@ -5084,32 +5093,34 @@
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
       <c r="F180" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>284</v>
+        <v>165</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
-      <c r="F181" s="9"/>
+      <c r="F181" s="9" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>247</v>
+        <v>349</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -5117,13 +5128,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>376</v>
+        <v>87</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>349</v>
+        <v>247</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -5131,10 +5142,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C184" s="21" t="s">
         <v>349</v>
@@ -5145,10 +5156,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C185" s="21" t="s">
         <v>349</v>
@@ -5159,13 +5170,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>286</v>
+        <v>378</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -5173,13 +5184,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -5187,13 +5198,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -5201,10 +5212,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C189" s="21" t="s">
         <v>347</v>
@@ -5215,10 +5226,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="C190" s="21" t="s">
         <v>347</v>
@@ -5229,84 +5240,84 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C191" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D191" s="15" t="s">
-        <v>367</v>
-      </c>
+      <c r="D191" s="15"/>
       <c r="E191" s="15"/>
       <c r="F191" s="9"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C192" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D192" s="15"/>
+      <c r="D192" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="E192" s="15"/>
       <c r="F192" s="9"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C193" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D193" s="15" t="s">
-        <v>367</v>
-      </c>
+      <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="9"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C194" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D194" s="16"/>
+      <c r="D194" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="E194" s="15"/>
       <c r="F194" s="9"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C195" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D195" s="15"/>
+      <c r="D195" s="16"/>
       <c r="E195" s="15"/>
       <c r="F195" s="9"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>296</v>
+        <v>98</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="C196" s="21" t="s">
         <v>347</v>
@@ -5317,10 +5328,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C197" s="21" t="s">
         <v>347</v>
@@ -5331,10 +5342,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C198" s="21" t="s">
         <v>347</v>
@@ -5345,10 +5356,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C199" s="21" t="s">
         <v>347</v>
@@ -5359,10 +5370,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C200" s="21" t="s">
         <v>347</v>
@@ -5373,10 +5384,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C201" s="21" t="s">
         <v>347</v>
@@ -5387,10 +5398,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C202" s="21" t="s">
         <v>347</v>
@@ -5401,13 +5412,13 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -5415,42 +5426,40 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C204" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="D204" s="15" t="s">
-        <v>367</v>
-      </c>
+      <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="9"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="D205" s="15"/>
+        <v>348</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="E205" s="15"/>
-      <c r="F205" s="9" t="s">
-        <v>420</v>
-      </c>
+      <c r="F205" s="9"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C206" s="21" t="s">
         <v>347</v>
@@ -5458,15 +5467,15 @@
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
       <c r="F206" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C207" s="21" t="s">
         <v>347</v>
@@ -5474,15 +5483,15 @@
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
       <c r="F207" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C208" s="21" t="s">
         <v>347</v>
@@ -5490,15 +5499,15 @@
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
       <c r="F208" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C209" s="21" t="s">
         <v>347</v>
@@ -5506,49 +5515,49 @@
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
       <c r="F209" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C210" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D210" s="15" t="s">
-        <v>367</v>
-      </c>
+      <c r="D210" s="15"/>
       <c r="E210" s="15"/>
       <c r="F210" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C211" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D211" s="15"/>
+      <c r="D211" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="E211" s="15"/>
       <c r="F211" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C212" s="21" t="s">
         <v>347</v>
@@ -5556,15 +5565,15 @@
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
       <c r="F212" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C213" s="21" t="s">
         <v>347</v>
@@ -5572,15 +5581,15 @@
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
       <c r="F213" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C214" s="21" t="s">
         <v>347</v>
@@ -5588,15 +5597,15 @@
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
       <c r="F214" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C215" s="21" t="s">
         <v>347</v>
@@ -5604,15 +5613,15 @@
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
       <c r="F215" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>347</v>
@@ -5620,15 +5629,15 @@
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
       <c r="F216" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>347</v>
@@ -5636,81 +5645,81 @@
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
       <c r="F217" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D218" s="15" t="s">
-        <v>367</v>
-      </c>
+      <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D219" s="15"/>
+      <c r="D219" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="E219" s="15"/>
       <c r="F219" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C222" s="21" t="s">
         <v>347</v>
@@ -5718,15 +5727,15 @@
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
       <c r="F222" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C223" s="21" t="s">
         <v>347</v>
@@ -5734,15 +5743,15 @@
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
       <c r="F223" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>347</v>
@@ -5750,15 +5759,15 @@
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
       <c r="F224" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>347</v>
@@ -5766,15 +5775,15 @@
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
       <c r="F225" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>347</v>
@@ -5782,15 +5791,15 @@
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
       <c r="F226" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>347</v>
@@ -5798,15 +5807,15 @@
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
       <c r="F227" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>347</v>
@@ -5814,15 +5823,15 @@
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
       <c r="F228" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>347</v>
@@ -5830,15 +5839,15 @@
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
       <c r="F229" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>347</v>
@@ -5846,15 +5855,15 @@
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
       <c r="F230" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>347</v>
@@ -5862,15 +5871,15 @@
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
       <c r="F231" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>347</v>
@@ -5878,15 +5887,15 @@
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
       <c r="F232" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>347</v>
@@ -5894,61 +5903,77 @@
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
       <c r="F233" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D234" s="15" t="s">
-        <v>367</v>
-      </c>
+      <c r="D234" s="15"/>
       <c r="E234" s="15"/>
       <c r="F234" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D235" s="15"/>
+      <c r="D235" s="15" t="s">
+        <v>367</v>
+      </c>
       <c r="E235" s="15"/>
       <c r="F235" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
       <c r="F236" s="9" t="s">
-        <v>420</v>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C237" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15"/>
+      <c r="F237" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:F236" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:F237" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0516C563-430D-407A-9BC6-793F4BDD5655}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8400" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="520">
   <si>
     <t>nt_total</t>
   </si>
@@ -631,45 +631,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>percent individuals - Order Amphipoda</t>
-  </si>
-  <si>
-    <t>percent individuals - Class Bivalvia</t>
-  </si>
-  <si>
-    <t>percent individuals - Order Coleoptera</t>
-  </si>
-  <si>
-    <t>percent individuals - Genus Corbicula</t>
-  </si>
-  <si>
-    <t>percent individuals - Order Diptera</t>
-  </si>
-  <si>
-    <t>percent individuals - Order Decapoda</t>
-  </si>
-  <si>
-    <t>percent individuals - Order Ephemeroptera</t>
-  </si>
-  <si>
-    <t>percent individuals - Class Gastropoda</t>
-  </si>
-  <si>
-    <t>percent individuals - Class not Insecta</t>
-  </si>
-  <si>
-    <t>percent individuals - Order Odonata</t>
-  </si>
-  <si>
-    <t>percent individuals - Class Oligochaeta</t>
-  </si>
-  <si>
-    <t>percent individuals - Order Plecoptera</t>
-  </si>
-  <si>
-    <t>percent individuals - Order Trichoptera</t>
-  </si>
-  <si>
     <t>number of taxa - total</t>
   </si>
   <si>
@@ -718,15 +679,6 @@
     <t>number of taxa - Family Chironomidae</t>
   </si>
   <si>
-    <t>percent individuals - Family Chironomidae</t>
-  </si>
-  <si>
-    <t>percent individuals - Family Simuliidae and Genus Baetis tricaudatus complex</t>
-  </si>
-  <si>
-    <t>percent individuals - Tribe Tanytarsini</t>
-  </si>
-  <si>
     <t>number of taxa - thermal indicator - cold</t>
   </si>
   <si>
@@ -742,51 +694,6 @@
     <t>number of taxa - thermal indicator - warm</t>
   </si>
   <si>
-    <t>percent individuals - thermal indicator - cold</t>
-  </si>
-  <si>
-    <t>percent individuals - thermal indicator - cold/cool</t>
-  </si>
-  <si>
-    <t>percent individuals - thermal indicator - cool/warm</t>
-  </si>
-  <si>
-    <t>percent individuals - thermal indicator - warm</t>
-  </si>
-  <si>
-    <t>percent taxa - thermal indicator - cold</t>
-  </si>
-  <si>
-    <t>percent taxa - thermal indicator - cold/cool</t>
-  </si>
-  <si>
-    <t>percent taxa - thermal indicator - cool/warm</t>
-  </si>
-  <si>
-    <t>percent taxa - thermal indicator - warm</t>
-  </si>
-  <si>
-    <t>percent taxa - Order Amphipoda</t>
-  </si>
-  <si>
-    <t>percent taxa - Class Bivalvia</t>
-  </si>
-  <si>
-    <t>percent taxa - Order Decapoda</t>
-  </si>
-  <si>
-    <t>percent taxa - Order Diptera</t>
-  </si>
-  <si>
-    <t>percent taxa - Class Gastropoda</t>
-  </si>
-  <si>
-    <t>percent taxa - Class Isopoda</t>
-  </si>
-  <si>
-    <t>percent individuals - Family Caenidae</t>
-  </si>
-  <si>
     <t>BCG model</t>
   </si>
   <si>
@@ -805,36 +712,6 @@
     <t>number of taxa - Habit - swimmers (SW)</t>
   </si>
   <si>
-    <t>percent individuals - Habit - burrowers (BU)</t>
-  </si>
-  <si>
-    <t>percent individuals - Habit - climbers (CB)</t>
-  </si>
-  <si>
-    <t>percent individuals - Habit - clingers (CN)</t>
-  </si>
-  <si>
-    <t>percent individuals - Habit - sprawlers (SP)</t>
-  </si>
-  <si>
-    <t>percent individuals - Habit - swimmers (SW)</t>
-  </si>
-  <si>
-    <t>percent taxa - Habit - burrowers (BU)</t>
-  </si>
-  <si>
-    <t>percent taxa - Habit - climbers (CB)</t>
-  </si>
-  <si>
-    <t>percent taxa - Habit - clingers (CN)</t>
-  </si>
-  <si>
-    <t>percent taxa - Habit - sprawlers (SP)</t>
-  </si>
-  <si>
-    <t>percent taxa - Habit - swimmers (SW)</t>
-  </si>
-  <si>
     <t>Thermal_Indicator</t>
   </si>
   <si>
@@ -865,36 +742,6 @@
     <t>number of taxa - Functional Feeding Group (FFG) - shredder (SH)</t>
   </si>
   <si>
-    <t>percent individuals - Functional Feeding Group (FFG) - collector-gatherer (CG)</t>
-  </si>
-  <si>
-    <t>percent individuals - Functional Feeding Group (FFG) - collector-filterer (CF)</t>
-  </si>
-  <si>
-    <t>percent individuals - Functional Feeding Group (FFG) - predator (PR)</t>
-  </si>
-  <si>
-    <t>percent individuals - Functional Feeding Group (FFG) - scraper (SC)</t>
-  </si>
-  <si>
-    <t>percent individuals - Functional Feeding Group (FFG) - shredder (SH)</t>
-  </si>
-  <si>
-    <t>percent taxa - Functional Feeding Group (FFG) - collector-gatherer (CG)</t>
-  </si>
-  <si>
-    <t>percent taxa - Functional Feeding Group (FFG) - collector-filterer (CF)</t>
-  </si>
-  <si>
-    <t>percent taxa - Functional Feeding Group (FFG) - predator (PR)</t>
-  </si>
-  <si>
-    <t>percent taxa - Functional Feeding Group (FFG) - scraper (SC)</t>
-  </si>
-  <si>
-    <t>percent taxa - Functional Feeding Group (FFG) - shredder (SH)</t>
-  </si>
-  <si>
     <t>number of taxa - multivoltine (MULTI)</t>
   </si>
   <si>
@@ -904,51 +751,6 @@
     <t>number of taxa - univoltine (UNI)</t>
   </si>
   <si>
-    <t>percent individuals - multivoltine (MULTI)</t>
-  </si>
-  <si>
-    <t>percent individuals - semivoltine (SEMI)</t>
-  </si>
-  <si>
-    <t>percent individuals - univoltine (UNI)</t>
-  </si>
-  <si>
-    <t>percent taxa - multivoltine (MULTI)</t>
-  </si>
-  <si>
-    <t>percent taxa - semivoltine (SEMI)</t>
-  </si>
-  <si>
-    <t>percent taxa - univoltine (UNI)</t>
-  </si>
-  <si>
-    <t>percent individuals - two most dominant taxa</t>
-  </si>
-  <si>
-    <t>percent individuals - three most dominant taxa</t>
-  </si>
-  <si>
-    <t>percent individuals - four most dominant taxa</t>
-  </si>
-  <si>
-    <t>percent individuals - five most dominant taxa</t>
-  </si>
-  <si>
-    <t>percent individuals - six most dominant taxa</t>
-  </si>
-  <si>
-    <t>percent individuals - seven most dominant taxa</t>
-  </si>
-  <si>
-    <t>percent individuals - eight most dominant taxa</t>
-  </si>
-  <si>
-    <t>percent individuals - nine most dominant taxa</t>
-  </si>
-  <si>
-    <t>percent individuals - ten most dominant taxa</t>
-  </si>
-  <si>
     <t>Becks Biotic Index</t>
   </si>
   <si>
@@ -1012,102 +814,6 @@
     <t>number of taxa - EPT BCG Attribute Ii + II + III</t>
   </si>
   <si>
-    <t>percent individuals - intolerant BCG Attribute I (Ii)</t>
-  </si>
-  <si>
-    <t>percent individuals - moderately tolerant BCG Attribute I (Ii)</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute I + II</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute Ii + II</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute I + II + III</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute Ii + II + III</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute II</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute II + III</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute II + III + IV</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute III</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute IV</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute IV + V</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute V</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute V + VI</t>
-  </si>
-  <si>
-    <t>percent individuals - BCG Attribute VI</t>
-  </si>
-  <si>
-    <t>percent individuals - EPT BCG Attribute I + II + III</t>
-  </si>
-  <si>
-    <t>percent taxa - intolerant BCG Attribute I (Ii)</t>
-  </si>
-  <si>
-    <t>percent taxa - moderately tolerant BCG Attribute I (Ii)</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute I + II</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute Ii + II</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute I + II + III</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute Ii + II + III</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute II</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute II + III</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute II + III + IV</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute III</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute IV</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute IV + V</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute V</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute V + VI</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute VI</t>
-  </si>
-  <si>
-    <t>percent taxa - EPT BCG Attribute I + II + III</t>
-  </si>
-  <si>
     <t>number of taxa - intolerant BCG Attribute I (Ii)</t>
   </si>
   <si>
@@ -1135,9 +841,6 @@
     <t>metric.values R script</t>
   </si>
   <si>
-    <t>percent individuals - most dominant taxon [max(N_TAXA)]</t>
-  </si>
-  <si>
     <t>BCG_Attr</t>
   </si>
   <si>
@@ -1150,48 +853,21 @@
     <t>number of taxa - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida, Order Decapoda &amp; Juga and Rissoidea ('clumpy' taxa)</t>
   </si>
   <si>
-    <t>percent individuals - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida, Order Decapoda &amp; Juga and Rissoidea ('clumpy' taxa)</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida, Order Decapoda &amp; Juga and Rissoidea ('clumpy' taxa)</t>
-  </si>
-  <si>
     <t>number of taxa - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida &amp; Order Decapoda</t>
   </si>
   <si>
-    <t>percent individuals - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida &amp; Order Decapoda</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida &amp; Order Decapoda</t>
-  </si>
-  <si>
     <t>number of taxa - BCG Attribute IV + V + VI, excluding Class Insecta</t>
   </si>
   <si>
-    <t>percent individuals - BCG Attribute IV + V + VI, excluding Class Insecta</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute IV + V + VI, excluding Class Insecta</t>
-  </si>
-  <si>
     <t>Family, TaxaID</t>
   </si>
   <si>
     <t>number of taxa - BCG Attribute IV + V + VI, excluding Class Insecta and Juga and Rissoidea ('clumpy' taxa)</t>
   </si>
   <si>
-    <t>percent individuals - BCG Attribute IV + V + VI, excluding Class Insecta and Juga and Rissoidea ('clumpy' taxa)</t>
-  </si>
-  <si>
-    <t>percent taxa - BCG Attribute IV + V + VI, excluding Class Insecta and Juga and Rissoidea ('clumpy' taxa)</t>
-  </si>
-  <si>
     <t>BCG_Attr, Class, Order</t>
   </si>
   <si>
-    <t>percent individuals - most dominant two taxa, excluding Juga and Rissoidea ('clumpy' taxa)</t>
-  </si>
-  <si>
     <t>BCG_Attr, Class, Order, Genus</t>
   </si>
   <si>
@@ -1387,9 +1063,6 @@
     <t>pi_tv2_intol</t>
   </si>
   <si>
-    <t>percent individuals - intolerant (tolerance value 2)</t>
-  </si>
-  <si>
     <t>TOLVAL2</t>
   </si>
   <si>
@@ -1543,121 +1216,445 @@
     <t>number of taxa - Family Tubificidae</t>
   </si>
   <si>
-    <t>percent individuals - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)</t>
-  </si>
-  <si>
-    <t>percent taxa - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)</t>
-  </si>
-  <si>
-    <t>percent individuals - SubPhylum Crustacea</t>
-  </si>
-  <si>
-    <t>percent of individuals - SubPhylum Crustacea and Phylum Mollusca</t>
-  </si>
-  <si>
-    <t>percent of individuals - Order Ephemeroptera and not Family Caenidae</t>
-  </si>
-  <si>
-    <t>percent of individuals - Order Ephemeroptera and not Family Caenidae or Baetidae</t>
-  </si>
-  <si>
-    <t>percent of individuals - Family Hydropsychidae</t>
-  </si>
-  <si>
-    <t>percent of individuals - Class Insecta</t>
-  </si>
-  <si>
-    <t>percent of individuals - Order Isoptera</t>
-  </si>
-  <si>
-    <t>percent of individuals - Phylum Mollusca</t>
-  </si>
-  <si>
-    <t>percent of individuals - Order Trichopter and not Family Hydropsychidae</t>
-  </si>
-  <si>
-    <t>percent of individuals - Family Tibuficidae</t>
-  </si>
-  <si>
-    <t>percent of taxa - Order Coleoptera</t>
-  </si>
-  <si>
-    <t>percent of taxa - Order Ephemeroptera</t>
-  </si>
-  <si>
-    <t>percent of taxa - Class Insecta</t>
-  </si>
-  <si>
-    <t>percent of taxa - not Class Insecta</t>
-  </si>
-  <si>
-    <t>percent of taxa - Order Odonata</t>
-  </si>
-  <si>
-    <t>percent of taxa - Class Oligochaeta</t>
-  </si>
-  <si>
-    <t>percent of taxa - Order Plecoptera</t>
-  </si>
-  <si>
-    <t>percent of taxa - Orders Plecoptera, Odonata, Ephemeroptera, and Trichoptera (POET)</t>
-  </si>
-  <si>
-    <t>percent of taxa - Trichoptera</t>
-  </si>
-  <si>
-    <t>percent of taxa - Family Chironomidae</t>
-  </si>
-  <si>
-    <t>percent of individuals - SubFamily Tanypodinae</t>
-  </si>
-  <si>
-    <t>percent of individuals - Genera Chironomus, Cricotopus, Cricotopus/Orthocladius, or Orthocladius of Family Chironomidae</t>
-  </si>
-  <si>
-    <t>percent of individuals - Order Coleoptera and not Family Hydrophilidae</t>
-  </si>
-  <si>
-    <t>percent of individuals - tolerance value - tolerant ≥ 7</t>
-  </si>
-  <si>
-    <t>percent of taxa - tolerance value - tolerant ≥ 7</t>
-  </si>
-  <si>
-    <t>percent of individuals - tolerance value - intolerant ≤ 3</t>
-  </si>
-  <si>
-    <t>percent of taxa - tolerance value - intolerant ≤ 3</t>
-  </si>
-  <si>
     <t>number of taxa - tolerance value - ntol &lt; 6</t>
   </si>
   <si>
-    <t>percent of individuals - tolerance value - ntol &lt; 6</t>
-  </si>
-  <si>
-    <t>percent of taxa - tolerance value - ntol &lt; 6</t>
-  </si>
-  <si>
     <t>number of taxa - tolerance value - stol ≥ 8</t>
   </si>
   <si>
-    <t>percent of individuals - tolerance value - stol ≥ 8</t>
-  </si>
-  <si>
-    <t>percent of taxa - tolerance value - stol ≥ 8</t>
-  </si>
-  <si>
-    <t>Range is 0 to 100.</t>
-  </si>
-  <si>
     <t>pi_Baet</t>
   </si>
   <si>
-    <t>percent individuals - Family Baetidae</t>
-  </si>
-  <si>
     <t>Faimly</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Order Amphipoda</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Family Baetidae</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Class Bivalvia</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Family Caenidae</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Order Coleoptera</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Genus Corbicula</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - SubPhylum Crustacea</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - SubPhylum Crustacea and Phylum Mollusca</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Order Decapoda</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Order Diptera</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Order Ephemeroptera</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Order Ephemeroptera and not Family Caenidae</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Order Ephemeroptera and not Family Caenidae or Baetidae</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Class Gastropoda</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Family Hydropsychidae</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Class Insecta</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Order Isoptera</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Phylum Mollusca</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Class not Insecta</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Order Odonata</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Class Oligochaeta</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Order Plecoptera</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Order Trichoptera</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Order Trichopter and not Family Hydropsychidae</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Family Tibuficidae</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Order Amphipoda</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Class Bivalvia</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - Order Coleoptera</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Order Decapoda</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Order Diptera</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - Order Ephemeroptera</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Class Gastropoda</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - Class Insecta</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Class Isopoda</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - not Class Insecta</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - Order Odonata</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - Class Oligochaeta</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - Order Plecoptera</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - Orders Plecoptera, Odonata, Ephemeroptera, and Trichoptera (POET)</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - Trichoptera</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Family Chironomidae</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - Family Chironomidae</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Tribe Tanytarsini</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - SubFamily Tanypodinae</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Genera Chironomus, Cricotopus, Cricotopus/Orthocladius, or Orthocladius of Family Chironomidae</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida &amp; Order Decapoda</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida &amp; Order Decapoda</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida, Order Decapoda &amp; Juga and Rissoidea ('clumpy' taxa)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida, Order Decapoda &amp; Juga and Rissoidea ('clumpy' taxa)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - most dominant two taxa, excluding Juga and Rissoidea ('clumpy' taxa)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute IV + V + VI, excluding Class Insecta</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute IV + V + VI, excluding Class Insecta</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute IV + V + VI, excluding Class Insecta and Juga and Rissoidea ('clumpy' taxa)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute IV + V + VI, excluding Class Insecta and Juga and Rissoidea ('clumpy' taxa)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Family Simuliidae and Genus Baetis tricaudatus complex</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Order Coleoptera and not Family Hydrophilidae</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - thermal indicator - cold</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - thermal indicator - cold/cool</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - thermal indicator - cool/warm</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - thermal indicator - warm</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - thermal indicator - cold</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - thermal indicator - cold/cool</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - thermal indicator - cool/warm</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - thermal indicator - warm</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - tolerance value - intolerant ≤ 3</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - tolerance value - tolerant ≥ 7</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - tolerance value - intolerant ≤ 3</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - tolerance value - tolerant ≥ 7</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - tolerance value - ntol &lt; 6</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - tolerance value - stol ≥ 8</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - tolerance value - ntol &lt; 6</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - tolerance value - stol ≥ 8</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - intolerant (tolerance value 2)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - collector-gatherer (CG)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - collector-filterer (CF)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - predator (PR)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - scraper (SC)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - shredder (SH)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - collector-gatherer (CG)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - collector-filterer (CF)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - predator (PR)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - scraper (SC)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - shredder (SH)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Habit - burrowers (BU)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Habit - climbers (CB)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Habit - clingers (CN)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Habit - sprawlers (SP)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Habit - swimmers (SW)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Habit - burrowers (BU)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Habit - climbers (CB)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Habit - clingers (CN)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Habit - sprawlers (SP)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Habit - swimmers (SW)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - multivoltine (MULTI)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - semivoltine (SEMI)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - univoltine (UNI)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - multivoltine (MULTI)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - semivoltine (SEMI)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - univoltine (UNI)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - most dominant taxon [max(N_TAXA)]</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - two most dominant taxa</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - three most dominant taxa</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - four most dominant taxa</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - five most dominant taxa</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - six most dominant taxa</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - seven most dominant taxa</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - eight most dominant taxa</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - nine most dominant taxa</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - ten most dominant taxa</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - intolerant BCG Attribute I (Ii)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - moderately tolerant BCG Attribute I (Ii)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute I + II</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute Ii + II</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute I + II + III</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute Ii + II + III</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute II</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute II + III</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute II + III + IV</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute III</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute IV</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute IV + V</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute V</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute V + VI</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute VI</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - EPT BCG Attribute I + II + III</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - intolerant BCG Attribute I (Ii)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - moderately tolerant BCG Attribute I (Ii)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute I + II</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute Ii + II</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute I + II + III</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute Ii + II + III</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute II</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute II + III</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute II + III + IV</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute III</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute IV</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute IV + V</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute V</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute V + VI</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute VI</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - EPT BCG Attribute I + II + III</t>
   </si>
 </sst>
 </file>
@@ -2330,10 +2327,10 @@
   <dimension ref="A1:F237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="F237" sqref="F41:F237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2356,7 +2353,7 @@
         <v>132</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>345</v>
+        <v>247</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -2376,16 +2373,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>432</v>
+        <v>323</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>133</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>176</v>
@@ -2399,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>380</v>
+        <v>272</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -2411,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>380</v>
+        <v>272</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -2423,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>380</v>
+        <v>272</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -2435,13 +2432,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>381</v>
+        <v>273</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="1"/>
@@ -2451,10 +2448,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>372</v>
+        <v>264</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2465,10 +2462,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>373</v>
+        <v>265</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -2479,15 +2476,15 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>374</v>
+        <v>266</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="9" t="s">
-        <v>369</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,10 +2492,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>375</v>
+        <v>267</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2509,13 +2506,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>368</v>
+        <v>260</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="9"/>
@@ -2525,10 +2522,10 @@
         <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -2539,10 +2536,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -2553,10 +2550,10 @@
         <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -2567,10 +2564,10 @@
         <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -2581,10 +2578,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -2595,10 +2592,10 @@
         <v>29</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -2609,10 +2606,10 @@
         <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -2620,13 +2617,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>410</v>
+        <v>302</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -2637,13 +2634,13 @@
         <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>479</v>
+        <v>370</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="9"/>
@@ -2653,10 +2650,10 @@
         <v>32</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -2664,13 +2661,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>409</v>
+        <v>301</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -2681,10 +2678,10 @@
         <v>33</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -2695,10 +2692,10 @@
         <v>34</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -2706,13 +2703,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>408</v>
+        <v>300</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -2720,13 +2717,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>433</v>
+        <v>324</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>476</v>
+        <v>367</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -2734,13 +2731,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>434</v>
+        <v>325</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>477</v>
+        <v>368</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -2751,10 +2748,10 @@
         <v>35</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -2762,13 +2759,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>407</v>
+        <v>299</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -2779,10 +2776,10 @@
         <v>36</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -2790,13 +2787,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>435</v>
+        <v>326</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -2807,10 +2804,10 @@
         <v>37</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -2818,13 +2815,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>406</v>
+        <v>298</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -2832,13 +2829,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>405</v>
+        <v>297</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -2849,10 +2846,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -2860,13 +2857,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>436</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>480</v>
+        <v>371</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -2874,13 +2871,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>437</v>
+        <v>328</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>481</v>
+        <v>372</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -2891,682 +2888,598 @@
         <v>9</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>178</v>
+        <v>377</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>518</v>
+        <v>375</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>519</v>
+        <v>378</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>520</v>
+        <v>376</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
-      <c r="F42" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>179</v>
+        <v>379</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
-      <c r="F43" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>229</v>
+        <v>380</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
-      <c r="F44" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>181</v>
+        <v>382</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
-      <c r="F46" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>438</v>
+        <v>329</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>484</v>
+        <v>383</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>471</v>
+        <v>362</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>439</v>
+        <v>330</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>485</v>
+        <v>384</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>472</v>
+        <v>363</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
-      <c r="F48" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>183</v>
+        <v>385</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
-      <c r="F49" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>182</v>
+        <v>386</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
-      <c r="F50" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>184</v>
+        <v>387</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
-      <c r="F51" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>440</v>
+        <v>331</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>486</v>
+        <v>388</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>473</v>
+        <v>364</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>441</v>
+        <v>332</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>487</v>
+        <v>389</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>473</v>
+        <v>364</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>482</v>
+        <v>390</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>185</v>
+        <v>391</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>442</v>
+        <v>333</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>443</v>
+        <v>334</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>489</v>
+        <v>393</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
-      <c r="F57" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>444</v>
+        <v>335</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>490</v>
+        <v>394</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
-      <c r="F58" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>445</v>
+        <v>336</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>491</v>
+        <v>395</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>474</v>
+        <v>365</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
-      <c r="F59" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>186</v>
+        <v>396</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
-      <c r="F60" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>187</v>
+        <v>397</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
-      <c r="F61" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>188</v>
+        <v>398</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
-      <c r="F62" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>189</v>
+        <v>399</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
-      <c r="F63" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
-      <c r="F64" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>446</v>
+        <v>337</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>492</v>
+        <v>401</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>473</v>
+        <v>364</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
-      <c r="F65" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>447</v>
+        <v>338</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>493</v>
+        <v>402</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
-      <c r="F66" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>223</v>
+        <v>403</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
-      <c r="F67" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>224</v>
+        <v>404</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
-      <c r="F68" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>448</v>
+        <v>339</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>494</v>
+        <v>405</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
-      <c r="F69" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>225</v>
+        <v>406</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>226</v>
+        <v>407</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>449</v>
+        <v>340</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
-      <c r="F72" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F72" s="9"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F73" s="9"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>227</v>
+        <v>410</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F74" s="9"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>450</v>
+        <v>341</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>496</v>
+        <v>411</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
-      <c r="F75" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F75" s="9"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>228</v>
+        <v>412</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F76" s="9"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>451</v>
+        <v>342</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>497</v>
+        <v>413</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
-      <c r="F77" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F77" s="9"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>452</v>
+        <v>343</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>498</v>
+        <v>414</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F78" s="9"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>453</v>
+        <v>344</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>499</v>
+        <v>415</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
-      <c r="F79" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>454</v>
+        <v>345</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>500</v>
+        <v>416</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F80" s="9"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>455</v>
+        <v>346</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>501</v>
+        <v>417</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F81" s="9"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>456</v>
+        <v>347</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>502</v>
+        <v>418</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F82" s="9"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -3577,10 +3490,10 @@
         <v>40</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -3591,90 +3504,80 @@
         <v>41</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>207</v>
+        <v>419</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
-      <c r="F85" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F85" s="9"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>457</v>
+        <v>348</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>503</v>
+        <v>420</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F86" s="9"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>209</v>
+        <v>421</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>458</v>
+        <v>349</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>504</v>
+        <v>422</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>475</v>
+        <v>366</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
-      <c r="F88" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F88" s="9"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>459</v>
+        <v>350</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>505</v>
+        <v>423</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
-      <c r="F89" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F89" s="9"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>353</v>
+        <v>252</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>363</v>
+        <v>256</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
@@ -3685,42 +3588,38 @@
         <v>44</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>363</v>
+        <v>256</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
-      <c r="F91" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>363</v>
+        <v>256</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
-      <c r="F92" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>365</v>
+        <v>257</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
@@ -3731,58 +3630,52 @@
         <v>135</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>351</v>
+        <v>426</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>365</v>
+        <v>257</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F94" s="9"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>352</v>
+        <v>427</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>365</v>
+        <v>257</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F95" s="9"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>364</v>
+        <v>428</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>366</v>
+        <v>258</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F96" s="9"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>356</v>
+        <v>253</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>363</v>
+        <v>256</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
@@ -3793,46 +3686,42 @@
         <v>139</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="E98" s="16"/>
-      <c r="F98" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F98" s="9"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>358</v>
+        <v>430</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="E99" s="16"/>
-      <c r="F99" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>365</v>
+        <v>257</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -3843,76 +3732,68 @@
         <v>142</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>365</v>
+        <v>257</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="E101" s="16"/>
-      <c r="F101" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F101" s="9"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>365</v>
+        <v>257</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F102" s="9"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>208</v>
+        <v>433</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>359</v>
+        <v>254</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
-      <c r="F103" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F103" s="9"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>460</v>
+        <v>351</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>473</v>
+        <v>364</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
-      <c r="F104" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F104" s="9"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>420</v>
+        <v>312</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>424</v>
+        <v>316</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -3920,13 +3801,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>421</v>
+        <v>313</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>423</v>
+        <v>315</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>425</v>
+        <v>317</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
@@ -3934,13 +3815,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>426</v>
+        <v>318</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>427</v>
+        <v>319</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>428</v>
+        <v>320</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
@@ -3951,14 +3832,14 @@
         <v>145</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="16" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="F108" s="7"/>
     </row>
@@ -3967,14 +3848,14 @@
         <v>146</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="F109" s="7"/>
     </row>
@@ -3983,14 +3864,14 @@
         <v>147</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="15" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="F110" s="7"/>
     </row>
@@ -3999,14 +3880,14 @@
         <v>148</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="F111" s="7"/>
     </row>
@@ -4015,154 +3896,138 @@
         <v>149</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>215</v>
+        <v>435</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>517</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>216</v>
+        <v>436</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>517</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>217</v>
+        <v>437</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>517</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>218</v>
+        <v>438</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D115" s="15"/>
       <c r="E115" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>517</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>153</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>219</v>
+        <v>439</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>517</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F116" s="9"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>517</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F117" s="9"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>155</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>517</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F118" s="9"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>517</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F119" s="9"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
@@ -4173,10 +4038,10 @@
         <v>54</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
@@ -4184,77 +4049,69 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>461</v>
+        <v>352</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
-      <c r="F122" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F122" s="9"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>462</v>
+        <v>353</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>507</v>
+        <v>444</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
-      <c r="F123" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>463</v>
+        <v>354</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>510</v>
+        <v>445</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="15"/>
-      <c r="F124" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F124" s="9"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>464</v>
+        <v>355</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
-      <c r="F125" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F125" s="9"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>465</v>
+        <v>356</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>511</v>
+        <v>373</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
@@ -4262,13 +4119,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>466</v>
+        <v>357</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>514</v>
+        <v>374</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
@@ -4276,93 +4133,83 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>467</v>
+        <v>358</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>512</v>
+        <v>447</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
-      <c r="F128" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F128" s="9"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>468</v>
+        <v>359</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
-      <c r="F129" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>469</v>
+        <v>360</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>513</v>
+        <v>449</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
-      <c r="F130" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F130" s="9"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>470</v>
+        <v>361</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
-      <c r="F131" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F131" s="9"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>429</v>
+        <v>321</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>431</v>
+        <v>322</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
-      <c r="F132" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F132" s="9"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
@@ -4373,10 +4220,10 @@
         <v>56</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
@@ -4387,10 +4234,10 @@
         <v>57</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
@@ -4401,10 +4248,10 @@
         <v>58</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
@@ -4415,10 +4262,10 @@
         <v>59</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
@@ -4429,170 +4276,150 @@
         <v>60</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>256</v>
+        <v>452</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
-      <c r="F138" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F138" s="9"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>257</v>
+        <v>453</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
-      <c r="F139" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F139" s="9"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>258</v>
+        <v>454</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
-      <c r="F140" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F140" s="9"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>259</v>
+        <v>455</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
-      <c r="F141" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F141" s="9"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>260</v>
+        <v>456</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
-      <c r="F142" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F142" s="9"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>261</v>
+        <v>457</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
-      <c r="F143" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F143" s="9"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>262</v>
+        <v>458</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
-      <c r="F144" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F144" s="9"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>263</v>
+        <v>459</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
-      <c r="F145" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F145" s="9"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>264</v>
+        <v>460</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
-      <c r="F146" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F146" s="9"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>265</v>
+        <v>461</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
-      <c r="F147" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F147" s="9"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
@@ -4600,13 +4427,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>411</v>
+        <v>303</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
@@ -4614,13 +4441,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>412</v>
+        <v>304</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -4631,10 +4458,10 @@
         <v>71</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
@@ -4642,13 +4469,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>413</v>
+        <v>305</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D152" s="16"/>
       <c r="E152" s="15"/>
@@ -4659,170 +4486,150 @@
         <v>72</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>236</v>
+        <v>462</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
-      <c r="F153" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F153" s="9"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>414</v>
+        <v>306</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>237</v>
+        <v>463</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D154" s="16"/>
       <c r="E154" s="15"/>
-      <c r="F154" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F154" s="9"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>415</v>
+        <v>307</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>238</v>
+        <v>464</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
-      <c r="F155" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F155" s="9"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>239</v>
+        <v>465</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
-      <c r="F156" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F156" s="9"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>416</v>
+        <v>308</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>240</v>
+        <v>466</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
-      <c r="F157" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F157" s="9"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>241</v>
+        <v>467</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
-      <c r="F158" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F158" s="9"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>417</v>
+        <v>309</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>242</v>
+        <v>468</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F159" s="9"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>418</v>
+        <v>310</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>243</v>
+        <v>469</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
-      <c r="F160" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F160" s="9"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>244</v>
+        <v>470</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
-      <c r="F161" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F161" s="9"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>419</v>
+        <v>311</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>245</v>
+        <v>471</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
-      <c r="F162" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F162" s="9"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
@@ -4833,10 +4640,10 @@
         <v>77</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
@@ -4847,10 +4654,10 @@
         <v>78</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D165" s="16"/>
       <c r="E165" s="15"/>
@@ -4861,266 +4668,234 @@
         <v>79</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>269</v>
+        <v>472</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
-      <c r="F166" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F166" s="9"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>270</v>
+        <v>473</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
-      <c r="F167" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F167" s="9"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>271</v>
+        <v>474</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
-      <c r="F168" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F168" s="9"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>272</v>
+        <v>475</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
-      <c r="F169" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F169" s="9"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>273</v>
+        <v>476</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
-      <c r="F170" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F170" s="9"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>274</v>
+        <v>477</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D171" s="16"/>
       <c r="E171" s="15"/>
-      <c r="F171" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F171" s="9"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>346</v>
+        <v>478</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>341</v>
+        <v>243</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
-      <c r="F172" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F172" s="9"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>275</v>
+        <v>479</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
-      <c r="F173" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F173" s="9"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>276</v>
+        <v>480</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
-      <c r="F174" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F174" s="9"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>277</v>
+        <v>481</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
-      <c r="F175" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F175" s="9"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>278</v>
+        <v>482</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
-      <c r="F176" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F176" s="9"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>279</v>
+        <v>483</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
-      <c r="F177" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F177" s="9"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>280</v>
+        <v>484</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
-      <c r="F178" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F178" s="9"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>281</v>
+        <v>485</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="D179" s="16"/>
       <c r="E179" s="15"/>
-      <c r="F179" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F179" s="9"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>282</v>
+        <v>486</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
-      <c r="F180" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F180" s="9"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>283</v>
+        <v>487</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
-      <c r="F181" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F181" s="9"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -5131,10 +4906,10 @@
         <v>87</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -5145,10 +4920,10 @@
         <v>88</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>376</v>
+        <v>268</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
@@ -5159,10 +4934,10 @@
         <v>89</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>377</v>
+        <v>269</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
@@ -5173,10 +4948,10 @@
         <v>90</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>378</v>
+        <v>270</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -5187,10 +4962,10 @@
         <v>91</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>341</v>
+        <v>243</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -5201,10 +4976,10 @@
         <v>92</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -5215,10 +4990,10 @@
         <v>166</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -5229,10 +5004,10 @@
         <v>167</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -5243,10 +5018,10 @@
         <v>93</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -5257,13 +5032,13 @@
         <v>94</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="E192" s="15"/>
       <c r="F192" s="9"/>
@@ -5273,10 +5048,10 @@
         <v>95</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -5287,13 +5062,13 @@
         <v>96</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="E194" s="15"/>
       <c r="F194" s="9"/>
@@ -5303,10 +5078,10 @@
         <v>97</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D195" s="16"/>
       <c r="E195" s="15"/>
@@ -5317,10 +5092,10 @@
         <v>98</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -5331,10 +5106,10 @@
         <v>99</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -5345,10 +5120,10 @@
         <v>168</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -5359,10 +5134,10 @@
         <v>100</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -5373,10 +5148,10 @@
         <v>101</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -5387,10 +5162,10 @@
         <v>102</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -5401,10 +5176,10 @@
         <v>103</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -5415,10 +5190,10 @@
         <v>104</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -5429,10 +5204,10 @@
         <v>105</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -5443,13 +5218,13 @@
         <v>106</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="E205" s="15"/>
       <c r="F205" s="9"/>
@@ -5459,518 +5234,454 @@
         <v>169</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>305</v>
+        <v>488</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
-      <c r="F206" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F206" s="9"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
-      <c r="F207" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F207" s="9"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>307</v>
+        <v>490</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
-      <c r="F208" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F208" s="9"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>308</v>
+        <v>491</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
-      <c r="F209" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F209" s="9"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>309</v>
+        <v>492</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
-      <c r="F210" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F210" s="9"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>310</v>
+        <v>493</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="E211" s="15"/>
-      <c r="F211" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F211" s="9"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>311</v>
+        <v>494</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
-      <c r="F212" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F212" s="9"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>312</v>
+        <v>495</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
-      <c r="F213" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F213" s="9"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>313</v>
+        <v>496</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
-      <c r="F214" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F214" s="9"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>314</v>
+        <v>497</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
-      <c r="F215" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F215" s="9"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>315</v>
+        <v>498</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
-      <c r="F216" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F216" s="9"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>316</v>
+        <v>499</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
-      <c r="F217" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F217" s="9"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>317</v>
+        <v>500</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
-      <c r="F218" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F218" s="9"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="E219" s="15"/>
-      <c r="F219" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F219" s="9"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>319</v>
+        <v>502</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
-      <c r="F220" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F220" s="9"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>320</v>
+        <v>503</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
-      <c r="F221" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F221" s="9"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
-      <c r="F222" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F222" s="9"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>322</v>
+        <v>505</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
-      <c r="F223" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F223" s="9"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>323</v>
+        <v>506</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
-      <c r="F224" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F224" s="9"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>324</v>
+        <v>507</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
-      <c r="F225" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F225" s="9"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>325</v>
+        <v>508</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
-      <c r="F226" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F226" s="9"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>326</v>
+        <v>509</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
-      <c r="F227" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F227" s="9"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>327</v>
+        <v>510</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
-      <c r="F228" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F228" s="9"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>328</v>
+        <v>511</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
-      <c r="F229" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F229" s="9"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>329</v>
+        <v>512</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
-      <c r="F230" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F230" s="9"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>330</v>
+        <v>513</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
-      <c r="F231" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F231" s="9"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>331</v>
+        <v>514</v>
       </c>
       <c r="C232" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
-      <c r="F232" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F232" s="9"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>332</v>
+        <v>515</v>
       </c>
       <c r="C233" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
-      <c r="F233" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F233" s="9"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>333</v>
+        <v>516</v>
       </c>
       <c r="C234" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
-      <c r="F234" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F234" s="9"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>334</v>
+        <v>517</v>
       </c>
       <c r="C235" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="E235" s="15"/>
-      <c r="F235" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F235" s="9"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>335</v>
+        <v>518</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
-      <c r="F236" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F236" s="9"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>336</v>
+        <v>519</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
-      <c r="F237" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="F237" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:F237" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -6007,18 +5718,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>383</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>384</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6028,7 +5739,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>385</v>
+        <v>277</v>
       </c>
       <c r="B7" s="32" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
@@ -6037,7 +5748,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>386</v>
+        <v>278</v>
       </c>
       <c r="B8" s="32" t="str">
         <f ca="1">MID(CELL("filename",B8),FIND("[",CELL("filename",B8)),(FIND("]",CELL("filename",B8))-FIND("[",CELL("filename",B8)))+1)</f>
@@ -6046,7 +5757,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>387</v>
+        <v>279</v>
       </c>
       <c r="B9" s="33" t="str">
         <f ca="1">MID(CELL("filename",B9),FIND("]",CELL("filename",B9))+1,LEN(CELL("filename",B9))-FIND("]",CELL("filename",B9)))</f>
@@ -6055,36 +5766,36 @@
     </row>
     <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
-        <v>388</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>389</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>283</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>286</v>
       </c>
       <c r="C16" s="36" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
@@ -6093,10 +5804,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
       <c r="C17" s="37" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CC852AE5-53EF-41AE-A501-B9FC32EF83C3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$F$237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$F$242</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -95,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="533">
   <si>
     <t>nt_total</t>
   </si>
@@ -1655,6 +1662,45 @@
   </si>
   <si>
     <t>percent (0-100) taxa - EPT BCG Attribute I + II + III</t>
+  </si>
+  <si>
+    <t>pi_CrCh2Chi</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Genera Chironomus or Cricotopus of Family Chironomidae</t>
+  </si>
+  <si>
+    <t>pi_Orth2Chi</t>
+  </si>
+  <si>
+    <t>pi_Tanyp2Chi</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - SubFamily Tanypodina of Family Chironomidae</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - SubFamily Orthocladiinae of Family Chironomidae</t>
+  </si>
+  <si>
+    <t>pi_Hydro2EPT</t>
+  </si>
+  <si>
+    <t>pi_Hydro2Trich</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Family Hydropsychidae of Orders Ephemeroptera, Plecoptera, and Trichoptera (EPT)</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Family Hydropsychidae of Order Trichoptera</t>
+  </si>
+  <si>
+    <t>Family and SubFamily</t>
+  </si>
+  <si>
+    <t>Family and Genus</t>
+  </si>
+  <si>
+    <t>Add 5 metrics from GADNR.2006 index</t>
   </si>
 </sst>
 </file>
@@ -2324,13 +2370,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F237" sqref="F41:F237"/>
+      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,8 +2413,8 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A237)</f>
-        <v>232</v>
+        <f>SUBTOTAL(3,A6:A242)</f>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,7 +3147,7 @@
         <v>392</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
@@ -3109,13 +3155,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>393</v>
+        <v>528</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
@@ -3123,13 +3169,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>335</v>
+        <v>527</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>394</v>
+        <v>529</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
@@ -3137,13 +3183,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>365</v>
+        <v>242</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
@@ -3151,13 +3197,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>396</v>
+        <v>335</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -3165,13 +3211,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>397</v>
+        <v>336</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>241</v>
+        <v>365</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
@@ -3179,10 +3225,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>242</v>
@@ -3193,10 +3239,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>241</v>
@@ -3207,13 +3253,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
@@ -3221,13 +3267,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>401</v>
+        <v>22</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>364</v>
+        <v>241</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -3235,13 +3281,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>402</v>
+        <v>23</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>400</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
@@ -3249,13 +3295,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>403</v>
+        <v>337</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>241</v>
+        <v>364</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
@@ -3263,13 +3309,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>404</v>
+        <v>338</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>402</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -3277,10 +3323,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>405</v>
+        <v>46</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>403</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>241</v>
@@ -3290,39 +3336,39 @@
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C70" s="16" t="s">
+      <c r="A70" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C71" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
       <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>408</v>
+        <v>48</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>406</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>241</v>
@@ -3333,10 +3379,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>241</v>
@@ -3347,13 +3393,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>410</v>
+        <v>340</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>408</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
@@ -3361,13 +3407,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>411</v>
+        <v>50</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
@@ -3375,10 +3421,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>242</v>
@@ -3389,10 +3435,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>242</v>
@@ -3403,13 +3449,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>414</v>
+        <v>52</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
@@ -3417,10 +3463,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>242</v>
@@ -3431,10 +3477,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>241</v>
@@ -3445,13 +3491,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
@@ -3459,10 +3505,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>241</v>
@@ -3473,13 +3519,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>192</v>
+        <v>346</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -3487,13 +3533,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>193</v>
+        <v>347</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>418</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -3501,10 +3547,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>419</v>
+        <v>192</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>245</v>
@@ -3515,10 +3561,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>420</v>
+        <v>40</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>245</v>
@@ -3529,27 +3575,27 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>421</v>
+        <v>41</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
+        <v>245</v>
+      </c>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
       <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>366</v>
+        <v>245</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
@@ -3557,83 +3603,83 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>423</v>
+        <v>42</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
+        <v>246</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
       <c r="F89" s="9"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>256</v>
+        <v>349</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>366</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="9"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>256</v>
+        <v>350</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>256</v>
+      <c r="A92" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>531</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>257</v>
+      <c r="A93" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>530</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="7"/>
+      <c r="F93" s="9"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>257</v>
+      <c r="A94" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>530</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -3641,27 +3687,27 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>427</v>
+        <v>252</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="9"/>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -3669,10 +3715,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>253</v>
+        <v>45</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>425</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>256</v>
@@ -3683,42 +3729,38 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>429</v>
+        <v>134</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>259</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D98" s="16"/>
       <c r="E98" s="16"/>
-      <c r="F98" s="9"/>
+      <c r="F98" s="7"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>430</v>
+        <v>135</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>426</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>259</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>257</v>
@@ -3729,29 +3771,27 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>259</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="9"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>432</v>
+        <v>253</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -3759,41 +3799,45 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D103" s="16"/>
+        <v>274</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>259</v>
+      </c>
       <c r="E103" s="16"/>
       <c r="F103" s="9"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>434</v>
+        <v>140</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="D104" s="16"/>
+        <v>274</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>259</v>
+      </c>
       <c r="E104" s="16"/>
       <c r="F104" s="9"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>314</v>
+        <v>141</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -3801,134 +3845,126 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>315</v>
+        <v>142</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="D106" s="16"/>
+        <v>257</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>259</v>
+      </c>
       <c r="E106" s="16"/>
       <c r="F106" s="9"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>319</v>
+        <v>143</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
-      <c r="F107" s="7"/>
+      <c r="F107" s="9"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>194</v>
+      <c r="A108" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>433</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="D108" s="16"/>
-      <c r="E108" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="F108" s="7"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>195</v>
+      <c r="A109" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>434</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="F109" s="7"/>
+        <v>364</v>
+      </c>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="9"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>197</v>
+        <v>312</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="F110" s="7"/>
+        <v>316</v>
+      </c>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="9"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>198</v>
+      <c r="A111" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>315</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="F111" s="7"/>
+        <v>317</v>
+      </c>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>435</v>
+        <v>318</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>319</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="F112" s="9"/>
+        <v>320</v>
+      </c>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="7"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>436</v>
+        <v>145</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="C113" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15" t="s">
+      <c r="D113" s="16"/>
+      <c r="E113" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="F113" s="9"/>
+      <c r="F113" s="7"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>437</v>
+        <v>195</v>
       </c>
       <c r="C114" s="21" t="s">
         <v>205</v>
@@ -3937,14 +3973,14 @@
       <c r="E114" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F114" s="9"/>
+      <c r="F114" s="7"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>438</v>
+        <v>197</v>
       </c>
       <c r="C115" s="21" t="s">
         <v>205</v>
@@ -3953,14 +3989,14 @@
       <c r="E115" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F115" s="9"/>
+      <c r="F115" s="7"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>439</v>
+        <v>198</v>
       </c>
       <c r="C116" s="21" t="s">
         <v>205</v>
@@ -3969,14 +4005,14 @@
       <c r="E116" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F116" s="9"/>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C117" s="21" t="s">
         <v>205</v>
@@ -3989,10 +4025,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C118" s="21" t="s">
         <v>205</v>
@@ -4005,10 +4041,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>442</v>
+        <v>151</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>437</v>
       </c>
       <c r="C119" s="21" t="s">
         <v>205</v>
@@ -4021,80 +4057,90 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>221</v>
+        <v>152</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>438</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
+      <c r="E120" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>222</v>
+        <v>153</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
+      <c r="E121" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="F121" s="9"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>443</v>
+        <v>154</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>440</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
+      <c r="E122" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="F122" s="9"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>444</v>
+      <c r="A123" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
+      <c r="E123" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>445</v>
+      <c r="A124" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>442</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
+      <c r="E124" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="F124" s="9"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>446</v>
+        <v>53</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="C125" s="21" t="s">
         <v>206</v>
@@ -4104,11 +4150,11 @@
       <c r="F125" s="9"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>373</v>
+      <c r="A126" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="C126" s="21" t="s">
         <v>206</v>
@@ -4119,10 +4165,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="C127" s="21" t="s">
         <v>206</v>
@@ -4133,10 +4179,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C128" s="21" t="s">
         <v>206</v>
@@ -4147,10 +4193,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C129" s="21" t="s">
         <v>206</v>
@@ -4161,10 +4207,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C130" s="21" t="s">
         <v>206</v>
@@ -4175,12 +4221,12 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C131" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C131" s="21" t="s">
         <v>206</v>
       </c>
       <c r="D131" s="15"/>
@@ -4189,13 +4235,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>322</v>
+        <v>357</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
@@ -4203,13 +4249,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>207</v>
+        <v>358</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
@@ -4217,13 +4263,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>207</v>
+        <v>359</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
@@ -4231,13 +4277,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>207</v>
+        <v>360</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
@@ -4245,13 +4291,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>207</v>
+        <v>361</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
@@ -4259,13 +4305,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>59</v>
+        <v>321</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>214</v>
+        <v>451</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>207</v>
+        <v>322</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
@@ -4273,10 +4319,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>452</v>
+        <v>210</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>207</v>
@@ -4287,10 +4333,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>453</v>
+        <v>211</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>207</v>
@@ -4301,10 +4347,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>454</v>
+        <v>212</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>207</v>
@@ -4315,10 +4361,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>455</v>
+        <v>213</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>207</v>
@@ -4329,10 +4375,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>456</v>
+        <v>214</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>207</v>
@@ -4342,11 +4388,11 @@
       <c r="F142" s="9"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>457</v>
+      <c r="A143" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>207</v>
@@ -4357,10 +4403,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>458</v>
+        <v>61</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>207</v>
@@ -4371,10 +4417,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>459</v>
+        <v>62</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>454</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>207</v>
@@ -4385,10 +4431,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>460</v>
+        <v>63</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>207</v>
@@ -4399,10 +4445,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>207</v>
@@ -4412,151 +4458,151 @@
       <c r="F147" s="9"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
-        <v>70</v>
+      <c r="A148" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>200</v>
+        <v>457</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
-      <c r="F148" s="7"/>
+      <c r="F148" s="9"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C149" s="21" t="s">
-        <v>208</v>
+        <v>66</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
-      <c r="F149" s="7"/>
+      <c r="F149" s="9"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C150" s="21" t="s">
-        <v>208</v>
+        <v>67</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
-      <c r="F150" s="11"/>
+      <c r="F150" s="9"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C151" s="21" t="s">
-        <v>208</v>
+        <v>68</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
-      <c r="F151" s="11"/>
+      <c r="F151" s="9"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>305</v>
+        <v>69</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C152" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D152" s="16"/>
+        <v>461</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D152" s="15"/>
       <c r="E152" s="15"/>
-      <c r="F152" s="11"/>
+      <c r="F152" s="9"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C153" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C153" s="16" t="s">
         <v>208</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
-      <c r="F153" s="9"/>
+      <c r="F153" s="7"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>463</v>
+        <v>303</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C154" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D154" s="16"/>
+      <c r="D154" s="15"/>
       <c r="E154" s="15"/>
-      <c r="F154" s="9"/>
+      <c r="F154" s="7"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>464</v>
+        <v>304</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C155" s="21" t="s">
         <v>208</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
-      <c r="F155" s="9"/>
+      <c r="F155" s="11"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>465</v>
+        <v>201</v>
       </c>
       <c r="C156" s="21" t="s">
         <v>208</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
-      <c r="F156" s="9"/>
+      <c r="F156" s="11"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>466</v>
+        <v>204</v>
       </c>
       <c r="C157" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D157" s="15"/>
+      <c r="D157" s="16"/>
       <c r="E157" s="15"/>
-      <c r="F157" s="9"/>
+      <c r="F157" s="11"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C158" s="21" t="s">
         <v>208</v>
@@ -4567,24 +4613,24 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C159" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D159" s="15"/>
+      <c r="D159" s="16"/>
       <c r="E159" s="15"/>
       <c r="F159" s="9"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C160" s="21" t="s">
         <v>208</v>
@@ -4595,10 +4641,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C161" s="21" t="s">
         <v>208</v>
@@ -4609,10 +4655,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C162" s="21" t="s">
         <v>208</v>
@@ -4623,55 +4669,55 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
-      <c r="F163" s="12"/>
+      <c r="F163" s="9"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>216</v>
+        <v>309</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
-      <c r="F164" s="11"/>
+      <c r="F164" s="9"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>217</v>
+        <v>310</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>469</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D165" s="16"/>
+        <v>208</v>
+      </c>
+      <c r="D165" s="15"/>
       <c r="E165" s="15"/>
-      <c r="F165" s="11"/>
+      <c r="F165" s="9"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>472</v>
+        <v>75</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
@@ -4679,13 +4725,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>473</v>
+        <v>311</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>471</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
@@ -4693,69 +4739,69 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>474</v>
+        <v>215</v>
       </c>
       <c r="C168" s="21" t="s">
         <v>209</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
-      <c r="F168" s="9"/>
+      <c r="F168" s="12"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>475</v>
+        <v>77</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="C169" s="21" t="s">
         <v>209</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
-      <c r="F169" s="9"/>
+      <c r="F169" s="11"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>476</v>
+        <v>78</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="C170" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D170" s="15"/>
+      <c r="D170" s="16"/>
       <c r="E170" s="15"/>
-      <c r="F170" s="9"/>
+      <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>477</v>
+        <v>79</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="C171" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D171" s="16"/>
+      <c r="D171" s="15"/>
       <c r="E171" s="15"/>
       <c r="F171" s="9"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>478</v>
+        <v>80</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
@@ -4763,13 +4809,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
@@ -4777,13 +4823,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
@@ -4791,13 +4837,13 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
@@ -4805,27 +4851,27 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="D176" s="15"/>
+        <v>209</v>
+      </c>
+      <c r="D176" s="16"/>
       <c r="E176" s="15"/>
       <c r="F176" s="9"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
@@ -4833,10 +4879,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C178" s="21" t="s">
         <v>271</v>
@@ -4847,24 +4893,24 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C179" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D179" s="16"/>
+      <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="9"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C180" s="21" t="s">
         <v>271</v>
@@ -4875,10 +4921,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>487</v>
+        <v>160</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="C181" s="21" t="s">
         <v>271</v>
@@ -4889,13 +4935,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>218</v>
+        <v>161</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -4903,13 +4949,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>219</v>
+        <v>162</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>484</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -4917,27 +4963,27 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>268</v>
+        <v>485</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D184" s="15"/>
+        <v>271</v>
+      </c>
+      <c r="D184" s="16"/>
       <c r="E184" s="15"/>
       <c r="F184" s="9"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>269</v>
+        <v>486</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
@@ -4945,13 +4991,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>270</v>
+        <v>165</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>487</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -4959,13 +5005,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>220</v>
+        <v>86</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -4973,13 +5019,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>223</v>
+        <v>87</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -4987,13 +5033,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -5001,13 +5047,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -5015,13 +5061,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -5029,29 +5075,27 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D192" s="15" t="s">
-        <v>259</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D192" s="15"/>
       <c r="E192" s="15"/>
       <c r="F192" s="9"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -5059,40 +5103,38 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C194" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D194" s="15" t="s">
-        <v>259</v>
-      </c>
+      <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="9"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C195" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D195" s="16"/>
+      <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="9"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C196" s="21" t="s">
         <v>248</v>
@@ -5103,24 +5145,26 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>230</v>
+        <v>94</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="C197" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D197" s="15"/>
+      <c r="D197" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="E197" s="15"/>
       <c r="F197" s="9"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>231</v>
+        <v>95</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="C198" s="21" t="s">
         <v>248</v>
@@ -5131,38 +5175,40 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>232</v>
+        <v>96</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="C199" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D199" s="15"/>
+      <c r="D199" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="E199" s="15"/>
       <c r="F199" s="9"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>233</v>
+        <v>97</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="C200" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D200" s="15"/>
+      <c r="D200" s="16"/>
       <c r="E200" s="15"/>
       <c r="F200" s="9"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>234</v>
+        <v>98</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="C201" s="21" t="s">
         <v>248</v>
@@ -5173,10 +5219,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C202" s="21" t="s">
         <v>248</v>
@@ -5187,10 +5233,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C203" s="21" t="s">
         <v>248</v>
@@ -5201,13 +5247,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -5215,26 +5261,24 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D205" s="15" t="s">
-        <v>259</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D205" s="15"/>
       <c r="E205" s="15"/>
       <c r="F205" s="9"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>488</v>
+        <v>234</v>
       </c>
       <c r="C206" s="21" t="s">
         <v>248</v>
@@ -5245,10 +5289,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>489</v>
+        <v>235</v>
       </c>
       <c r="C207" s="21" t="s">
         <v>248</v>
@@ -5259,10 +5303,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>490</v>
+        <v>236</v>
       </c>
       <c r="C208" s="21" t="s">
         <v>248</v>
@@ -5273,13 +5317,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>491</v>
+        <v>237</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
@@ -5287,40 +5331,40 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>492</v>
+        <v>238</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D210" s="15"/>
+        <v>249</v>
+      </c>
+      <c r="D210" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="E210" s="15"/>
       <c r="F210" s="9"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C211" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D211" s="15" t="s">
-        <v>259</v>
-      </c>
+      <c r="D211" s="15"/>
       <c r="E211" s="15"/>
       <c r="F211" s="9"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C212" s="21" t="s">
         <v>248</v>
@@ -5331,10 +5375,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C213" s="21" t="s">
         <v>248</v>
@@ -5345,10 +5389,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C214" s="21" t="s">
         <v>248</v>
@@ -5359,10 +5403,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C215" s="21" t="s">
         <v>248</v>
@@ -5373,24 +5417,26 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D216" s="15"/>
+      <c r="D216" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="E216" s="15"/>
       <c r="F216" s="9"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>248</v>
@@ -5401,10 +5447,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>248</v>
@@ -5415,26 +5461,24 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D219" s="15" t="s">
-        <v>259</v>
-      </c>
+      <c r="D219" s="15"/>
       <c r="E219" s="15"/>
       <c r="F219" s="9"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C220" s="21" t="s">
         <v>248</v>
@@ -5445,13 +5489,13 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
@@ -5459,10 +5503,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C222" s="21" t="s">
         <v>248</v>
@@ -5473,10 +5517,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C223" s="21" t="s">
         <v>248</v>
@@ -5487,24 +5531,26 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D224" s="15"/>
+      <c r="D224" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="E224" s="15"/>
       <c r="F224" s="9"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>248</v>
@@ -5515,13 +5561,13 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
@@ -5529,10 +5575,10 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>248</v>
@@ -5543,10 +5589,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>248</v>
@@ -5557,10 +5603,10 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>248</v>
@@ -5571,10 +5617,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>248</v>
@@ -5585,10 +5631,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>248</v>
@@ -5599,10 +5645,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>248</v>
@@ -5613,10 +5659,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>248</v>
@@ -5627,10 +5673,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>248</v>
@@ -5641,26 +5687,24 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D235" s="15" t="s">
-        <v>259</v>
-      </c>
+      <c r="D235" s="15"/>
       <c r="E235" s="15"/>
       <c r="F235" s="9"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>248</v>
@@ -5671,20 +5715,92 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
       <c r="F237" s="9"/>
     </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C238" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="9"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C239" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D239" s="15"/>
+      <c r="E239" s="15"/>
+      <c r="F239" s="9"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C240" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D240" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E240" s="15"/>
+      <c r="F240" s="9"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C241" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D241" s="15"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="9"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="C242" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="D242" s="15"/>
+      <c r="E242" s="15"/>
+      <c r="F242" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:F237" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:F242" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5703,10 +5819,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5734,7 +5850,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
-        <v>43369</v>
+        <v>43592</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5812,6 +5928,19 @@
       <c r="C17" s="37" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
         <v>MetricMetadata</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>43592</v>
+      </c>
+      <c r="B23" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CC852AE5-53EF-41AE-A501-B9FC32EF83C3}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0C1CFF40-D022-4E9C-84AC-28DF5919D838}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
@@ -1664,9 +1664,6 @@
     <t>percent (0-100) taxa - EPT BCG Attribute I + II + III</t>
   </si>
   <si>
-    <t>pi_CrCh2Chi</t>
-  </si>
-  <si>
     <t>percent (0-100) of individuals - Genera Chironomus or Cricotopus of Family Chironomidae</t>
   </si>
   <si>
@@ -1701,6 +1698,9 @@
   </si>
   <si>
     <t>Add 5 metrics from GADNR.2006 index</t>
+  </si>
+  <si>
+    <t>pi_ChCr2Chi</t>
   </si>
 </sst>
 </file>
@@ -2372,11 +2372,11 @@
   </sheetPr>
   <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43481</v>
+        <v>43592</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3155,10 +3155,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>364</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>245</v>
@@ -3645,13 +3645,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>521</v>
-      </c>
       <c r="C92" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
@@ -3659,13 +3659,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
@@ -3673,13 +3673,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>524</v>
-      </c>
       <c r="C94" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -5821,7 +5821,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="B7" s="32" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricNames.xlsx]</v>
+        <v>https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/[MetricNames.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5940,7 +5940,7 @@
         <v>43592</v>
       </c>
       <c r="B23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0C1CFF40-D022-4E9C-84AC-28DF5919D838}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{94E082C8-F5AE-48CF-85AB-3C6569B79334}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11400" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$F$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$F$245</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="541">
   <si>
     <t>nt_total</t>
   </si>
@@ -764,18 +764,12 @@
     <t>Hilsenhoff Biotic Index (references the TolVal field)</t>
   </si>
   <si>
-    <t>Simpson's Index</t>
-  </si>
-  <si>
     <t>number of taxa - tolerance value - intolerant ≤ 3</t>
   </si>
   <si>
     <t>number of taxa - tolerance value -tolerant ≥ 7</t>
   </si>
   <si>
-    <t>Evenness=x_Shan_e/log(nt_total)</t>
-  </si>
-  <si>
     <t>number of taxa - BCG Attribute I + II</t>
   </si>
   <si>
@@ -890,9 +884,6 @@
     <t>used to flag for brackish water</t>
   </si>
   <si>
-    <t>R code reference</t>
-  </si>
-  <si>
     <t>number of individuals - total</t>
   </si>
   <si>
@@ -908,15 +899,6 @@
     <t>number of individuals - Ramellogammarus</t>
   </si>
   <si>
-    <t>Shannon Wiener Diversity Index (natural log) - x_Shan_Num/log (exp(1))</t>
-  </si>
-  <si>
-    <t>Shannon Wiener Diversity Index (log base 2) - x_Shan_Num/log(2)</t>
-  </si>
-  <si>
-    <t>Shannon Wiener Diversity Index (log base 10) - x_Shan_Num/log(10)</t>
-  </si>
-  <si>
     <t>N_TAXA, TaxaID</t>
   </si>
   <si>
@@ -1070,9 +1052,6 @@
     <t>pi_tv2_intol</t>
   </si>
   <si>
-    <t>TOLVAL2</t>
-  </si>
-  <si>
     <t>METRIC_NAME</t>
   </si>
   <si>
@@ -1538,9 +1517,6 @@
     <t>percent (0-100) taxa - univoltine (UNI)</t>
   </si>
   <si>
-    <t>percent (0-100) individuals - most dominant taxon [max(N_TAXA)]</t>
-  </si>
-  <si>
     <t>percent (0-100) individuals - two most dominant taxa</t>
   </si>
   <si>
@@ -1701,6 +1677,54 @@
   </si>
   <si>
     <t>pi_ChCr2Chi</t>
+  </si>
+  <si>
+    <t>x_NCBI</t>
+  </si>
+  <si>
+    <t>North Carolina Biotic Index (references the TolVal2 field)</t>
+  </si>
+  <si>
+    <t>TolVal2</t>
+  </si>
+  <si>
+    <t>x_D_Mg</t>
+  </si>
+  <si>
+    <t>x_D_G</t>
+  </si>
+  <si>
+    <t>Peilou's Index (Evenness); x_Shan_e/log(nt_total)</t>
+  </si>
+  <si>
+    <t>Simpson's Index; 1-sum((N_TAXA/ni_total)^2, na.rm = TRUE)</t>
+  </si>
+  <si>
+    <t>Shannon Wiener Diversity Index (natural log); - x_Shan_Num/log (exp(1))</t>
+  </si>
+  <si>
+    <t>Shannon Wiener Diversity Index (log base 2);  - x_Shan_Num/log(2)</t>
+  </si>
+  <si>
+    <t>Shannon Wiener Diversity Index (log base 10);  - x_Shan_Num/log(10)</t>
+  </si>
+  <si>
+    <t>Added metrics; x_NCBI, x_D_Mg, x_D_G</t>
+  </si>
+  <si>
+    <t>Updated some descriptions</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - most dominant taxon;  max(N_TAXA)</t>
+  </si>
+  <si>
+    <t>Margalef's Index; (nt_total - 1)/log(ni_total)</t>
+  </si>
+  <si>
+    <t>Gleason's Index; (nt_total) / log(ni_total)</t>
+  </si>
+  <si>
+    <t>Input Field</t>
   </si>
 </sst>
 </file>
@@ -2370,13 +2394,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F242"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,7 +2423,7 @@
         <v>132</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -2408,24 +2432,24 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43592</v>
+        <v>43609</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A242)</f>
-        <v>237</v>
+        <f>SUBTOTAL(3,A6:A245)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>133</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>262</v>
+        <v>540</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>199</v>
@@ -2442,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -2454,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -2466,7 +2490,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -2478,13 +2502,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="1"/>
@@ -2494,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2508,10 +2532,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -2522,15 +2546,15 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2538,10 +2562,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2555,10 +2579,10 @@
         <v>178</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="9"/>
@@ -2571,7 +2595,7 @@
         <v>179</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -2585,7 +2609,7 @@
         <v>180</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -2599,7 +2623,7 @@
         <v>181</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -2613,7 +2637,7 @@
         <v>182</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -2627,7 +2651,7 @@
         <v>183</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -2641,7 +2665,7 @@
         <v>184</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -2655,7 +2679,7 @@
         <v>185</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -2663,13 +2687,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -2680,13 +2704,13 @@
         <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="9"/>
@@ -2699,7 +2723,7 @@
         <v>186</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -2707,13 +2731,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -2727,7 +2751,7 @@
         <v>187</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -2741,7 +2765,7 @@
         <v>188</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -2749,13 +2773,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -2763,13 +2787,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -2777,13 +2801,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -2797,7 +2821,7 @@
         <v>189</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -2805,13 +2829,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -2825,7 +2849,7 @@
         <v>190</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -2833,13 +2857,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -2853,7 +2877,7 @@
         <v>196</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -2861,13 +2885,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -2875,13 +2899,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -2895,7 +2919,7 @@
         <v>191</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -2903,13 +2927,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -2917,13 +2941,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -2934,10 +2958,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -2945,13 +2969,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -2962,10 +2986,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -2976,10 +3000,10 @@
         <v>11</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -2990,10 +3014,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
@@ -3004,10 +3028,10 @@
         <v>13</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -3015,13 +3039,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -3029,13 +3053,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
@@ -3046,10 +3070,10 @@
         <v>14</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -3060,10 +3084,10 @@
         <v>15</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -3074,10 +3098,10 @@
         <v>16</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -3085,13 +3109,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -3099,13 +3123,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -3116,10 +3140,10 @@
         <v>17</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -3130,10 +3154,10 @@
         <v>18</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
@@ -3141,13 +3165,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
@@ -3155,13 +3179,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
@@ -3169,13 +3193,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
@@ -3183,13 +3207,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
@@ -3197,13 +3221,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -3211,13 +3235,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
@@ -3228,10 +3252,10 @@
         <v>19</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
@@ -3242,10 +3266,10 @@
         <v>20</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
@@ -3256,10 +3280,10 @@
         <v>21</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
@@ -3270,10 +3294,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -3284,10 +3308,10 @@
         <v>23</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
@@ -3295,13 +3319,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
@@ -3309,13 +3333,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -3326,10 +3350,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
@@ -3340,10 +3364,10 @@
         <v>47</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
@@ -3351,13 +3375,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
@@ -3368,10 +3392,10 @@
         <v>48</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
@@ -3382,10 +3406,10 @@
         <v>49</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
@@ -3393,13 +3417,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
@@ -3410,10 +3434,10 @@
         <v>50</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
@@ -3424,10 +3448,10 @@
         <v>51</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
@@ -3435,13 +3459,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
@@ -3452,10 +3476,10 @@
         <v>52</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
@@ -3463,13 +3487,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
@@ -3477,13 +3501,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
@@ -3491,13 +3515,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
@@ -3505,13 +3529,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
@@ -3519,13 +3543,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -3533,13 +3557,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -3553,7 +3577,7 @@
         <v>192</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -3567,7 +3591,7 @@
         <v>193</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
@@ -3578,10 +3602,10 @@
         <v>41</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
@@ -3589,13 +3613,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
@@ -3606,10 +3630,10 @@
         <v>42</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -3617,13 +3641,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
@@ -3631,13 +3655,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
@@ -3645,13 +3669,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
@@ -3659,13 +3683,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C93" s="16" t="s">
         <v>521</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>529</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
@@ -3673,13 +3697,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -3690,10 +3714,10 @@
         <v>43</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
@@ -3704,10 +3728,10 @@
         <v>44</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -3718,10 +3742,10 @@
         <v>45</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
@@ -3732,10 +3756,10 @@
         <v>134</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -3746,10 +3770,10 @@
         <v>135</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -3760,10 +3784,10 @@
         <v>136</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -3774,10 +3798,10 @@
         <v>137</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -3788,10 +3812,10 @@
         <v>138</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -3802,13 +3826,13 @@
         <v>139</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="9"/>
@@ -3818,13 +3842,13 @@
         <v>140</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="9"/>
@@ -3834,10 +3858,10 @@
         <v>141</v>
       </c>
       <c r="B105" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C105" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>257</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -3848,13 +3872,13 @@
         <v>142</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C106" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D106" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>259</v>
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="9"/>
@@ -3864,10 +3888,10 @@
         <v>143</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
@@ -3878,10 +3902,10 @@
         <v>144</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
@@ -3889,13 +3913,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
@@ -3903,13 +3927,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
@@ -3917,13 +3941,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
@@ -3931,13 +3955,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -3955,7 +3979,7 @@
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F113" s="7"/>
     </row>
@@ -3971,7 +3995,7 @@
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F114" s="7"/>
     </row>
@@ -3987,7 +4011,7 @@
       </c>
       <c r="D115" s="15"/>
       <c r="E115" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F115" s="7"/>
     </row>
@@ -4003,7 +4027,7 @@
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F116" s="7"/>
     </row>
@@ -4012,14 +4036,14 @@
         <v>149</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C117" s="21" t="s">
         <v>205</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F117" s="9"/>
     </row>
@@ -4028,14 +4052,14 @@
         <v>150</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C118" s="21" t="s">
         <v>205</v>
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F118" s="9"/>
     </row>
@@ -4044,14 +4068,14 @@
         <v>151</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C119" s="21" t="s">
         <v>205</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F119" s="9"/>
     </row>
@@ -4060,14 +4084,14 @@
         <v>152</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C120" s="21" t="s">
         <v>205</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F120" s="9"/>
     </row>
@@ -4076,14 +4100,14 @@
         <v>153</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C121" s="21" t="s">
         <v>205</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F121" s="9"/>
     </row>
@@ -4092,14 +4116,14 @@
         <v>154</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C122" s="21" t="s">
         <v>205</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F122" s="9"/>
     </row>
@@ -4108,14 +4132,14 @@
         <v>155</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C123" s="21" t="s">
         <v>205</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F123" s="9"/>
     </row>
@@ -4124,14 +4148,14 @@
         <v>156</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C124" s="21" t="s">
         <v>205</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F124" s="9"/>
     </row>
@@ -4140,7 +4164,7 @@
         <v>53</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C125" s="21" t="s">
         <v>206</v>
@@ -4154,7 +4178,7 @@
         <v>54</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C126" s="21" t="s">
         <v>206</v>
@@ -4165,10 +4189,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C127" s="21" t="s">
         <v>206</v>
@@ -4179,10 +4203,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C128" s="21" t="s">
         <v>206</v>
@@ -4193,10 +4217,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C129" s="21" t="s">
         <v>206</v>
@@ -4207,10 +4231,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C130" s="21" t="s">
         <v>206</v>
@@ -4221,10 +4245,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C131" s="21" t="s">
         <v>206</v>
@@ -4235,10 +4259,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C132" s="21" t="s">
         <v>206</v>
@@ -4249,10 +4273,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C133" s="21" t="s">
         <v>206</v>
@@ -4263,10 +4287,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C134" s="21" t="s">
         <v>206</v>
@@ -4277,10 +4301,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C135" s="21" t="s">
         <v>206</v>
@@ -4291,10 +4315,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>206</v>
@@ -4305,13 +4329,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>322</v>
+        <v>527</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
@@ -4392,7 +4416,7 @@
         <v>60</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>207</v>
@@ -4406,7 +4430,7 @@
         <v>61</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>207</v>
@@ -4420,7 +4444,7 @@
         <v>62</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>207</v>
@@ -4434,7 +4458,7 @@
         <v>63</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>207</v>
@@ -4448,7 +4472,7 @@
         <v>64</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>207</v>
@@ -4462,7 +4486,7 @@
         <v>65</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>207</v>
@@ -4476,7 +4500,7 @@
         <v>66</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>207</v>
@@ -4490,7 +4514,7 @@
         <v>67</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>207</v>
@@ -4504,7 +4528,7 @@
         <v>68</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>207</v>
@@ -4518,7 +4542,7 @@
         <v>69</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>207</v>
@@ -4543,7 +4567,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>202</v>
@@ -4557,7 +4581,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>203</v>
@@ -4585,7 +4609,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>204</v>
@@ -4602,7 +4626,7 @@
         <v>72</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C158" s="21" t="s">
         <v>208</v>
@@ -4613,10 +4637,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C159" s="21" t="s">
         <v>208</v>
@@ -4627,10 +4651,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C160" s="21" t="s">
         <v>208</v>
@@ -4644,7 +4668,7 @@
         <v>73</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C161" s="21" t="s">
         <v>208</v>
@@ -4655,10 +4679,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C162" s="21" t="s">
         <v>208</v>
@@ -4672,7 +4696,7 @@
         <v>74</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C163" s="21" t="s">
         <v>208</v>
@@ -4683,10 +4707,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C164" s="21" t="s">
         <v>208</v>
@@ -4697,10 +4721,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C165" s="21" t="s">
         <v>208</v>
@@ -4714,7 +4738,7 @@
         <v>75</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C166" s="21" t="s">
         <v>208</v>
@@ -4725,10 +4749,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C167" s="21" t="s">
         <v>208</v>
@@ -4784,7 +4808,7 @@
         <v>79</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C171" s="21" t="s">
         <v>209</v>
@@ -4798,7 +4822,7 @@
         <v>80</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C172" s="21" t="s">
         <v>209</v>
@@ -4812,7 +4836,7 @@
         <v>81</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>209</v>
@@ -4826,7 +4850,7 @@
         <v>82</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C174" s="21" t="s">
         <v>209</v>
@@ -4840,7 +4864,7 @@
         <v>83</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C175" s="21" t="s">
         <v>209</v>
@@ -4854,7 +4878,7 @@
         <v>84</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C176" s="21" t="s">
         <v>209</v>
@@ -4867,11 +4891,11 @@
       <c r="A177" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>478</v>
+      <c r="B177" s="9" t="s">
+        <v>537</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
@@ -4882,10 +4906,10 @@
         <v>157</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
@@ -4896,10 +4920,10 @@
         <v>158</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
@@ -4910,10 +4934,10 @@
         <v>159</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
@@ -4924,10 +4948,10 @@
         <v>160</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
@@ -4938,10 +4962,10 @@
         <v>161</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -4952,10 +4976,10 @@
         <v>162</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -4966,10 +4990,10 @@
         <v>163</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D184" s="16"/>
       <c r="E184" s="15"/>
@@ -4980,10 +5004,10 @@
         <v>164</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
@@ -4994,10 +5018,10 @@
         <v>165</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -5011,7 +5035,7 @@
         <v>218</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -5032,14 +5056,14 @@
       <c r="F188" s="9"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>268</v>
+      <c r="A189" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>250</v>
+        <v>527</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -5047,13 +5071,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>269</v>
+        <v>88</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>532</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -5061,13 +5085,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>270</v>
+        <v>89</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>533</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -5075,13 +5099,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>220</v>
+        <v>90</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>534</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -5089,41 +5113,41 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>223</v>
+        <v>91</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="9"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>239</v>
+      <c r="A194" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>539</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="9"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>240</v>
+      <c r="A195" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>538</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -5131,10 +5155,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>530</v>
       </c>
       <c r="C196" s="21" t="s">
         <v>248</v>
@@ -5145,29 +5169,27 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D197" s="15" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="9"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -5175,43 +5197,43 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D199" s="15" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="9"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D200" s="16"/>
+        <v>246</v>
+      </c>
+      <c r="D200" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E200" s="15"/>
       <c r="F200" s="9"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -5219,41 +5241,43 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>230</v>
+        <v>96</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D202" s="15"/>
+        <v>246</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E202" s="15"/>
       <c r="F202" s="9"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>231</v>
+        <v>97</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D203" s="15"/>
+        <v>246</v>
+      </c>
+      <c r="D203" s="16"/>
       <c r="E203" s="15"/>
       <c r="F203" s="9"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>232</v>
+        <v>98</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -5261,13 +5285,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
@@ -5275,13 +5299,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
@@ -5289,13 +5313,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
@@ -5303,13 +5327,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
@@ -5317,13 +5341,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
@@ -5331,29 +5355,27 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D210" s="15" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D210" s="15"/>
       <c r="E210" s="15"/>
       <c r="F210" s="9"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>488</v>
+        <v>234</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
@@ -5361,13 +5383,13 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>489</v>
+        <v>235</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
@@ -5375,27 +5397,29 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>490</v>
+        <v>236</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D213" s="15"/>
+        <v>247</v>
+      </c>
+      <c r="D213" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E213" s="15"/>
       <c r="F213" s="9"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
@@ -5403,13 +5427,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
@@ -5417,29 +5441,27 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D216" s="15" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D216" s="15"/>
       <c r="E216" s="15"/>
       <c r="F216" s="9"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
@@ -5447,13 +5469,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
@@ -5461,27 +5483,29 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D219" s="15"/>
+        <v>246</v>
+      </c>
+      <c r="D219" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E219" s="15"/>
       <c r="F219" s="9"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
@@ -5489,13 +5513,13 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
@@ -5503,13 +5527,13 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
@@ -5517,13 +5541,13 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
@@ -5531,29 +5555,27 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D224" s="15" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D224" s="15"/>
       <c r="E224" s="15"/>
       <c r="F224" s="9"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
@@ -5561,13 +5583,13 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
@@ -5575,27 +5597,29 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D227" s="15"/>
+        <v>246</v>
+      </c>
+      <c r="D227" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E227" s="15"/>
       <c r="F227" s="9"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
@@ -5603,13 +5627,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
@@ -5617,13 +5641,13 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
@@ -5631,13 +5655,13 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
@@ -5645,13 +5669,13 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C232" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
@@ -5659,13 +5683,13 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C233" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
@@ -5673,13 +5697,13 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C234" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
@@ -5687,13 +5711,13 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C235" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D235" s="15"/>
       <c r="E235" s="15"/>
@@ -5701,13 +5725,13 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
@@ -5715,13 +5739,13 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
@@ -5729,13 +5753,13 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D238" s="15"/>
       <c r="E238" s="15"/>
@@ -5743,13 +5767,13 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D239" s="15"/>
       <c r="E239" s="15"/>
@@ -5757,29 +5781,27 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D240" s="15" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D240" s="15"/>
       <c r="E240" s="15"/>
       <c r="F240" s="9"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
@@ -5787,20 +5809,64 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C242" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="15"/>
       <c r="F242" s="9"/>
     </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C243" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D243" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E243" s="15"/>
+      <c r="F243" s="9"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C244" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D244" s="15"/>
+      <c r="E244" s="15"/>
+      <c r="F244" s="9"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D245" s="15"/>
+      <c r="E245" s="15"/>
+      <c r="F245" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:F242" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:F245" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5819,7 +5885,7 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -5834,28 +5900,28 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
-        <v>43592</v>
+        <v>43609</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B7" s="32" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
@@ -5864,7 +5930,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B8" s="32" t="str">
         <f ca="1">MID(CELL("filename",B8),FIND("[",CELL("filename",B8)),(FIND("]",CELL("filename",B8))-FIND("[",CELL("filename",B8)))+1)</f>
@@ -5873,7 +5939,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B9" s="33" t="str">
         <f ca="1">MID(CELL("filename",B9),FIND("]",CELL("filename",B9))+1,LEN(CELL("filename",B9))-FIND("]",CELL("filename",B9)))</f>
@@ -5882,36 +5948,36 @@
     </row>
     <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C16" s="36" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
@@ -5920,10 +5986,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C17" s="37" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
@@ -5940,7 +6006,20 @@
         <v>43592</v>
       </c>
       <c r="B23" t="s">
-        <v>531</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>43609</v>
+      </c>
+      <c r="B24" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{94E082C8-F5AE-48CF-85AB-3C6569B79334}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C4F49C38-AFD9-4C58-9495-346A8F54EB31}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11400" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="B7" s="32" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BioMonTools/inst/extdata/[MetricNames.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricNames.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C4F49C38-AFD9-4C58-9495-346A8F54EB31}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E203FF43-95CB-40CD-A5B0-99CF2EE575F5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12000" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12600" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$F$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$258</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="577">
   <si>
     <t>nt_total</t>
   </si>
@@ -1725,6 +1725,114 @@
   </si>
   <si>
     <t>Input Field</t>
+  </si>
+  <si>
+    <t>Add Community as a column.</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>bmi</t>
+  </si>
+  <si>
+    <t>bmi = benthic macroinvertebrates</t>
+  </si>
+  <si>
+    <t>bmi, fish, algae</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>pi_rbs</t>
+  </si>
+  <si>
+    <t>pi_brooktrout</t>
+  </si>
+  <si>
+    <t>pi_sculpin</t>
+  </si>
+  <si>
+    <t>pi_lithophil</t>
+  </si>
+  <si>
+    <t>pi_genomninvrt</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - round-bodied suckers</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - sculpins</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - brook trout</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - lithophilic spawners</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - generalist, omnivores, or invertivores</t>
+  </si>
+  <si>
+    <t>pi_insectivore</t>
+  </si>
+  <si>
+    <t>ni_m2</t>
+  </si>
+  <si>
+    <t>x_biomass_total</t>
+  </si>
+  <si>
+    <t>x_biomass_m2</t>
+  </si>
+  <si>
+    <t>number of individuals - per square meter</t>
+  </si>
+  <si>
+    <t>biomass - total</t>
+  </si>
+  <si>
+    <t>biomass - per square meter</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - insectivores</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - tolerant</t>
+  </si>
+  <si>
+    <t>TOTBIOM</t>
+  </si>
+  <si>
+    <t>TOTBIOM, StWidAvg, StLength</t>
+  </si>
+  <si>
+    <t>PTOLER</t>
+  </si>
+  <si>
+    <t>TROPHIC_MBSS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>SPECIES</t>
+  </si>
+  <si>
+    <t>SILT</t>
+  </si>
+  <si>
+    <t>nt_benthic</t>
+  </si>
+  <si>
+    <t>number of taxa - benthic</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +2039,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2029,6 +2137,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2394,13 +2505,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,7 +2529,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>132</v>
       </c>
@@ -2430,18 +2541,24 @@
       <c r="E1" s="13"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43643</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <f>SUBTOTAL(3,A6:A245)</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="38" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>316</v>
       </c>
@@ -2460,8 +2577,11 @@
       <c r="F5" s="22" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2472,8 +2592,11 @@
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="25" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -2484,8 +2607,11 @@
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="25" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2496,8 +2622,11 @@
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="25" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2512,8 +2641,11 @@
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -2526,8 +2658,11 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -2540,8 +2675,11 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -2556,8 +2694,11 @@
       <c r="F12" s="9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -2570,8 +2711,11 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -2586,8 +2730,11 @@
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -2600,8 +2747,11 @@
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -2614,8 +2764,11 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -2628,8 +2781,11 @@
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -2642,8 +2798,11 @@
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
@@ -2656,8 +2815,11 @@
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
@@ -2670,8 +2832,11 @@
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
@@ -2684,8 +2849,11 @@
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>287</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
@@ -2714,8 +2885,11 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
@@ -2728,8 +2902,11 @@
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>286</v>
       </c>
@@ -2742,8 +2919,11 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
@@ -2756,8 +2936,11 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
@@ -2770,8 +2953,11 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>285</v>
       </c>
@@ -2784,8 +2970,11 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>317</v>
       </c>
@@ -2798,8 +2987,11 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>318</v>
       </c>
@@ -2812,8 +3004,11 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -2826,8 +3021,11 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>288</v>
       </c>
@@ -2840,8 +3038,11 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -2854,8 +3055,11 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>319</v>
       </c>
@@ -2868,8 +3072,11 @@
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -2882,8 +3089,11 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>289</v>
       </c>
@@ -2896,8 +3106,11 @@
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>290</v>
       </c>
@@ -2910,8 +3123,11 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -2924,8 +3140,11 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>320</v>
       </c>
@@ -2938,8 +3157,11 @@
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>321</v>
       </c>
@@ -2952,8 +3174,11 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>9</v>
       </c>
@@ -2966,8 +3191,11 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>368</v>
       </c>
@@ -2980,8 +3208,11 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>10</v>
       </c>
@@ -2994,8 +3225,11 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>12</v>
       </c>
@@ -3022,8 +3259,11 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
@@ -3036,8 +3276,11 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>322</v>
       </c>
@@ -3050,8 +3293,11 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>323</v>
       </c>
@@ -3064,8 +3310,11 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
@@ -3078,8 +3327,11 @@
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>15</v>
       </c>
@@ -3092,8 +3344,11 @@
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
@@ -3106,8 +3361,11 @@
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>324</v>
       </c>
@@ -3120,8 +3378,11 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>325</v>
       </c>
@@ -3134,8 +3395,11 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>17</v>
       </c>
@@ -3148,8 +3412,11 @@
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>18</v>
       </c>
@@ -3162,8 +3429,11 @@
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>326</v>
       </c>
@@ -3176,8 +3446,11 @@
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>517</v>
       </c>
@@ -3190,8 +3463,11 @@
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>518</v>
       </c>
@@ -3204,8 +3480,11 @@
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>327</v>
       </c>
@@ -3218,8 +3497,11 @@
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>328</v>
       </c>
@@ -3232,8 +3514,11 @@
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>329</v>
       </c>
@@ -3246,8 +3531,11 @@
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>19</v>
       </c>
@@ -3260,8 +3548,11 @@
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>20</v>
       </c>
@@ -3274,8 +3565,11 @@
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="9"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>21</v>
       </c>
@@ -3288,8 +3582,11 @@
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="9"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>22</v>
       </c>
@@ -3302,8 +3599,11 @@
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="9"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>23</v>
       </c>
@@ -3316,8 +3616,11 @@
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>330</v>
       </c>
@@ -3330,8 +3633,11 @@
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>331</v>
       </c>
@@ -3344,8 +3650,11 @@
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>46</v>
       </c>
@@ -3358,8 +3667,11 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>47</v>
       </c>
@@ -3372,8 +3684,11 @@
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
       <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>332</v>
       </c>
@@ -3386,8 +3701,11 @@
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>48</v>
       </c>
@@ -3400,8 +3718,11 @@
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>49</v>
       </c>
@@ -3414,8 +3735,11 @@
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="9"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>333</v>
       </c>
@@ -3428,8 +3752,11 @@
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>50</v>
       </c>
@@ -3442,8 +3769,11 @@
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="9"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>51</v>
       </c>
@@ -3456,8 +3786,11 @@
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="9"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>334</v>
       </c>
@@ -3470,8 +3803,11 @@
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="9"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>52</v>
       </c>
@@ -3484,8 +3820,11 @@
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>335</v>
       </c>
@@ -3498,8 +3837,11 @@
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>336</v>
       </c>
@@ -3512,8 +3854,11 @@
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="9"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>337</v>
       </c>
@@ -3526,8 +3871,11 @@
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="9"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>338</v>
       </c>
@@ -3540,8 +3888,11 @@
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="9"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>339</v>
       </c>
@@ -3554,8 +3905,11 @@
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="9"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>340</v>
       </c>
@@ -3568,8 +3922,11 @@
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>39</v>
       </c>
@@ -3582,8 +3939,11 @@
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="9"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>40</v>
       </c>
@@ -3596,8 +3956,11 @@
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="9"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>41</v>
       </c>
@@ -3610,8 +3973,11 @@
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>341</v>
       </c>
@@ -3624,8 +3990,11 @@
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>42</v>
       </c>
@@ -3638,8 +4007,11 @@
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>342</v>
       </c>
@@ -3652,8 +4024,11 @@
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="9"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>343</v>
       </c>
@@ -3666,8 +4041,11 @@
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="9"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>524</v>
       </c>
@@ -3680,8 +4058,11 @@
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>513</v>
       </c>
@@ -3694,8 +4075,11 @@
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>514</v>
       </c>
@@ -3708,8 +4092,11 @@
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>43</v>
       </c>
@@ -3722,8 +4109,11 @@
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>44</v>
       </c>
@@ -3736,8 +4126,11 @@
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="9"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>45</v>
       </c>
@@ -3750,8 +4143,11 @@
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="9"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>134</v>
       </c>
@@ -3764,8 +4160,11 @@
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>135</v>
       </c>
@@ -3778,8 +4177,11 @@
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="9"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>136</v>
       </c>
@@ -3792,8 +4194,11 @@
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="9"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>137</v>
       </c>
@@ -3806,8 +4211,11 @@
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="9"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>138</v>
       </c>
@@ -3820,8 +4228,11 @@
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
       <c r="F102" s="9"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>139</v>
       </c>
@@ -3836,8 +4247,11 @@
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="9"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>140</v>
       </c>
@@ -3852,8 +4266,11 @@
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="9"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>141</v>
       </c>
@@ -3866,8 +4283,11 @@
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
       <c r="F105" s="9"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>142</v>
       </c>
@@ -3882,8 +4302,11 @@
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="9"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>143</v>
       </c>
@@ -3896,8 +4319,11 @@
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="9"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>144</v>
       </c>
@@ -3910,8 +4336,11 @@
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="9"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>344</v>
       </c>
@@ -3924,8 +4353,11 @@
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="9"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>306</v>
       </c>
@@ -3938,8 +4370,11 @@
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="9"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>307</v>
       </c>
@@ -3952,8 +4387,11 @@
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="9"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>312</v>
       </c>
@@ -3966,8 +4404,11 @@
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="7"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>145</v>
       </c>
@@ -3982,8 +4423,11 @@
         <v>257</v>
       </c>
       <c r="F113" s="7"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>146</v>
       </c>
@@ -3998,8 +4442,11 @@
         <v>257</v>
       </c>
       <c r="F114" s="7"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>147</v>
       </c>
@@ -4014,8 +4461,11 @@
         <v>257</v>
       </c>
       <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>148</v>
       </c>
@@ -4030,8 +4480,11 @@
         <v>257</v>
       </c>
       <c r="F116" s="7"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>149</v>
       </c>
@@ -4046,8 +4499,11 @@
         <v>257</v>
       </c>
       <c r="F117" s="9"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>150</v>
       </c>
@@ -4062,8 +4518,11 @@
         <v>257</v>
       </c>
       <c r="F118" s="9"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>151</v>
       </c>
@@ -4078,8 +4537,11 @@
         <v>257</v>
       </c>
       <c r="F119" s="9"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>152</v>
       </c>
@@ -4094,8 +4556,11 @@
         <v>257</v>
       </c>
       <c r="F120" s="9"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>153</v>
       </c>
@@ -4110,8 +4575,11 @@
         <v>257</v>
       </c>
       <c r="F121" s="9"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>154</v>
       </c>
@@ -4126,8 +4594,11 @@
         <v>257</v>
       </c>
       <c r="F122" s="9"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>155</v>
       </c>
@@ -4142,8 +4613,11 @@
         <v>257</v>
       </c>
       <c r="F123" s="9"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>156</v>
       </c>
@@ -4158,8 +4632,11 @@
         <v>257</v>
       </c>
       <c r="F124" s="9"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>53</v>
       </c>
@@ -4172,8 +4649,11 @@
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="9"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>54</v>
       </c>
@@ -4186,8 +4666,11 @@
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
       <c r="F126" s="9"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>345</v>
       </c>
@@ -4200,8 +4683,11 @@
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="9"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>346</v>
       </c>
@@ -4214,8 +4700,11 @@
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="9"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>347</v>
       </c>
@@ -4228,8 +4717,11 @@
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="9"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>348</v>
       </c>
@@ -4242,8 +4734,11 @@
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
       <c r="F130" s="9"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>349</v>
       </c>
@@ -4256,8 +4751,11 @@
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="9"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>350</v>
       </c>
@@ -4270,8 +4768,11 @@
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
       <c r="F132" s="9"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>351</v>
       </c>
@@ -4284,8 +4785,11 @@
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
       <c r="F133" s="9"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>352</v>
       </c>
@@ -4298,8 +4802,11 @@
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
       <c r="F134" s="9"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>353</v>
       </c>
@@ -4312,8 +4819,11 @@
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
       <c r="F135" s="9"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>354</v>
       </c>
@@ -4326,8 +4836,11 @@
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
       <c r="F136" s="9"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>315</v>
       </c>
@@ -4340,8 +4853,11 @@
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
       <c r="F137" s="9"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>55</v>
       </c>
@@ -4354,8 +4870,11 @@
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
       <c r="F138" s="9"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -4368,8 +4887,11 @@
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
       <c r="F139" s="9"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>57</v>
       </c>
@@ -4382,8 +4904,11 @@
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
       <c r="F140" s="9"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>58</v>
       </c>
@@ -4396,8 +4921,11 @@
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
       <c r="F141" s="9"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>59</v>
       </c>
@@ -4410,8 +4938,11 @@
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
       <c r="F142" s="9"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4955,11 @@
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
       <c r="F143" s="9"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>61</v>
       </c>
@@ -4438,8 +4972,11 @@
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
       <c r="F144" s="9"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>62</v>
       </c>
@@ -4452,8 +4989,11 @@
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
       <c r="F145" s="9"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>63</v>
       </c>
@@ -4466,8 +5006,11 @@
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
       <c r="F146" s="9"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>64</v>
       </c>
@@ -4480,8 +5023,11 @@
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
       <c r="F147" s="9"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>65</v>
       </c>
@@ -4494,8 +5040,11 @@
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
       <c r="F148" s="9"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>66</v>
       </c>
@@ -4508,8 +5057,11 @@
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
       <c r="F149" s="9"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>67</v>
       </c>
@@ -4522,8 +5074,11 @@
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
       <c r="F150" s="9"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>68</v>
       </c>
@@ -4536,8 +5091,11 @@
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
       <c r="F151" s="9"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>69</v>
       </c>
@@ -4550,8 +5108,11 @@
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
       <c r="F152" s="9"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>70</v>
       </c>
@@ -4564,8 +5125,11 @@
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
       <c r="F153" s="7"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>297</v>
       </c>
@@ -4578,8 +5142,11 @@
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
       <c r="F154" s="7"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>298</v>
       </c>
@@ -4592,8 +5159,11 @@
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
       <c r="F155" s="11"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>71</v>
       </c>
@@ -4606,8 +5176,11 @@
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
       <c r="F156" s="11"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>299</v>
       </c>
@@ -4620,8 +5193,11 @@
       <c r="D157" s="16"/>
       <c r="E157" s="15"/>
       <c r="F157" s="11"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>72</v>
       </c>
@@ -4634,8 +5210,11 @@
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
       <c r="F158" s="9"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>300</v>
       </c>
@@ -4648,8 +5227,11 @@
       <c r="D159" s="16"/>
       <c r="E159" s="15"/>
       <c r="F159" s="9"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>301</v>
       </c>
@@ -4662,8 +5244,11 @@
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
       <c r="F160" s="9"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>73</v>
       </c>
@@ -4676,8 +5261,11 @@
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
       <c r="F161" s="9"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>302</v>
       </c>
@@ -4690,8 +5278,11 @@
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
       <c r="F162" s="9"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>74</v>
       </c>
@@ -4704,8 +5295,11 @@
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
       <c r="F163" s="9"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>303</v>
       </c>
@@ -4718,8 +5312,11 @@
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
       <c r="F164" s="9"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>304</v>
       </c>
@@ -4732,8 +5329,11 @@
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="9"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>75</v>
       </c>
@@ -4746,8 +5346,11 @@
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="9"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>305</v>
       </c>
@@ -4760,8 +5363,11 @@
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="9"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>76</v>
       </c>
@@ -4774,8 +5380,11 @@
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="12"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>77</v>
       </c>
@@ -4788,8 +5397,11 @@
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
       <c r="F169" s="11"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>78</v>
       </c>
@@ -4802,8 +5414,11 @@
       <c r="D170" s="16"/>
       <c r="E170" s="15"/>
       <c r="F170" s="11"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>79</v>
       </c>
@@ -4816,8 +5431,11 @@
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
       <c r="F171" s="9"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>80</v>
       </c>
@@ -4830,8 +5448,11 @@
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="9"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>81</v>
       </c>
@@ -4844,8 +5465,11 @@
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="9"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>82</v>
       </c>
@@ -4858,8 +5482,11 @@
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
       <c r="F174" s="9"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>83</v>
       </c>
@@ -4872,8 +5499,11 @@
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="9"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>84</v>
       </c>
@@ -4886,8 +5516,11 @@
       <c r="D176" s="16"/>
       <c r="E176" s="15"/>
       <c r="F176" s="9"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5533,11 @@
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="9"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>157</v>
       </c>
@@ -4914,8 +5550,11 @@
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="9"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>158</v>
       </c>
@@ -4928,8 +5567,11 @@
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="9"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>159</v>
       </c>
@@ -4942,8 +5584,11 @@
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
       <c r="F180" s="9"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>160</v>
       </c>
@@ -4956,8 +5601,11 @@
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
       <c r="F181" s="9"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>161</v>
       </c>
@@ -4970,8 +5618,11 @@
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
       <c r="F182" s="9"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>162</v>
       </c>
@@ -4984,8 +5635,11 @@
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="9"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>163</v>
       </c>
@@ -4998,8 +5652,11 @@
       <c r="D184" s="16"/>
       <c r="E184" s="15"/>
       <c r="F184" s="9"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>164</v>
       </c>
@@ -5012,8 +5669,11 @@
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="9"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>165</v>
       </c>
@@ -5026,8 +5686,11 @@
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="9"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>86</v>
       </c>
@@ -5040,8 +5703,11 @@
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="9"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>87</v>
       </c>
@@ -5054,8 +5720,11 @@
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="9"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>525</v>
       </c>
@@ -5068,8 +5737,11 @@
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
       <c r="F189" s="9"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>88</v>
       </c>
@@ -5082,8 +5754,11 @@
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
       <c r="F190" s="9"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>89</v>
       </c>
@@ -5096,8 +5771,11 @@
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
       <c r="F191" s="9"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>90</v>
       </c>
@@ -5110,8 +5788,11 @@
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
       <c r="F192" s="9"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>91</v>
       </c>
@@ -5124,8 +5805,11 @@
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="9"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>529</v>
       </c>
@@ -5138,8 +5822,11 @@
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="9"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>528</v>
       </c>
@@ -5152,8 +5839,11 @@
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="9"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>92</v>
       </c>
@@ -5166,8 +5856,11 @@
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="9"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>166</v>
       </c>
@@ -5180,8 +5873,11 @@
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="9"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>167</v>
       </c>
@@ -5194,8 +5890,11 @@
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="9"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>93</v>
       </c>
@@ -5208,8 +5907,11 @@
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="9"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>94</v>
       </c>
@@ -5224,8 +5926,11 @@
       </c>
       <c r="E200" s="15"/>
       <c r="F200" s="9"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>95</v>
       </c>
@@ -5238,8 +5943,11 @@
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="9"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>96</v>
       </c>
@@ -5254,8 +5962,11 @@
       </c>
       <c r="E202" s="15"/>
       <c r="F202" s="9"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>97</v>
       </c>
@@ -5268,8 +5979,11 @@
       <c r="D203" s="16"/>
       <c r="E203" s="15"/>
       <c r="F203" s="9"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>98</v>
       </c>
@@ -5282,8 +5996,11 @@
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="9"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>99</v>
       </c>
@@ -5296,8 +6013,11 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
       <c r="F205" s="9"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>168</v>
       </c>
@@ -5310,8 +6030,11 @@
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
       <c r="F206" s="9"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>100</v>
       </c>
@@ -5324,8 +6047,11 @@
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
       <c r="F207" s="9"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>101</v>
       </c>
@@ -5338,8 +6064,11 @@
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
       <c r="F208" s="9"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>102</v>
       </c>
@@ -5352,8 +6081,11 @@
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
       <c r="F209" s="9"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>103</v>
       </c>
@@ -5366,8 +6098,11 @@
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
       <c r="F210" s="9"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>104</v>
       </c>
@@ -5380,8 +6115,11 @@
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
       <c r="F211" s="9"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>105</v>
       </c>
@@ -5394,8 +6132,11 @@
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
       <c r="F212" s="9"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>106</v>
       </c>
@@ -5410,8 +6151,11 @@
       </c>
       <c r="E213" s="15"/>
       <c r="F213" s="9"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>169</v>
       </c>
@@ -5424,8 +6168,11 @@
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
       <c r="F214" s="9"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>170</v>
       </c>
@@ -5438,8 +6185,11 @@
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
       <c r="F215" s="9"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>107</v>
       </c>
@@ -5452,8 +6202,11 @@
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
       <c r="F216" s="9"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>108</v>
       </c>
@@ -5466,8 +6219,11 @@
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
       <c r="F217" s="9"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>109</v>
       </c>
@@ -5480,8 +6236,11 @@
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="9"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>110</v>
       </c>
@@ -5496,8 +6255,11 @@
       </c>
       <c r="E219" s="15"/>
       <c r="F219" s="9"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>171</v>
       </c>
@@ -5510,8 +6272,11 @@
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="9"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>111</v>
       </c>
@@ -5524,8 +6289,11 @@
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="9"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>112</v>
       </c>
@@ -5538,8 +6306,11 @@
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
       <c r="F222" s="9"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>172</v>
       </c>
@@ -5552,8 +6323,11 @@
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
       <c r="F223" s="9"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>113</v>
       </c>
@@ -5566,8 +6340,11 @@
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
       <c r="F224" s="9"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>114</v>
       </c>
@@ -5580,8 +6357,11 @@
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
       <c r="F225" s="9"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>115</v>
       </c>
@@ -5594,8 +6374,11 @@
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
       <c r="F226" s="9"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>116</v>
       </c>
@@ -5610,8 +6393,11 @@
       </c>
       <c r="E227" s="15"/>
       <c r="F227" s="9"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>117</v>
       </c>
@@ -5624,8 +6410,11 @@
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
       <c r="F228" s="9"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>118</v>
       </c>
@@ -5638,8 +6427,11 @@
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
       <c r="F229" s="9"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>173</v>
       </c>
@@ -5652,8 +6444,11 @@
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
       <c r="F230" s="9"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>174</v>
       </c>
@@ -5666,8 +6461,11 @@
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
       <c r="F231" s="9"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>119</v>
       </c>
@@ -5680,8 +6478,11 @@
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
       <c r="F232" s="9"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>120</v>
       </c>
@@ -5694,8 +6495,11 @@
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
       <c r="F233" s="9"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>121</v>
       </c>
@@ -5708,8 +6512,11 @@
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
       <c r="F234" s="9"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>122</v>
       </c>
@@ -5722,8 +6529,11 @@
       <c r="D235" s="15"/>
       <c r="E235" s="15"/>
       <c r="F235" s="9"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>123</v>
       </c>
@@ -5736,8 +6546,11 @@
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
       <c r="F236" s="9"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>124</v>
       </c>
@@ -5750,8 +6563,11 @@
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
       <c r="F237" s="9"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>125</v>
       </c>
@@ -5764,8 +6580,11 @@
       <c r="D238" s="15"/>
       <c r="E238" s="15"/>
       <c r="F238" s="9"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>175</v>
       </c>
@@ -5778,8 +6597,11 @@
       <c r="D239" s="15"/>
       <c r="E239" s="15"/>
       <c r="F239" s="9"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>126</v>
       </c>
@@ -5792,8 +6614,11 @@
       <c r="D240" s="15"/>
       <c r="E240" s="15"/>
       <c r="F240" s="9"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>127</v>
       </c>
@@ -5806,8 +6631,11 @@
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
       <c r="F241" s="9"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>128</v>
       </c>
@@ -5820,8 +6648,11 @@
       <c r="D242" s="15"/>
       <c r="E242" s="15"/>
       <c r="F242" s="9"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>129</v>
       </c>
@@ -5836,8 +6667,11 @@
       </c>
       <c r="E243" s="15"/>
       <c r="F243" s="9"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>130</v>
       </c>
@@ -5850,8 +6684,11 @@
       <c r="D244" s="15"/>
       <c r="E244" s="15"/>
       <c r="F244" s="9"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>131</v>
       </c>
@@ -5864,9 +6701,233 @@
       <c r="D245" s="15"/>
       <c r="E245" s="15"/>
       <c r="F245" s="9"/>
+      <c r="G245" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="D246" s="15"/>
+      <c r="E246" s="15"/>
+      <c r="F246" s="15"/>
+      <c r="G246" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="15"/>
+      <c r="G247" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="D248" s="15"/>
+      <c r="E248" s="15"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="15"/>
+      <c r="G249" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="D250" s="15"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="15"/>
+      <c r="G250" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="D252" s="15"/>
+      <c r="E252" s="15"/>
+      <c r="F252" s="15"/>
+      <c r="G252" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="15"/>
+      <c r="G253" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="D254" s="15"/>
+      <c r="E254" s="15"/>
+      <c r="F254" s="15"/>
+      <c r="G254" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="D255" s="15"/>
+      <c r="E255" s="15"/>
+      <c r="F255" s="15"/>
+      <c r="G255" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="D256" s="15"/>
+      <c r="E256" s="15"/>
+      <c r="F256" s="15"/>
+      <c r="G256" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="D257" s="15"/>
+      <c r="E257" s="15"/>
+      <c r="F257" s="15"/>
+      <c r="G257" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="D258" s="15"/>
+      <c r="E258" s="15"/>
+      <c r="F258" s="15"/>
+      <c r="G258" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:F245" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:G258" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5885,7 +6946,7 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -5916,7 +6977,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
-        <v>43609</v>
+        <v>43643</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6020,6 +7081,14 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>43643</v>
+      </c>
+      <c r="B26" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E203FF43-95CB-40CD-A5B0-99CF2EE575F5}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4E914070-122A-4DD6-8893-4BAE19DE3A11}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12600" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13200" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
@@ -2502,16 +2502,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet3">
+  <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,7 +2552,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <f>SUBTOTAL(3,A6:A245)</f>
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>546</v>
@@ -2581,7 +2581,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>286</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>285</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>317</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>318</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>288</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>289</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>290</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>320</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>321</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>9</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>368</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>10</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>12</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>322</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>323</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>15</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>18</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>326</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>518</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>327</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>328</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>329</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>19</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>20</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>21</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>22</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>23</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>330</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>331</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>46</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>47</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>332</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>48</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>49</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>51</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>334</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>52</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>335</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>336</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>337</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>338</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>340</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>39</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>40</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>41</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>341</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>42</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>342</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>343</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>524</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>513</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>514</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>43</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>44</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>45</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>134</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>135</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>136</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>137</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>138</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>139</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>140</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>141</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>142</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>143</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>144</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>344</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>306</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>307</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>312</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>145</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>146</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>147</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>148</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>149</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>150</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>151</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>152</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>153</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>154</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>155</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>156</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>53</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>54</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>345</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>346</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>347</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>348</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>349</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>350</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>351</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>352</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>353</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>354</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>315</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>55</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>57</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>58</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>59</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>60</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>61</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>62</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>63</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>64</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>65</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>66</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>67</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>68</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>69</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>70</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>297</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>298</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>71</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>299</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>72</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>300</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>301</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>73</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>302</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>74</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>303</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>304</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>75</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>305</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>76</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>77</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>78</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>79</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>80</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>81</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>82</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>83</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>84</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>85</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>157</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>158</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>159</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>160</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>161</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>162</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>163</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>164</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>165</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>86</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>87</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>525</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>88</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>89</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>90</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>91</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>529</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>528</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>92</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>166</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>167</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>93</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>94</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>95</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>96</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>97</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>98</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>99</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>168</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>100</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>101</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>102</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>103</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>104</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>105</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>106</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>169</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>170</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>107</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>108</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>109</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>110</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>171</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>111</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>112</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>172</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>113</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>114</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>115</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>116</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>117</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>118</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>173</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>174</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>119</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>120</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>121</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>122</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>123</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>124</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>125</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>175</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>126</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>127</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>128</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>129</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>130</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>131</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>1</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>548</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>549</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>550</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>0</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>575</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>551</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>552</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>558</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>346</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>559</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>560</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>561</v>
       </c>
@@ -6927,7 +6927,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:G258" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
+  <autoFilter ref="A5:G258" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="number of taxa - Family Ephemerellidae"/>
+        <filter val="number of taxa - Order Ephemeroptera"/>
+        <filter val="number of taxa - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)"/>
+        <filter val="number of taxa - Orders Plecoptera, Odonanta, Ephemeroptera, and Trichoptera (POET)"/>
+        <filter val="percent (0-100) individuals - Order Ephemeroptera"/>
+        <filter val="percent (0-100) individuals - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)"/>
+        <filter val="percent (0-100) of individuals - Family Hydropsychidae of Orders Ephemeroptera, Plecoptera, and Trichoptera (EPT)"/>
+        <filter val="percent (0-100) of individuals - Order Ephemeroptera and not Family Caenidae"/>
+        <filter val="percent (0-100) of individuals - Order Ephemeroptera and not Family Caenidae or Baetidae"/>
+        <filter val="percent (0-100) of taxa - Order Ephemeroptera"/>
+        <filter val="percent (0-100) of taxa - Orders Plecoptera, Odonata, Ephemeroptera, and Trichoptera (POET)"/>
+        <filter val="percent (0-100) taxa - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4E914070-122A-4DD6-8893-4BAE19DE3A11}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EC1640CF-FCE9-41D8-A12B-E91E59CEB5CE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13200" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13800" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
@@ -2502,7 +2502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet3" filterMode="1">
+  <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:G258"/>
@@ -2552,7 +2552,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <f>SUBTOTAL(3,A6:A245)</f>
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>546</v>
@@ -2581,7 +2581,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>286</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>285</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>317</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>318</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>288</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>289</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>290</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>320</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>321</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>9</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>368</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>10</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>12</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>322</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>323</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>15</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>18</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>326</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>518</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>327</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>328</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>329</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>19</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>20</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>21</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>22</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>23</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>330</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>331</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>46</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>47</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>332</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>48</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>49</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>51</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>334</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>52</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>335</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>336</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>337</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>338</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>340</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>39</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>40</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>41</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>341</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>42</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>342</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>343</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>524</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>513</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>514</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>43</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>44</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>45</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>134</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>135</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>136</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>137</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>138</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>139</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>140</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>141</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>142</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>143</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>144</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>344</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>306</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>307</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>312</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>145</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>146</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>147</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>148</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>149</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>150</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>151</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>152</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>153</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>154</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>155</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>156</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>53</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>54</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>345</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>346</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>347</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>348</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>349</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>350</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>351</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>352</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>353</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>354</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>315</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>55</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>57</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>58</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>59</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>60</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>61</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>62</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>63</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>64</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>65</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>66</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>67</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>68</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>69</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>70</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>297</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>298</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>71</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>299</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>72</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>300</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>301</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>73</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>302</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>74</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>303</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>304</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>75</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>305</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>76</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>77</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>78</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>79</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>80</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>81</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>82</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>83</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>84</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>85</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>157</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>158</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>159</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>160</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>161</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>162</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>163</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>164</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>165</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>86</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>87</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>525</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>88</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>89</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>90</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>91</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>529</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>528</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>92</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>166</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>167</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>93</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>94</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>95</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>96</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>97</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>98</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>99</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>168</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>100</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>101</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>102</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>103</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>104</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>105</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>106</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>169</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>170</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>107</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>108</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>109</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>110</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>171</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>111</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>112</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>172</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>113</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>114</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>115</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>116</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>117</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>118</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>173</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>174</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>119</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>120</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>121</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>122</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>123</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>124</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>125</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>175</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>126</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>127</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>128</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>129</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>130</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>131</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>1</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>548</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>549</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>550</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>0</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>575</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>551</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>552</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>558</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>346</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>559</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>560</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>561</v>
       </c>
@@ -6927,24 +6927,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:G258" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="number of taxa - Family Ephemerellidae"/>
-        <filter val="number of taxa - Order Ephemeroptera"/>
-        <filter val="number of taxa - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)"/>
-        <filter val="number of taxa - Orders Plecoptera, Odonanta, Ephemeroptera, and Trichoptera (POET)"/>
-        <filter val="percent (0-100) individuals - Order Ephemeroptera"/>
-        <filter val="percent (0-100) individuals - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)"/>
-        <filter val="percent (0-100) of individuals - Family Hydropsychidae of Orders Ephemeroptera, Plecoptera, and Trichoptera (EPT)"/>
-        <filter val="percent (0-100) of individuals - Order Ephemeroptera and not Family Caenidae"/>
-        <filter val="percent (0-100) of individuals - Order Ephemeroptera and not Family Caenidae or Baetidae"/>
-        <filter val="percent (0-100) of taxa - Order Ephemeroptera"/>
-        <filter val="percent (0-100) of taxa - Orders Plecoptera, Odonata, Ephemeroptera, and Trichoptera (POET)"/>
-        <filter val="percent (0-100) taxa - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:G258" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="10_ncr:100000_{10507014-905C-4E4A-AAA6-A82F08BCCFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EC1640CF-FCE9-41D8-A12B-E91E59CEB5CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6446AD15-2614-44BF-87B3-16528DF2DC1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13800" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6446AD15-2614-44BF-87B3-16528DF2DC1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07259E9-A504-4153-8AF1-39BC04499871}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34620" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$285</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="634">
   <si>
     <t>nt_total</t>
   </si>
@@ -1834,6 +1834,177 @@
   </si>
   <si>
     <t>number of taxa - benthic</t>
+  </si>
+  <si>
+    <t>pt_BCG_attNA</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - BCG Attribute NA</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - BCG Attribute NA</t>
+  </si>
+  <si>
+    <t>pi_BCG_attNA</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute NA</t>
+  </si>
+  <si>
+    <t>nt_BCG_attNA</t>
+  </si>
+  <si>
+    <t>Added "NA" to BCG metrics.</t>
+  </si>
+  <si>
+    <t>Added "Habitat" metrics.</t>
+  </si>
+  <si>
+    <t>nt_habitat_brac</t>
+  </si>
+  <si>
+    <t>nt_habitat_depo</t>
+  </si>
+  <si>
+    <t>nt_habitat_gene</t>
+  </si>
+  <si>
+    <t>nt_habitat_head</t>
+  </si>
+  <si>
+    <t>nt_habitat_rheo</t>
+  </si>
+  <si>
+    <t>nt_habitat_rive</t>
+  </si>
+  <si>
+    <t>nt_habitat_spec</t>
+  </si>
+  <si>
+    <t>nt_habitat_unkn</t>
+  </si>
+  <si>
+    <t>pi_habitat_brac</t>
+  </si>
+  <si>
+    <t>pi_habitat_depo</t>
+  </si>
+  <si>
+    <t>pi_habitat_gene</t>
+  </si>
+  <si>
+    <t>pi_habitat_head</t>
+  </si>
+  <si>
+    <t>pi_habitat_rheo</t>
+  </si>
+  <si>
+    <t>pi_habitat_rive</t>
+  </si>
+  <si>
+    <t>pi_habitat_spec</t>
+  </si>
+  <si>
+    <t>pi_habitat_unkn</t>
+  </si>
+  <si>
+    <t>pt_habitat_brac</t>
+  </si>
+  <si>
+    <t>pt_habitat_depo</t>
+  </si>
+  <si>
+    <t>pt_habitat_gene</t>
+  </si>
+  <si>
+    <t>pt_habitat_head</t>
+  </si>
+  <si>
+    <t>pt_habitat_rheo</t>
+  </si>
+  <si>
+    <t>pt_habitat_rive</t>
+  </si>
+  <si>
+    <t>pt_habitat_spec</t>
+  </si>
+  <si>
+    <t>pt_habitat_unkn</t>
+  </si>
+  <si>
+    <t>number of taxa - habitat BRAC</t>
+  </si>
+  <si>
+    <t>number of taxa - habitat DEPO</t>
+  </si>
+  <si>
+    <t>number of taxa - habitat GENE</t>
+  </si>
+  <si>
+    <t>number of taxa - habitat HEAD</t>
+  </si>
+  <si>
+    <t>number of taxa - habitat RHEO</t>
+  </si>
+  <si>
+    <t>number of taxa - habitat RIVE</t>
+  </si>
+  <si>
+    <t>number of taxa - habitat SPEC</t>
+  </si>
+  <si>
+    <t>number of taxa - habitat UNKN</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - habitat BRAC</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - habitat GENE</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - habitat DEPO</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - habitat HEAD</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - habitat RHEO</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - habitat RIVE</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - habitat SPEC</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - habitat UNKN</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - habitat BRAC</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - habitat DEPO</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - habitat GENE</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - habitat HEAD</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - habitat RHEO</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - habitat RIVE</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - habitat SPEC</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - habitat UNKN</t>
+  </si>
+  <si>
+    <t>Habitat</t>
   </si>
 </sst>
 </file>
@@ -2506,13 +2677,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:G285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,7 +2715,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43643</v>
+        <v>43949</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>545</v>
@@ -2552,8 +2723,8 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A245)</f>
-        <v>240</v>
+        <f>SUBTOTAL(3,A6:A272)</f>
+        <v>267</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>546</v>
@@ -5863,426 +6034,370 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>237</v>
+        <v>585</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>609</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="9"/>
-      <c r="G197" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>238</v>
+        <v>586</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>610</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="9"/>
-      <c r="G198" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>222</v>
+        <v>587</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>611</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="9"/>
-      <c r="G199" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>223</v>
+        <v>588</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>612</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D200" s="15" t="s">
-        <v>257</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="9"/>
-      <c r="G200" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>224</v>
+        <v>589</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>613</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="9"/>
-      <c r="G201" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>225</v>
+        <v>590</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>614</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D202" s="15" t="s">
-        <v>257</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="9"/>
-      <c r="G202" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>226</v>
+        <v>591</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>615</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D203" s="16"/>
+        <v>633</v>
+      </c>
+      <c r="D203" s="15"/>
       <c r="E203" s="15"/>
       <c r="F203" s="9"/>
-      <c r="G203" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>227</v>
+        <v>592</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>616</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="9"/>
-      <c r="G204" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>99</v>
+        <v>593</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>228</v>
+        <v>617</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
       <c r="F205" s="9"/>
-      <c r="G205" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>168</v>
+        <v>594</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>229</v>
+        <v>619</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
       <c r="F206" s="9"/>
-      <c r="G206" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>100</v>
+        <v>595</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>230</v>
+        <v>618</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
       <c r="F207" s="9"/>
-      <c r="G207" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>101</v>
+        <v>596</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>231</v>
+        <v>620</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
       <c r="F208" s="9"/>
-      <c r="G208" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>102</v>
+        <v>597</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>232</v>
+        <v>621</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
       <c r="F209" s="9"/>
-      <c r="G209" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>103</v>
+        <v>598</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>233</v>
+        <v>622</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
       <c r="F210" s="9"/>
-      <c r="G210" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>104</v>
+        <v>599</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>234</v>
+        <v>623</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
       <c r="F211" s="9"/>
-      <c r="G211" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>105</v>
+        <v>600</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>235</v>
+        <v>624</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>247</v>
+        <v>633</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
       <c r="F212" s="9"/>
-      <c r="G212" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>106</v>
+        <v>601</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>236</v>
+        <v>625</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D213" s="15" t="s">
-        <v>257</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="D213" s="15"/>
       <c r="E213" s="15"/>
       <c r="F213" s="9"/>
-      <c r="G213" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>169</v>
+        <v>602</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>480</v>
+        <v>626</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
       <c r="F214" s="9"/>
-      <c r="G214" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>170</v>
+        <v>603</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>481</v>
+        <v>627</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
       <c r="F215" s="9"/>
-      <c r="G215" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>107</v>
+        <v>604</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>482</v>
+        <v>628</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
       <c r="F216" s="9"/>
-      <c r="G216" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>108</v>
+        <v>605</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>483</v>
+        <v>629</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
       <c r="F217" s="9"/>
-      <c r="G217" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>109</v>
+        <v>606</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>484</v>
+        <v>630</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="9"/>
-      <c r="G218" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G218" s="1"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>110</v>
+        <v>607</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>485</v>
+        <v>631</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D219" s="15" t="s">
-        <v>257</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="D219" s="15"/>
       <c r="E219" s="15"/>
       <c r="F219" s="9"/>
-      <c r="G219" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>171</v>
+        <v>608</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>486</v>
+        <v>632</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>246</v>
+        <v>633</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="9"/>
-      <c r="G220" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>487</v>
+        <v>166</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>246</v>
@@ -6296,10 +6411,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>488</v>
+        <v>167</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="C222" s="21" t="s">
         <v>246</v>
@@ -6313,10 +6428,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>489</v>
+        <v>93</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="C223" s="21" t="s">
         <v>246</v>
@@ -6330,15 +6445,17 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>490</v>
+        <v>94</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D224" s="15"/>
+      <c r="D224" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E224" s="15"/>
       <c r="F224" s="9"/>
       <c r="G224" s="1" t="s">
@@ -6347,10 +6464,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>491</v>
+        <v>95</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>246</v>
@@ -6364,15 +6481,17 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>492</v>
+        <v>96</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D226" s="15"/>
+      <c r="D226" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E226" s="15"/>
       <c r="F226" s="9"/>
       <c r="G226" s="1" t="s">
@@ -6381,17 +6500,15 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>493</v>
+        <v>97</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D227" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D227" s="16"/>
       <c r="E227" s="15"/>
       <c r="F227" s="9"/>
       <c r="G227" s="1" t="s">
@@ -6400,10 +6517,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>494</v>
+        <v>98</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>246</v>
@@ -6417,13 +6534,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>495</v>
+        <v>228</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
@@ -6434,10 +6551,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>496</v>
+        <v>229</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>246</v>
@@ -6451,10 +6568,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>497</v>
+        <v>230</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>246</v>
@@ -6468,10 +6585,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>498</v>
+        <v>231</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>246</v>
@@ -6485,10 +6602,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>499</v>
+        <v>232</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>246</v>
@@ -6502,10 +6619,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>500</v>
+        <v>233</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>246</v>
@@ -6519,10 +6636,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>501</v>
+        <v>234</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>246</v>
@@ -6536,10 +6653,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>123</v>
+        <v>582</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>502</v>
+        <v>581</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>246</v>
@@ -6553,13 +6670,13 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>503</v>
+        <v>235</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
@@ -6570,15 +6687,17 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>504</v>
+        <v>236</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D238" s="15"/>
+        <v>247</v>
+      </c>
+      <c r="D238" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E238" s="15"/>
       <c r="F238" s="9"/>
       <c r="G238" s="1" t="s">
@@ -6587,10 +6706,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C239" s="21" t="s">
         <v>246</v>
@@ -6604,10 +6723,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>246</v>
@@ -6621,10 +6740,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>246</v>
@@ -6638,10 +6757,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>246</v>
@@ -6655,17 +6774,15 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D243" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D243" s="15"/>
       <c r="E243" s="15"/>
       <c r="F243" s="9"/>
       <c r="G243" s="1" t="s">
@@ -6674,15 +6791,17 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D244" s="15"/>
+      <c r="D244" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E244" s="15"/>
       <c r="F244" s="9"/>
       <c r="G244" s="1" t="s">
@@ -6691,13 +6810,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="C245" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D245" s="15"/>
       <c r="E245" s="15"/>
@@ -6708,227 +6827,690 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C246" s="16" t="s">
-        <v>571</v>
+        <v>111</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C246" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D246" s="15"/>
       <c r="E246" s="15"/>
-      <c r="F246" s="15"/>
+      <c r="F246" s="9"/>
       <c r="G246" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>548</v>
+        <v>112</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="C247" s="16" t="s">
-        <v>572</v>
+        <v>488</v>
+      </c>
+      <c r="C247" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D247" s="15"/>
       <c r="E247" s="15"/>
-      <c r="F247" s="15"/>
+      <c r="F247" s="9"/>
       <c r="G247" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>549</v>
+        <v>172</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="C248" s="16" t="s">
-        <v>573</v>
+        <v>489</v>
+      </c>
+      <c r="C248" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D248" s="15"/>
       <c r="E248" s="15"/>
-      <c r="F248" s="15"/>
+      <c r="F248" s="9"/>
       <c r="G248" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>550</v>
+        <v>113</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="C249" s="16" t="s">
-        <v>572</v>
+        <v>490</v>
+      </c>
+      <c r="C249" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
-      <c r="F249" s="15"/>
+      <c r="F249" s="9"/>
       <c r="G249" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C250" s="16" t="s">
-        <v>573</v>
+      <c r="A250" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C250" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D250" s="15"/>
       <c r="E250" s="15"/>
-      <c r="F250" s="15"/>
+      <c r="F250" s="9"/>
       <c r="G250" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="9" t="s">
-        <v>575</v>
+      <c r="A251" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="C251" s="16" t="s">
-        <v>572</v>
+        <v>492</v>
+      </c>
+      <c r="C251" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D251" s="15"/>
       <c r="E251" s="15"/>
-      <c r="F251" s="15"/>
+      <c r="F251" s="9"/>
       <c r="G251" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>551</v>
+        <v>116</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="C252" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="D252" s="15"/>
+        <v>493</v>
+      </c>
+      <c r="C252" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D252" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E252" s="15"/>
-      <c r="F252" s="15"/>
+      <c r="F252" s="9"/>
       <c r="G252" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>552</v>
+        <v>117</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="C253" s="16" t="s">
-        <v>570</v>
+        <v>494</v>
+      </c>
+      <c r="C253" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
-      <c r="F253" s="15"/>
+      <c r="F253" s="9"/>
       <c r="G253" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="C254" s="16" t="s">
-        <v>570</v>
+        <v>579</v>
+      </c>
+      <c r="C254" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D254" s="15"/>
       <c r="E254" s="15"/>
-      <c r="F254" s="15"/>
+      <c r="F254" s="9"/>
       <c r="G254" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>346</v>
+        <v>118</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="C255" s="16" t="s">
-        <v>570</v>
+        <v>495</v>
+      </c>
+      <c r="C255" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
-      <c r="F255" s="15"/>
+      <c r="F255" s="9"/>
       <c r="G255" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>559</v>
+        <v>173</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="C256" s="16" t="s">
-        <v>569</v>
+        <v>496</v>
+      </c>
+      <c r="C256" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
-      <c r="F256" s="15"/>
+      <c r="F256" s="9"/>
       <c r="G256" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>560</v>
+        <v>174</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="C257" s="16" t="s">
-        <v>567</v>
+        <v>497</v>
+      </c>
+      <c r="C257" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D257" s="15"/>
       <c r="E257" s="15"/>
-      <c r="F257" s="15"/>
+      <c r="F257" s="9"/>
       <c r="G257" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>561</v>
+        <v>119</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C258" s="16" t="s">
-        <v>568</v>
+        <v>498</v>
+      </c>
+      <c r="C258" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D258" s="15"/>
       <c r="E258" s="15"/>
-      <c r="F258" s="15"/>
+      <c r="F258" s="9"/>
       <c r="G258" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C259" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D259" s="15"/>
+      <c r="E259" s="15"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C260" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D260" s="15"/>
+      <c r="E260" s="15"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C261" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D261" s="15"/>
+      <c r="E261" s="15"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C262" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D262" s="15"/>
+      <c r="E262" s="15"/>
+      <c r="F262" s="9"/>
+      <c r="G262" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C263" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D263" s="15"/>
+      <c r="E263" s="15"/>
+      <c r="F263" s="9"/>
+      <c r="G263" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C264" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D264" s="15"/>
+      <c r="E264" s="15"/>
+      <c r="F264" s="9"/>
+      <c r="G264" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C265" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D265" s="15"/>
+      <c r="E265" s="15"/>
+      <c r="F265" s="9"/>
+      <c r="G265" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C266" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D266" s="15"/>
+      <c r="E266" s="15"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C267" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D267" s="15"/>
+      <c r="E267" s="15"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C268" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D268" s="15"/>
+      <c r="E268" s="15"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C269" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D269" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E269" s="15"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C270" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D270" s="15"/>
+      <c r="E270" s="15"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C271" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D271" s="15"/>
+      <c r="E271" s="15"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C272" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D272" s="15"/>
+      <c r="E272" s="15"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C273" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="D273" s="15"/>
+      <c r="E273" s="15"/>
+      <c r="F273" s="15"/>
+      <c r="G273" s="1" t="s">
         <v>547</v>
       </c>
     </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="D274" s="15"/>
+      <c r="E274" s="15"/>
+      <c r="F274" s="15"/>
+      <c r="G274" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C275" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="D275" s="15"/>
+      <c r="E275" s="15"/>
+      <c r="F275" s="15"/>
+      <c r="G275" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C276" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="D276" s="15"/>
+      <c r="E276" s="15"/>
+      <c r="F276" s="15"/>
+      <c r="G276" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C277" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="D277" s="15"/>
+      <c r="E277" s="15"/>
+      <c r="F277" s="15"/>
+      <c r="G277" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C278" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="D278" s="15"/>
+      <c r="E278" s="15"/>
+      <c r="F278" s="15"/>
+      <c r="G278" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C279" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="D279" s="15"/>
+      <c r="E279" s="15"/>
+      <c r="F279" s="15"/>
+      <c r="G279" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="C280" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="D280" s="15"/>
+      <c r="E280" s="15"/>
+      <c r="F280" s="15"/>
+      <c r="G280" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C281" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="D281" s="15"/>
+      <c r="E281" s="15"/>
+      <c r="F281" s="15"/>
+      <c r="G281" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C282" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="D282" s="15"/>
+      <c r="E282" s="15"/>
+      <c r="F282" s="15"/>
+      <c r="G282" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C283" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="D283" s="15"/>
+      <c r="E283" s="15"/>
+      <c r="F283" s="15"/>
+      <c r="G283" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C284" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="D284" s="15"/>
+      <c r="E284" s="15"/>
+      <c r="F284" s="15"/>
+      <c r="G284" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C285" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="D285" s="15"/>
+      <c r="E285" s="15"/>
+      <c r="F285" s="15"/>
+      <c r="G285" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:G258" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
+  <autoFilter ref="A5:G285" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -6947,10 +7529,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7090,6 +7672,19 @@
       </c>
       <c r="B26" t="s">
         <v>541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>43949</v>
+      </c>
+      <c r="B27" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07259E9-A504-4153-8AF1-39BC04499871}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797965FA-3866-437A-9F75-40000F86243D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$285</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$291</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="650">
   <si>
     <t>nt_total</t>
   </si>
@@ -1668,12 +1668,6 @@
     <t>percent (0-100) of individuals - Family Hydropsychidae of Order Trichoptera</t>
   </si>
   <si>
-    <t>Family and SubFamily</t>
-  </si>
-  <si>
-    <t>Family and Genus</t>
-  </si>
-  <si>
     <t>Add 5 metrics from GADNR.2006 index</t>
   </si>
   <si>
@@ -2005,6 +1999,60 @@
   </si>
   <si>
     <t>Habitat</t>
+  </si>
+  <si>
+    <t>Becks Biotic Index v3</t>
+  </si>
+  <si>
+    <t>x_Becks3</t>
+  </si>
+  <si>
+    <t>3*TV0 + 2*TV1 + 1*TV2</t>
+  </si>
+  <si>
+    <t>Added 5 new metrics for PA freestone IBI</t>
+  </si>
+  <si>
+    <t>pi_tv_intol4</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - tolerance value - intolerant ≤ 4</t>
+  </si>
+  <si>
+    <t>pt_tv_intol4</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - tolerance value - intolerant ≤ 4</t>
+  </si>
+  <si>
+    <t>nt_tv_intol4_EPT</t>
+  </si>
+  <si>
+    <t>number of taxa - tolerance value - intolerant ≤ 4 and Orders Ephemeroptera, Plecoptera, and Trichoptera (EPT)</t>
+  </si>
+  <si>
+    <t>TolVal, Order</t>
+  </si>
+  <si>
+    <t>pi_Chiro_Anne</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - Order Chironomidae and Phylum Annelida</t>
+  </si>
+  <si>
+    <t>Order, Family</t>
+  </si>
+  <si>
+    <t>Family, Genus</t>
+  </si>
+  <si>
+    <t>Family, SubFamily</t>
+  </si>
+  <si>
+    <t>pi_Ortho</t>
+  </si>
+  <si>
+    <t>percent (0-100) of taxa - SubFamily Orthocladiinae</t>
   </si>
 </sst>
 </file>
@@ -2677,13 +2725,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:G285"/>
+  <dimension ref="A1:G291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A192" sqref="A192"/>
+      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,19 +2763,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43949</v>
+        <v>44007</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A272)</f>
-        <v>267</v>
+        <f>SUBTOTAL(3,A6:A278)</f>
+        <v>273</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2738,7 +2786,7 @@
         <v>133</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>199</v>
@@ -2750,7 +2798,7 @@
         <v>177</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2765,7 +2813,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="6"/>
       <c r="G6" s="25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2780,7 +2828,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="6"/>
       <c r="G7" s="25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2795,7 +2843,7 @@
       <c r="E8" s="26"/>
       <c r="F8" s="6"/>
       <c r="G8" s="25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2814,7 +2862,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2831,7 +2879,7 @@
       <c r="E10" s="15"/>
       <c r="F10" s="7"/>
       <c r="G10" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2848,7 +2896,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="7"/>
       <c r="G11" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2867,7 +2915,7 @@
         <v>259</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2884,7 +2932,7 @@
       <c r="E13" s="15"/>
       <c r="F13" s="7"/>
       <c r="G13" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2903,7 +2951,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="9"/>
       <c r="G14" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2920,7 +2968,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="9"/>
       <c r="G15" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2937,7 +2985,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
       <c r="G16" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2954,7 +3002,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="9"/>
       <c r="G17" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2971,7 +3019,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="9"/>
       <c r="G18" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2988,7 +3036,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="9"/>
       <c r="G19" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3005,7 +3053,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="9"/>
       <c r="G20" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3022,7 +3070,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="9"/>
       <c r="G21" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3039,7 +3087,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="9"/>
       <c r="G22" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3058,7 +3106,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="9"/>
       <c r="G23" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3075,7 +3123,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="9"/>
       <c r="G24" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3092,7 +3140,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="9"/>
       <c r="G25" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3109,7 +3157,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="9"/>
       <c r="G26" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3126,7 +3174,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="9"/>
       <c r="G27" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3143,7 +3191,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="9"/>
       <c r="G28" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3160,7 +3208,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="9"/>
       <c r="G29" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3177,7 +3225,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="7"/>
       <c r="G30" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3194,7 +3242,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="7"/>
       <c r="G31" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3211,7 +3259,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="7"/>
       <c r="G32" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3228,7 +3276,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="7"/>
       <c r="G33" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3245,7 +3293,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="7"/>
       <c r="G34" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3262,7 +3310,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="7"/>
       <c r="G35" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3279,7 +3327,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="7"/>
       <c r="G36" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3296,7 +3344,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="7"/>
       <c r="G37" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3313,7 +3361,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="7"/>
       <c r="G38" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3330,7 +3378,7 @@
       <c r="E39" s="19"/>
       <c r="F39" s="7"/>
       <c r="G39" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3347,7 +3395,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="7"/>
       <c r="G40" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3364,7 +3412,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="9"/>
       <c r="G41" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3381,7 +3429,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="9"/>
       <c r="G42" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3398,7 +3446,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="9"/>
       <c r="G43" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3415,7 +3463,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="9"/>
       <c r="G44" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3432,7 +3480,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="9"/>
       <c r="G45" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3449,7 +3497,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="9"/>
       <c r="G46" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3466,7 +3514,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="9"/>
       <c r="G47" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3483,7 +3531,7 @@
       <c r="E48" s="16"/>
       <c r="F48" s="9"/>
       <c r="G48" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3500,7 +3548,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="9"/>
       <c r="G49" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3517,7 +3565,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="9"/>
       <c r="G50" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3534,7 +3582,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="9"/>
       <c r="G51" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3551,7 +3599,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="9"/>
       <c r="G52" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3568,7 +3616,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="9"/>
       <c r="G53" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3585,7 +3633,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="9"/>
       <c r="G54" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3602,7 +3650,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="9"/>
       <c r="G55" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3619,7 +3667,7 @@
       <c r="E56" s="20"/>
       <c r="F56" s="9"/>
       <c r="G56" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3636,7 +3684,7 @@
       <c r="E57" s="20"/>
       <c r="F57" s="9"/>
       <c r="G57" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3653,7 +3701,7 @@
       <c r="E58" s="20"/>
       <c r="F58" s="9"/>
       <c r="G58" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3670,7 +3718,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="9"/>
       <c r="G59" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3687,7 +3735,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="9"/>
       <c r="G60" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3704,7 +3752,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="9"/>
       <c r="G61" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3721,7 +3769,7 @@
       <c r="E62" s="20"/>
       <c r="F62" s="9"/>
       <c r="G62" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3738,7 +3786,7 @@
       <c r="E63" s="20"/>
       <c r="F63" s="9"/>
       <c r="G63" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3755,7 +3803,7 @@
       <c r="E64" s="20"/>
       <c r="F64" s="9"/>
       <c r="G64" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3772,7 +3820,7 @@
       <c r="E65" s="20"/>
       <c r="F65" s="9"/>
       <c r="G65" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3789,7 +3837,7 @@
       <c r="E66" s="20"/>
       <c r="F66" s="9"/>
       <c r="G66" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3806,7 +3854,7 @@
       <c r="E67" s="20"/>
       <c r="F67" s="9"/>
       <c r="G67" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3823,7 +3871,7 @@
       <c r="E68" s="20"/>
       <c r="F68" s="9"/>
       <c r="G68" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3840,7 +3888,7 @@
       <c r="E69" s="20"/>
       <c r="F69" s="9"/>
       <c r="G69" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3857,7 +3905,7 @@
       <c r="E70" s="20"/>
       <c r="F70" s="9"/>
       <c r="G70" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3874,7 +3922,7 @@
       <c r="E71" s="20"/>
       <c r="F71" s="9"/>
       <c r="G71" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3891,7 +3939,7 @@
       <c r="E72" s="16"/>
       <c r="F72" s="9"/>
       <c r="G72" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3908,7 +3956,7 @@
       <c r="E73" s="16"/>
       <c r="F73" s="9"/>
       <c r="G73" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3925,7 +3973,7 @@
       <c r="E74" s="16"/>
       <c r="F74" s="9"/>
       <c r="G74" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3942,7 +3990,7 @@
       <c r="E75" s="16"/>
       <c r="F75" s="9"/>
       <c r="G75" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3959,7 +4007,7 @@
       <c r="E76" s="16"/>
       <c r="F76" s="9"/>
       <c r="G76" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3976,7 +4024,7 @@
       <c r="E77" s="16"/>
       <c r="F77" s="9"/>
       <c r="G77" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3993,7 +4041,7 @@
       <c r="E78" s="16"/>
       <c r="F78" s="9"/>
       <c r="G78" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4010,7 +4058,7 @@
       <c r="E79" s="16"/>
       <c r="F79" s="9"/>
       <c r="G79" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4027,7 +4075,7 @@
       <c r="E80" s="16"/>
       <c r="F80" s="9"/>
       <c r="G80" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4044,7 +4092,7 @@
       <c r="E81" s="16"/>
       <c r="F81" s="9"/>
       <c r="G81" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4061,7 +4109,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="9"/>
       <c r="G82" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4078,7 +4126,7 @@
       <c r="E83" s="16"/>
       <c r="F83" s="9"/>
       <c r="G83" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4095,7 +4143,7 @@
       <c r="E84" s="16"/>
       <c r="F84" s="9"/>
       <c r="G84" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4112,7 +4160,7 @@
       <c r="E85" s="16"/>
       <c r="F85" s="9"/>
       <c r="G85" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4129,7 +4177,7 @@
       <c r="E86" s="16"/>
       <c r="F86" s="9"/>
       <c r="G86" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4146,7 +4194,7 @@
       <c r="E87" s="16"/>
       <c r="F87" s="9"/>
       <c r="G87" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4163,311 +4211,309 @@
       <c r="E88" s="16"/>
       <c r="F88" s="9"/>
       <c r="G88" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>414</v>
+        <v>648</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>649</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
+        <v>359</v>
+      </c>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
       <c r="F89" s="9"/>
       <c r="G89" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>415</v>
+        <v>42</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
+        <v>244</v>
+      </c>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
       <c r="F90" s="9"/>
       <c r="G90" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>242</v>
+        <v>359</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="9"/>
       <c r="G91" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>524</v>
+      <c r="A92" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>512</v>
+        <v>416</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>522</v>
+        <v>242</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="9"/>
       <c r="G92" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>521</v>
+        <v>646</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="9"/>
       <c r="G93" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="9"/>
       <c r="G94" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>254</v>
+      <c r="A95" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>647</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>254</v>
+      <c r="A96" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>645</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="9"/>
       <c r="G96" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>418</v>
+        <v>43</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>254</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
-      <c r="F97" s="9"/>
+      <c r="F97" s="7"/>
       <c r="G97" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>249</v>
+        <v>44</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>417</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
-      <c r="F98" s="7"/>
+      <c r="F98" s="9"/>
       <c r="G98" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="9"/>
       <c r="G99" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>420</v>
+        <v>134</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>255</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="9"/>
+      <c r="F100" s="7"/>
       <c r="G100" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>421</v>
+        <v>135</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="9"/>
       <c r="G101" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>251</v>
+        <v>420</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
       <c r="F102" s="9"/>
       <c r="G102" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>257</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D103" s="16"/>
       <c r="E103" s="16"/>
       <c r="F103" s="9"/>
       <c r="G103" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>423</v>
+        <v>251</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>257</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D104" s="16"/>
       <c r="E104" s="16"/>
       <c r="F104" s="9"/>
       <c r="G104" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>253</v>
+        <v>422</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D105" s="16"/>
+        <v>268</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="E105" s="16"/>
       <c r="F105" s="9"/>
       <c r="G105" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>257</v>
@@ -4475,15 +4521,15 @@
       <c r="E106" s="16"/>
       <c r="F106" s="9"/>
       <c r="G106" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>425</v>
+        <v>253</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>255</v>
@@ -4492,157 +4538,155 @@
       <c r="E107" s="16"/>
       <c r="F107" s="9"/>
       <c r="G107" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="D108" s="16"/>
+        <v>255</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="E108" s="16"/>
       <c r="F108" s="9"/>
       <c r="G108" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>427</v>
+        <v>143</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>425</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>357</v>
+        <v>255</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="9"/>
       <c r="G109" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>308</v>
+        <v>144</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="9"/>
       <c r="G110" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>309</v>
+        <v>344</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>427</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="9"/>
       <c r="G111" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
-      <c r="F112" s="7"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>145</v>
+      <c r="A113" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="D113" s="16"/>
-      <c r="E113" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="F113" s="7"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="9"/>
       <c r="G113" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>195</v>
+      <c r="A114" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>313</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15" t="s">
-        <v>257</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
       <c r="F114" s="7"/>
       <c r="G114" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>197</v>
+      <c r="A115" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="C115" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15" t="s">
+      <c r="D115" s="16"/>
+      <c r="E115" s="16" t="s">
         <v>257</v>
       </c>
       <c r="F115" s="7"/>
       <c r="G115" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C116" s="21" t="s">
         <v>205</v>
@@ -4653,15 +4697,15 @@
       </c>
       <c r="F116" s="7"/>
       <c r="G116" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>428</v>
+        <v>197</v>
       </c>
       <c r="C117" s="21" t="s">
         <v>205</v>
@@ -4670,17 +4714,17 @@
       <c r="E117" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="F117" s="9"/>
+      <c r="F117" s="7"/>
       <c r="G117" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>429</v>
+        <v>198</v>
       </c>
       <c r="C118" s="21" t="s">
         <v>205</v>
@@ -4689,17 +4733,17 @@
       <c r="E118" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="F118" s="9"/>
+      <c r="F118" s="7"/>
       <c r="G118" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>151</v>
+      <c r="A119" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C119" s="21" t="s">
         <v>205</v>
@@ -4710,15 +4754,15 @@
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>152</v>
+      <c r="A120" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C120" s="21" t="s">
         <v>205</v>
@@ -4729,15 +4773,15 @@
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C121" s="21" t="s">
         <v>205</v>
@@ -4748,15 +4792,15 @@
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C122" s="21" t="s">
         <v>205</v>
@@ -4767,15 +4811,15 @@
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C123" s="21" t="s">
         <v>205</v>
@@ -4786,15 +4830,15 @@
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>435</v>
+      <c r="A124" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>433</v>
       </c>
       <c r="C124" s="21" t="s">
         <v>205</v>
@@ -4805,49 +4849,53 @@
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>220</v>
+      <c r="A125" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
+      <c r="E125" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="F125" s="9"/>
       <c r="G125" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>221</v>
+        <v>435</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
+      <c r="E126" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="F126" s="9"/>
       <c r="G126" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>436</v>
+        <v>53</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="C127" s="21" t="s">
         <v>206</v>
@@ -4856,15 +4904,15 @@
       <c r="E127" s="15"/>
       <c r="F127" s="9"/>
       <c r="G127" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>437</v>
+      <c r="A128" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="C128" s="21" t="s">
         <v>206</v>
@@ -4873,15 +4921,15 @@
       <c r="E128" s="15"/>
       <c r="F128" s="9"/>
       <c r="G128" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C129" s="21" t="s">
         <v>206</v>
@@ -4890,15 +4938,15 @@
       <c r="E129" s="15"/>
       <c r="F129" s="9"/>
       <c r="G129" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>348</v>
+        <v>636</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>439</v>
+        <v>637</v>
       </c>
       <c r="C130" s="21" t="s">
         <v>206</v>
@@ -4907,15 +4955,15 @@
       <c r="E130" s="15"/>
       <c r="F130" s="9"/>
       <c r="G130" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="C131" s="21" t="s">
         <v>206</v>
@@ -4924,15 +4972,15 @@
       <c r="E131" s="15"/>
       <c r="F131" s="9"/>
       <c r="G131" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>367</v>
+        <v>438</v>
       </c>
       <c r="C132" s="21" t="s">
         <v>206</v>
@@ -4941,15 +4989,15 @@
       <c r="E132" s="15"/>
       <c r="F132" s="9"/>
       <c r="G132" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>351</v>
+        <v>638</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>440</v>
+        <v>639</v>
       </c>
       <c r="C133" s="21" t="s">
         <v>206</v>
@@ -4958,15 +5006,15 @@
       <c r="E133" s="15"/>
       <c r="F133" s="9"/>
       <c r="G133" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C134" s="21" t="s">
         <v>206</v>
@@ -4975,151 +5023,151 @@
       <c r="E134" s="15"/>
       <c r="F134" s="9"/>
       <c r="G134" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>442</v>
+        <v>640</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>641</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>206</v>
+        <v>642</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
       <c r="F135" s="9"/>
       <c r="G135" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C136" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C136" s="21" t="s">
         <v>206</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
       <c r="F136" s="9"/>
       <c r="G136" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>527</v>
+        <v>350</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
       <c r="F137" s="9"/>
       <c r="G137" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>207</v>
+        <v>351</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
       <c r="F138" s="9"/>
       <c r="G138" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>207</v>
+        <v>352</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
       <c r="F139" s="9"/>
       <c r="G139" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>207</v>
+        <v>353</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
       <c r="F140" s="9"/>
       <c r="G140" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>207</v>
+        <v>354</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
       <c r="F141" s="9"/>
       <c r="G141" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>207</v>
+        <v>525</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
       <c r="F142" s="9"/>
       <c r="G142" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>445</v>
+        <v>210</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>207</v>
@@ -5128,15 +5176,15 @@
       <c r="E143" s="15"/>
       <c r="F143" s="9"/>
       <c r="G143" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>446</v>
+        <v>211</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>207</v>
@@ -5145,15 +5193,15 @@
       <c r="E144" s="15"/>
       <c r="F144" s="9"/>
       <c r="G144" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>447</v>
+        <v>212</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>207</v>
@@ -5162,15 +5210,15 @@
       <c r="E145" s="15"/>
       <c r="F145" s="9"/>
       <c r="G145" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>448</v>
+        <v>213</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>207</v>
@@ -5179,15 +5227,15 @@
       <c r="E146" s="15"/>
       <c r="F146" s="9"/>
       <c r="G146" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>449</v>
+        <v>214</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>207</v>
@@ -5196,15 +5244,15 @@
       <c r="E147" s="15"/>
       <c r="F147" s="9"/>
       <c r="G147" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>450</v>
+      <c r="A148" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>445</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>207</v>
@@ -5213,15 +5261,15 @@
       <c r="E148" s="15"/>
       <c r="F148" s="9"/>
       <c r="G148" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>451</v>
+        <v>61</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>446</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>207</v>
@@ -5230,15 +5278,15 @@
       <c r="E149" s="15"/>
       <c r="F149" s="9"/>
       <c r="G149" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>452</v>
+        <v>62</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>447</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>207</v>
@@ -5247,15 +5295,15 @@
       <c r="E150" s="15"/>
       <c r="F150" s="9"/>
       <c r="G150" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>453</v>
+        <v>63</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>207</v>
@@ -5264,15 +5312,15 @@
       <c r="E151" s="15"/>
       <c r="F151" s="9"/>
       <c r="G151" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>207</v>
@@ -5281,185 +5329,185 @@
       <c r="E152" s="15"/>
       <c r="F152" s="9"/>
       <c r="G152" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>70</v>
+      <c r="A153" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
-      <c r="F153" s="7"/>
+      <c r="F153" s="9"/>
       <c r="G153" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>208</v>
+        <v>66</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
-      <c r="F154" s="7"/>
+      <c r="F154" s="9"/>
       <c r="G154" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C155" s="21" t="s">
-        <v>208</v>
+        <v>67</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
-      <c r="F155" s="11"/>
+      <c r="F155" s="9"/>
       <c r="G155" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>208</v>
+        <v>68</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
-      <c r="F156" s="11"/>
+      <c r="F156" s="9"/>
       <c r="G156" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C157" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D157" s="16"/>
+        <v>454</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D157" s="15"/>
       <c r="E157" s="15"/>
-      <c r="F157" s="11"/>
+      <c r="F157" s="9"/>
       <c r="G157" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="C158" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158" s="16" t="s">
         <v>208</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
-      <c r="F158" s="9"/>
+      <c r="F158" s="7"/>
       <c r="G158" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>456</v>
+        <v>297</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C159" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D159" s="16"/>
+      <c r="D159" s="15"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="9"/>
+      <c r="F159" s="7"/>
       <c r="G159" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>457</v>
+        <v>298</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C160" s="21" t="s">
         <v>208</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
-      <c r="F160" s="9"/>
+      <c r="F160" s="11"/>
       <c r="G160" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>458</v>
+        <v>201</v>
       </c>
       <c r="C161" s="21" t="s">
         <v>208</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
-      <c r="F161" s="9"/>
+      <c r="F161" s="11"/>
       <c r="G161" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>459</v>
+        <v>204</v>
       </c>
       <c r="C162" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D162" s="15"/>
+      <c r="D162" s="16"/>
       <c r="E162" s="15"/>
-      <c r="F162" s="9"/>
+      <c r="F162" s="11"/>
       <c r="G162" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C163" s="21" t="s">
         <v>208</v>
@@ -5468,32 +5516,32 @@
       <c r="E163" s="15"/>
       <c r="F163" s="9"/>
       <c r="G163" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C164" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D164" s="15"/>
+      <c r="D164" s="16"/>
       <c r="E164" s="15"/>
       <c r="F164" s="9"/>
       <c r="G164" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C165" s="21" t="s">
         <v>208</v>
@@ -5502,15 +5550,15 @@
       <c r="E165" s="15"/>
       <c r="F165" s="9"/>
       <c r="G165" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C166" s="21" t="s">
         <v>208</v>
@@ -5519,15 +5567,15 @@
       <c r="E166" s="15"/>
       <c r="F166" s="9"/>
       <c r="G166" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C167" s="21" t="s">
         <v>208</v>
@@ -5536,270 +5584,270 @@
       <c r="E167" s="15"/>
       <c r="F167" s="9"/>
       <c r="G167" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>215</v>
+        <v>460</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
-      <c r="F168" s="12"/>
+      <c r="F168" s="9"/>
       <c r="G168" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>216</v>
+        <v>303</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>461</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
-      <c r="F169" s="11"/>
+      <c r="F169" s="9"/>
       <c r="G169" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>217</v>
+        <v>304</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>462</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D170" s="16"/>
+        <v>208</v>
+      </c>
+      <c r="D170" s="15"/>
       <c r="E170" s="15"/>
-      <c r="F170" s="11"/>
+      <c r="F170" s="9"/>
       <c r="G170" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>465</v>
+        <v>75</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
       <c r="F171" s="9"/>
       <c r="G171" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>466</v>
+        <v>305</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>464</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="9"/>
       <c r="G172" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>467</v>
+        <v>215</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>209</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
-      <c r="F173" s="9"/>
+      <c r="F173" s="12"/>
       <c r="G173" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>468</v>
+        <v>77</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="C174" s="21" t="s">
         <v>209</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
-      <c r="F174" s="9"/>
+      <c r="F174" s="11"/>
       <c r="G174" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>469</v>
+        <v>78</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="C175" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D175" s="15"/>
+      <c r="D175" s="16"/>
       <c r="E175" s="15"/>
-      <c r="F175" s="9"/>
+      <c r="F175" s="11"/>
       <c r="G175" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>470</v>
+        <v>79</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="C176" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D176" s="16"/>
+      <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="9"/>
       <c r="G176" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>537</v>
+        <v>80</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="9"/>
       <c r="G177" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="9"/>
       <c r="G178" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="9"/>
       <c r="G179" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
       <c r="F180" s="9"/>
       <c r="G180" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D181" s="15"/>
+        <v>209</v>
+      </c>
+      <c r="D181" s="16"/>
       <c r="E181" s="15"/>
       <c r="F181" s="9"/>
       <c r="G181" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>475</v>
+        <v>85</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>535</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
       <c r="F182" s="9"/>
       <c r="G182" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C183" s="21" t="s">
         <v>265</v>
@@ -5808,32 +5856,32 @@
       <c r="E183" s="15"/>
       <c r="F183" s="9"/>
       <c r="G183" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C184" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D184" s="16"/>
+      <c r="D184" s="15"/>
       <c r="E184" s="15"/>
       <c r="F184" s="9"/>
       <c r="G184" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C185" s="21" t="s">
         <v>265</v>
@@ -5842,15 +5890,15 @@
       <c r="E185" s="15"/>
       <c r="F185" s="9"/>
       <c r="G185" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>479</v>
+        <v>160</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>474</v>
       </c>
       <c r="C186" s="21" t="s">
         <v>265</v>
@@ -5859,100 +5907,100 @@
       <c r="E186" s="15"/>
       <c r="F186" s="9"/>
       <c r="G186" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>218</v>
+        <v>161</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>475</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="9"/>
       <c r="G187" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>219</v>
+        <v>162</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>476</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="9"/>
       <c r="G188" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>526</v>
+      <c r="A189" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>477</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="D189" s="15"/>
+        <v>265</v>
+      </c>
+      <c r="D189" s="16"/>
       <c r="E189" s="15"/>
       <c r="F189" s="9"/>
       <c r="G189" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>532</v>
+        <v>164</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>478</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
       <c r="F190" s="9"/>
       <c r="G190" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>533</v>
+        <v>479</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
       <c r="F191" s="9"/>
       <c r="G191" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>534</v>
+        <v>86</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="C192" s="21" t="s">
         <v>248</v>
@@ -5961,63 +6009,65 @@
       <c r="E192" s="15"/>
       <c r="F192" s="9"/>
       <c r="G192" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>531</v>
+        <v>633</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
-      <c r="F193" s="9"/>
+      <c r="F193" s="9" t="s">
+        <v>634</v>
+      </c>
       <c r="G193" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>539</v>
+      <c r="A194" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="9"/>
       <c r="G194" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>538</v>
+        <v>523</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>241</v>
+        <v>525</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="9"/>
       <c r="G195" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>530</v>
@@ -6029,108 +6079,120 @@
       <c r="E196" s="15"/>
       <c r="F196" s="9"/>
       <c r="G196" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>585</v>
+        <v>89</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>609</v>
+        <v>531</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>633</v>
+        <v>248</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="9"/>
-      <c r="G197" s="1"/>
+      <c r="G197" s="1" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>586</v>
+        <v>90</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>610</v>
+        <v>532</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>633</v>
+        <v>248</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="9"/>
-      <c r="G198" s="1"/>
+      <c r="G198" s="1" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>587</v>
+        <v>91</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>611</v>
+        <v>529</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>633</v>
+        <v>241</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="9"/>
-      <c r="G199" s="1"/>
+      <c r="G199" s="1" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="7" t="s">
-        <v>588</v>
+      <c r="A200" s="9" t="s">
+        <v>527</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>612</v>
+        <v>537</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>633</v>
+        <v>241</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="9"/>
-      <c r="G200" s="1"/>
+      <c r="G200" s="1" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="7" t="s">
-        <v>589</v>
+      <c r="A201" s="9" t="s">
+        <v>526</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>613</v>
+        <v>536</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>633</v>
+        <v>241</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="9"/>
-      <c r="G201" s="1"/>
+      <c r="G201" s="1" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>590</v>
+        <v>92</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>614</v>
+        <v>528</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>633</v>
+        <v>248</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="9"/>
-      <c r="G202" s="1"/>
+      <c r="G202" s="1" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -6139,13 +6201,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -6154,13 +6216,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
@@ -6169,13 +6231,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
@@ -6184,13 +6246,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
@@ -6199,13 +6261,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
@@ -6214,13 +6276,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
@@ -6229,13 +6291,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
@@ -6244,13 +6306,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
@@ -6259,13 +6321,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
@@ -6274,13 +6336,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
@@ -6289,13 +6351,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
@@ -6304,13 +6366,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
@@ -6319,13 +6381,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
@@ -6334,13 +6396,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
@@ -6349,13 +6411,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
@@ -6364,13 +6426,13 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B219" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C219" s="21" t="s">
         <v>631</v>
-      </c>
-      <c r="C219" s="21" t="s">
-        <v>633</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
@@ -6379,13 +6441,13 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
@@ -6394,133 +6456,117 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>237</v>
+        <v>601</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>625</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>246</v>
+        <v>631</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="9"/>
-      <c r="G221" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>238</v>
+        <v>602</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>626</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>246</v>
+        <v>631</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
       <c r="F222" s="9"/>
-      <c r="G222" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G222" s="1"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>222</v>
+        <v>603</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>627</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>246</v>
+        <v>631</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
       <c r="F223" s="9"/>
-      <c r="G223" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>223</v>
+        <v>604</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>628</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D224" s="15" t="s">
-        <v>257</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="D224" s="15"/>
       <c r="E224" s="15"/>
       <c r="F224" s="9"/>
-      <c r="G224" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G224" s="1"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>224</v>
+        <v>605</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>629</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>246</v>
+        <v>631</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
       <c r="F225" s="9"/>
-      <c r="G225" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>225</v>
+        <v>606</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>630</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D226" s="15" t="s">
-        <v>257</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="D226" s="15"/>
       <c r="E226" s="15"/>
       <c r="F226" s="9"/>
-      <c r="G226" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="G226" s="1"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D227" s="16"/>
+      <c r="D227" s="15"/>
       <c r="E227" s="15"/>
       <c r="F227" s="9"/>
       <c r="G227" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>246</v>
@@ -6529,15 +6575,15 @@
       <c r="E228" s="15"/>
       <c r="F228" s="9"/>
       <c r="G228" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>228</v>
+        <v>93</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>246</v>
@@ -6546,32 +6592,34 @@
       <c r="E229" s="15"/>
       <c r="F229" s="9"/>
       <c r="G229" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>229</v>
+        <v>94</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D230" s="15"/>
+      <c r="D230" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E230" s="15"/>
       <c r="F230" s="9"/>
       <c r="G230" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>230</v>
+        <v>95</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>246</v>
@@ -6580,49 +6628,51 @@
       <c r="E231" s="15"/>
       <c r="F231" s="9"/>
       <c r="G231" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>231</v>
+        <v>96</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D232" s="15"/>
+      <c r="D232" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E232" s="15"/>
       <c r="F232" s="9"/>
       <c r="G232" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>232</v>
+        <v>97</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D233" s="15"/>
+      <c r="D233" s="16"/>
       <c r="E233" s="15"/>
       <c r="F233" s="9"/>
       <c r="G233" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>233</v>
+        <v>98</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>246</v>
@@ -6631,15 +6681,15 @@
       <c r="E234" s="15"/>
       <c r="F234" s="9"/>
       <c r="G234" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>246</v>
@@ -6648,15 +6698,15 @@
       <c r="E235" s="15"/>
       <c r="F235" s="9"/>
       <c r="G235" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>582</v>
+        <v>168</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>581</v>
+        <v>229</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>246</v>
@@ -6665,51 +6715,49 @@
       <c r="E236" s="15"/>
       <c r="F236" s="9"/>
       <c r="G236" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
       <c r="F237" s="9"/>
       <c r="G237" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D238" s="15" t="s">
-        <v>257</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D238" s="15"/>
       <c r="E238" s="15"/>
       <c r="F238" s="9"/>
       <c r="G238" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>480</v>
+        <v>232</v>
       </c>
       <c r="C239" s="21" t="s">
         <v>246</v>
@@ -6718,15 +6766,15 @@
       <c r="E239" s="15"/>
       <c r="F239" s="9"/>
       <c r="G239" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>481</v>
+        <v>233</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>246</v>
@@ -6735,15 +6783,15 @@
       <c r="E240" s="15"/>
       <c r="F240" s="9"/>
       <c r="G240" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>482</v>
+        <v>234</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>246</v>
@@ -6752,15 +6800,15 @@
       <c r="E241" s="15"/>
       <c r="F241" s="9"/>
       <c r="G241" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>108</v>
+        <v>580</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>483</v>
+        <v>579</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>246</v>
@@ -6769,35 +6817,35 @@
       <c r="E242" s="15"/>
       <c r="F242" s="9"/>
       <c r="G242" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>484</v>
+        <v>235</v>
       </c>
       <c r="C243" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
       <c r="F243" s="9"/>
       <c r="G243" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>485</v>
+        <v>236</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D244" s="15" t="s">
         <v>257</v>
@@ -6805,15 +6853,15 @@
       <c r="E244" s="15"/>
       <c r="F244" s="9"/>
       <c r="G244" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>246</v>
@@ -6822,15 +6870,15 @@
       <c r="E245" s="15"/>
       <c r="F245" s="9"/>
       <c r="G245" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C246" s="21" t="s">
         <v>246</v>
@@ -6839,15 +6887,15 @@
       <c r="E246" s="15"/>
       <c r="F246" s="9"/>
       <c r="G246" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>246</v>
@@ -6856,15 +6904,15 @@
       <c r="E247" s="15"/>
       <c r="F247" s="9"/>
       <c r="G247" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>246</v>
@@ -6873,15 +6921,15 @@
       <c r="E248" s="15"/>
       <c r="F248" s="9"/>
       <c r="G248" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C249" s="21" t="s">
         <v>246</v>
@@ -6890,32 +6938,34 @@
       <c r="E249" s="15"/>
       <c r="F249" s="9"/>
       <c r="G249" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D250" s="15"/>
+      <c r="D250" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E250" s="15"/>
       <c r="F250" s="9"/>
       <c r="G250" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C251" s="21" t="s">
         <v>246</v>
@@ -6924,34 +6974,32 @@
       <c r="E251" s="15"/>
       <c r="F251" s="9"/>
       <c r="G251" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C252" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D252" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D252" s="15"/>
       <c r="E252" s="15"/>
       <c r="F252" s="9"/>
       <c r="G252" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>246</v>
@@ -6960,15 +7008,15 @@
       <c r="E253" s="15"/>
       <c r="F253" s="9"/>
       <c r="G253" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>580</v>
+        <v>172</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>246</v>
@@ -6977,32 +7025,32 @@
       <c r="E254" s="15"/>
       <c r="F254" s="9"/>
       <c r="G254" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C255" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
       <c r="F255" s="9"/>
       <c r="G255" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>246</v>
@@ -7011,15 +7059,15 @@
       <c r="E256" s="15"/>
       <c r="F256" s="9"/>
       <c r="G256" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>246</v>
@@ -7028,32 +7076,34 @@
       <c r="E257" s="15"/>
       <c r="F257" s="9"/>
       <c r="G257" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D258" s="15"/>
+      <c r="D258" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E258" s="15"/>
       <c r="F258" s="9"/>
       <c r="G258" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>246</v>
@@ -7062,15 +7112,15 @@
       <c r="E259" s="15"/>
       <c r="F259" s="9"/>
       <c r="G259" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>121</v>
+        <v>578</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>500</v>
+        <v>577</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>246</v>
@@ -7079,32 +7129,32 @@
       <c r="E260" s="15"/>
       <c r="F260" s="9"/>
       <c r="G260" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C261" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
       <c r="F261" s="9"/>
       <c r="G261" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C262" s="21" t="s">
         <v>246</v>
@@ -7113,15 +7163,15 @@
       <c r="E262" s="15"/>
       <c r="F262" s="9"/>
       <c r="G262" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C263" s="21" t="s">
         <v>246</v>
@@ -7130,15 +7180,15 @@
       <c r="E263" s="15"/>
       <c r="F263" s="9"/>
       <c r="G263" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C264" s="21" t="s">
         <v>246</v>
@@ -7147,15 +7197,15 @@
       <c r="E264" s="15"/>
       <c r="F264" s="9"/>
       <c r="G264" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C265" s="21" t="s">
         <v>246</v>
@@ -7164,15 +7214,15 @@
       <c r="E265" s="15"/>
       <c r="F265" s="9"/>
       <c r="G265" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C266" s="21" t="s">
         <v>246</v>
@@ -7181,15 +7231,15 @@
       <c r="E266" s="15"/>
       <c r="F266" s="9"/>
       <c r="G266" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>246</v>
@@ -7198,15 +7248,15 @@
       <c r="E267" s="15"/>
       <c r="F267" s="9"/>
       <c r="G267" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C268" s="21" t="s">
         <v>246</v>
@@ -7215,34 +7265,32 @@
       <c r="E268" s="15"/>
       <c r="F268" s="9"/>
       <c r="G268" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C269" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D269" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D269" s="15"/>
       <c r="E269" s="15"/>
       <c r="F269" s="9"/>
       <c r="G269" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C270" s="21" t="s">
         <v>246</v>
@@ -7251,15 +7299,15 @@
       <c r="E270" s="15"/>
       <c r="F270" s="9"/>
       <c r="G270" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>577</v>
+        <v>175</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>578</v>
+        <v>505</v>
       </c>
       <c r="C271" s="21" t="s">
         <v>246</v>
@@ -7268,151 +7316,153 @@
       <c r="E271" s="15"/>
       <c r="F271" s="9"/>
       <c r="G271" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C272" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="F272" s="9"/>
       <c r="G272" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C273" s="16" t="s">
-        <v>571</v>
+        <v>127</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C273" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
-      <c r="F273" s="15"/>
+      <c r="F273" s="9"/>
       <c r="G273" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>548</v>
+        <v>128</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="C274" s="16" t="s">
-        <v>572</v>
+        <v>508</v>
+      </c>
+      <c r="C274" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
-      <c r="F274" s="15"/>
+      <c r="F274" s="9"/>
       <c r="G274" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>549</v>
+        <v>129</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="C275" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="D275" s="15"/>
+        <v>509</v>
+      </c>
+      <c r="C275" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D275" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E275" s="15"/>
-      <c r="F275" s="15"/>
+      <c r="F275" s="9"/>
       <c r="G275" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>550</v>
+        <v>130</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="C276" s="16" t="s">
-        <v>572</v>
+        <v>510</v>
+      </c>
+      <c r="C276" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
-      <c r="F276" s="15"/>
+      <c r="F276" s="9"/>
       <c r="G276" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C277" s="16" t="s">
-        <v>573</v>
+      <c r="A277" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C277" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
-      <c r="F277" s="15"/>
+      <c r="F277" s="9"/>
       <c r="G277" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="9" t="s">
-        <v>575</v>
+      <c r="A278" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="C278" s="16" t="s">
-        <v>572</v>
+        <v>511</v>
+      </c>
+      <c r="C278" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
-      <c r="F278" s="15"/>
+      <c r="F278" s="9"/>
       <c r="G278" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>556</v>
+        <v>1</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="F279" s="15"/>
       <c r="G279" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C280" s="16" t="s">
         <v>570</v>
@@ -7421,32 +7471,32 @@
       <c r="E280" s="15"/>
       <c r="F280" s="15"/>
       <c r="G280" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
       <c r="F281" s="15"/>
       <c r="G281" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>346</v>
+        <v>548</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="C282" s="16" t="s">
         <v>570</v>
@@ -7455,62 +7505,164 @@
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
       <c r="G282" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="B283" s="9" t="s">
-        <v>562</v>
+      <c r="A283" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
       <c r="F283" s="15"/>
       <c r="G283" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="7" t="s">
-        <v>560</v>
+      <c r="A284" s="9" t="s">
+        <v>573</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
       <c r="F284" s="15"/>
       <c r="G284" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
       <c r="F285" s="15"/>
       <c r="G285" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C286" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="D286" s="15"/>
+      <c r="E286" s="15"/>
+      <c r="F286" s="15"/>
+      <c r="G286" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C287" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="D287" s="15"/>
+      <c r="E287" s="15"/>
+      <c r="F287" s="15"/>
+      <c r="G287" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="D288" s="15"/>
+      <c r="E288" s="15"/>
+      <c r="F288" s="15"/>
+      <c r="G288" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C289" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="D289" s="15"/>
+      <c r="E289" s="15"/>
+      <c r="F289" s="15"/>
+      <c r="G289" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C290" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="D290" s="15"/>
+      <c r="E290" s="15"/>
+      <c r="F290" s="15"/>
+      <c r="G290" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="D291" s="15"/>
+      <c r="E291" s="15"/>
+      <c r="F291" s="15"/>
+      <c r="G291" s="1" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:G285" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
+  <autoFilter ref="A5:G291" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -7529,10 +7681,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7650,7 +7802,7 @@
         <v>43592</v>
       </c>
       <c r="B23" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7658,12 +7810,12 @@
         <v>43609</v>
       </c>
       <c r="B24" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7671,7 +7823,7 @@
         <v>43643</v>
       </c>
       <c r="B26" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7679,12 +7831,20 @@
         <v>43949</v>
       </c>
       <c r="B27" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>584</v>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>44007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797965FA-3866-437A-9F75-40000F86243D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$294</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="656">
   <si>
     <t>nt_total</t>
   </si>
@@ -1173,12 +1173,6 @@
     <t>SubPhylum</t>
   </si>
   <si>
-    <t>SubPhylum and Phylum</t>
-  </si>
-  <si>
-    <t>Order and Family</t>
-  </si>
-  <si>
     <t>Phylum</t>
   </si>
   <si>
@@ -2034,9 +2028,6 @@
     <t>TolVal, Order</t>
   </si>
   <si>
-    <t>pi_Chiro_Anne</t>
-  </si>
-  <si>
     <t>percent (0-100) of individuals - Order Chironomidae and Phylum Annelida</t>
   </si>
   <si>
@@ -2053,6 +2044,33 @@
   </si>
   <si>
     <t>percent (0-100) of taxa - SubFamily Orthocladiinae</t>
+  </si>
+  <si>
+    <t>nt_tv_intol4</t>
+  </si>
+  <si>
+    <t>number of taxa - tolerance value - intolerant ≤ 4</t>
+  </si>
+  <si>
+    <t>pi_ChiroAnne</t>
+  </si>
+  <si>
+    <t>Added metrics for WV GLIMPSS</t>
+  </si>
+  <si>
+    <t>pi_EPTNoCheu</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT) and not Family Cheumatopsyche</t>
+  </si>
+  <si>
+    <t>SubPhylum, Phylum</t>
+  </si>
+  <si>
+    <t>pi_tv_toler6</t>
+  </si>
+  <si>
+    <t>percent (0-100) of individuals - tolerance value - tolerant ≥ 6</t>
   </si>
 </sst>
 </file>
@@ -2725,13 +2743,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:G291"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomRight" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,19 +2781,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>44007</v>
+        <v>44011</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A278)</f>
-        <v>273</v>
+        <f>SUBTOTAL(3,A6:A281)</f>
+        <v>276</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2786,7 +2804,7 @@
         <v>133</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>199</v>
@@ -2798,7 +2816,7 @@
         <v>177</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2813,7 +2831,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="6"/>
       <c r="G6" s="25" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2828,7 +2846,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="6"/>
       <c r="G7" s="25" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2843,7 +2861,7 @@
       <c r="E8" s="26"/>
       <c r="F8" s="6"/>
       <c r="G8" s="25" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2862,7 +2880,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2879,7 +2897,7 @@
       <c r="E10" s="15"/>
       <c r="F10" s="7"/>
       <c r="G10" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2896,7 +2914,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="7"/>
       <c r="G11" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,7 +2933,7 @@
         <v>259</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2932,7 +2950,7 @@
       <c r="E13" s="15"/>
       <c r="F13" s="7"/>
       <c r="G13" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2951,7 +2969,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="9"/>
       <c r="G14" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2968,7 +2986,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="9"/>
       <c r="G15" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2985,7 +3003,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
       <c r="G16" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3002,7 +3020,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="9"/>
       <c r="G17" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3019,7 +3037,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="9"/>
       <c r="G18" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3036,7 +3054,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="9"/>
       <c r="G19" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,7 +3071,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="9"/>
       <c r="G20" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3070,7 +3088,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="9"/>
       <c r="G21" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3087,7 +3105,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="9"/>
       <c r="G22" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,7 +3113,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>239</v>
@@ -3106,7 +3124,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="9"/>
       <c r="G23" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3123,7 +3141,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="9"/>
       <c r="G24" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3140,7 +3158,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="9"/>
       <c r="G25" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3157,7 +3175,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="9"/>
       <c r="G26" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3174,7 +3192,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="9"/>
       <c r="G27" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3191,7 +3209,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="9"/>
       <c r="G28" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3199,7 +3217,7 @@
         <v>317</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>240</v>
@@ -3208,7 +3226,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="9"/>
       <c r="G29" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3216,7 +3234,7 @@
         <v>318</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>239</v>
@@ -3225,7 +3243,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="7"/>
       <c r="G30" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3242,7 +3260,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="7"/>
       <c r="G31" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3259,7 +3277,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="7"/>
       <c r="G32" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3276,7 +3294,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="7"/>
       <c r="G33" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3284,7 +3302,7 @@
         <v>319</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>239</v>
@@ -3293,7 +3311,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="7"/>
       <c r="G34" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3310,7 +3328,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="7"/>
       <c r="G35" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3327,7 +3345,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="7"/>
       <c r="G36" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3344,7 +3362,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="7"/>
       <c r="G37" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3361,7 +3379,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="7"/>
       <c r="G38" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3369,7 +3387,7 @@
         <v>320</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>239</v>
@@ -3378,7 +3396,7 @@
       <c r="E39" s="19"/>
       <c r="F39" s="7"/>
       <c r="G39" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3386,7 +3404,7 @@
         <v>321</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>243</v>
@@ -3395,7 +3413,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="7"/>
       <c r="G40" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3403,7 +3421,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>239</v>
@@ -3412,24 +3430,24 @@
       <c r="E41" s="16"/>
       <c r="F41" s="9"/>
       <c r="G41" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="9"/>
       <c r="G42" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3437,7 +3455,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>240</v>
@@ -3446,7 +3464,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="9"/>
       <c r="G43" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3454,7 +3472,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>243</v>
@@ -3463,7 +3481,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="9"/>
       <c r="G44" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3471,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>239</v>
@@ -3480,7 +3498,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="9"/>
       <c r="G45" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3488,7 +3506,7 @@
         <v>13</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>242</v>
@@ -3497,7 +3515,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="9"/>
       <c r="G46" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3505,7 +3523,7 @@
         <v>322</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>355</v>
@@ -3514,7 +3532,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="9"/>
       <c r="G47" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3522,16 +3540,16 @@
         <v>323</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>356</v>
+        <v>653</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="9"/>
       <c r="G48" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3539,7 +3557,7 @@
         <v>14</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>239</v>
@@ -3548,7 +3566,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="9"/>
       <c r="G49" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3556,7 +3574,7 @@
         <v>15</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>239</v>
@@ -3565,7 +3583,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="9"/>
       <c r="G50" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3573,7 +3591,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>239</v>
@@ -3582,7 +3600,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="9"/>
       <c r="G51" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3590,16 +3608,16 @@
         <v>324</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>357</v>
+        <v>642</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="9"/>
       <c r="G52" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3607,16 +3625,16 @@
         <v>325</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>357</v>
+        <v>642</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="9"/>
       <c r="G53" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3624,7 +3642,7 @@
         <v>17</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>239</v>
@@ -3633,202 +3651,200 @@
       <c r="E54" s="16"/>
       <c r="F54" s="9"/>
       <c r="G54" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>18</v>
+        <v>651</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>384</v>
+        <v>652</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>240</v>
+        <v>642</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="1" t="s">
-        <v>542</v>
-      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
+      <c r="A56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
       <c r="F56" s="9"/>
       <c r="G56" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>517</v>
+        <v>326</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>357</v>
+        <v>383</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>642</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="9"/>
       <c r="G57" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>243</v>
+        <v>517</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>642</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="9"/>
       <c r="G58" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>327</v>
+        <v>516</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>386</v>
+        <v>518</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="9"/>
       <c r="G59" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="9"/>
       <c r="G60" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="9"/>
       <c r="G61" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>389</v>
+        <v>329</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>386</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="9"/>
       <c r="G62" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="9"/>
       <c r="G63" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="9"/>
       <c r="G64" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="9"/>
       <c r="G65" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>239</v>
@@ -3837,117 +3853,117 @@
       <c r="E66" s="20"/>
       <c r="F66" s="9"/>
       <c r="G66" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>394</v>
+        <v>23</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="9"/>
       <c r="G67" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>243</v>
+        <v>392</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>642</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="9"/>
       <c r="G68" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>396</v>
+        <v>331</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>393</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="9"/>
       <c r="G69" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
       <c r="F70" s="9"/>
       <c r="G70" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>398</v>
+        <v>47</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="9"/>
       <c r="G71" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C72" s="16" t="s">
+      <c r="A72" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C72" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
       <c r="F72" s="9"/>
       <c r="G72" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>239</v>
@@ -3956,15 +3972,15 @@
       <c r="E73" s="16"/>
       <c r="F73" s="9"/>
       <c r="G73" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>401</v>
+        <v>49</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>239</v>
@@ -3973,15 +3989,15 @@
       <c r="E74" s="16"/>
       <c r="F74" s="9"/>
       <c r="G74" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>402</v>
+        <v>333</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>239</v>
@@ -3990,32 +4006,32 @@
       <c r="E75" s="16"/>
       <c r="F75" s="9"/>
       <c r="G75" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="9"/>
       <c r="G76" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>404</v>
+        <v>51</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>240</v>
@@ -4024,15 +4040,15 @@
       <c r="E77" s="16"/>
       <c r="F77" s="9"/>
       <c r="G77" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>405</v>
+        <v>334</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>402</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>240</v>
@@ -4041,15 +4057,15 @@
       <c r="E78" s="16"/>
       <c r="F78" s="9"/>
       <c r="G78" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>406</v>
+        <v>52</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>403</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>240</v>
@@ -4058,66 +4074,66 @@
       <c r="E79" s="16"/>
       <c r="F79" s="9"/>
       <c r="G79" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="9"/>
       <c r="G80" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="9"/>
       <c r="G81" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="9"/>
       <c r="G82" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>239</v>
@@ -4126,15 +4142,15 @@
       <c r="E83" s="16"/>
       <c r="F83" s="9"/>
       <c r="G83" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>239</v>
@@ -4143,32 +4159,32 @@
       <c r="E84" s="16"/>
       <c r="F84" s="9"/>
       <c r="G84" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>192</v>
+        <v>340</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="9"/>
       <c r="G85" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>243</v>
@@ -4177,15 +4193,15 @@
       <c r="E86" s="16"/>
       <c r="F86" s="9"/>
       <c r="G86" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>412</v>
+        <v>193</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>243</v>
@@ -4194,15 +4210,15 @@
       <c r="E87" s="16"/>
       <c r="F87" s="9"/>
       <c r="G87" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>413</v>
+        <v>41</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>410</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>243</v>
@@ -4211,185 +4227,185 @@
       <c r="E88" s="16"/>
       <c r="F88" s="9"/>
       <c r="G88" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>648</v>
+        <v>341</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>649</v>
+        <v>411</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="9"/>
       <c r="G89" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>414</v>
+        <v>645</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>646</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
+        <v>357</v>
+      </c>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
       <c r="F90" s="9"/>
       <c r="G90" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>415</v>
+        <v>42</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
+        <v>244</v>
+      </c>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
       <c r="F91" s="9"/>
       <c r="G91" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="9"/>
       <c r="G92" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>522</v>
+      <c r="A93" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>512</v>
+        <v>414</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>646</v>
+        <v>242</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="9"/>
       <c r="G93" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="9"/>
       <c r="G94" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>515</v>
-      </c>
       <c r="C95" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="9"/>
       <c r="G95" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>643</v>
+        <v>512</v>
       </c>
       <c r="B96" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C96" s="16" t="s">
         <v>644</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>645</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="9"/>
       <c r="G96" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>254</v>
+      <c r="A97" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>642</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
-      <c r="F97" s="7"/>
+      <c r="F97" s="9"/>
       <c r="G97" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="C98" s="21" t="s">
         <v>254</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
-      <c r="F98" s="9"/>
+      <c r="F98" s="7"/>
       <c r="G98" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>418</v>
+        <v>44</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="C99" s="21" t="s">
         <v>254</v>
@@ -4398,49 +4414,49 @@
       <c r="E99" s="16"/>
       <c r="F99" s="9"/>
       <c r="G99" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>249</v>
+        <v>416</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="9"/>
       <c r="G100" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>419</v>
+        <v>249</v>
       </c>
       <c r="C101" s="21" t="s">
         <v>255</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="9"/>
+      <c r="F101" s="7"/>
       <c r="G101" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>420</v>
+        <v>135</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="C102" s="21" t="s">
         <v>255</v>
@@ -4449,68 +4465,66 @@
       <c r="E102" s="16"/>
       <c r="F102" s="9"/>
       <c r="G102" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
       <c r="F103" s="9"/>
       <c r="G103" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>251</v>
+        <v>419</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
       <c r="F104" s="9"/>
       <c r="G104" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>422</v>
+        <v>251</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>257</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D105" s="16"/>
       <c r="E105" s="16"/>
       <c r="F105" s="9"/>
       <c r="G105" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>268</v>
@@ -4521,191 +4535,191 @@
       <c r="E106" s="16"/>
       <c r="F106" s="9"/>
       <c r="G106" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>253</v>
+        <v>421</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D107" s="16"/>
+        <v>268</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="E107" s="16"/>
       <c r="F107" s="9"/>
       <c r="G107" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>424</v>
+        <v>253</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D108" s="16" t="s">
-        <v>257</v>
-      </c>
+      <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="9"/>
       <c r="G108" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C109" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D109" s="16"/>
+      <c r="D109" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="E109" s="16"/>
       <c r="F109" s="9"/>
       <c r="G109" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="9"/>
       <c r="G110" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>427</v>
+        <v>144</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>424</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>357</v>
+        <v>252</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="9"/>
       <c r="G111" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>310</v>
+        <v>344</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>642</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="9"/>
       <c r="G112" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="9"/>
       <c r="G113" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
-      <c r="F114" s="7"/>
+      <c r="F114" s="9"/>
       <c r="G114" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>145</v>
+      <c r="A115" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="D115" s="16"/>
-      <c r="E115" s="16" t="s">
-        <v>257</v>
-      </c>
+      <c r="E115" s="16"/>
       <c r="F115" s="7"/>
       <c r="G115" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>195</v>
+        <v>145</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="C116" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15" t="s">
+      <c r="D116" s="16"/>
+      <c r="E116" s="16" t="s">
         <v>257</v>
       </c>
       <c r="F116" s="7"/>
       <c r="G116" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>147</v>
+      <c r="A117" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C117" s="21" t="s">
         <v>205</v>
@@ -4716,15 +4730,15 @@
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
-        <v>148</v>
+      <c r="A118" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C118" s="21" t="s">
         <v>205</v>
@@ -4735,15 +4749,15 @@
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>149</v>
+      <c r="A119" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>428</v>
+        <v>198</v>
       </c>
       <c r="C119" s="21" t="s">
         <v>205</v>
@@ -4752,17 +4766,17 @@
       <c r="E119" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="F119" s="9"/>
+      <c r="F119" s="7"/>
       <c r="G119" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>150</v>
+      <c r="A120" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C120" s="21" t="s">
         <v>205</v>
@@ -4773,15 +4787,15 @@
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C121" s="21" t="s">
         <v>205</v>
@@ -4792,15 +4806,15 @@
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>152</v>
+      <c r="A122" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C122" s="21" t="s">
         <v>205</v>
@@ -4811,15 +4825,15 @@
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>153</v>
+      <c r="A123" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C123" s="21" t="s">
         <v>205</v>
@@ -4830,15 +4844,15 @@
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>154</v>
+      <c r="A124" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C124" s="21" t="s">
         <v>205</v>
@@ -4849,15 +4863,15 @@
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>155</v>
+      <c r="A125" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C125" s="21" t="s">
         <v>205</v>
@@ -4868,15 +4882,15 @@
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>435</v>
+        <v>155</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="C126" s="21" t="s">
         <v>205</v>
@@ -4887,32 +4901,34 @@
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>53</v>
+      <c r="A127" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>220</v>
+        <v>433</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
+      <c r="E127" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="F127" s="9"/>
       <c r="G127" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>54</v>
+      <c r="A128" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C128" s="21" t="s">
         <v>206</v>
@@ -4921,15 +4937,15 @@
       <c r="E128" s="15"/>
       <c r="F128" s="9"/>
       <c r="G128" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>436</v>
+        <v>647</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>648</v>
       </c>
       <c r="C129" s="21" t="s">
         <v>206</v>
@@ -4938,15 +4954,15 @@
       <c r="E129" s="15"/>
       <c r="F129" s="9"/>
       <c r="G129" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>637</v>
+      <c r="A130" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="C130" s="21" t="s">
         <v>206</v>
@@ -4955,15 +4971,15 @@
       <c r="E130" s="15"/>
       <c r="F130" s="9"/>
       <c r="G130" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C131" s="21" t="s">
         <v>206</v>
@@ -4972,15 +4988,15 @@
       <c r="E131" s="15"/>
       <c r="F131" s="9"/>
       <c r="G131" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>347</v>
+        <v>634</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>438</v>
+        <v>635</v>
       </c>
       <c r="C132" s="21" t="s">
         <v>206</v>
@@ -4989,15 +5005,15 @@
       <c r="E132" s="15"/>
       <c r="F132" s="9"/>
       <c r="G132" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>638</v>
+        <v>346</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>639</v>
+        <v>435</v>
       </c>
       <c r="C133" s="21" t="s">
         <v>206</v>
@@ -5006,15 +5022,15 @@
       <c r="E133" s="15"/>
       <c r="F133" s="9"/>
       <c r="G133" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>348</v>
+        <v>654</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>439</v>
+        <v>655</v>
       </c>
       <c r="C134" s="21" t="s">
         <v>206</v>
@@ -5023,32 +5039,32 @@
       <c r="E134" s="15"/>
       <c r="F134" s="9"/>
       <c r="G134" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>641</v>
+        <v>347</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>642</v>
+        <v>206</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
       <c r="F135" s="9"/>
       <c r="G135" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>349</v>
+        <v>636</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>366</v>
+        <v>637</v>
       </c>
       <c r="C136" s="21" t="s">
         <v>206</v>
@@ -5057,15 +5073,15 @@
       <c r="E136" s="15"/>
       <c r="F136" s="9"/>
       <c r="G136" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="C137" s="21" t="s">
         <v>206</v>
@@ -5074,32 +5090,32 @@
       <c r="E137" s="15"/>
       <c r="F137" s="9"/>
       <c r="G137" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>440</v>
+        <v>638</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>639</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>206</v>
+        <v>640</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
       <c r="F138" s="9"/>
       <c r="G138" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>441</v>
+        <v>364</v>
       </c>
       <c r="C139" s="21" t="s">
         <v>206</v>
@@ -5108,15 +5124,15 @@
       <c r="E139" s="15"/>
       <c r="F139" s="9"/>
       <c r="G139" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>442</v>
+        <v>365</v>
       </c>
       <c r="C140" s="21" t="s">
         <v>206</v>
@@ -5125,100 +5141,100 @@
       <c r="E140" s="15"/>
       <c r="F140" s="9"/>
       <c r="G140" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C141" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C141" s="21" t="s">
         <v>206</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
       <c r="F141" s="9"/>
       <c r="G141" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>525</v>
+        <v>352</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
       <c r="F142" s="9"/>
       <c r="G142" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>207</v>
+        <v>353</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
       <c r="F143" s="9"/>
       <c r="G143" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>207</v>
+        <v>354</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
       <c r="F144" s="9"/>
       <c r="G144" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>212</v>
+        <v>442</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>207</v>
+        <v>523</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
       <c r="F145" s="9"/>
       <c r="G145" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>207</v>
@@ -5227,15 +5243,15 @@
       <c r="E146" s="15"/>
       <c r="F146" s="9"/>
       <c r="G146" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>207</v>
@@ -5244,15 +5260,15 @@
       <c r="E147" s="15"/>
       <c r="F147" s="9"/>
       <c r="G147" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>445</v>
+        <v>212</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>207</v>
@@ -5261,15 +5277,15 @@
       <c r="E148" s="15"/>
       <c r="F148" s="9"/>
       <c r="G148" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>446</v>
+        <v>213</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>207</v>
@@ -5278,15 +5294,15 @@
       <c r="E149" s="15"/>
       <c r="F149" s="9"/>
       <c r="G149" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>447</v>
+        <v>214</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>207</v>
@@ -5295,15 +5311,15 @@
       <c r="E150" s="15"/>
       <c r="F150" s="9"/>
       <c r="G150" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>207</v>
@@ -5312,15 +5328,15 @@
       <c r="E151" s="15"/>
       <c r="F151" s="9"/>
       <c r="G151" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>207</v>
@@ -5329,15 +5345,15 @@
       <c r="E152" s="15"/>
       <c r="F152" s="9"/>
       <c r="G152" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>450</v>
+      <c r="A153" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>445</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>207</v>
@@ -5346,15 +5362,15 @@
       <c r="E153" s="15"/>
       <c r="F153" s="9"/>
       <c r="G153" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>451</v>
+        <v>63</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>446</v>
       </c>
       <c r="C154" s="16" t="s">
         <v>207</v>
@@ -5363,15 +5379,15 @@
       <c r="E154" s="15"/>
       <c r="F154" s="9"/>
       <c r="G154" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>452</v>
+        <v>64</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>447</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>207</v>
@@ -5380,15 +5396,15 @@
       <c r="E155" s="15"/>
       <c r="F155" s="9"/>
       <c r="G155" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
-        <v>68</v>
+      <c r="A156" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C156" s="16" t="s">
         <v>207</v>
@@ -5397,15 +5413,15 @@
       <c r="E156" s="15"/>
       <c r="F156" s="9"/>
       <c r="G156" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>454</v>
+        <v>66</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>449</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>207</v>
@@ -5414,151 +5430,151 @@
       <c r="E157" s="15"/>
       <c r="F157" s="9"/>
       <c r="G157" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
-      <c r="F158" s="7"/>
+      <c r="F158" s="9"/>
       <c r="G158" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C159" s="21" t="s">
-        <v>208</v>
+        <v>68</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="7"/>
+      <c r="F159" s="9"/>
       <c r="G159" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C160" s="21" t="s">
-        <v>208</v>
+        <v>69</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
-      <c r="F160" s="11"/>
+      <c r="F160" s="9"/>
       <c r="G160" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C161" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C161" s="16" t="s">
         <v>208</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
-      <c r="F161" s="11"/>
+      <c r="F161" s="7"/>
       <c r="G161" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>204</v>
+        <v>297</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C162" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D162" s="16"/>
+      <c r="D162" s="15"/>
       <c r="E162" s="15"/>
-      <c r="F162" s="11"/>
+      <c r="F162" s="7"/>
       <c r="G162" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>455</v>
+        <v>298</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C163" s="21" t="s">
         <v>208</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
-      <c r="F163" s="9"/>
+      <c r="F163" s="11"/>
       <c r="G163" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>300</v>
+        <v>71</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>456</v>
+        <v>201</v>
       </c>
       <c r="C164" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D164" s="16"/>
+      <c r="D164" s="15"/>
       <c r="E164" s="15"/>
-      <c r="F164" s="9"/>
+      <c r="F164" s="11"/>
       <c r="G164" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>457</v>
+        <v>204</v>
       </c>
       <c r="C165" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D165" s="15"/>
+      <c r="D165" s="16"/>
       <c r="E165" s="15"/>
-      <c r="F165" s="9"/>
+      <c r="F165" s="11"/>
       <c r="G165" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C166" s="21" t="s">
         <v>208</v>
@@ -5567,32 +5583,32 @@
       <c r="E166" s="15"/>
       <c r="F166" s="9"/>
       <c r="G166" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C167" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D167" s="15"/>
+      <c r="D167" s="16"/>
       <c r="E167" s="15"/>
       <c r="F167" s="9"/>
       <c r="G167" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C168" s="21" t="s">
         <v>208</v>
@@ -5601,15 +5617,15 @@
       <c r="E168" s="15"/>
       <c r="F168" s="9"/>
       <c r="G168" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C169" s="21" t="s">
         <v>208</v>
@@ -5618,15 +5634,15 @@
       <c r="E169" s="15"/>
       <c r="F169" s="9"/>
       <c r="G169" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C170" s="21" t="s">
         <v>208</v>
@@ -5635,15 +5651,15 @@
       <c r="E170" s="15"/>
       <c r="F170" s="9"/>
       <c r="G170" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C171" s="21" t="s">
         <v>208</v>
@@ -5652,15 +5668,15 @@
       <c r="E171" s="15"/>
       <c r="F171" s="9"/>
       <c r="G171" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C172" s="21" t="s">
         <v>208</v>
@@ -5669,117 +5685,117 @@
       <c r="E172" s="15"/>
       <c r="F172" s="9"/>
       <c r="G172" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>215</v>
+        <v>460</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
-      <c r="F173" s="12"/>
+      <c r="F173" s="9"/>
       <c r="G173" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>216</v>
+        <v>75</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>461</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
-      <c r="F174" s="11"/>
+      <c r="F174" s="9"/>
       <c r="G174" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>217</v>
+        <v>305</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>462</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D175" s="16"/>
+        <v>208</v>
+      </c>
+      <c r="D175" s="15"/>
       <c r="E175" s="15"/>
-      <c r="F175" s="11"/>
+      <c r="F175" s="9"/>
       <c r="G175" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>465</v>
+        <v>76</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="C176" s="21" t="s">
         <v>209</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
-      <c r="F176" s="9"/>
+      <c r="F176" s="12"/>
       <c r="G176" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>466</v>
+        <v>77</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="C177" s="21" t="s">
         <v>209</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
-      <c r="F177" s="9"/>
+      <c r="F177" s="11"/>
       <c r="G177" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>467</v>
+        <v>78</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="C178" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D178" s="15"/>
+      <c r="D178" s="16"/>
       <c r="E178" s="15"/>
-      <c r="F178" s="9"/>
+      <c r="F178" s="11"/>
       <c r="G178" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>468</v>
+        <v>79</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="C179" s="21" t="s">
         <v>209</v>
@@ -5788,15 +5804,15 @@
       <c r="E179" s="15"/>
       <c r="F179" s="9"/>
       <c r="G179" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>469</v>
+        <v>80</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="C180" s="21" t="s">
         <v>209</v>
@@ -5805,100 +5821,100 @@
       <c r="E180" s="15"/>
       <c r="F180" s="9"/>
       <c r="G180" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C181" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D181" s="16"/>
+      <c r="D181" s="15"/>
       <c r="E181" s="15"/>
       <c r="F181" s="9"/>
       <c r="G181" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>535</v>
+        <v>82</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>466</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
       <c r="F182" s="9"/>
       <c r="G182" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="9"/>
       <c r="G183" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D184" s="15"/>
+        <v>209</v>
+      </c>
+      <c r="D184" s="16"/>
       <c r="E184" s="15"/>
       <c r="F184" s="9"/>
       <c r="G184" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>473</v>
+        <v>85</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>533</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="9"/>
       <c r="G185" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C186" s="21" t="s">
         <v>265</v>
@@ -5907,15 +5923,15 @@
       <c r="E186" s="15"/>
       <c r="F186" s="9"/>
       <c r="G186" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C187" s="21" t="s">
         <v>265</v>
@@ -5924,15 +5940,15 @@
       <c r="E187" s="15"/>
       <c r="F187" s="9"/>
       <c r="G187" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C188" s="21" t="s">
         <v>265</v>
@@ -5941,32 +5957,32 @@
       <c r="E188" s="15"/>
       <c r="F188" s="9"/>
       <c r="G188" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C189" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D189" s="16"/>
+      <c r="D189" s="15"/>
       <c r="E189" s="15"/>
       <c r="F189" s="9"/>
       <c r="G189" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C190" s="21" t="s">
         <v>265</v>
@@ -5975,15 +5991,15 @@
       <c r="E190" s="15"/>
       <c r="F190" s="9"/>
       <c r="G190" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>479</v>
+        <v>162</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>474</v>
       </c>
       <c r="C191" s="21" t="s">
         <v>265</v>
@@ -5992,252 +6008,258 @@
       <c r="E191" s="15"/>
       <c r="F191" s="9"/>
       <c r="G191" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>218</v>
+        <v>163</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>475</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D192" s="15"/>
+        <v>265</v>
+      </c>
+      <c r="D192" s="16"/>
       <c r="E192" s="15"/>
       <c r="F192" s="9"/>
       <c r="G192" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>632</v>
+        <v>164</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>476</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
-      <c r="F193" s="9" t="s">
-        <v>634</v>
-      </c>
+      <c r="F193" s="9"/>
       <c r="G193" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>219</v>
+        <v>165</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>477</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="9"/>
       <c r="G194" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="9" t="s">
-        <v>523</v>
+      <c r="A195" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>524</v>
+        <v>218</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>525</v>
+        <v>248</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="9"/>
       <c r="G195" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>530</v>
+        <v>631</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="C196" s="21" t="s">
         <v>248</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
-      <c r="F196" s="9"/>
+      <c r="F196" s="9" t="s">
+        <v>632</v>
+      </c>
       <c r="G196" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>531</v>
+        <v>87</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="9"/>
       <c r="G197" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>532</v>
+      <c r="A198" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>248</v>
+        <v>523</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="9"/>
       <c r="G198" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="9"/>
       <c r="G199" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="9" t="s">
-        <v>527</v>
+      <c r="A200" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="9"/>
       <c r="G200" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="9" t="s">
-        <v>526</v>
+      <c r="A201" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="9"/>
       <c r="G201" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="9"/>
       <c r="G202" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="7" t="s">
-        <v>583</v>
+      <c r="A203" s="9" t="s">
+        <v>525</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>607</v>
+        <v>535</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>631</v>
+        <v>241</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
       <c r="F203" s="9"/>
-      <c r="G203" s="1"/>
+      <c r="G203" s="1" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="7" t="s">
-        <v>584</v>
+      <c r="A204" s="9" t="s">
+        <v>524</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>608</v>
+        <v>534</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>631</v>
+        <v>241</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="9"/>
-      <c r="G204" s="1"/>
+      <c r="G204" s="1" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>585</v>
+        <v>92</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>609</v>
+        <v>526</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>631</v>
+        <v>248</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
       <c r="F205" s="9"/>
-      <c r="G205" s="1"/>
+      <c r="G205" s="1" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
@@ -6246,13 +6268,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
@@ -6261,13 +6283,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
@@ -6276,13 +6298,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
@@ -6291,13 +6313,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
@@ -6306,13 +6328,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
@@ -6321,13 +6343,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
@@ -6336,13 +6358,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
@@ -6351,13 +6373,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
@@ -6366,13 +6388,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
@@ -6381,13 +6403,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
@@ -6396,13 +6418,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
@@ -6411,13 +6433,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
@@ -6426,13 +6448,13 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
@@ -6441,13 +6463,13 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
@@ -6456,13 +6478,13 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
@@ -6471,13 +6493,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
@@ -6486,13 +6508,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
@@ -6501,13 +6523,13 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
@@ -6516,13 +6538,13 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B225" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C225" s="21" t="s">
         <v>629</v>
-      </c>
-      <c r="C225" s="21" t="s">
-        <v>631</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
@@ -6531,13 +6553,13 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
@@ -6546,80 +6568,72 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>237</v>
+        <v>602</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>626</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>246</v>
+        <v>629</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
       <c r="F227" s="9"/>
-      <c r="G227" s="1" t="s">
-        <v>542</v>
-      </c>
+      <c r="G227" s="1"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>238</v>
+        <v>603</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>627</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>246</v>
+        <v>629</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
       <c r="F228" s="9"/>
-      <c r="G228" s="1" t="s">
-        <v>542</v>
-      </c>
+      <c r="G228" s="1"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>222</v>
+        <v>604</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>628</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>246</v>
+        <v>629</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
       <c r="F229" s="9"/>
-      <c r="G229" s="1" t="s">
-        <v>542</v>
-      </c>
+      <c r="G229" s="1"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D230" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D230" s="15"/>
       <c r="E230" s="15"/>
       <c r="F230" s="9"/>
       <c r="G230" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>246</v>
@@ -6628,51 +6642,51 @@
       <c r="E231" s="15"/>
       <c r="F231" s="9"/>
       <c r="G231" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D232" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D232" s="15"/>
       <c r="E232" s="15"/>
       <c r="F232" s="9"/>
       <c r="G232" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D233" s="16"/>
+      <c r="D233" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E233" s="15"/>
       <c r="F233" s="9"/>
       <c r="G233" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>246</v>
@@ -6681,49 +6695,51 @@
       <c r="E234" s="15"/>
       <c r="F234" s="9"/>
       <c r="G234" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>228</v>
+        <v>96</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D235" s="15"/>
+      <c r="D235" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E235" s="15"/>
       <c r="F235" s="9"/>
       <c r="G235" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>229</v>
+        <v>97</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D236" s="15"/>
+      <c r="D236" s="16"/>
       <c r="E236" s="15"/>
       <c r="F236" s="9"/>
       <c r="G236" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>230</v>
+        <v>98</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>246</v>
@@ -6732,15 +6748,15 @@
       <c r="E237" s="15"/>
       <c r="F237" s="9"/>
       <c r="G237" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>246</v>
@@ -6749,15 +6765,15 @@
       <c r="E238" s="15"/>
       <c r="F238" s="9"/>
       <c r="G238" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C239" s="21" t="s">
         <v>246</v>
@@ -6766,15 +6782,15 @@
       <c r="E239" s="15"/>
       <c r="F239" s="9"/>
       <c r="G239" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>246</v>
@@ -6783,15 +6799,15 @@
       <c r="E240" s="15"/>
       <c r="F240" s="9"/>
       <c r="G240" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>246</v>
@@ -6800,15 +6816,15 @@
       <c r="E241" s="15"/>
       <c r="F241" s="9"/>
       <c r="G241" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>580</v>
+        <v>102</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>579</v>
+        <v>232</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>246</v>
@@ -6817,51 +6833,49 @@
       <c r="E242" s="15"/>
       <c r="F242" s="9"/>
       <c r="G242" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C243" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
       <c r="F243" s="9"/>
       <c r="G243" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D244" s="15" t="s">
-        <v>257</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D244" s="15"/>
       <c r="E244" s="15"/>
       <c r="F244" s="9"/>
       <c r="G244" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>169</v>
+        <v>578</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>480</v>
+        <v>577</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>246</v>
@@ -6870,49 +6884,51 @@
       <c r="E245" s="15"/>
       <c r="F245" s="9"/>
       <c r="G245" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>481</v>
+        <v>235</v>
       </c>
       <c r="C246" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D246" s="15"/>
       <c r="E246" s="15"/>
       <c r="F246" s="9"/>
       <c r="G246" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>482</v>
+        <v>236</v>
       </c>
       <c r="C247" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D247" s="15"/>
+        <v>247</v>
+      </c>
+      <c r="D247" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E247" s="15"/>
       <c r="F247" s="9"/>
       <c r="G247" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>246</v>
@@ -6921,15 +6937,15 @@
       <c r="E248" s="15"/>
       <c r="F248" s="9"/>
       <c r="G248" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C249" s="21" t="s">
         <v>246</v>
@@ -6938,34 +6954,32 @@
       <c r="E249" s="15"/>
       <c r="F249" s="9"/>
       <c r="G249" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D250" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D250" s="15"/>
       <c r="E250" s="15"/>
       <c r="F250" s="9"/>
       <c r="G250" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C251" s="21" t="s">
         <v>246</v>
@@ -6974,15 +6988,15 @@
       <c r="E251" s="15"/>
       <c r="F251" s="9"/>
       <c r="G251" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C252" s="21" t="s">
         <v>246</v>
@@ -6991,32 +7005,34 @@
       <c r="E252" s="15"/>
       <c r="F252" s="9"/>
       <c r="G252" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D253" s="15"/>
+      <c r="D253" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E253" s="15"/>
       <c r="F253" s="9"/>
       <c r="G253" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>246</v>
@@ -7025,15 +7041,15 @@
       <c r="E254" s="15"/>
       <c r="F254" s="9"/>
       <c r="G254" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>246</v>
@@ -7042,15 +7058,15 @@
       <c r="E255" s="15"/>
       <c r="F255" s="9"/>
       <c r="G255" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>246</v>
@@ -7059,15 +7075,15 @@
       <c r="E256" s="15"/>
       <c r="F256" s="9"/>
       <c r="G256" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>246</v>
@@ -7076,34 +7092,32 @@
       <c r="E257" s="15"/>
       <c r="F257" s="9"/>
       <c r="G257" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D258" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D258" s="15"/>
       <c r="E258" s="15"/>
       <c r="F258" s="9"/>
       <c r="G258" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>246</v>
@@ -7112,15 +7126,15 @@
       <c r="E259" s="15"/>
       <c r="F259" s="9"/>
       <c r="G259" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>578</v>
+        <v>115</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>577</v>
+        <v>490</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>246</v>
@@ -7129,32 +7143,34 @@
       <c r="E260" s="15"/>
       <c r="F260" s="9"/>
       <c r="G260" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C261" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D261" s="15"/>
+        <v>246</v>
+      </c>
+      <c r="D261" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E261" s="15"/>
       <c r="F261" s="9"/>
       <c r="G261" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C262" s="21" t="s">
         <v>246</v>
@@ -7163,15 +7179,15 @@
       <c r="E262" s="15"/>
       <c r="F262" s="9"/>
       <c r="G262" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>174</v>
+        <v>576</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="C263" s="21" t="s">
         <v>246</v>
@@ -7180,32 +7196,32 @@
       <c r="E263" s="15"/>
       <c r="F263" s="9"/>
       <c r="G263" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C264" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
       <c r="F264" s="9"/>
       <c r="G264" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C265" s="21" t="s">
         <v>246</v>
@@ -7214,15 +7230,15 @@
       <c r="E265" s="15"/>
       <c r="F265" s="9"/>
       <c r="G265" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C266" s="21" t="s">
         <v>246</v>
@@ -7231,15 +7247,15 @@
       <c r="E266" s="15"/>
       <c r="F266" s="9"/>
       <c r="G266" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>246</v>
@@ -7248,15 +7264,15 @@
       <c r="E267" s="15"/>
       <c r="F267" s="9"/>
       <c r="G267" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C268" s="21" t="s">
         <v>246</v>
@@ -7265,15 +7281,15 @@
       <c r="E268" s="15"/>
       <c r="F268" s="9"/>
       <c r="G268" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C269" s="21" t="s">
         <v>246</v>
@@ -7282,15 +7298,15 @@
       <c r="E269" s="15"/>
       <c r="F269" s="9"/>
       <c r="G269" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C270" s="21" t="s">
         <v>246</v>
@@ -7299,15 +7315,15 @@
       <c r="E270" s="15"/>
       <c r="F270" s="9"/>
       <c r="G270" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C271" s="21" t="s">
         <v>246</v>
@@ -7316,15 +7332,15 @@
       <c r="E271" s="15"/>
       <c r="F271" s="9"/>
       <c r="G271" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>246</v>
@@ -7333,15 +7349,15 @@
       <c r="E272" s="15"/>
       <c r="F272" s="9"/>
       <c r="G272" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C273" s="21" t="s">
         <v>246</v>
@@ -7350,15 +7366,15 @@
       <c r="E273" s="15"/>
       <c r="F273" s="9"/>
       <c r="G273" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>246</v>
@@ -7367,34 +7383,32 @@
       <c r="E274" s="15"/>
       <c r="F274" s="9"/>
       <c r="G274" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D275" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D275" s="15"/>
       <c r="E275" s="15"/>
       <c r="F275" s="9"/>
       <c r="G275" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>246</v>
@@ -7403,15 +7417,15 @@
       <c r="E276" s="15"/>
       <c r="F276" s="9"/>
       <c r="G276" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>575</v>
+        <v>128</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>576</v>
+        <v>506</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>246</v>
@@ -7420,168 +7434,170 @@
       <c r="E277" s="15"/>
       <c r="F277" s="9"/>
       <c r="G277" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C278" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D278" s="15"/>
+        <v>246</v>
+      </c>
+      <c r="D278" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E278" s="15"/>
       <c r="F278" s="9"/>
       <c r="G278" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C279" s="16" t="s">
-        <v>569</v>
+        <v>130</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C279" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
-      <c r="F279" s="15"/>
+      <c r="F279" s="9"/>
       <c r="G279" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="C280" s="16" t="s">
-        <v>570</v>
+        <v>574</v>
+      </c>
+      <c r="C280" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
-      <c r="F280" s="15"/>
+      <c r="F280" s="9"/>
       <c r="G280" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>547</v>
+        <v>131</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="C281" s="16" t="s">
-        <v>571</v>
+        <v>509</v>
+      </c>
+      <c r="C281" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
-      <c r="F281" s="15"/>
+      <c r="F281" s="9"/>
       <c r="G281" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="B282" s="9" t="s">
-        <v>552</v>
+        <v>1</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
       <c r="G282" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B283" s="7" t="s">
-        <v>178</v>
+      <c r="A283" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>549</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
       <c r="F283" s="15"/>
       <c r="G283" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="7" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="9" t="s">
-        <v>573</v>
-      </c>
       <c r="B284" s="9" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
       <c r="F284" s="15"/>
       <c r="G284" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
       <c r="F285" s="15"/>
       <c r="G285" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>555</v>
+      <c r="A286" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
       <c r="F286" s="15"/>
       <c r="G286" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="7" t="s">
-        <v>556</v>
+      <c r="A287" s="9" t="s">
+        <v>571</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="C287" s="16" t="s">
         <v>568</v>
@@ -7590,63 +7606,63 @@
       <c r="E287" s="15"/>
       <c r="F287" s="15"/>
       <c r="G287" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>346</v>
+        <v>547</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
       <c r="F288" s="15"/>
       <c r="G288" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
       <c r="F289" s="15"/>
       <c r="G289" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B290" s="9" t="s">
         <v>561</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
       <c r="F290" s="15"/>
       <c r="G290" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>559</v>
+        <v>346</v>
       </c>
       <c r="B291" s="9" t="s">
         <v>562</v>
@@ -7658,11 +7674,62 @@
       <c r="E291" s="15"/>
       <c r="F291" s="15"/>
       <c r="G291" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C292" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="D292" s="15"/>
+      <c r="E292" s="15"/>
+      <c r="F292" s="15"/>
+      <c r="G292" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C293" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D293" s="15"/>
+      <c r="E293" s="15"/>
+      <c r="F293" s="15"/>
+      <c r="G293" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C294" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="D294" s="15"/>
+      <c r="E294" s="15"/>
+      <c r="F294" s="15"/>
+      <c r="G294" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:G291" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
+  <autoFilter ref="A5:G294" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -7681,10 +7748,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7712,7 +7779,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
-        <v>43643</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7802,7 +7869,7 @@
         <v>43592</v>
       </c>
       <c r="B23" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7810,12 +7877,12 @@
         <v>43609</v>
       </c>
       <c r="B24" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7823,7 +7890,7 @@
         <v>43643</v>
       </c>
       <c r="B26" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7831,12 +7898,12 @@
         <v>43949</v>
       </c>
       <c r="B27" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7844,7 +7911,15 @@
         <v>44007</v>
       </c>
       <c r="B29" t="s">
-        <v>635</v>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>44011</v>
+      </c>
+      <c r="B30" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D9BFB810-A492-40A7-9774-6C3C96A7E644}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19280" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$295</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="660">
   <si>
     <t>nt_total</t>
   </si>
@@ -1314,9 +1314,6 @@
     <t>percent (0-100) of taxa - Class Insecta</t>
   </si>
   <si>
-    <t>percent (0-100) taxa - Class Isopoda</t>
-  </si>
-  <si>
     <t>percent (0-100) of taxa - not Class Insecta</t>
   </si>
   <si>
@@ -2071,6 +2068,21 @@
   </si>
   <si>
     <t>percent (0-100) of individuals - tolerance value - tolerant ≥ 6</t>
+  </si>
+  <si>
+    <t>Added one metric for MI EGLE: pi_IsoSnlLch [input by Ben Block, Tt]</t>
+  </si>
+  <si>
+    <t>pi_IsoSnlLch</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Order Isopoda, Class Gastropoda, and Subclass Hirudinea</t>
+  </si>
+  <si>
+    <t>Order, Class, SubClass</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Order Isopoda</t>
   </si>
 </sst>
 </file>
@@ -2743,13 +2755,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:G294"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A134" sqref="A134"/>
+      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,16 +2796,16 @@
         <v>44011</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A281)</f>
-        <v>276</v>
+        <f>SUBTOTAL(3,A6:A282)</f>
+        <v>277</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2804,7 +2816,7 @@
         <v>133</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>199</v>
@@ -2816,7 +2828,7 @@
         <v>177</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2831,7 +2843,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="6"/>
       <c r="G6" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2846,7 +2858,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="6"/>
       <c r="G7" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2861,7 +2873,7 @@
       <c r="E8" s="26"/>
       <c r="F8" s="6"/>
       <c r="G8" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2880,7 +2892,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2897,7 +2909,7 @@
       <c r="E10" s="15"/>
       <c r="F10" s="7"/>
       <c r="G10" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2914,7 +2926,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="7"/>
       <c r="G11" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2933,7 +2945,7 @@
         <v>259</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2950,7 +2962,7 @@
       <c r="E13" s="15"/>
       <c r="F13" s="7"/>
       <c r="G13" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2969,7 +2981,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="9"/>
       <c r="G14" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2986,7 +2998,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="9"/>
       <c r="G15" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3003,7 +3015,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
       <c r="G16" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3020,7 +3032,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="9"/>
       <c r="G17" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3037,7 +3049,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="9"/>
       <c r="G18" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3054,7 +3066,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="9"/>
       <c r="G19" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3071,7 +3083,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="9"/>
       <c r="G20" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3088,7 +3100,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="9"/>
       <c r="G21" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3105,7 +3117,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="9"/>
       <c r="G22" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3124,7 +3136,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="9"/>
       <c r="G23" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3141,7 +3153,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="9"/>
       <c r="G24" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3158,7 +3170,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="9"/>
       <c r="G25" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3175,7 +3187,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="9"/>
       <c r="G26" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3192,7 +3204,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="9"/>
       <c r="G27" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3209,7 +3221,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="9"/>
       <c r="G28" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3226,7 +3238,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="9"/>
       <c r="G29" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3243,7 +3255,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="7"/>
       <c r="G30" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3260,7 +3272,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="7"/>
       <c r="G31" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3277,7 +3289,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="7"/>
       <c r="G32" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3294,7 +3306,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="7"/>
       <c r="G33" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3311,7 +3323,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="7"/>
       <c r="G34" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3328,7 +3340,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="7"/>
       <c r="G35" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3345,7 +3357,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="7"/>
       <c r="G36" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3362,7 +3374,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="7"/>
       <c r="G37" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3379,7 +3391,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="7"/>
       <c r="G38" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3396,7 +3408,7 @@
       <c r="E39" s="19"/>
       <c r="F39" s="7"/>
       <c r="G39" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3413,7 +3425,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="7"/>
       <c r="G40" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3430,7 +3442,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="9"/>
       <c r="G41" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3447,7 +3459,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="9"/>
       <c r="G42" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3464,7 +3476,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="9"/>
       <c r="G43" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3481,7 +3493,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="9"/>
       <c r="G44" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3498,7 +3510,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="9"/>
       <c r="G45" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3515,7 +3527,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="9"/>
       <c r="G46" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3532,7 +3544,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="9"/>
       <c r="G47" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3543,13 +3555,13 @@
         <v>375</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="9"/>
       <c r="G48" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3566,7 +3578,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="9"/>
       <c r="G49" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3583,7 +3595,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="9"/>
       <c r="G50" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3600,7 +3612,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="9"/>
       <c r="G51" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3611,13 +3623,13 @@
         <v>379</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="9"/>
       <c r="G52" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3628,13 +3640,13 @@
         <v>380</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="9"/>
       <c r="G53" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3651,18 +3663,18 @@
       <c r="E54" s="16"/>
       <c r="F54" s="9"/>
       <c r="G54" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>652</v>
-      </c>
       <c r="C55" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
@@ -3683,7 +3695,7 @@
       <c r="E56" s="16"/>
       <c r="F56" s="9"/>
       <c r="G56" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3694,38 +3706,38 @@
         <v>383</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="9"/>
       <c r="G57" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="9"/>
       <c r="G58" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>243</v>
@@ -3734,7 +3746,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="9"/>
       <c r="G59" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3751,7 +3763,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="9"/>
       <c r="G60" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3768,7 +3780,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="9"/>
       <c r="G61" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3785,7 +3797,7 @@
       <c r="E62" s="20"/>
       <c r="F62" s="9"/>
       <c r="G62" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3802,7 +3814,7 @@
       <c r="E63" s="20"/>
       <c r="F63" s="9"/>
       <c r="G63" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3819,7 +3831,7 @@
       <c r="E64" s="20"/>
       <c r="F64" s="9"/>
       <c r="G64" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3836,7 +3848,7 @@
       <c r="E65" s="20"/>
       <c r="F65" s="9"/>
       <c r="G65" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3853,7 +3865,7 @@
       <c r="E66" s="20"/>
       <c r="F66" s="9"/>
       <c r="G66" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3870,7 +3882,7 @@
       <c r="E67" s="20"/>
       <c r="F67" s="9"/>
       <c r="G67" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3881,13 +3893,13 @@
         <v>392</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="9"/>
       <c r="G68" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3904,7 +3916,7 @@
       <c r="E69" s="20"/>
       <c r="F69" s="9"/>
       <c r="G69" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3921,7 +3933,7 @@
       <c r="E70" s="20"/>
       <c r="F70" s="9"/>
       <c r="G70" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3938,7 +3950,7 @@
       <c r="E71" s="20"/>
       <c r="F71" s="9"/>
       <c r="G71" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3955,7 +3967,7 @@
       <c r="E72" s="20"/>
       <c r="F72" s="9"/>
       <c r="G72" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3972,7 +3984,7 @@
       <c r="E73" s="16"/>
       <c r="F73" s="9"/>
       <c r="G73" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3989,7 +4001,7 @@
       <c r="E74" s="16"/>
       <c r="F74" s="9"/>
       <c r="G74" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4006,7 +4018,7 @@
       <c r="E75" s="16"/>
       <c r="F75" s="9"/>
       <c r="G75" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4023,7 +4035,7 @@
       <c r="E76" s="16"/>
       <c r="F76" s="9"/>
       <c r="G76" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4040,7 +4052,7 @@
       <c r="E77" s="16"/>
       <c r="F77" s="9"/>
       <c r="G77" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4057,7 +4069,7 @@
       <c r="E78" s="16"/>
       <c r="F78" s="9"/>
       <c r="G78" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4065,7 +4077,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>403</v>
+        <v>659</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>240</v>
@@ -4074,83 +4086,83 @@
       <c r="E79" s="16"/>
       <c r="F79" s="9"/>
       <c r="G79" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>404</v>
+        <v>656</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>657</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>240</v>
+        <v>658</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="9"/>
       <c r="G80" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="9"/>
       <c r="G81" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="9"/>
       <c r="G82" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="9"/>
       <c r="G83" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>239</v>
@@ -4159,15 +4171,15 @@
       <c r="E84" s="16"/>
       <c r="F84" s="9"/>
       <c r="G84" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>239</v>
@@ -4176,32 +4188,32 @@
       <c r="E85" s="16"/>
       <c r="F85" s="9"/>
       <c r="G85" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>192</v>
+        <v>340</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>408</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="9"/>
       <c r="G86" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>243</v>
@@ -4210,15 +4222,15 @@
       <c r="E87" s="16"/>
       <c r="F87" s="9"/>
       <c r="G87" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>410</v>
+        <v>193</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>243</v>
@@ -4227,15 +4239,15 @@
       <c r="E88" s="16"/>
       <c r="F88" s="9"/>
       <c r="G88" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>411</v>
+        <v>41</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>243</v>
@@ -4244,185 +4256,185 @@
       <c r="E89" s="16"/>
       <c r="F89" s="9"/>
       <c r="G89" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>645</v>
+        <v>341</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>646</v>
+        <v>410</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>357</v>
+        <v>243</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="9"/>
       <c r="G90" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>412</v>
+        <v>644</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>645</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
+        <v>357</v>
+      </c>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
       <c r="F91" s="9"/>
       <c r="G91" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>413</v>
+        <v>42</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
+        <v>244</v>
+      </c>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
       <c r="F92" s="9"/>
       <c r="G92" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="9"/>
       <c r="G93" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>520</v>
+      <c r="A94" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>510</v>
+        <v>413</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>643</v>
+        <v>242</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="9"/>
       <c r="G94" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="9"/>
       <c r="G95" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>513</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="9"/>
       <c r="G96" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>649</v>
+        <v>511</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>641</v>
+        <v>512</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="9"/>
       <c r="G97" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>254</v>
+      <c r="A98" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>641</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
-      <c r="F98" s="7"/>
+      <c r="F98" s="9"/>
       <c r="G98" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>415</v>
+        <v>250</v>
       </c>
       <c r="C99" s="21" t="s">
         <v>254</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
-      <c r="F99" s="9"/>
+      <c r="F99" s="7"/>
       <c r="G99" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>416</v>
+        <v>44</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>254</v>
@@ -4431,49 +4443,49 @@
       <c r="E100" s="16"/>
       <c r="F100" s="9"/>
       <c r="G100" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>249</v>
+        <v>415</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="7"/>
+      <c r="F101" s="9"/>
       <c r="G101" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>417</v>
+        <v>249</v>
       </c>
       <c r="C102" s="21" t="s">
         <v>255</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="9"/>
+      <c r="F102" s="7"/>
       <c r="G102" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>418</v>
+        <v>135</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>416</v>
       </c>
       <c r="C103" s="21" t="s">
         <v>255</v>
@@ -4482,68 +4494,66 @@
       <c r="E103" s="16"/>
       <c r="F103" s="9"/>
       <c r="G103" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
       <c r="F104" s="9"/>
       <c r="G104" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>251</v>
+        <v>418</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
       <c r="F105" s="9"/>
       <c r="G105" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>420</v>
+        <v>251</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>257</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D106" s="16"/>
       <c r="E106" s="16"/>
       <c r="F106" s="9"/>
       <c r="G106" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>268</v>
@@ -4554,191 +4564,191 @@
       <c r="E107" s="16"/>
       <c r="F107" s="9"/>
       <c r="G107" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>253</v>
+        <v>420</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D108" s="16"/>
+        <v>268</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="E108" s="16"/>
       <c r="F108" s="9"/>
       <c r="G108" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>422</v>
+        <v>253</v>
       </c>
       <c r="C109" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D109" s="16" t="s">
-        <v>257</v>
-      </c>
+      <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="9"/>
       <c r="G109" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C110" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D110" s="16"/>
+      <c r="D110" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="E110" s="16"/>
       <c r="F110" s="9"/>
       <c r="G110" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="9"/>
       <c r="G111" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>642</v>
+        <v>144</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="9"/>
       <c r="G112" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>310</v>
+        <v>344</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>641</v>
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="9"/>
       <c r="G113" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
       <c r="F114" s="9"/>
       <c r="G114" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
-      <c r="F115" s="7"/>
+      <c r="F115" s="9"/>
       <c r="G115" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>145</v>
+      <c r="A116" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="D116" s="16"/>
-      <c r="E116" s="16" t="s">
-        <v>257</v>
-      </c>
+      <c r="E116" s="16"/>
       <c r="F116" s="7"/>
       <c r="G116" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>195</v>
+        <v>145</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="C117" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15" t="s">
+      <c r="D117" s="16"/>
+      <c r="E117" s="16" t="s">
         <v>257</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>147</v>
+      <c r="A118" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C118" s="21" t="s">
         <v>205</v>
@@ -4749,15 +4759,15 @@
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>148</v>
+      <c r="A119" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C119" s="21" t="s">
         <v>205</v>
@@ -4768,15 +4778,15 @@
       </c>
       <c r="F119" s="7"/>
       <c r="G119" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>149</v>
+      <c r="A120" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>426</v>
+        <v>198</v>
       </c>
       <c r="C120" s="21" t="s">
         <v>205</v>
@@ -4785,17 +4795,17 @@
       <c r="E120" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="F120" s="9"/>
+      <c r="F120" s="7"/>
       <c r="G120" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>150</v>
+      <c r="A121" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C121" s="21" t="s">
         <v>205</v>
@@ -4806,15 +4816,15 @@
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C122" s="21" t="s">
         <v>205</v>
@@ -4825,15 +4835,15 @@
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>152</v>
+      <c r="A123" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C123" s="21" t="s">
         <v>205</v>
@@ -4844,15 +4854,15 @@
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>153</v>
+      <c r="A124" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C124" s="21" t="s">
         <v>205</v>
@@ -4863,15 +4873,15 @@
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>154</v>
+      <c r="A125" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C125" s="21" t="s">
         <v>205</v>
@@ -4882,15 +4892,15 @@
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
-        <v>155</v>
+      <c r="A126" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C126" s="21" t="s">
         <v>205</v>
@@ -4901,15 +4911,15 @@
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>433</v>
+        <v>155</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="C127" s="21" t="s">
         <v>205</v>
@@ -4920,32 +4930,34 @@
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>53</v>
+      <c r="A128" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>220</v>
+        <v>432</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
+      <c r="E128" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="F128" s="9"/>
       <c r="G128" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>647</v>
+        <v>53</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>648</v>
+        <v>220</v>
       </c>
       <c r="C129" s="21" t="s">
         <v>206</v>
@@ -4954,15 +4966,15 @@
       <c r="E129" s="15"/>
       <c r="F129" s="9"/>
       <c r="G129" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>54</v>
+      <c r="A130" s="7" t="s">
+        <v>646</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>221</v>
+        <v>647</v>
       </c>
       <c r="C130" s="21" t="s">
         <v>206</v>
@@ -4971,15 +4983,15 @@
       <c r="E130" s="15"/>
       <c r="F130" s="9"/>
       <c r="G130" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>434</v>
+      <c r="A131" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="C131" s="21" t="s">
         <v>206</v>
@@ -4988,15 +5000,15 @@
       <c r="E131" s="15"/>
       <c r="F131" s="9"/>
       <c r="G131" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>634</v>
+        <v>345</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>635</v>
+        <v>433</v>
       </c>
       <c r="C132" s="21" t="s">
         <v>206</v>
@@ -5005,15 +5017,15 @@
       <c r="E132" s="15"/>
       <c r="F132" s="9"/>
       <c r="G132" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>346</v>
+        <v>633</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>435</v>
+        <v>634</v>
       </c>
       <c r="C133" s="21" t="s">
         <v>206</v>
@@ -5022,15 +5034,15 @@
       <c r="E133" s="15"/>
       <c r="F133" s="9"/>
       <c r="G133" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>654</v>
+        <v>346</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>655</v>
+        <v>434</v>
       </c>
       <c r="C134" s="21" t="s">
         <v>206</v>
@@ -5039,15 +5051,15 @@
       <c r="E134" s="15"/>
       <c r="F134" s="9"/>
       <c r="G134" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>347</v>
+        <v>653</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>436</v>
+        <v>654</v>
       </c>
       <c r="C135" s="21" t="s">
         <v>206</v>
@@ -5056,15 +5068,15 @@
       <c r="E135" s="15"/>
       <c r="F135" s="9"/>
       <c r="G135" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>636</v>
+        <v>347</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>637</v>
+        <v>435</v>
       </c>
       <c r="C136" s="21" t="s">
         <v>206</v>
@@ -5073,15 +5085,15 @@
       <c r="E136" s="15"/>
       <c r="F136" s="9"/>
       <c r="G136" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>348</v>
+        <v>635</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>437</v>
+        <v>636</v>
       </c>
       <c r="C137" s="21" t="s">
         <v>206</v>
@@ -5090,49 +5102,49 @@
       <c r="E137" s="15"/>
       <c r="F137" s="9"/>
       <c r="G137" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>639</v>
+        <v>348</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>640</v>
+        <v>206</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
       <c r="F138" s="9"/>
       <c r="G138" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>364</v>
+        <v>637</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>638</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>206</v>
+        <v>639</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
       <c r="F139" s="9"/>
       <c r="G139" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C140" s="21" t="s">
         <v>206</v>
@@ -5141,15 +5153,15 @@
       <c r="E140" s="15"/>
       <c r="F140" s="9"/>
       <c r="G140" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>438</v>
+        <v>365</v>
       </c>
       <c r="C141" s="21" t="s">
         <v>206</v>
@@ -5158,15 +5170,15 @@
       <c r="E141" s="15"/>
       <c r="F141" s="9"/>
       <c r="G141" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C142" s="21" t="s">
         <v>206</v>
@@ -5175,15 +5187,15 @@
       <c r="E142" s="15"/>
       <c r="F142" s="9"/>
       <c r="G142" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C143" s="21" t="s">
         <v>206</v>
@@ -5192,66 +5204,66 @@
       <c r="E143" s="15"/>
       <c r="F143" s="9"/>
       <c r="G143" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C144" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C144" s="21" t="s">
         <v>206</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
       <c r="F144" s="9"/>
       <c r="G144" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>523</v>
+        <v>354</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
       <c r="F145" s="9"/>
       <c r="G145" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>210</v>
+        <v>441</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>207</v>
+        <v>522</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
       <c r="F146" s="9"/>
       <c r="G146" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>207</v>
@@ -5260,15 +5272,15 @@
       <c r="E147" s="15"/>
       <c r="F147" s="9"/>
       <c r="G147" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>207</v>
@@ -5277,15 +5289,15 @@
       <c r="E148" s="15"/>
       <c r="F148" s="9"/>
       <c r="G148" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>207</v>
@@ -5294,15 +5306,15 @@
       <c r="E149" s="15"/>
       <c r="F149" s="9"/>
       <c r="G149" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>207</v>
@@ -5311,15 +5323,15 @@
       <c r="E150" s="15"/>
       <c r="F150" s="9"/>
       <c r="G150" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>443</v>
+        <v>214</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>207</v>
@@ -5328,15 +5340,15 @@
       <c r="E151" s="15"/>
       <c r="F151" s="9"/>
       <c r="G151" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>207</v>
@@ -5345,15 +5357,15 @@
       <c r="E152" s="15"/>
       <c r="F152" s="9"/>
       <c r="G152" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>207</v>
@@ -5362,15 +5374,15 @@
       <c r="E153" s="15"/>
       <c r="F153" s="9"/>
       <c r="G153" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C154" s="16" t="s">
         <v>207</v>
@@ -5379,15 +5391,15 @@
       <c r="E154" s="15"/>
       <c r="F154" s="9"/>
       <c r="G154" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>207</v>
@@ -5396,15 +5408,15 @@
       <c r="E155" s="15"/>
       <c r="F155" s="9"/>
       <c r="G155" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>448</v>
+      <c r="A156" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>446</v>
       </c>
       <c r="C156" s="16" t="s">
         <v>207</v>
@@ -5413,15 +5425,15 @@
       <c r="E156" s="15"/>
       <c r="F156" s="9"/>
       <c r="G156" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
-        <v>66</v>
+      <c r="A157" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>207</v>
@@ -5430,15 +5442,15 @@
       <c r="E157" s="15"/>
       <c r="F157" s="9"/>
       <c r="G157" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>207</v>
@@ -5447,15 +5459,15 @@
       <c r="E158" s="15"/>
       <c r="F158" s="9"/>
       <c r="G158" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>207</v>
@@ -5464,15 +5476,15 @@
       <c r="E159" s="15"/>
       <c r="F159" s="9"/>
       <c r="G159" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>452</v>
+        <v>68</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>207</v>
@@ -5481,66 +5493,66 @@
       <c r="E160" s="15"/>
       <c r="F160" s="9"/>
       <c r="G160" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>200</v>
+        <v>69</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>451</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
-      <c r="F161" s="7"/>
+      <c r="F161" s="9"/>
       <c r="G161" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C162" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C162" s="16" t="s">
         <v>208</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
       <c r="F162" s="7"/>
       <c r="G162" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C163" s="21" t="s">
         <v>208</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
-      <c r="F163" s="11"/>
+      <c r="F163" s="7"/>
       <c r="G163" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>201</v>
+        <v>298</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C164" s="21" t="s">
         <v>208</v>
@@ -5549,83 +5561,83 @@
       <c r="E164" s="15"/>
       <c r="F164" s="11"/>
       <c r="G164" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>299</v>
+        <v>71</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C165" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D165" s="16"/>
+      <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="11"/>
       <c r="G165" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>453</v>
+        <v>204</v>
       </c>
       <c r="C166" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D166" s="15"/>
+      <c r="D166" s="16"/>
       <c r="E166" s="15"/>
-      <c r="F166" s="9"/>
+      <c r="F166" s="11"/>
       <c r="G166" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C167" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D167" s="16"/>
+      <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="9"/>
       <c r="G167" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C168" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D168" s="15"/>
+      <c r="D168" s="16"/>
       <c r="E168" s="15"/>
       <c r="F168" s="9"/>
       <c r="G168" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C169" s="21" t="s">
         <v>208</v>
@@ -5634,15 +5646,15 @@
       <c r="E169" s="15"/>
       <c r="F169" s="9"/>
       <c r="G169" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C170" s="21" t="s">
         <v>208</v>
@@ -5651,15 +5663,15 @@
       <c r="E170" s="15"/>
       <c r="F170" s="9"/>
       <c r="G170" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C171" s="21" t="s">
         <v>208</v>
@@ -5668,15 +5680,15 @@
       <c r="E171" s="15"/>
       <c r="F171" s="9"/>
       <c r="G171" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C172" s="21" t="s">
         <v>208</v>
@@ -5685,15 +5697,15 @@
       <c r="E172" s="15"/>
       <c r="F172" s="9"/>
       <c r="G172" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>208</v>
@@ -5702,15 +5714,15 @@
       <c r="E173" s="15"/>
       <c r="F173" s="9"/>
       <c r="G173" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C174" s="21" t="s">
         <v>208</v>
@@ -5719,15 +5731,15 @@
       <c r="E174" s="15"/>
       <c r="F174" s="9"/>
       <c r="G174" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>305</v>
+        <v>75</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C175" s="21" t="s">
         <v>208</v>
@@ -5736,83 +5748,83 @@
       <c r="E175" s="15"/>
       <c r="F175" s="9"/>
       <c r="G175" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>215</v>
+        <v>461</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
-      <c r="F176" s="12"/>
+      <c r="F176" s="9"/>
       <c r="G176" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>216</v>
+        <v>76</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="C177" s="21" t="s">
         <v>209</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
-      <c r="F177" s="11"/>
+      <c r="F177" s="12"/>
       <c r="G177" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C178" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D178" s="16"/>
+      <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="11"/>
       <c r="G178" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>463</v>
+        <v>78</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="C179" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D179" s="15"/>
+      <c r="D179" s="16"/>
       <c r="E179" s="15"/>
-      <c r="F179" s="9"/>
+      <c r="F179" s="11"/>
       <c r="G179" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C180" s="21" t="s">
         <v>209</v>
@@ -5821,15 +5833,15 @@
       <c r="E180" s="15"/>
       <c r="F180" s="9"/>
       <c r="G180" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>465</v>
+        <v>80</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="C181" s="21" t="s">
         <v>209</v>
@@ -5838,15 +5850,15 @@
       <c r="E181" s="15"/>
       <c r="F181" s="9"/>
       <c r="G181" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C182" s="21" t="s">
         <v>209</v>
@@ -5855,15 +5867,15 @@
       <c r="E182" s="15"/>
       <c r="F182" s="9"/>
       <c r="G182" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C183" s="21" t="s">
         <v>209</v>
@@ -5872,66 +5884,66 @@
       <c r="E183" s="15"/>
       <c r="F183" s="9"/>
       <c r="G183" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C184" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="16"/>
+      <c r="D184" s="15"/>
       <c r="E184" s="15"/>
       <c r="F184" s="9"/>
       <c r="G184" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>533</v>
+        <v>84</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D185" s="15"/>
+        <v>209</v>
+      </c>
+      <c r="D185" s="16"/>
       <c r="E185" s="15"/>
       <c r="F185" s="9"/>
       <c r="G185" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>469</v>
+        <v>85</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>532</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="9"/>
       <c r="G186" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C187" s="21" t="s">
         <v>265</v>
@@ -5940,15 +5952,15 @@
       <c r="E187" s="15"/>
       <c r="F187" s="9"/>
       <c r="G187" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C188" s="21" t="s">
         <v>265</v>
@@ -5957,15 +5969,15 @@
       <c r="E188" s="15"/>
       <c r="F188" s="9"/>
       <c r="G188" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C189" s="21" t="s">
         <v>265</v>
@@ -5974,15 +5986,15 @@
       <c r="E189" s="15"/>
       <c r="F189" s="9"/>
       <c r="G189" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C190" s="21" t="s">
         <v>265</v>
@@ -5991,15 +6003,15 @@
       <c r="E190" s="15"/>
       <c r="F190" s="9"/>
       <c r="G190" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C191" s="21" t="s">
         <v>265</v>
@@ -6008,49 +6020,49 @@
       <c r="E191" s="15"/>
       <c r="F191" s="9"/>
       <c r="G191" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C192" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D192" s="16"/>
+      <c r="D192" s="15"/>
       <c r="E192" s="15"/>
       <c r="F192" s="9"/>
       <c r="G192" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C193" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D193" s="15"/>
+      <c r="D193" s="16"/>
       <c r="E193" s="15"/>
       <c r="F193" s="9"/>
       <c r="G193" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>477</v>
+        <v>164</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>475</v>
       </c>
       <c r="C194" s="21" t="s">
         <v>265</v>
@@ -6059,102 +6071,102 @@
       <c r="E194" s="15"/>
       <c r="F194" s="9"/>
       <c r="G194" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>218</v>
+        <v>165</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>476</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="9"/>
       <c r="G195" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>631</v>
+        <v>86</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>630</v>
+        <v>218</v>
       </c>
       <c r="C196" s="21" t="s">
         <v>248</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
-      <c r="F196" s="9" t="s">
-        <v>632</v>
-      </c>
+      <c r="F196" s="9"/>
       <c r="G196" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>87</v>
+        <v>630</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>219</v>
+        <v>629</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
-      <c r="F197" s="9"/>
+      <c r="F197" s="9" t="s">
+        <v>631</v>
+      </c>
       <c r="G197" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="9" t="s">
-        <v>521</v>
+      <c r="A198" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>522</v>
+        <v>219</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>523</v>
+        <v>206</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="9"/>
       <c r="G198" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>528</v>
+      <c r="A199" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>248</v>
+        <v>522</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="9"/>
       <c r="G199" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C200" s="21" t="s">
         <v>248</v>
@@ -6163,15 +6175,15 @@
       <c r="E200" s="15"/>
       <c r="F200" s="9"/>
       <c r="G200" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C201" s="21" t="s">
         <v>248</v>
@@ -6180,32 +6192,32 @@
       <c r="E201" s="15"/>
       <c r="F201" s="9"/>
       <c r="G201" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="9"/>
       <c r="G202" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="9" t="s">
-        <v>525</v>
+      <c r="A203" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C203" s="21" t="s">
         <v>241</v>
@@ -6214,7 +6226,7 @@
       <c r="E203" s="15"/>
       <c r="F203" s="9"/>
       <c r="G203" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6231,50 +6243,52 @@
       <c r="E204" s="15"/>
       <c r="F204" s="9"/>
       <c r="G204" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="7" t="s">
-        <v>92</v>
+      <c r="A205" s="9" t="s">
+        <v>523</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
       <c r="F205" s="9"/>
       <c r="G205" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>581</v>
+        <v>92</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>605</v>
+        <v>525</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>629</v>
+        <v>248</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
       <c r="F206" s="9"/>
-      <c r="G206" s="1"/>
+      <c r="G206" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
@@ -6283,13 +6297,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
@@ -6298,13 +6312,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
@@ -6313,13 +6327,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
@@ -6328,13 +6342,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
@@ -6343,13 +6357,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
@@ -6358,13 +6372,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
@@ -6373,13 +6387,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
@@ -6388,13 +6402,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
@@ -6403,13 +6417,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>614</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
@@ -6418,13 +6432,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
@@ -6433,13 +6447,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
@@ -6448,13 +6462,13 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
@@ -6463,13 +6477,13 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
@@ -6478,13 +6492,13 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
@@ -6493,13 +6507,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
@@ -6508,13 +6522,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
@@ -6523,13 +6537,13 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
@@ -6538,13 +6552,13 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
@@ -6553,13 +6567,13 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
@@ -6568,13 +6582,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
@@ -6583,13 +6597,13 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
@@ -6598,13 +6612,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B229" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C229" s="21" t="s">
         <v>628</v>
-      </c>
-      <c r="C229" s="21" t="s">
-        <v>629</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
@@ -6613,27 +6627,25 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>237</v>
+        <v>603</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>627</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>246</v>
+        <v>628</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
       <c r="F230" s="9"/>
-      <c r="G230" s="1" t="s">
-        <v>540</v>
-      </c>
+      <c r="G230" s="1"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>246</v>
@@ -6642,15 +6654,15 @@
       <c r="E231" s="15"/>
       <c r="F231" s="9"/>
       <c r="G231" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>246</v>
@@ -6659,104 +6671,104 @@
       <c r="E232" s="15"/>
       <c r="F232" s="9"/>
       <c r="G232" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D233" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D233" s="15"/>
       <c r="E233" s="15"/>
       <c r="F233" s="9"/>
       <c r="G233" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D234" s="15"/>
+      <c r="D234" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E234" s="15"/>
       <c r="F234" s="9"/>
       <c r="G234" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D235" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D235" s="15"/>
       <c r="E235" s="15"/>
       <c r="F235" s="9"/>
       <c r="G235" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D236" s="16"/>
+      <c r="D236" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E236" s="15"/>
       <c r="F236" s="9"/>
       <c r="G236" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D237" s="15"/>
+      <c r="D237" s="16"/>
       <c r="E237" s="15"/>
       <c r="F237" s="9"/>
       <c r="G237" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>228</v>
+        <v>98</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>246</v>
@@ -6765,15 +6777,15 @@
       <c r="E238" s="15"/>
       <c r="F238" s="9"/>
       <c r="G238" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C239" s="21" t="s">
         <v>246</v>
@@ -6782,15 +6794,15 @@
       <c r="E239" s="15"/>
       <c r="F239" s="9"/>
       <c r="G239" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>246</v>
@@ -6799,15 +6811,15 @@
       <c r="E240" s="15"/>
       <c r="F240" s="9"/>
       <c r="G240" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>246</v>
@@ -6816,15 +6828,15 @@
       <c r="E241" s="15"/>
       <c r="F241" s="9"/>
       <c r="G241" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>246</v>
@@ -6833,15 +6845,15 @@
       <c r="E242" s="15"/>
       <c r="F242" s="9"/>
       <c r="G242" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>246</v>
@@ -6850,15 +6862,15 @@
       <c r="E243" s="15"/>
       <c r="F243" s="9"/>
       <c r="G243" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>246</v>
@@ -6867,15 +6879,15 @@
       <c r="E244" s="15"/>
       <c r="F244" s="9"/>
       <c r="G244" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>578</v>
+        <v>104</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>577</v>
+        <v>234</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>246</v>
@@ -6884,68 +6896,68 @@
       <c r="E245" s="15"/>
       <c r="F245" s="9"/>
       <c r="G245" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>105</v>
+        <v>577</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>235</v>
+        <v>576</v>
       </c>
       <c r="C246" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D246" s="15"/>
       <c r="E246" s="15"/>
       <c r="F246" s="9"/>
       <c r="G246" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D247" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D247" s="15"/>
       <c r="E247" s="15"/>
       <c r="F247" s="9"/>
       <c r="G247" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>478</v>
+        <v>236</v>
       </c>
       <c r="C248" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D248" s="15"/>
+        <v>247</v>
+      </c>
+      <c r="D248" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E248" s="15"/>
       <c r="F248" s="9"/>
       <c r="G248" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C249" s="21" t="s">
         <v>246</v>
@@ -6954,15 +6966,15 @@
       <c r="E249" s="15"/>
       <c r="F249" s="9"/>
       <c r="G249" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>246</v>
@@ -6971,15 +6983,15 @@
       <c r="E250" s="15"/>
       <c r="F250" s="9"/>
       <c r="G250" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C251" s="21" t="s">
         <v>246</v>
@@ -6988,15 +7000,15 @@
       <c r="E251" s="15"/>
       <c r="F251" s="9"/>
       <c r="G251" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C252" s="21" t="s">
         <v>246</v>
@@ -7005,51 +7017,51 @@
       <c r="E252" s="15"/>
       <c r="F252" s="9"/>
       <c r="G252" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D253" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D253" s="15"/>
       <c r="E253" s="15"/>
       <c r="F253" s="9"/>
       <c r="G253" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D254" s="15"/>
+      <c r="D254" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E254" s="15"/>
       <c r="F254" s="9"/>
       <c r="G254" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>246</v>
@@ -7058,15 +7070,15 @@
       <c r="E255" s="15"/>
       <c r="F255" s="9"/>
       <c r="G255" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>246</v>
@@ -7075,15 +7087,15 @@
       <c r="E256" s="15"/>
       <c r="F256" s="9"/>
       <c r="G256" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>246</v>
@@ -7092,15 +7104,15 @@
       <c r="E257" s="15"/>
       <c r="F257" s="9"/>
       <c r="G257" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>246</v>
@@ -7109,15 +7121,15 @@
       <c r="E258" s="15"/>
       <c r="F258" s="9"/>
       <c r="G258" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>246</v>
@@ -7126,15 +7138,15 @@
       <c r="E259" s="15"/>
       <c r="F259" s="9"/>
       <c r="G259" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>246</v>
@@ -7143,51 +7155,51 @@
       <c r="E260" s="15"/>
       <c r="F260" s="9"/>
       <c r="G260" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C261" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D261" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D261" s="15"/>
       <c r="E261" s="15"/>
       <c r="F261" s="9"/>
       <c r="G261" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C262" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D262" s="15"/>
+      <c r="D262" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E262" s="15"/>
       <c r="F262" s="9"/>
       <c r="G262" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>576</v>
+        <v>117</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>575</v>
+        <v>491</v>
       </c>
       <c r="C263" s="21" t="s">
         <v>246</v>
@@ -7196,49 +7208,49 @@
       <c r="E263" s="15"/>
       <c r="F263" s="9"/>
       <c r="G263" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>118</v>
+        <v>575</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>493</v>
+        <v>574</v>
       </c>
       <c r="C264" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
       <c r="F264" s="9"/>
       <c r="G264" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C265" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
       <c r="F265" s="9"/>
       <c r="G265" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C266" s="21" t="s">
         <v>246</v>
@@ -7247,15 +7259,15 @@
       <c r="E266" s="15"/>
       <c r="F266" s="9"/>
       <c r="G266" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>246</v>
@@ -7264,15 +7276,15 @@
       <c r="E267" s="15"/>
       <c r="F267" s="9"/>
       <c r="G267" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C268" s="21" t="s">
         <v>246</v>
@@ -7281,15 +7293,15 @@
       <c r="E268" s="15"/>
       <c r="F268" s="9"/>
       <c r="G268" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C269" s="21" t="s">
         <v>246</v>
@@ -7298,15 +7310,15 @@
       <c r="E269" s="15"/>
       <c r="F269" s="9"/>
       <c r="G269" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C270" s="21" t="s">
         <v>246</v>
@@ -7315,15 +7327,15 @@
       <c r="E270" s="15"/>
       <c r="F270" s="9"/>
       <c r="G270" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C271" s="21" t="s">
         <v>246</v>
@@ -7332,15 +7344,15 @@
       <c r="E271" s="15"/>
       <c r="F271" s="9"/>
       <c r="G271" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>246</v>
@@ -7349,15 +7361,15 @@
       <c r="E272" s="15"/>
       <c r="F272" s="9"/>
       <c r="G272" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C273" s="21" t="s">
         <v>246</v>
@@ -7366,15 +7378,15 @@
       <c r="E273" s="15"/>
       <c r="F273" s="9"/>
       <c r="G273" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>246</v>
@@ -7383,15 +7395,15 @@
       <c r="E274" s="15"/>
       <c r="F274" s="9"/>
       <c r="G274" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>246</v>
@@ -7400,15 +7412,15 @@
       <c r="E275" s="15"/>
       <c r="F275" s="9"/>
       <c r="G275" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>246</v>
@@ -7417,15 +7429,15 @@
       <c r="E276" s="15"/>
       <c r="F276" s="9"/>
       <c r="G276" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>246</v>
@@ -7434,51 +7446,51 @@
       <c r="E277" s="15"/>
       <c r="F277" s="9"/>
       <c r="G277" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C278" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D278" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="F278" s="9"/>
       <c r="G278" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C279" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D279" s="15"/>
+      <c r="D279" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E279" s="15"/>
       <c r="F279" s="9"/>
       <c r="G279" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>573</v>
+        <v>130</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>246</v>
@@ -7487,80 +7499,80 @@
       <c r="E280" s="15"/>
       <c r="F280" s="9"/>
       <c r="G280" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>131</v>
+        <v>572</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
       <c r="F281" s="9"/>
       <c r="G281" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C282" s="16" t="s">
-        <v>567</v>
+        <v>131</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C282" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
-      <c r="F282" s="15"/>
+      <c r="F282" s="9"/>
       <c r="G282" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="B283" s="9" t="s">
-        <v>549</v>
+        <v>1</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
       <c r="F283" s="15"/>
       <c r="G283" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
       <c r="F284" s="15"/>
       <c r="G284" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B285" s="9" t="s">
         <v>550</v>
@@ -7572,32 +7584,32 @@
       <c r="E285" s="15"/>
       <c r="F285" s="15"/>
       <c r="G285" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B286" s="7" t="s">
-        <v>178</v>
+      <c r="A286" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>549</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
       <c r="F286" s="15"/>
       <c r="G286" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>572</v>
+        <v>0</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="C287" s="16" t="s">
         <v>568</v>
@@ -7606,83 +7618,83 @@
       <c r="E287" s="15"/>
       <c r="F287" s="15"/>
       <c r="G287" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="7" t="s">
-        <v>547</v>
+      <c r="A288" s="9" t="s">
+        <v>570</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
       <c r="F288" s="15"/>
       <c r="G288" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
       <c r="F289" s="15"/>
       <c r="G289" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
       <c r="F290" s="15"/>
       <c r="G290" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>346</v>
+        <v>553</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
       <c r="F291" s="15"/>
       <c r="G291" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>555</v>
+        <v>346</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C292" s="16" t="s">
         <v>565</v>
@@ -7691,45 +7703,62 @@
       <c r="E292" s="15"/>
       <c r="F292" s="15"/>
       <c r="G292" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
       <c r="F293" s="15"/>
       <c r="G293" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
       <c r="F294" s="15"/>
       <c r="G294" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D295" s="15"/>
+      <c r="E295" s="15"/>
+      <c r="F295" s="15"/>
+      <c r="G295" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:G294" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
+  <autoFilter ref="A5:G295" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -7748,10 +7777,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7788,7 +7817,7 @@
       </c>
       <c r="B7" s="32" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricNames.xlsx]</v>
+        <v>C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\[MetricNames.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7869,7 +7898,7 @@
         <v>43592</v>
       </c>
       <c r="B23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7877,12 +7906,12 @@
         <v>43609</v>
       </c>
       <c r="B24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7890,7 +7919,7 @@
         <v>43643</v>
       </c>
       <c r="B26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7898,12 +7927,12 @@
         <v>43949</v>
       </c>
       <c r="B27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7911,7 +7940,7 @@
         <v>44007</v>
       </c>
       <c r="B29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7919,7 +7948,15 @@
         <v>44011</v>
       </c>
       <c r="B30" t="s">
-        <v>650</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>44028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D9BFB810-A492-40A7-9774-6C3C96A7E644}"/>
   <bookViews>
-    <workbookView xWindow="-19280" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
@@ -2758,7 +2758,7 @@
   <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B84" sqref="B84"/>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D9BFB810-A492-40A7-9774-6C3C96A7E644}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AFE4CCAF-478D-462B-8D31-1A2F867F2E33}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2752,16 +2752,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet3">
+  <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B237" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>44011</v>
+        <v>44032</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>540</v>
@@ -2801,8 +2801,8 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A282)</f>
-        <v>277</v>
+        <f>SUBTOTAL(3,A6:A295)</f>
+        <v>3</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>541</v>
@@ -2831,7 +2831,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>287</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>286</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>285</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>318</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>288</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>319</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>289</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>290</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>320</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>321</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>9</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>366</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>10</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>12</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>322</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>323</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>15</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>324</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>325</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>17</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>650</v>
       </c>
@@ -3681,7 +3681,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>18</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>326</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>514</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>515</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>327</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>328</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>329</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>20</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>21</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>22</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>23</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>330</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>331</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>46</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>47</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>332</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>48</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>49</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>333</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>50</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>51</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>334</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>656</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>336</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>337</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>338</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>339</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>340</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>39</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>40</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>41</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>341</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>644</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>42</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>342</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>343</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>519</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>510</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>511</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>648</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>43</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>44</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>45</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>134</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>135</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>136</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>137</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>138</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>139</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>140</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>141</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>142</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>143</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>144</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>344</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>306</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>307</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>312</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>145</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>146</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>147</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>148</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>149</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>150</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>151</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>152</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>153</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>154</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>155</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>156</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>53</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>646</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>54</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>345</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>633</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>346</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>653</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>347</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>635</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>348</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>637</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>349</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>350</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>351</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>352</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>353</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>354</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>315</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>55</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>56</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>57</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>58</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>59</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>60</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>61</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>62</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>63</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>64</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>65</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>66</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>67</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>68</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>69</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>70</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>297</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>298</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>71</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>299</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>72</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>300</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>301</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>73</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>302</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>74</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>303</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>304</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>75</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>305</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>76</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>77</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>78</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>79</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>80</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>81</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>82</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>83</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>84</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>85</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>157</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>158</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>159</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>160</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>161</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>162</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>163</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>164</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>165</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>86</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>630</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>87</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>520</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>88</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>89</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>90</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>91</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>524</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>523</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>92</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>580</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="F207" s="9"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>581</v>
       </c>
@@ -6310,7 +6310,7 @@
       <c r="F208" s="9"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>582</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="F209" s="9"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>583</v>
       </c>
@@ -6340,7 +6340,7 @@
       <c r="F210" s="9"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>584</v>
       </c>
@@ -6355,7 +6355,7 @@
       <c r="F211" s="9"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>585</v>
       </c>
@@ -6370,7 +6370,7 @@
       <c r="F212" s="9"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>586</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="F213" s="9"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>587</v>
       </c>
@@ -6400,7 +6400,7 @@
       <c r="F214" s="9"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>588</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="F215" s="9"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>589</v>
       </c>
@@ -6430,7 +6430,7 @@
       <c r="F216" s="9"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>590</v>
       </c>
@@ -6445,7 +6445,7 @@
       <c r="F217" s="9"/>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>591</v>
       </c>
@@ -6460,7 +6460,7 @@
       <c r="F218" s="9"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>592</v>
       </c>
@@ -6475,7 +6475,7 @@
       <c r="F219" s="9"/>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>593</v>
       </c>
@@ -6490,7 +6490,7 @@
       <c r="F220" s="9"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>594</v>
       </c>
@@ -6505,7 +6505,7 @@
       <c r="F221" s="9"/>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>595</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="F222" s="9"/>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>596</v>
       </c>
@@ -6535,7 +6535,7 @@
       <c r="F223" s="9"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>597</v>
       </c>
@@ -6550,7 +6550,7 @@
       <c r="F224" s="9"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>598</v>
       </c>
@@ -6565,7 +6565,7 @@
       <c r="F225" s="9"/>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>599</v>
       </c>
@@ -6580,7 +6580,7 @@
       <c r="F226" s="9"/>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>600</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="F227" s="9"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>601</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="F228" s="9"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>602</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="F229" s="9"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>603</v>
       </c>
@@ -6640,7 +6640,7 @@
       <c r="F230" s="9"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>166</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>167</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>93</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>94</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>95</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>96</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>97</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>98</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>99</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>168</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>100</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>101</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>102</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>103</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>104</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>577</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>105</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>106</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>169</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>170</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>107</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>108</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>109</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>110</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>171</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>111</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>112</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>172</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>113</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>114</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>115</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>116</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>117</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>575</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>118</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>173</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>174</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>119</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>120</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>121</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>122</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>123</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>124</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>125</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>175</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>126</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>127</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>128</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>129</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>130</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>572</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>131</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>1</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>543</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>544</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>545</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>0</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
         <v>570</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>546</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>547</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>553</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>346</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>554</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>555</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>556</v>
       </c>
@@ -7758,7 +7758,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:G295" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
+  <autoFilter ref="A5:G295" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="nt_NonIns"/>
+        <filter val="pi_NonIns"/>
+        <filter val="pt_NonIns"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AFE4CCAF-478D-462B-8D31-1A2F867F2E33}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2C2FDCDA-8AF2-4D5D-A109-2A8DFA00C91D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="180" yWindow="180" windowWidth="19425" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
@@ -2752,7 +2752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet3" filterMode="1">
+  <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:G295"/>
@@ -2761,7 +2761,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,7 +2802,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <f>SUBTOTAL(3,A6:A295)</f>
-        <v>3</v>
+        <v>290</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>541</v>
@@ -2831,7 +2831,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>287</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>286</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>285</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>318</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>288</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>319</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>289</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>290</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>320</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>321</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>9</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>366</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>10</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>12</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>322</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>323</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>15</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>324</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>325</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>17</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>650</v>
       </c>
@@ -3681,7 +3681,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>18</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>326</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>514</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>515</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>327</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>328</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>329</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>20</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>21</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>22</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>23</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>330</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>331</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>46</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>47</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>332</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>48</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>49</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>333</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>50</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>51</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>334</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>656</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>336</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>337</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>338</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>339</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>340</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>39</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>40</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>41</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>341</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>644</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>42</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>342</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>343</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>519</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>510</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>511</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>648</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>43</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>44</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>45</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>134</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>135</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>136</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>137</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>138</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>139</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>140</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>141</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>142</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>143</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>144</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>344</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>306</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>307</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>312</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>145</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>146</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>147</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>148</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>149</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>150</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>151</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>152</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>153</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>154</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>155</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>156</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>53</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>646</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>54</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>345</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>633</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>346</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>653</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>347</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>635</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>348</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>637</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>349</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>350</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>351</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>352</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>353</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>354</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>315</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>55</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>56</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>57</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>58</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>59</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>60</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>61</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>62</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>63</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>64</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>65</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>66</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>67</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>68</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>69</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>70</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>297</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>298</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>71</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>299</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>72</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>300</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>301</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>73</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>302</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>74</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>303</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>304</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>75</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>305</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>76</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>77</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>78</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>79</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>80</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>81</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>82</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>83</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>84</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>85</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>157</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>158</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>159</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>160</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>161</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>162</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>163</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>164</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>165</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>86</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>630</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>87</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>520</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>88</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>89</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>90</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>91</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>524</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>523</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>92</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>580</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="F207" s="9"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>581</v>
       </c>
@@ -6310,7 +6310,7 @@
       <c r="F208" s="9"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>582</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="F209" s="9"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>583</v>
       </c>
@@ -6340,7 +6340,7 @@
       <c r="F210" s="9"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>584</v>
       </c>
@@ -6355,7 +6355,7 @@
       <c r="F211" s="9"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>585</v>
       </c>
@@ -6370,7 +6370,7 @@
       <c r="F212" s="9"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>586</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="F213" s="9"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>587</v>
       </c>
@@ -6400,7 +6400,7 @@
       <c r="F214" s="9"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>588</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="F215" s="9"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>589</v>
       </c>
@@ -6430,7 +6430,7 @@
       <c r="F216" s="9"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>590</v>
       </c>
@@ -6445,7 +6445,7 @@
       <c r="F217" s="9"/>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>591</v>
       </c>
@@ -6460,7 +6460,7 @@
       <c r="F218" s="9"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>592</v>
       </c>
@@ -6475,7 +6475,7 @@
       <c r="F219" s="9"/>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>593</v>
       </c>
@@ -6490,7 +6490,7 @@
       <c r="F220" s="9"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>594</v>
       </c>
@@ -6505,7 +6505,7 @@
       <c r="F221" s="9"/>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>595</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="F222" s="9"/>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>596</v>
       </c>
@@ -6535,7 +6535,7 @@
       <c r="F223" s="9"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>597</v>
       </c>
@@ -6550,7 +6550,7 @@
       <c r="F224" s="9"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>598</v>
       </c>
@@ -6565,7 +6565,7 @@
       <c r="F225" s="9"/>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>599</v>
       </c>
@@ -6580,7 +6580,7 @@
       <c r="F226" s="9"/>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>600</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="F227" s="9"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>601</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="F228" s="9"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>602</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="F229" s="9"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>603</v>
       </c>
@@ -6640,7 +6640,7 @@
       <c r="F230" s="9"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>166</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>167</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>93</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>94</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>95</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>96</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>97</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>98</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>99</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>168</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>100</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>101</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>102</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>103</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>104</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>577</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>105</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>106</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>169</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>170</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>107</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>108</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>109</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>110</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>171</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>111</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>112</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>172</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>113</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>114</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>115</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>116</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>117</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>575</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>118</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>173</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>174</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>119</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>120</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>121</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>122</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>123</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>124</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>125</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>175</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>126</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>127</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>128</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>129</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>130</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>572</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>131</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>1</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>543</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>544</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>545</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>0</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
         <v>570</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>546</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>547</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>553</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>346</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>554</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>555</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>556</v>
       </c>
@@ -7758,15 +7758,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:G295" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="nt_NonIns"/>
-        <filter val="pi_NonIns"/>
-        <filter val="pt_NonIns"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:G295" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2C2FDCDA-8AF2-4D5D-A109-2A8DFA00C91D}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A1425F31-DCAE-4B5F-998E-D8EEC0A37EB2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="180" yWindow="180" windowWidth="19425" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
@@ -2070,12 +2070,6 @@
     <t>percent (0-100) of individuals - tolerance value - tolerant ≥ 6</t>
   </si>
   <si>
-    <t>Added one metric for MI EGLE: pi_IsoSnlLch [input by Ben Block, Tt]</t>
-  </si>
-  <si>
-    <t>pi_IsoSnlLch</t>
-  </si>
-  <si>
     <t>percent (0-100) taxa - Order Isopoda, Class Gastropoda, and Subclass Hirudinea</t>
   </si>
   <si>
@@ -2083,6 +2077,12 @@
   </si>
   <si>
     <t>percent (0-100) taxa - Order Isopoda</t>
+  </si>
+  <si>
+    <t>pi_IsoMolHir</t>
+  </si>
+  <si>
+    <t>Added one metric for MI EGLE: pi_IsoMolHir [input by Ben Block, Tt]</t>
   </si>
 </sst>
 </file>
@@ -2758,10 +2758,10 @@
   <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,7 +4077,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>240</v>
@@ -4090,14 +4090,14 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C80" s="16" t="s">
         <v>656</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>658</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
@@ -7956,7 +7956,7 @@
         <v>44028</v>
       </c>
       <c r="B31" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A1425F31-DCAE-4B5F-998E-D8EEC0A37EB2}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5288D484-74D7-41B4-850B-A00069A3F7ED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$295</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$296</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="662">
   <si>
     <t>nt_total</t>
   </si>
@@ -2083,6 +2083,12 @@
   </si>
   <si>
     <t>Added one metric for MI EGLE: pi_IsoMolHir [input by Ben Block, Tt]</t>
+  </si>
+  <si>
+    <t>pi_EPTnoBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent (0-100) individuals - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT) and not </t>
   </si>
 </sst>
 </file>
@@ -2204,7 +2210,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2232,6 +2238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2289,7 +2301,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2389,6 +2401,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2755,13 +2782,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,8 +2828,8 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A295)</f>
-        <v>290</v>
+        <f>SUBTOTAL(3,A6:A296)</f>
+        <v>291</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>541</v>
@@ -3679,37 +3706,39 @@
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="G55" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
+        <v>660</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>661</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>641</v>
-      </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="9"/>
       <c r="G57" s="1" t="s">
         <v>539</v>
@@ -3717,10 +3746,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>514</v>
+        <v>326</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>516</v>
+        <v>383</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>641</v>
@@ -3734,13 +3763,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>243</v>
+        <v>516</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>641</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
@@ -3751,13 +3780,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>327</v>
+        <v>515</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>384</v>
+        <v>517</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -3768,13 +3797,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
@@ -3785,13 +3814,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>356</v>
+        <v>239</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
@@ -3802,13 +3831,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>387</v>
+        <v>329</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>386</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
@@ -3819,13 +3848,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
@@ -3836,13 +3865,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -3853,13 +3882,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
@@ -3870,10 +3899,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C67" s="20" t="s">
         <v>239</v>
@@ -3887,13 +3916,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>641</v>
+        <v>23</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>239</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -3904,13 +3933,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>243</v>
+        <v>392</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>641</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
@@ -3921,13 +3950,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>394</v>
+        <v>331</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>393</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
@@ -3938,13 +3967,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
@@ -3955,13 +3984,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>396</v>
+        <v>47</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
@@ -3971,17 +4000,17 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C73" s="16" t="s">
+      <c r="A73" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
       <c r="F73" s="9"/>
       <c r="G73" s="1" t="s">
         <v>539</v>
@@ -3989,10 +4018,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>239</v>
@@ -4006,10 +4035,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>399</v>
+        <v>49</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>239</v>
@@ -4023,10 +4052,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>400</v>
+        <v>333</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>239</v>
@@ -4040,13 +4069,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
@@ -4057,10 +4086,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>402</v>
+        <v>51</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>240</v>
@@ -4074,10 +4103,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>657</v>
+        <v>334</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>402</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>240</v>
@@ -4090,14 +4119,14 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>658</v>
+      <c r="A80" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>656</v>
+        <v>240</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
@@ -4107,14 +4136,14 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>403</v>
+      <c r="A81" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>655</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>240</v>
+        <v>656</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
@@ -4125,13 +4154,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
@@ -4142,13 +4171,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -4159,13 +4188,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -4176,10 +4205,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>239</v>
@@ -4193,10 +4222,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>239</v>
@@ -4210,13 +4239,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>192</v>
+        <v>340</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>408</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
@@ -4227,10 +4256,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>243</v>
@@ -4244,10 +4273,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>409</v>
+        <v>193</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>243</v>
@@ -4261,10 +4290,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>410</v>
+        <v>41</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>243</v>
@@ -4278,13 +4307,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>644</v>
+        <v>341</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>645</v>
+        <v>410</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>357</v>
+        <v>243</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
@@ -4295,16 +4324,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>411</v>
+        <v>644</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>645</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
+        <v>357</v>
+      </c>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
       <c r="F92" s="9"/>
       <c r="G92" s="1" t="s">
         <v>539</v>
@@ -4312,16 +4341,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>412</v>
+        <v>42</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
+        <v>244</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
       <c r="F93" s="9"/>
       <c r="G93" s="1" t="s">
         <v>539</v>
@@ -4329,13 +4358,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -4345,14 +4374,14 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>519</v>
+      <c r="A95" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>509</v>
+        <v>413</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>642</v>
+        <v>242</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
@@ -4363,13 +4392,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -4380,10 +4409,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>643</v>
@@ -4397,13 +4426,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>648</v>
+        <v>511</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>640</v>
+        <v>512</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -4413,45 +4442,45 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>254</v>
+      <c r="A99" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>641</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
-      <c r="F99" s="7"/>
+      <c r="F99" s="9"/>
       <c r="G99" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>414</v>
+        <v>250</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>254</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="9"/>
+      <c r="F100" s="7"/>
       <c r="G100" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>415</v>
+        <v>44</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="C101" s="21" t="s">
         <v>254</v>
@@ -4465,44 +4494,44 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>249</v>
+        <v>415</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="7"/>
+      <c r="F102" s="9"/>
       <c r="G102" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>416</v>
+        <v>249</v>
       </c>
       <c r="C103" s="21" t="s">
         <v>255</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
-      <c r="F103" s="9"/>
+      <c r="F103" s="7"/>
       <c r="G103" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>417</v>
+        <v>135</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>416</v>
       </c>
       <c r="C104" s="21" t="s">
         <v>255</v>
@@ -4516,13 +4545,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -4533,13 +4562,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>251</v>
+        <v>418</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
@@ -4550,17 +4579,15 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>419</v>
+        <v>251</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>257</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="9"/>
       <c r="G107" s="1" t="s">
@@ -4569,10 +4596,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>268</v>
@@ -4588,15 +4615,17 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>253</v>
+        <v>420</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D109" s="16"/>
+        <v>268</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="E109" s="16"/>
       <c r="F109" s="9"/>
       <c r="G109" s="1" t="s">
@@ -4605,17 +4634,15 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>421</v>
+        <v>253</v>
       </c>
       <c r="C110" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D110" s="16" t="s">
-        <v>257</v>
-      </c>
+      <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="9"/>
       <c r="G110" s="1" t="s">
@@ -4624,15 +4651,17 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C111" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D111" s="16"/>
+      <c r="D111" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="E111" s="16"/>
       <c r="F111" s="9"/>
       <c r="G111" s="1" t="s">
@@ -4641,13 +4670,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -4658,13 +4687,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>641</v>
+        <v>144</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
@@ -4675,13 +4704,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>310</v>
+        <v>344</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>641</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -4692,13 +4721,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -4709,35 +4738,33 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
-      <c r="F116" s="7"/>
+      <c r="F116" s="9"/>
       <c r="G116" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
-        <v>145</v>
+      <c r="A117" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="D117" s="16"/>
-      <c r="E117" s="16" t="s">
-        <v>257</v>
-      </c>
+      <c r="E117" s="16"/>
       <c r="F117" s="7"/>
       <c r="G117" s="1" t="s">
         <v>539</v>
@@ -4745,16 +4772,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>195</v>
+        <v>145</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="C118" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15" t="s">
+      <c r="D118" s="16"/>
+      <c r="E118" s="16" t="s">
         <v>257</v>
       </c>
       <c r="F118" s="7"/>
@@ -4763,11 +4790,11 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>147</v>
+      <c r="A119" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C119" s="21" t="s">
         <v>205</v>
@@ -4782,11 +4809,11 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>148</v>
+      <c r="A120" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C120" s="21" t="s">
         <v>205</v>
@@ -4801,11 +4828,11 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>149</v>
+      <c r="A121" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>425</v>
+        <v>198</v>
       </c>
       <c r="C121" s="21" t="s">
         <v>205</v>
@@ -4814,17 +4841,17 @@
       <c r="E121" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="F121" s="9"/>
+      <c r="F121" s="7"/>
       <c r="G121" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>150</v>
+      <c r="A122" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C122" s="21" t="s">
         <v>205</v>
@@ -4840,10 +4867,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C123" s="21" t="s">
         <v>205</v>
@@ -4858,11 +4885,11 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>152</v>
+      <c r="A124" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C124" s="21" t="s">
         <v>205</v>
@@ -4877,11 +4904,11 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>153</v>
+      <c r="A125" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C125" s="21" t="s">
         <v>205</v>
@@ -4896,11 +4923,11 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>154</v>
+      <c r="A126" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C126" s="21" t="s">
         <v>205</v>
@@ -4915,11 +4942,11 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
-        <v>155</v>
+      <c r="A127" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C127" s="21" t="s">
         <v>205</v>
@@ -4935,10 +4962,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>432</v>
+        <v>155</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="C128" s="21" t="s">
         <v>205</v>
@@ -4953,17 +4980,19 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
-        <v>53</v>
+      <c r="A129" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>220</v>
+        <v>432</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
+      <c r="E129" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="F129" s="9"/>
       <c r="G129" s="1" t="s">
         <v>539</v>
@@ -4971,10 +5000,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>646</v>
+        <v>53</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>647</v>
+        <v>220</v>
       </c>
       <c r="C130" s="21" t="s">
         <v>206</v>
@@ -4987,11 +5016,11 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>54</v>
+      <c r="A131" s="7" t="s">
+        <v>646</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>221</v>
+        <v>647</v>
       </c>
       <c r="C131" s="21" t="s">
         <v>206</v>
@@ -5004,11 +5033,11 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>433</v>
+      <c r="A132" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="C132" s="21" t="s">
         <v>206</v>
@@ -5022,10 +5051,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>633</v>
+        <v>345</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>634</v>
+        <v>433</v>
       </c>
       <c r="C133" s="21" t="s">
         <v>206</v>
@@ -5039,10 +5068,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>346</v>
+        <v>633</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>434</v>
+        <v>634</v>
       </c>
       <c r="C134" s="21" t="s">
         <v>206</v>
@@ -5056,10 +5085,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>653</v>
+        <v>346</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>654</v>
+        <v>434</v>
       </c>
       <c r="C135" s="21" t="s">
         <v>206</v>
@@ -5073,10 +5102,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>347</v>
+        <v>653</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>435</v>
+        <v>654</v>
       </c>
       <c r="C136" s="21" t="s">
         <v>206</v>
@@ -5090,10 +5119,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>635</v>
+        <v>347</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>636</v>
+        <v>435</v>
       </c>
       <c r="C137" s="21" t="s">
         <v>206</v>
@@ -5107,10 +5136,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>348</v>
+        <v>635</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>436</v>
+        <v>636</v>
       </c>
       <c r="C138" s="21" t="s">
         <v>206</v>
@@ -5124,13 +5153,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>638</v>
+        <v>348</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>639</v>
+        <v>206</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
@@ -5141,13 +5170,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>364</v>
+        <v>637</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>638</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>206</v>
+        <v>639</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
@@ -5158,10 +5187,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C141" s="21" t="s">
         <v>206</v>
@@ -5175,10 +5204,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>437</v>
+        <v>365</v>
       </c>
       <c r="C142" s="21" t="s">
         <v>206</v>
@@ -5192,10 +5221,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C143" s="21" t="s">
         <v>206</v>
@@ -5209,10 +5238,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C144" s="21" t="s">
         <v>206</v>
@@ -5226,12 +5255,12 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C145" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C145" s="21" t="s">
         <v>206</v>
       </c>
       <c r="D145" s="15"/>
@@ -5243,13 +5272,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>522</v>
+        <v>354</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
@@ -5260,13 +5289,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>210</v>
+        <v>441</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>207</v>
+        <v>522</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
@@ -5277,10 +5306,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>207</v>
@@ -5294,10 +5323,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>207</v>
@@ -5311,10 +5340,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>207</v>
@@ -5328,10 +5357,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>207</v>
@@ -5345,10 +5374,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>442</v>
+        <v>214</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>207</v>
@@ -5362,10 +5391,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>207</v>
@@ -5379,10 +5408,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C154" s="16" t="s">
         <v>207</v>
@@ -5396,10 +5425,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>207</v>
@@ -5413,10 +5442,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C156" s="16" t="s">
         <v>207</v>
@@ -5429,11 +5458,11 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>447</v>
+      <c r="A157" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>446</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>207</v>
@@ -5446,11 +5475,11 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
-        <v>66</v>
+      <c r="A158" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>207</v>
@@ -5464,10 +5493,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>207</v>
@@ -5481,10 +5510,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>207</v>
@@ -5498,10 +5527,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>451</v>
+        <v>68</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="C161" s="16" t="s">
         <v>207</v>
@@ -5515,29 +5544,29 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>200</v>
+        <v>69</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>451</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
-      <c r="F162" s="7"/>
+      <c r="F162" s="9"/>
       <c r="G162" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C163" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C163" s="16" t="s">
         <v>208</v>
       </c>
       <c r="D163" s="15"/>
@@ -5549,27 +5578,27 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C164" s="21" t="s">
         <v>208</v>
       </c>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
-      <c r="F164" s="11"/>
+      <c r="F164" s="7"/>
       <c r="G164" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>201</v>
+        <v>298</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C165" s="21" t="s">
         <v>208</v>
@@ -5583,15 +5612,15 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>299</v>
+        <v>71</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C166" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D166" s="16"/>
+      <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="11"/>
       <c r="G166" s="1" t="s">
@@ -5600,32 +5629,32 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>452</v>
+        <v>204</v>
       </c>
       <c r="C167" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D167" s="15"/>
+      <c r="D167" s="16"/>
       <c r="E167" s="15"/>
-      <c r="F167" s="9"/>
+      <c r="F167" s="11"/>
       <c r="G167" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C168" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D168" s="16"/>
+      <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="9"/>
       <c r="G168" s="1" t="s">
@@ -5634,15 +5663,15 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C169" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D169" s="15"/>
+      <c r="D169" s="16"/>
       <c r="E169" s="15"/>
       <c r="F169" s="9"/>
       <c r="G169" s="1" t="s">
@@ -5651,10 +5680,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C170" s="21" t="s">
         <v>208</v>
@@ -5668,10 +5697,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C171" s="21" t="s">
         <v>208</v>
@@ -5685,10 +5714,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C172" s="21" t="s">
         <v>208</v>
@@ -5702,10 +5731,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>208</v>
@@ -5719,10 +5748,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C174" s="21" t="s">
         <v>208</v>
@@ -5736,10 +5765,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C175" s="21" t="s">
         <v>208</v>
@@ -5753,10 +5782,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>305</v>
+        <v>75</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C176" s="21" t="s">
         <v>208</v>
@@ -5770,49 +5799,49 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>215</v>
+        <v>461</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
-      <c r="F177" s="12"/>
+      <c r="F177" s="9"/>
       <c r="G177" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>216</v>
+        <v>76</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="C178" s="21" t="s">
         <v>209</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
-      <c r="F178" s="11"/>
+      <c r="F178" s="12"/>
       <c r="G178" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C179" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D179" s="16"/>
+      <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="11"/>
       <c r="G179" s="1" t="s">
@@ -5821,27 +5850,27 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>462</v>
+        <v>78</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="C180" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D180" s="15"/>
+      <c r="D180" s="16"/>
       <c r="E180" s="15"/>
-      <c r="F180" s="9"/>
+      <c r="F180" s="11"/>
       <c r="G180" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C181" s="21" t="s">
         <v>209</v>
@@ -5855,10 +5884,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>464</v>
+        <v>80</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="C182" s="21" t="s">
         <v>209</v>
@@ -5872,10 +5901,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C183" s="21" t="s">
         <v>209</v>
@@ -5889,10 +5918,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C184" s="21" t="s">
         <v>209</v>
@@ -5906,15 +5935,15 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C185" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D185" s="16"/>
+      <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="9"/>
       <c r="G185" s="1" t="s">
@@ -5923,15 +5952,15 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>532</v>
+        <v>84</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D186" s="15"/>
+        <v>209</v>
+      </c>
+      <c r="D186" s="16"/>
       <c r="E186" s="15"/>
       <c r="F186" s="9"/>
       <c r="G186" s="1" t="s">
@@ -5940,13 +5969,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>468</v>
+        <v>85</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>532</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -5957,10 +5986,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C188" s="21" t="s">
         <v>265</v>
@@ -5974,10 +6003,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C189" s="21" t="s">
         <v>265</v>
@@ -5991,10 +6020,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C190" s="21" t="s">
         <v>265</v>
@@ -6008,10 +6037,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C191" s="21" t="s">
         <v>265</v>
@@ -6025,10 +6054,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C192" s="21" t="s">
         <v>265</v>
@@ -6042,15 +6071,15 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C193" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D193" s="16"/>
+      <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="9"/>
       <c r="G193" s="1" t="s">
@@ -6059,15 +6088,15 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C194" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D194" s="15"/>
+      <c r="D194" s="16"/>
       <c r="E194" s="15"/>
       <c r="F194" s="9"/>
       <c r="G194" s="1" t="s">
@@ -6076,10 +6105,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>476</v>
+        <v>164</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>475</v>
       </c>
       <c r="C195" s="21" t="s">
         <v>265</v>
@@ -6093,13 +6122,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>218</v>
+        <v>165</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>476</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -6110,49 +6139,49 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>630</v>
+        <v>86</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>629</v>
+        <v>218</v>
       </c>
       <c r="C197" s="21" t="s">
         <v>248</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
-      <c r="F197" s="9" t="s">
-        <v>631</v>
-      </c>
+      <c r="F197" s="9"/>
       <c r="G197" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>87</v>
+        <v>630</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>219</v>
+        <v>629</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
-      <c r="F198" s="9"/>
+      <c r="F198" s="9" t="s">
+        <v>631</v>
+      </c>
       <c r="G198" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="9" t="s">
-        <v>520</v>
+      <c r="A199" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>521</v>
+        <v>219</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>522</v>
+        <v>206</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -6162,14 +6191,14 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>527</v>
+      <c r="A200" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>248</v>
+        <v>522</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -6180,10 +6209,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C201" s="21" t="s">
         <v>248</v>
@@ -6197,10 +6226,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C202" s="21" t="s">
         <v>248</v>
@@ -6214,13 +6243,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -6230,11 +6259,11 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="9" t="s">
-        <v>524</v>
+      <c r="A204" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C204" s="21" t="s">
         <v>241</v>
@@ -6248,10 +6277,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C205" s="21" t="s">
         <v>241</v>
@@ -6264,14 +6293,14 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="7" t="s">
-        <v>92</v>
+      <c r="A206" s="9" t="s">
+        <v>523</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
@@ -6282,25 +6311,27 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>580</v>
+        <v>92</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>604</v>
+        <v>525</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>628</v>
+        <v>248</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
       <c r="F207" s="9"/>
-      <c r="G207" s="1"/>
+      <c r="G207" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C208" s="21" t="s">
         <v>628</v>
@@ -6312,10 +6343,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C209" s="21" t="s">
         <v>628</v>
@@ -6327,10 +6358,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C210" s="21" t="s">
         <v>628</v>
@@ -6342,10 +6373,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C211" s="21" t="s">
         <v>628</v>
@@ -6357,10 +6388,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C212" s="21" t="s">
         <v>628</v>
@@ -6372,10 +6403,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C213" s="21" t="s">
         <v>628</v>
@@ -6387,10 +6418,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C214" s="21" t="s">
         <v>628</v>
@@ -6402,10 +6433,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C215" s="21" t="s">
         <v>628</v>
@@ -6417,10 +6448,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>628</v>
@@ -6432,10 +6463,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>628</v>
@@ -6447,10 +6478,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>628</v>
@@ -6462,10 +6493,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>628</v>
@@ -6477,10 +6508,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C220" s="21" t="s">
         <v>628</v>
@@ -6492,10 +6523,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>628</v>
@@ -6507,10 +6538,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C222" s="21" t="s">
         <v>628</v>
@@ -6522,10 +6553,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C223" s="21" t="s">
         <v>628</v>
@@ -6537,10 +6568,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>628</v>
@@ -6552,10 +6583,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>628</v>
@@ -6567,10 +6598,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>628</v>
@@ -6582,10 +6613,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>628</v>
@@ -6597,10 +6628,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>628</v>
@@ -6612,10 +6643,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>628</v>
@@ -6627,10 +6658,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>628</v>
@@ -6642,27 +6673,25 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>237</v>
+        <v>603</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>627</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>246</v>
+        <v>628</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
       <c r="F231" s="9"/>
-      <c r="G231" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>246</v>
@@ -6676,10 +6705,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>246</v>
@@ -6693,17 +6722,15 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D234" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D234" s="15"/>
       <c r="E234" s="15"/>
       <c r="F234" s="9"/>
       <c r="G234" s="1" t="s">
@@ -6712,15 +6739,17 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D235" s="15"/>
+      <c r="D235" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E235" s="15"/>
       <c r="F235" s="9"/>
       <c r="G235" s="1" t="s">
@@ -6729,17 +6758,15 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D236" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D236" s="15"/>
       <c r="E236" s="15"/>
       <c r="F236" s="9"/>
       <c r="G236" s="1" t="s">
@@ -6748,15 +6775,17 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D237" s="16"/>
+      <c r="D237" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E237" s="15"/>
       <c r="F237" s="9"/>
       <c r="G237" s="1" t="s">
@@ -6765,15 +6794,15 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D238" s="15"/>
+      <c r="D238" s="16"/>
       <c r="E238" s="15"/>
       <c r="F238" s="9"/>
       <c r="G238" s="1" t="s">
@@ -6782,10 +6811,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>228</v>
+        <v>98</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="C239" s="21" t="s">
         <v>246</v>
@@ -6799,10 +6828,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>246</v>
@@ -6816,10 +6845,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>246</v>
@@ -6833,10 +6862,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>246</v>
@@ -6850,10 +6879,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>246</v>
@@ -6867,10 +6896,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>246</v>
@@ -6884,10 +6913,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>246</v>
@@ -6901,10 +6930,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>577</v>
+        <v>104</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>576</v>
+        <v>234</v>
       </c>
       <c r="C246" s="21" t="s">
         <v>246</v>
@@ -6918,13 +6947,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>105</v>
+        <v>577</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>235</v>
+        <v>576</v>
       </c>
       <c r="C247" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D247" s="15"/>
       <c r="E247" s="15"/>
@@ -6935,17 +6964,15 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D248" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D248" s="15"/>
       <c r="E248" s="15"/>
       <c r="F248" s="9"/>
       <c r="G248" s="1" t="s">
@@ -6954,15 +6981,17 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>477</v>
+        <v>236</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D249" s="15"/>
+        <v>247</v>
+      </c>
+      <c r="D249" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E249" s="15"/>
       <c r="F249" s="9"/>
       <c r="G249" s="1" t="s">
@@ -6971,10 +7000,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>246</v>
@@ -6988,10 +7017,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C251" s="21" t="s">
         <v>246</v>
@@ -7005,10 +7034,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C252" s="21" t="s">
         <v>246</v>
@@ -7022,10 +7051,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>246</v>
@@ -7039,17 +7068,15 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D254" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D254" s="15"/>
       <c r="E254" s="15"/>
       <c r="F254" s="9"/>
       <c r="G254" s="1" t="s">
@@ -7058,15 +7085,17 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D255" s="15"/>
+      <c r="D255" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E255" s="15"/>
       <c r="F255" s="9"/>
       <c r="G255" s="1" t="s">
@@ -7075,10 +7104,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>246</v>
@@ -7092,10 +7121,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>246</v>
@@ -7109,10 +7138,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>246</v>
@@ -7126,10 +7155,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>246</v>
@@ -7143,10 +7172,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>246</v>
@@ -7160,10 +7189,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C261" s="21" t="s">
         <v>246</v>
@@ -7177,17 +7206,15 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C262" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D262" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D262" s="15"/>
       <c r="E262" s="15"/>
       <c r="F262" s="9"/>
       <c r="G262" s="1" t="s">
@@ -7196,15 +7223,17 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C263" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D263" s="15"/>
+      <c r="D263" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E263" s="15"/>
       <c r="F263" s="9"/>
       <c r="G263" s="1" t="s">
@@ -7213,10 +7242,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>575</v>
+        <v>117</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>574</v>
+        <v>491</v>
       </c>
       <c r="C264" s="21" t="s">
         <v>246</v>
@@ -7230,13 +7259,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>118</v>
+        <v>575</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>492</v>
+        <v>574</v>
       </c>
       <c r="C265" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
@@ -7247,13 +7276,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C266" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
@@ -7264,10 +7293,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>246</v>
@@ -7281,10 +7310,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C268" s="21" t="s">
         <v>246</v>
@@ -7298,10 +7327,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C269" s="21" t="s">
         <v>246</v>
@@ -7315,10 +7344,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C270" s="21" t="s">
         <v>246</v>
@@ -7332,10 +7361,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C271" s="21" t="s">
         <v>246</v>
@@ -7349,10 +7378,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>246</v>
@@ -7366,10 +7395,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C273" s="21" t="s">
         <v>246</v>
@@ -7383,10 +7412,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>246</v>
@@ -7400,10 +7429,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>246</v>
@@ -7417,10 +7446,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>246</v>
@@ -7434,10 +7463,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>246</v>
@@ -7451,10 +7480,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C278" s="21" t="s">
         <v>246</v>
@@ -7468,17 +7497,15 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C279" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D279" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="F279" s="9"/>
       <c r="G279" s="1" t="s">
@@ -7487,15 +7514,17 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D280" s="15"/>
+      <c r="D280" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="E280" s="15"/>
       <c r="F280" s="9"/>
       <c r="G280" s="1" t="s">
@@ -7504,10 +7533,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>572</v>
+        <v>130</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>573</v>
+        <v>507</v>
       </c>
       <c r="C281" s="21" t="s">
         <v>246</v>
@@ -7521,13 +7550,13 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>131</v>
+        <v>572</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="C282" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
@@ -7538,30 +7567,30 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C283" s="16" t="s">
-        <v>566</v>
+        <v>131</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C283" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
-      <c r="F283" s="15"/>
+      <c r="F283" s="9"/>
       <c r="G283" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="B284" s="9" t="s">
-        <v>548</v>
+        <v>1</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
@@ -7572,13 +7601,13 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
@@ -7589,13 +7618,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
@@ -7605,14 +7634,14 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B287" s="7" t="s">
-        <v>178</v>
+      <c r="A287" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>549</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
@@ -7623,13 +7652,13 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="B288" s="9" t="s">
-        <v>571</v>
+        <v>0</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
@@ -7639,14 +7668,14 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="7" t="s">
-        <v>546</v>
+      <c r="A289" s="9" t="s">
+        <v>570</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
@@ -7657,13 +7686,13 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
@@ -7674,10 +7703,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C291" s="16" t="s">
         <v>565</v>
@@ -7691,10 +7720,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>346</v>
+        <v>553</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C292" s="16" t="s">
         <v>565</v>
@@ -7708,13 +7737,13 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>554</v>
+        <v>346</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
@@ -7725,13 +7754,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
@@ -7742,13 +7771,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
@@ -7757,8 +7786,25 @@
         <v>542</v>
       </c>
     </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D296" s="15"/>
+      <c r="E296" s="15"/>
+      <c r="F296" s="15"/>
+      <c r="G296" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:G295" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
+  <autoFilter ref="A5:G296" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5288D484-74D7-41B4-850B-A00069A3F7ED}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{165621D7-6D8D-422B-A312-DFEE4BF540D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2088,7 +2088,7 @@
     <t>pi_EPTnoBH</t>
   </si>
   <si>
-    <t xml:space="preserve">percent (0-100) individuals - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT) and not </t>
+    <t>percent (0-100) individuals - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT) and not Families Baetidae and Hydropsychidae</t>
   </si>
 </sst>
 </file>
@@ -2210,7 +2210,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2238,12 +2238,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2301,7 +2295,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2403,19 +2397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2785,10 +2767,10 @@
   <dimension ref="A1:G296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3710,20 +3692,20 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+    <row r="56" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="1" t="s">
         <v>539</v>
       </c>
     </row>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{165621D7-6D8D-422B-A312-DFEE4BF540D5}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{DA5D9DE8-8857-49A5-893A-8DE2F5EA67A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{0A57CBF8-077C-4357-81A5-E7112B3A778C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2085,10 +2085,10 @@
     <t>Added one metric for MI EGLE: pi_IsoMolHir [input by Ben Block, Tt]</t>
   </si>
   <si>
-    <t>pi_EPTnoBH</t>
-  </si>
-  <si>
     <t>percent (0-100) individuals - Orders Ephemeroptera, Plecoptera and Trichoptera (EPT) and not Families Baetidae and Hydropsychidae</t>
+  </si>
+  <si>
+    <t>pi_EPTNoBH</t>
   </si>
 </sst>
 </file>
@@ -2770,7 +2770,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="56" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>660</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>661</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>641</v>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8289E00F-89AF-436C-918B-E54DD82B39DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4EDAE6-ECEB-4030-A5CA-B87A151FAAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$351</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$353</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -103,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="789">
   <si>
     <t>nt_total</t>
   </si>
@@ -879,9 +881,6 @@
     <t>pi_Mol</t>
   </si>
   <si>
-    <t>pi_TricNoHydro</t>
-  </si>
-  <si>
     <t>pi_Tubif</t>
   </si>
   <si>
@@ -2443,6 +2442,36 @@
   </si>
   <si>
     <t>number taxa - Family Cirratulidae</t>
+  </si>
+  <si>
+    <t>x_HBI2</t>
+  </si>
+  <si>
+    <t>Hilsenhoff Biotic Index 2 (references the TolVal2 field)</t>
+  </si>
+  <si>
+    <t>Different TolVals, e.g., Family Biotic Index</t>
+  </si>
+  <si>
+    <t>North Carolina TolVals</t>
+  </si>
+  <si>
+    <t>pi_habit_cling_PlecoNoCling</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Habit - clingers (CN) and Order Plecoptera (not clingers)</t>
+  </si>
+  <si>
+    <t>Habit, Order</t>
+  </si>
+  <si>
+    <t>pi_TrichNoHydro</t>
+  </si>
+  <si>
+    <t>Add 2 new metrics for Fairfax County, VA</t>
+  </si>
+  <si>
+    <t>Rename pi_TricNoHydro to pi_TrichNoHydro</t>
   </si>
 </sst>
 </file>
@@ -3132,7 +3161,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:G351"/>
+  <dimension ref="A1:G353"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -3146,7 +3175,7 @@
     <col min="1" max="1" width="38.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="128" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="14" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="14" customWidth="1"/>
     <col min="6" max="6" width="32" style="4" customWidth="1"/>
     <col min="7" max="7" width="18" style="4" customWidth="1"/>
@@ -3167,19 +3196,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>44036</v>
+        <v>44159</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A357)</f>
-        <v>346</v>
+        <f>SUBTOTAL(3,A6:A359)</f>
+        <v>348</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3190,7 +3219,7 @@
         <v>133</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>178</v>
@@ -3202,7 +3231,7 @@
         <v>177</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3217,7 +3246,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="6"/>
       <c r="G6" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3232,7 +3261,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="6"/>
       <c r="G7" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3247,7 +3276,7 @@
       <c r="E8" s="26"/>
       <c r="F8" s="6"/>
       <c r="G8" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3255,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>205</v>
@@ -3266,15 +3295,15 @@
       <c r="E9" s="17"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>205</v>
@@ -3283,7 +3312,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3291,7 +3320,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>190</v>
@@ -3300,41 +3329,41 @@
       <c r="E11" s="17"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3342,7 +3371,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>189</v>
@@ -3351,7 +3380,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3359,7 +3388,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>189</v>
@@ -3368,7 +3397,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="7"/>
       <c r="G15" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3376,7 +3405,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>189</v>
@@ -3387,7 +3416,7 @@
         <v>202</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3395,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>189</v>
@@ -3404,7 +3433,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3412,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>201</v>
@@ -3423,7 +3452,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="9"/>
       <c r="G18" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3431,7 +3460,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>186</v>
@@ -3440,7 +3469,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="9"/>
       <c r="G19" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3448,7 +3477,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>187</v>
@@ -3457,15 +3486,15 @@
       <c r="E20" s="16"/>
       <c r="F20" s="9"/>
       <c r="G20" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>190</v>
@@ -3474,15 +3503,15 @@
       <c r="E21" s="16"/>
       <c r="F21" s="9"/>
       <c r="G21" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>190</v>
@@ -3491,7 +3520,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="9"/>
       <c r="G22" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3499,7 +3528,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>186</v>
@@ -3508,15 +3537,15 @@
       <c r="E23" s="16"/>
       <c r="F23" s="9"/>
       <c r="G23" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>657</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>186</v>
@@ -3525,7 +3554,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="9"/>
       <c r="G24" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3533,7 +3562,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>186</v>
@@ -3542,7 +3571,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="9"/>
       <c r="G25" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3550,7 +3579,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>186</v>
@@ -3559,7 +3588,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="9"/>
       <c r="G26" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3567,7 +3596,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>186</v>
@@ -3576,7 +3605,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="9"/>
       <c r="G27" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3584,7 +3613,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>186</v>
@@ -3593,7 +3622,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="9"/>
       <c r="G28" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3601,7 +3630,7 @@
         <v>224</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>190</v>
@@ -3610,15 +3639,15 @@
       <c r="E29" s="19"/>
       <c r="F29" s="9"/>
       <c r="G29" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>659</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>186</v>
@@ -3627,7 +3656,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="9"/>
       <c r="G30" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3635,7 +3664,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>186</v>
@@ -3646,7 +3675,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="9"/>
       <c r="G31" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3654,7 +3683,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>187</v>
@@ -3663,7 +3692,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="9"/>
       <c r="G32" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3671,7 +3700,7 @@
         <v>223</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>190</v>
@@ -3680,7 +3709,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="9"/>
       <c r="G33" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3688,7 +3717,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>187</v>
@@ -3697,7 +3726,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="9"/>
       <c r="G34" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3705,7 +3734,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>187</v>
@@ -3714,15 +3743,15 @@
       <c r="E35" s="16"/>
       <c r="F35" s="9"/>
       <c r="G35" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>661</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>186</v>
@@ -3731,7 +3760,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="9"/>
       <c r="G36" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3739,7 +3768,7 @@
         <v>222</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>190</v>
@@ -3748,15 +3777,15 @@
       <c r="E37" s="16"/>
       <c r="F37" s="9"/>
       <c r="G37" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>190</v>
@@ -3765,7 +3794,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="9"/>
       <c r="G38" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3773,7 +3802,7 @@
         <v>245</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>187</v>
@@ -3782,15 +3811,15 @@
       <c r="E39" s="16"/>
       <c r="F39" s="9"/>
       <c r="G39" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>186</v>
@@ -3799,7 +3828,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="9"/>
       <c r="G40" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3807,7 +3836,7 @@
         <v>246</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>186</v>
@@ -3816,15 +3845,15 @@
       <c r="E41" s="16"/>
       <c r="F41" s="7"/>
       <c r="G41" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>663</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>186</v>
@@ -3833,7 +3862,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="7"/>
       <c r="G42" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3841,7 +3870,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>187</v>
@@ -3850,7 +3879,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="7"/>
       <c r="G43" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3858,7 +3887,7 @@
         <v>225</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>190</v>
@@ -3867,7 +3896,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="7"/>
       <c r="G44" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3875,7 +3904,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>186</v>
@@ -3884,7 +3913,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="7"/>
       <c r="G45" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3892,7 +3921,7 @@
         <v>247</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>186</v>
@@ -3901,15 +3930,15 @@
       <c r="E46" s="16"/>
       <c r="F46" s="7"/>
       <c r="G46" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>187</v>
@@ -3918,24 +3947,24 @@
       <c r="E47" s="16"/>
       <c r="F47" s="7"/>
       <c r="G47" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="7"/>
       <c r="G48" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3943,7 +3972,7 @@
         <v>37</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>189</v>
@@ -3952,7 +3981,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="7"/>
       <c r="G49" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3960,7 +3989,7 @@
         <v>226</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>189</v>
@@ -3969,15 +3998,15 @@
       <c r="E50" s="16"/>
       <c r="F50" s="7"/>
       <c r="G50" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>737</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>738</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>190</v>
@@ -3986,7 +4015,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="7"/>
       <c r="G51" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3994,7 +4023,7 @@
         <v>227</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>190</v>
@@ -4003,7 +4032,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="7"/>
       <c r="G52" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4011,7 +4040,7 @@
         <v>38</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>186</v>
@@ -4020,7 +4049,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="7"/>
       <c r="G53" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4028,7 +4057,7 @@
         <v>248</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>186</v>
@@ -4037,7 +4066,7 @@
       <c r="E54" s="19"/>
       <c r="F54" s="7"/>
       <c r="G54" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4045,7 +4074,7 @@
         <v>249</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>190</v>
@@ -4054,15 +4083,15 @@
       <c r="E55" s="16"/>
       <c r="F55" s="7"/>
       <c r="G55" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>190</v>
@@ -4070,18 +4099,18 @@
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="39" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>190</v>
@@ -4089,10 +4118,10 @@
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="39" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4100,7 +4129,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>186</v>
@@ -4109,15 +4138,15 @@
       <c r="E58" s="16"/>
       <c r="F58" s="9"/>
       <c r="G58" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>665</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>186</v>
@@ -4126,24 +4155,24 @@
       <c r="E59" s="16"/>
       <c r="F59" s="9"/>
       <c r="G59" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>286</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>287</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="9"/>
       <c r="G60" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4151,7 +4180,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>187</v>
@@ -4160,7 +4189,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="9"/>
       <c r="G61" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4168,7 +4197,7 @@
         <v>11</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>190</v>
@@ -4177,15 +4206,15 @@
       <c r="E62" s="16"/>
       <c r="F62" s="9"/>
       <c r="G62" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>190</v>
@@ -4194,15 +4223,15 @@
       <c r="E63" s="16"/>
       <c r="F63" s="9"/>
       <c r="G63" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>190</v>
@@ -4211,15 +4240,15 @@
       <c r="E64" s="16"/>
       <c r="F64" s="9"/>
       <c r="G64" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>187</v>
@@ -4228,7 +4257,7 @@
       <c r="E65" s="16"/>
       <c r="F65" s="9"/>
       <c r="G65" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4236,7 +4265,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>186</v>
@@ -4245,15 +4274,15 @@
       <c r="E66" s="16"/>
       <c r="F66" s="9"/>
       <c r="G66" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>667</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>186</v>
@@ -4262,7 +4291,7 @@
       <c r="E67" s="16"/>
       <c r="F67" s="9"/>
       <c r="G67" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4270,7 +4299,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>189</v>
@@ -4279,7 +4308,7 @@
       <c r="E68" s="16"/>
       <c r="F68" s="9"/>
       <c r="G68" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4287,16 +4316,16 @@
         <v>250</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="9"/>
       <c r="G69" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4304,16 +4333,16 @@
         <v>251</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="9"/>
       <c r="G70" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4321,7 +4350,7 @@
         <v>14</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>186</v>
@@ -4330,7 +4359,7 @@
       <c r="E71" s="16"/>
       <c r="F71" s="9"/>
       <c r="G71" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4338,7 +4367,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>186</v>
@@ -4347,7 +4376,7 @@
       <c r="E72" s="16"/>
       <c r="F72" s="9"/>
       <c r="G72" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4355,7 +4384,7 @@
         <v>16</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>186</v>
@@ -4364,7 +4393,7 @@
       <c r="E73" s="16"/>
       <c r="F73" s="9"/>
       <c r="G73" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4372,16 +4401,16 @@
         <v>252</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="9"/>
       <c r="G74" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4389,16 +4418,16 @@
         <v>253</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="9"/>
       <c r="G75" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4406,7 +4435,7 @@
         <v>17</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>186</v>
@@ -4415,49 +4444,49 @@
       <c r="E76" s="16"/>
       <c r="F76" s="9"/>
       <c r="G76" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>520</v>
-      </c>
       <c r="C77" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="9"/>
       <c r="G77" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="C78" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="9"/>
       <c r="G78" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>669</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>186</v>
@@ -4466,7 +4495,7 @@
       <c r="E79" s="16"/>
       <c r="F79" s="9"/>
       <c r="G79" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4474,7 +4503,7 @@
         <v>18</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>187</v>
@@ -4483,15 +4512,15 @@
       <c r="E80" s="16"/>
       <c r="F80" s="9"/>
       <c r="G80" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>190</v>
@@ -4500,15 +4529,15 @@
       <c r="E81" s="16"/>
       <c r="F81" s="9"/>
       <c r="G81" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>190</v>
@@ -4517,7 +4546,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="9"/>
       <c r="G82" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4525,41 +4554,41 @@
         <v>254</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="9"/>
       <c r="G83" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="9"/>
       <c r="G84" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>190</v>
@@ -4568,7 +4597,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="9"/>
       <c r="G85" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4576,7 +4605,7 @@
         <v>255</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>187</v>
@@ -4585,7 +4614,7 @@
       <c r="E86" s="20"/>
       <c r="F86" s="9"/>
       <c r="G86" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4593,7 +4622,7 @@
         <v>256</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>186</v>
@@ -4602,32 +4631,32 @@
       <c r="E87" s="20"/>
       <c r="F87" s="9"/>
       <c r="G87" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="9"/>
       <c r="G88" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C89" s="20" t="s">
         <v>190</v>
@@ -4636,15 +4665,15 @@
       <c r="E89" s="20"/>
       <c r="F89" s="9"/>
       <c r="G89" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C90" s="20" t="s">
         <v>190</v>
@@ -4653,15 +4682,15 @@
       <c r="E90" s="20"/>
       <c r="F90" s="9"/>
       <c r="G90" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>670</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>671</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>186</v>
@@ -4670,7 +4699,7 @@
       <c r="E91" s="20"/>
       <c r="F91" s="9"/>
       <c r="G91" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4678,24 +4707,24 @@
         <v>257</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="9"/>
       <c r="G92" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>190</v>
@@ -4704,7 +4733,7 @@
       <c r="E93" s="20"/>
       <c r="F93" s="9"/>
       <c r="G93" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4712,7 +4741,7 @@
         <v>19</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>187</v>
@@ -4721,15 +4750,15 @@
       <c r="E94" s="20"/>
       <c r="F94" s="9"/>
       <c r="G94" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>186</v>
@@ -4738,7 +4767,7 @@
       <c r="E95" s="20"/>
       <c r="F95" s="9"/>
       <c r="G95" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4746,7 +4775,7 @@
         <v>20</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>186</v>
@@ -4755,15 +4784,15 @@
       <c r="E96" s="20"/>
       <c r="F96" s="9"/>
       <c r="G96" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>673</v>
       </c>
       <c r="C97" s="20" t="s">
         <v>186</v>
@@ -4772,7 +4801,7 @@
       <c r="E97" s="20"/>
       <c r="F97" s="9"/>
       <c r="G97" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4780,7 +4809,7 @@
         <v>21</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C98" s="20" t="s">
         <v>187</v>
@@ -4789,15 +4818,15 @@
       <c r="E98" s="20"/>
       <c r="F98" s="9"/>
       <c r="G98" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C99" s="20" t="s">
         <v>190</v>
@@ -4806,7 +4835,7 @@
       <c r="E99" s="20"/>
       <c r="F99" s="9"/>
       <c r="G99" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4814,7 +4843,7 @@
         <v>22</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>186</v>
@@ -4823,15 +4852,15 @@
       <c r="E100" s="20"/>
       <c r="F100" s="9"/>
       <c r="G100" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>674</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>675</v>
       </c>
       <c r="C101" s="20" t="s">
         <v>186</v>
@@ -4840,15 +4869,15 @@
       <c r="E101" s="20"/>
       <c r="F101" s="9"/>
       <c r="G101" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C102" s="20" t="s">
         <v>187</v>
@@ -4857,15 +4886,15 @@
       <c r="E102" s="20"/>
       <c r="F102" s="9"/>
       <c r="G102" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C103" s="20" t="s">
         <v>190</v>
@@ -4874,38 +4903,38 @@
       <c r="E103" s="20"/>
       <c r="F103" s="9"/>
       <c r="G103" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
       <c r="F104" s="9"/>
       <c r="G104" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>190</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4913,7 +4942,7 @@
         <v>23</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C106" s="20" t="s">
         <v>186</v>
@@ -4922,32 +4951,32 @@
       <c r="E106" s="20"/>
       <c r="F106" s="9"/>
       <c r="G106" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>258</v>
+        <v>786</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="9"/>
       <c r="G107" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C108" s="20" t="s">
         <v>190</v>
@@ -4956,15 +4985,15 @@
       <c r="E108" s="20"/>
       <c r="F108" s="9"/>
       <c r="G108" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>709</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>710</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>190</v>
@@ -4973,7 +5002,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="9"/>
       <c r="G109" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4981,7 +5010,7 @@
         <v>46</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C110" s="20" t="s">
         <v>186</v>
@@ -4990,7 +5019,7 @@
       <c r="E110" s="20"/>
       <c r="F110" s="9"/>
       <c r="G110" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4998,7 +5027,7 @@
         <v>47</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>187</v>
@@ -5007,15 +5036,15 @@
       <c r="E111" s="20"/>
       <c r="F111" s="9"/>
       <c r="G111" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>676</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>677</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>187</v>
@@ -5024,15 +5053,15 @@
       <c r="E112" s="20"/>
       <c r="F112" s="9"/>
       <c r="G112" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>186</v>
@@ -5041,7 +5070,7 @@
       <c r="E113" s="20"/>
       <c r="F113" s="9"/>
       <c r="G113" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5049,7 +5078,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>186</v>
@@ -5058,7 +5087,7 @@
       <c r="E114" s="16"/>
       <c r="F114" s="9"/>
       <c r="G114" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5066,7 +5095,7 @@
         <v>49</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>186</v>
@@ -5075,15 +5104,15 @@
       <c r="E115" s="16"/>
       <c r="F115" s="9"/>
       <c r="G115" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>186</v>
@@ -5092,7 +5121,7 @@
       <c r="E116" s="16"/>
       <c r="F116" s="9"/>
       <c r="G116" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5100,7 +5129,7 @@
         <v>50</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>186</v>
@@ -5109,15 +5138,15 @@
       <c r="E117" s="16"/>
       <c r="F117" s="9"/>
       <c r="G117" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>679</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>186</v>
@@ -5126,7 +5155,7 @@
       <c r="E118" s="16"/>
       <c r="F118" s="9"/>
       <c r="G118" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5134,7 +5163,7 @@
         <v>51</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>187</v>
@@ -5143,15 +5172,15 @@
       <c r="E119" s="16"/>
       <c r="F119" s="9"/>
       <c r="G119" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>187</v>
@@ -5160,7 +5189,7 @@
       <c r="E120" s="16"/>
       <c r="F120" s="9"/>
       <c r="G120" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5168,7 +5197,7 @@
         <v>52</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>187</v>
@@ -5177,15 +5206,15 @@
       <c r="E121" s="16"/>
       <c r="F121" s="9"/>
       <c r="G121" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>681</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>186</v>
@@ -5194,15 +5223,15 @@
       <c r="E122" s="16"/>
       <c r="F122" s="9"/>
       <c r="G122" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>187</v>
@@ -5211,15 +5240,15 @@
       <c r="E123" s="16"/>
       <c r="F123" s="9"/>
       <c r="G123" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>186</v>
@@ -5228,15 +5257,15 @@
       <c r="E124" s="16"/>
       <c r="F124" s="9"/>
       <c r="G124" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>186</v>
@@ -5245,15 +5274,15 @@
       <c r="E125" s="16"/>
       <c r="F125" s="9"/>
       <c r="G125" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>682</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>683</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>186</v>
@@ -5262,15 +5291,15 @@
       <c r="E126" s="16"/>
       <c r="F126" s="9"/>
       <c r="G126" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>187</v>
@@ -5279,15 +5308,15 @@
       <c r="E127" s="16"/>
       <c r="F127" s="9"/>
       <c r="G127" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>186</v>
@@ -5296,15 +5325,15 @@
       <c r="E128" s="16"/>
       <c r="F128" s="9"/>
       <c r="G128" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>186</v>
@@ -5313,15 +5342,15 @@
       <c r="E129" s="16"/>
       <c r="F129" s="9"/>
       <c r="G129" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>187</v>
@@ -5330,32 +5359,32 @@
       <c r="E130" s="16"/>
       <c r="F130" s="9"/>
       <c r="G130" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
       <c r="F131" s="9"/>
       <c r="G131" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>190</v>
@@ -5364,15 +5393,15 @@
       <c r="E132" s="16"/>
       <c r="F132" s="9"/>
       <c r="G132" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>186</v>
@@ -5381,7 +5410,7 @@
       <c r="E133" s="16"/>
       <c r="F133" s="9"/>
       <c r="G133" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5389,7 +5418,7 @@
         <v>40</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>190</v>
@@ -5398,7 +5427,7 @@
       <c r="E134" s="16"/>
       <c r="F134" s="9"/>
       <c r="G134" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5406,7 +5435,7 @@
         <v>41</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>190</v>
@@ -5415,15 +5444,15 @@
       <c r="E135" s="16"/>
       <c r="F135" s="9"/>
       <c r="G135" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>190</v>
@@ -5432,24 +5461,24 @@
       <c r="E136" s="16"/>
       <c r="F136" s="9"/>
       <c r="G136" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
       <c r="F137" s="9"/>
       <c r="G137" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5457,7 +5486,7 @@
         <v>42</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>191</v>
@@ -5466,32 +5495,32 @@
       <c r="E138" s="19"/>
       <c r="F138" s="9"/>
       <c r="G138" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
       <c r="F139" s="9"/>
       <c r="G139" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>189</v>
@@ -5500,75 +5529,75 @@
       <c r="E140" s="16"/>
       <c r="F140" s="9"/>
       <c r="G140" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
       <c r="F141" s="9"/>
       <c r="G141" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
       <c r="F142" s="9"/>
       <c r="G142" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
       <c r="F143" s="9"/>
       <c r="G143" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
       <c r="F144" s="9"/>
       <c r="G144" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5576,7 +5605,7 @@
         <v>43</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C145" s="21" t="s">
         <v>197</v>
@@ -5585,7 +5614,7 @@
       <c r="E145" s="16"/>
       <c r="F145" s="7"/>
       <c r="G145" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5593,7 +5622,7 @@
         <v>44</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C146" s="21" t="s">
         <v>197</v>
@@ -5602,7 +5631,7 @@
       <c r="E146" s="16"/>
       <c r="F146" s="9"/>
       <c r="G146" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5610,7 +5639,7 @@
         <v>45</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C147" s="21" t="s">
         <v>197</v>
@@ -5619,7 +5648,7 @@
       <c r="E147" s="16"/>
       <c r="F147" s="9"/>
       <c r="G147" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5627,7 +5656,7 @@
         <v>134</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C148" s="21" t="s">
         <v>198</v>
@@ -5636,7 +5665,7 @@
       <c r="E148" s="16"/>
       <c r="F148" s="7"/>
       <c r="G148" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5644,7 +5673,7 @@
         <v>135</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C149" s="21" t="s">
         <v>198</v>
@@ -5653,7 +5682,7 @@
       <c r="E149" s="16"/>
       <c r="F149" s="9"/>
       <c r="G149" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5661,7 +5690,7 @@
         <v>136</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C150" s="21" t="s">
         <v>198</v>
@@ -5670,7 +5699,7 @@
       <c r="E150" s="16"/>
       <c r="F150" s="9"/>
       <c r="G150" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5678,7 +5707,7 @@
         <v>137</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C151" s="21" t="s">
         <v>199</v>
@@ -5687,7 +5716,7 @@
       <c r="E151" s="16"/>
       <c r="F151" s="9"/>
       <c r="G151" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5695,7 +5724,7 @@
         <v>138</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C152" s="21" t="s">
         <v>197</v>
@@ -5704,7 +5733,7 @@
       <c r="E152" s="16"/>
       <c r="F152" s="9"/>
       <c r="G152" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5712,7 +5741,7 @@
         <v>139</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C153" s="21" t="s">
         <v>206</v>
@@ -5723,7 +5752,7 @@
       <c r="E153" s="16"/>
       <c r="F153" s="9"/>
       <c r="G153" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5731,7 +5760,7 @@
         <v>140</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C154" s="21" t="s">
         <v>206</v>
@@ -5742,7 +5771,7 @@
       <c r="E154" s="16"/>
       <c r="F154" s="9"/>
       <c r="G154" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5750,7 +5779,7 @@
         <v>141</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C155" s="21" t="s">
         <v>198</v>
@@ -5759,7 +5788,7 @@
       <c r="E155" s="16"/>
       <c r="F155" s="9"/>
       <c r="G155" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5767,7 +5796,7 @@
         <v>142</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C156" s="21" t="s">
         <v>198</v>
@@ -5778,7 +5807,7 @@
       <c r="E156" s="16"/>
       <c r="F156" s="9"/>
       <c r="G156" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5786,7 +5815,7 @@
         <v>143</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C157" s="21" t="s">
         <v>198</v>
@@ -5795,7 +5824,7 @@
       <c r="E157" s="16"/>
       <c r="F157" s="9"/>
       <c r="G157" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5803,7 +5832,7 @@
         <v>144</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C158" s="21" t="s">
         <v>196</v>
@@ -5812,24 +5841,24 @@
       <c r="E158" s="16"/>
       <c r="F158" s="9"/>
       <c r="G158" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D159" s="16"/>
       <c r="E159" s="16"/>
       <c r="F159" s="9"/>
       <c r="G159" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5837,7 +5866,7 @@
         <v>237</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C160" s="21" t="s">
         <v>239</v>
@@ -5846,7 +5875,7 @@
       <c r="E160" s="16"/>
       <c r="F160" s="9"/>
       <c r="G160" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5854,7 +5883,7 @@
         <v>238</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C161" s="21" t="s">
         <v>240</v>
@@ -5863,7 +5892,7 @@
       <c r="E161" s="16"/>
       <c r="F161" s="9"/>
       <c r="G161" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5871,7 +5900,7 @@
         <v>241</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C162" s="21" t="s">
         <v>242</v>
@@ -5880,15 +5909,15 @@
       <c r="E162" s="16"/>
       <c r="F162" s="7"/>
       <c r="G162" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C163" s="21" t="s">
         <v>242</v>
@@ -5897,15 +5926,15 @@
       <c r="E163" s="16"/>
       <c r="F163" s="7"/>
       <c r="G163" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C164" s="21" t="s">
         <v>242</v>
@@ -5914,15 +5943,15 @@
       <c r="E164" s="16"/>
       <c r="F164" s="7"/>
       <c r="G164" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C165" s="21" t="s">
         <v>242</v>
@@ -5931,7 +5960,7 @@
       <c r="E165" s="16"/>
       <c r="F165" s="7"/>
       <c r="G165" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5939,7 +5968,7 @@
         <v>145</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C166" s="21" t="s">
         <v>179</v>
@@ -5950,7 +5979,7 @@
       </c>
       <c r="F166" s="7"/>
       <c r="G166" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5958,7 +5987,7 @@
         <v>146</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C167" s="21" t="s">
         <v>179</v>
@@ -5969,7 +5998,7 @@
       </c>
       <c r="F167" s="7"/>
       <c r="G167" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5977,7 +6006,7 @@
         <v>147</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C168" s="21" t="s">
         <v>179</v>
@@ -5988,7 +6017,7 @@
       </c>
       <c r="F168" s="7"/>
       <c r="G168" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5996,7 +6025,7 @@
         <v>148</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C169" s="21" t="s">
         <v>179</v>
@@ -6007,7 +6036,7 @@
       </c>
       <c r="F169" s="7"/>
       <c r="G169" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6015,7 +6044,7 @@
         <v>149</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C170" s="21" t="s">
         <v>179</v>
@@ -6026,7 +6055,7 @@
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -6034,7 +6063,7 @@
         <v>150</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C171" s="21" t="s">
         <v>179</v>
@@ -6045,7 +6074,7 @@
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6053,7 +6082,7 @@
         <v>151</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C172" s="21" t="s">
         <v>179</v>
@@ -6064,7 +6093,7 @@
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6072,7 +6101,7 @@
         <v>152</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>179</v>
@@ -6083,7 +6112,7 @@
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -6091,7 +6120,7 @@
         <v>153</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C174" s="21" t="s">
         <v>179</v>
@@ -6102,7 +6131,7 @@
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -6110,7 +6139,7 @@
         <v>154</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C175" s="21" t="s">
         <v>179</v>
@@ -6121,7 +6150,7 @@
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -6129,7 +6158,7 @@
         <v>155</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C176" s="21" t="s">
         <v>179</v>
@@ -6140,7 +6169,7 @@
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -6148,7 +6177,7 @@
         <v>156</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C177" s="21" t="s">
         <v>179</v>
@@ -6159,7 +6188,7 @@
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6167,7 +6196,7 @@
         <v>53</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C178" s="21" t="s">
         <v>180</v>
@@ -6176,15 +6205,15 @@
       <c r="E178" s="15"/>
       <c r="F178" s="9"/>
       <c r="G178" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C179" s="21" t="s">
         <v>180</v>
@@ -6192,10 +6221,10 @@
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6203,7 +6232,7 @@
         <v>54</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C180" s="21" t="s">
         <v>180</v>
@@ -6212,15 +6241,15 @@
       <c r="E180" s="15"/>
       <c r="F180" s="9"/>
       <c r="G180" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C181" s="21" t="s">
         <v>180</v>
@@ -6229,15 +6258,15 @@
       <c r="E181" s="15"/>
       <c r="F181" s="9"/>
       <c r="G181" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C182" s="21" t="s">
         <v>180</v>
@@ -6245,18 +6274,18 @@
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
       <c r="F182" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C183" s="21" t="s">
         <v>180</v>
@@ -6265,15 +6294,15 @@
       <c r="E183" s="15"/>
       <c r="F183" s="9"/>
       <c r="G183" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C184" s="21" t="s">
         <v>180</v>
@@ -6281,18 +6310,18 @@
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
       <c r="F184" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C185" s="21" t="s">
         <v>180</v>
@@ -6301,15 +6330,15 @@
       <c r="E185" s="15"/>
       <c r="F185" s="9"/>
       <c r="G185" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C186" s="21" t="s">
         <v>180</v>
@@ -6317,18 +6346,18 @@
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C187" s="21" t="s">
         <v>180</v>
@@ -6337,34 +6366,34 @@
       <c r="E187" s="15"/>
       <c r="F187" s="9"/>
       <c r="G187" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="C188" s="21" t="s">
         <v>506</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="C188" s="21" t="s">
-        <v>507</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C189" s="21" t="s">
         <v>180</v>
@@ -6373,15 +6402,15 @@
       <c r="E189" s="15"/>
       <c r="F189" s="9"/>
       <c r="G189" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C190" s="21" t="s">
         <v>180</v>
@@ -6390,15 +6419,15 @@
       <c r="E190" s="15"/>
       <c r="F190" s="9"/>
       <c r="G190" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C191" s="21" t="s">
         <v>180</v>
@@ -6407,15 +6436,15 @@
       <c r="E191" s="15"/>
       <c r="F191" s="9"/>
       <c r="G191" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C192" s="21" t="s">
         <v>180</v>
@@ -6424,15 +6453,15 @@
       <c r="E192" s="15"/>
       <c r="F192" s="9"/>
       <c r="G192" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C193" s="21" t="s">
         <v>180</v>
@@ -6441,15 +6470,15 @@
       <c r="E193" s="15"/>
       <c r="F193" s="9"/>
       <c r="G193" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C194" s="15" t="s">
         <v>180</v>
@@ -6458,7 +6487,7 @@
       <c r="E194" s="15"/>
       <c r="F194" s="9"/>
       <c r="G194" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6466,67 +6495,67 @@
         <v>243</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="9"/>
       <c r="G195" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="9"/>
       <c r="G196" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="9"/>
       <c r="G197" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="9"/>
       <c r="G198" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6534,7 +6563,7 @@
         <v>55</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C199" s="16" t="s">
         <v>181</v>
@@ -6543,7 +6572,7 @@
       <c r="E199" s="15"/>
       <c r="F199" s="9"/>
       <c r="G199" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6551,7 +6580,7 @@
         <v>56</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C200" s="16" t="s">
         <v>181</v>
@@ -6560,7 +6589,7 @@
       <c r="E200" s="15"/>
       <c r="F200" s="9"/>
       <c r="G200" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6568,7 +6597,7 @@
         <v>57</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C201" s="16" t="s">
         <v>181</v>
@@ -6577,7 +6606,7 @@
       <c r="E201" s="15"/>
       <c r="F201" s="9"/>
       <c r="G201" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6585,7 +6614,7 @@
         <v>58</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C202" s="16" t="s">
         <v>181</v>
@@ -6594,7 +6623,7 @@
       <c r="E202" s="15"/>
       <c r="F202" s="9"/>
       <c r="G202" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6602,7 +6631,7 @@
         <v>59</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C203" s="16" t="s">
         <v>181</v>
@@ -6611,7 +6640,7 @@
       <c r="E203" s="15"/>
       <c r="F203" s="9"/>
       <c r="G203" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6619,7 +6648,7 @@
         <v>60</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C204" s="16" t="s">
         <v>181</v>
@@ -6628,7 +6657,7 @@
       <c r="E204" s="15"/>
       <c r="F204" s="9"/>
       <c r="G204" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6636,7 +6665,7 @@
         <v>61</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C205" s="16" t="s">
         <v>181</v>
@@ -6645,7 +6674,7 @@
       <c r="E205" s="15"/>
       <c r="F205" s="9"/>
       <c r="G205" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6653,7 +6682,7 @@
         <v>62</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C206" s="16" t="s">
         <v>181</v>
@@ -6662,7 +6691,7 @@
       <c r="E206" s="15"/>
       <c r="F206" s="9"/>
       <c r="G206" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6670,7 +6699,7 @@
         <v>63</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C207" s="16" t="s">
         <v>181</v>
@@ -6679,7 +6708,7 @@
       <c r="E207" s="15"/>
       <c r="F207" s="9"/>
       <c r="G207" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6687,7 +6716,7 @@
         <v>64</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C208" s="16" t="s">
         <v>181</v>
@@ -6696,7 +6725,7 @@
       <c r="E208" s="15"/>
       <c r="F208" s="9"/>
       <c r="G208" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6704,7 +6733,7 @@
         <v>65</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C209" s="16" t="s">
         <v>181</v>
@@ -6713,7 +6742,7 @@
       <c r="E209" s="15"/>
       <c r="F209" s="9"/>
       <c r="G209" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6721,7 +6750,7 @@
         <v>66</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C210" s="16" t="s">
         <v>181</v>
@@ -6730,7 +6759,7 @@
       <c r="E210" s="15"/>
       <c r="F210" s="9"/>
       <c r="G210" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6738,7 +6767,7 @@
         <v>67</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C211" s="16" t="s">
         <v>181</v>
@@ -6747,7 +6776,7 @@
       <c r="E211" s="15"/>
       <c r="F211" s="9"/>
       <c r="G211" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6755,7 +6784,7 @@
         <v>68</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C212" s="16" t="s">
         <v>181</v>
@@ -6764,7 +6793,7 @@
       <c r="E212" s="15"/>
       <c r="F212" s="9"/>
       <c r="G212" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6772,7 +6801,7 @@
         <v>69</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C213" s="16" t="s">
         <v>181</v>
@@ -6781,7 +6810,7 @@
       <c r="E213" s="15"/>
       <c r="F213" s="9"/>
       <c r="G213" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6789,7 +6818,7 @@
         <v>70</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C214" s="16" t="s">
         <v>182</v>
@@ -6798,7 +6827,7 @@
       <c r="E214" s="15"/>
       <c r="F214" s="7"/>
       <c r="G214" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6806,7 +6835,7 @@
         <v>228</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C215" s="21" t="s">
         <v>182</v>
@@ -6815,7 +6844,7 @@
       <c r="E215" s="15"/>
       <c r="F215" s="7"/>
       <c r="G215" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6823,7 +6852,7 @@
         <v>229</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>182</v>
@@ -6832,7 +6861,7 @@
       <c r="E216" s="15"/>
       <c r="F216" s="11"/>
       <c r="G216" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6840,7 +6869,7 @@
         <v>71</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>182</v>
@@ -6849,7 +6878,7 @@
       <c r="E217" s="15"/>
       <c r="F217" s="11"/>
       <c r="G217" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6857,7 +6886,7 @@
         <v>230</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>182</v>
@@ -6866,7 +6895,7 @@
       <c r="E218" s="15"/>
       <c r="F218" s="11"/>
       <c r="G218" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6874,7 +6903,7 @@
         <v>72</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>182</v>
@@ -6883,7 +6912,7 @@
       <c r="E219" s="15"/>
       <c r="F219" s="9"/>
       <c r="G219" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6891,7 +6920,7 @@
         <v>231</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C220" s="21" t="s">
         <v>182</v>
@@ -6900,7 +6929,7 @@
       <c r="E220" s="15"/>
       <c r="F220" s="9"/>
       <c r="G220" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6908,7 +6937,7 @@
         <v>232</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>182</v>
@@ -6917,32 +6946,32 @@
       <c r="E221" s="15"/>
       <c r="F221" s="9"/>
       <c r="G221" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>73</v>
+        <v>783</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>346</v>
+        <v>784</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>182</v>
+        <v>785</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
       <c r="F222" s="9"/>
       <c r="G222" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C223" s="21" t="s">
         <v>182</v>
@@ -6951,15 +6980,15 @@
       <c r="E223" s="15"/>
       <c r="F223" s="9"/>
       <c r="G223" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>182</v>
@@ -6968,15 +6997,15 @@
       <c r="E224" s="15"/>
       <c r="F224" s="9"/>
       <c r="G224" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>182</v>
@@ -6985,15 +7014,15 @@
       <c r="E225" s="15"/>
       <c r="F225" s="9"/>
       <c r="G225" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>182</v>
@@ -7002,15 +7031,15 @@
       <c r="E226" s="15"/>
       <c r="F226" s="9"/>
       <c r="G226" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>182</v>
@@ -7019,15 +7048,15 @@
       <c r="E227" s="15"/>
       <c r="F227" s="9"/>
       <c r="G227" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>182</v>
@@ -7036,83 +7065,83 @@
       <c r="E228" s="15"/>
       <c r="F228" s="9"/>
       <c r="G228" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>611</v>
+        <v>351</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
-      <c r="F229" s="12"/>
+      <c r="F229" s="9"/>
       <c r="G229" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>612</v>
+        <v>76</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>610</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>183</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
-      <c r="F230" s="11"/>
+      <c r="F230" s="12"/>
       <c r="G230" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D231" s="16"/>
+      <c r="D231" s="15"/>
       <c r="E231" s="15"/>
       <c r="F231" s="11"/>
       <c r="G231" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>353</v>
+        <v>78</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>612</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D232" s="15"/>
+      <c r="D232" s="16"/>
       <c r="E232" s="15"/>
-      <c r="F232" s="9"/>
+      <c r="F232" s="11"/>
       <c r="G232" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>183</v>
@@ -7121,15 +7150,15 @@
       <c r="E233" s="15"/>
       <c r="F233" s="9"/>
       <c r="G233" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>355</v>
+        <v>80</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>183</v>
@@ -7138,15 +7167,15 @@
       <c r="E234" s="15"/>
       <c r="F234" s="9"/>
       <c r="G234" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>183</v>
@@ -7155,15 +7184,15 @@
       <c r="E235" s="15"/>
       <c r="F235" s="9"/>
       <c r="G235" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>183</v>
@@ -7172,66 +7201,66 @@
       <c r="E236" s="15"/>
       <c r="F236" s="9"/>
       <c r="G236" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D237" s="16"/>
+      <c r="D237" s="15"/>
       <c r="E237" s="15"/>
       <c r="F237" s="9"/>
       <c r="G237" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>418</v>
+        <v>84</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D238" s="15"/>
+        <v>183</v>
+      </c>
+      <c r="D238" s="16"/>
       <c r="E238" s="15"/>
       <c r="F238" s="9"/>
       <c r="G238" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>359</v>
+        <v>85</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D239" s="15"/>
       <c r="E239" s="15"/>
       <c r="F239" s="9"/>
       <c r="G239" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>203</v>
@@ -7240,15 +7269,15 @@
       <c r="E240" s="15"/>
       <c r="F240" s="9"/>
       <c r="G240" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>203</v>
@@ -7257,15 +7286,15 @@
       <c r="E241" s="15"/>
       <c r="F241" s="9"/>
       <c r="G241" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>203</v>
@@ -7274,15 +7303,15 @@
       <c r="E242" s="15"/>
       <c r="F242" s="9"/>
       <c r="G242" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>203</v>
@@ -7291,15 +7320,15 @@
       <c r="E243" s="15"/>
       <c r="F243" s="9"/>
       <c r="G243" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>203</v>
@@ -7308,49 +7337,49 @@
       <c r="E244" s="15"/>
       <c r="F244" s="9"/>
       <c r="G244" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D245" s="16"/>
+      <c r="D245" s="15"/>
       <c r="E245" s="15"/>
       <c r="F245" s="9"/>
       <c r="G245" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C246" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D246" s="15"/>
+      <c r="D246" s="16"/>
       <c r="E246" s="15"/>
       <c r="F246" s="9"/>
       <c r="G246" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B247" s="9" t="s">
-        <v>367</v>
+        <v>164</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>203</v>
@@ -7359,138 +7388,142 @@
       <c r="E247" s="15"/>
       <c r="F247" s="9"/>
       <c r="G247" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>366</v>
       </c>
       <c r="C248" s="21" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D248" s="15"/>
       <c r="E248" s="15"/>
       <c r="F248" s="9"/>
       <c r="G248" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>501</v>
+        <v>86</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>500</v>
+        <v>184</v>
       </c>
       <c r="C249" s="21" t="s">
         <v>195</v>
       </c>
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
-      <c r="F249" s="9" t="s">
-        <v>502</v>
-      </c>
+      <c r="F249" s="9"/>
       <c r="G249" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>764</v>
+        <v>500</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>765</v>
+        <v>499</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>195</v>
       </c>
       <c r="D250" s="15"/>
       <c r="E250" s="15"/>
-      <c r="F250" s="39" t="s">
-        <v>730</v>
+      <c r="F250" s="9" t="s">
+        <v>501</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>87</v>
+        <v>763</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>185</v>
+        <v>764</v>
       </c>
       <c r="C251" s="21" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D251" s="15"/>
       <c r="E251" s="15"/>
-      <c r="F251" s="9"/>
+      <c r="F251" s="39" t="s">
+        <v>729</v>
+      </c>
       <c r="G251" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="9" t="s">
-        <v>406</v>
+      <c r="A252" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>407</v>
+        <v>185</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="D252" s="15"/>
       <c r="E252" s="15"/>
       <c r="F252" s="9"/>
       <c r="G252" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>413</v>
+        <v>779</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>195</v>
+        <v>407</v>
       </c>
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
-      <c r="F253" s="9"/>
+      <c r="F253" s="9" t="s">
+        <v>781</v>
+      </c>
       <c r="G253" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>414</v>
+      <c r="A254" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="C254" s="21" t="s">
-        <v>195</v>
+        <v>407</v>
       </c>
       <c r="D254" s="15"/>
       <c r="E254" s="15"/>
-      <c r="F254" s="9"/>
+      <c r="F254" s="9" t="s">
+        <v>782</v>
+      </c>
       <c r="G254" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>195</v>
@@ -7499,49 +7532,49 @@
       <c r="E255" s="15"/>
       <c r="F255" s="9"/>
       <c r="G255" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C256" s="21" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
       <c r="F256" s="9"/>
       <c r="G256" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="9" t="s">
-        <v>410</v>
+      <c r="A257" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C257" s="21" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D257" s="15"/>
       <c r="E257" s="15"/>
       <c r="F257" s="9"/>
       <c r="G257" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="9" t="s">
-        <v>409</v>
+      <c r="A258" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>188</v>
@@ -7550,474 +7583,474 @@
       <c r="E258" s="15"/>
       <c r="F258" s="9"/>
       <c r="G258" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="7" t="s">
-        <v>92</v>
+      <c r="A259" s="9" t="s">
+        <v>409</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C259" s="21" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D259" s="15"/>
       <c r="E259" s="15"/>
       <c r="F259" s="9"/>
       <c r="G259" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="7" t="s">
-        <v>459</v>
+      <c r="A260" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>614</v>
+        <v>418</v>
       </c>
       <c r="C260" s="21" t="s">
-        <v>499</v>
+        <v>188</v>
       </c>
       <c r="D260" s="15"/>
       <c r="E260" s="15"/>
       <c r="F260" s="9"/>
       <c r="G260" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>460</v>
+        <v>92</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>615</v>
+        <v>410</v>
       </c>
       <c r="C261" s="21" t="s">
-        <v>499</v>
+        <v>195</v>
       </c>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
       <c r="F261" s="9"/>
       <c r="G261" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C262" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
       <c r="F262" s="9"/>
       <c r="G262" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C263" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D263" s="15"/>
       <c r="E263" s="15"/>
       <c r="F263" s="9"/>
       <c r="G263" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C264" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
       <c r="F264" s="9"/>
       <c r="G264" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C265" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
       <c r="F265" s="9"/>
       <c r="G265" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C266" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
       <c r="F266" s="9"/>
       <c r="G266" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C267" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="F267" s="9"/>
       <c r="G267" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>483</v>
+        <v>619</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D268" s="15"/>
       <c r="E268" s="15"/>
       <c r="F268" s="9"/>
       <c r="G268" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>485</v>
+        <v>620</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
       <c r="F269" s="9"/>
       <c r="G269" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C270" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D270" s="15"/>
       <c r="E270" s="15"/>
       <c r="F270" s="9"/>
       <c r="G270" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C271" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
       <c r="F271" s="9"/>
       <c r="G271" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C272" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="F272" s="9"/>
       <c r="G272" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C273" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
       <c r="F273" s="9"/>
       <c r="G273" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C274" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="F274" s="9"/>
       <c r="G274" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C275" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
       <c r="F275" s="9"/>
       <c r="G275" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C276" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
       <c r="F276" s="9"/>
       <c r="G276" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C277" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="F277" s="9"/>
       <c r="G277" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C278" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="F278" s="9"/>
       <c r="G278" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="F279" s="9"/>
       <c r="G279" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C280" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
       <c r="F280" s="9"/>
       <c r="G280" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
       <c r="F281" s="9"/>
       <c r="G281" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C282" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
       <c r="F282" s="9"/>
       <c r="G282" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B283" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C283" s="21" t="s">
         <v>498</v>
-      </c>
-      <c r="C283" s="21" t="s">
-        <v>499</v>
       </c>
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
       <c r="F283" s="9"/>
       <c r="G283" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="B284" s="7" t="s">
-        <v>689</v>
+        <v>480</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>496</v>
       </c>
       <c r="C284" s="21" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
       <c r="F284" s="9"/>
       <c r="G284" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B285" s="7" t="s">
-        <v>622</v>
+        <v>481</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>497</v>
       </c>
       <c r="C285" s="21" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
       <c r="F285" s="9"/>
       <c r="G285" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>167</v>
+        <v>687</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>623</v>
+        <v>688</v>
       </c>
       <c r="C286" s="21" t="s">
         <v>193</v>
@@ -8026,15 +8059,15 @@
       <c r="E286" s="15"/>
       <c r="F286" s="9"/>
       <c r="G286" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C287" s="21" t="s">
         <v>193</v>
@@ -8043,34 +8076,32 @@
       <c r="E287" s="15"/>
       <c r="F287" s="9"/>
       <c r="G287" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C288" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D288" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D288" s="15"/>
       <c r="E288" s="15"/>
       <c r="F288" s="9"/>
       <c r="G288" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C289" s="21" t="s">
         <v>193</v>
@@ -8079,15 +8110,15 @@
       <c r="E289" s="15"/>
       <c r="F289" s="9"/>
       <c r="G289" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C290" s="21" t="s">
         <v>193</v>
@@ -8098,66 +8129,68 @@
       <c r="E290" s="15"/>
       <c r="F290" s="9"/>
       <c r="G290" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C291" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D291" s="16"/>
+      <c r="D291" s="15"/>
       <c r="E291" s="15"/>
       <c r="F291" s="9"/>
       <c r="G291" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C292" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D292" s="15"/>
+      <c r="D292" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E292" s="15"/>
       <c r="F292" s="9"/>
       <c r="G292" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B293" s="9" t="s">
-        <v>630</v>
+        <v>97</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>627</v>
       </c>
       <c r="C293" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D293" s="15"/>
+      <c r="D293" s="16"/>
       <c r="E293" s="15"/>
       <c r="F293" s="9"/>
       <c r="G293" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B294" s="9" t="s">
-        <v>631</v>
+        <v>98</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>628</v>
       </c>
       <c r="C294" s="21" t="s">
         <v>193</v>
@@ -8166,15 +8199,15 @@
       <c r="E294" s="15"/>
       <c r="F294" s="9"/>
       <c r="G294" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C295" s="21" t="s">
         <v>193</v>
@@ -8183,15 +8216,15 @@
       <c r="E295" s="15"/>
       <c r="F295" s="9"/>
       <c r="G295" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C296" s="21" t="s">
         <v>193</v>
@@ -8200,15 +8233,15 @@
       <c r="E296" s="15"/>
       <c r="F296" s="9"/>
       <c r="G296" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C297" s="21" t="s">
         <v>193</v>
@@ -8217,15 +8250,15 @@
       <c r="E297" s="15"/>
       <c r="F297" s="9"/>
       <c r="G297" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C298" s="21" t="s">
         <v>193</v>
@@ -8234,15 +8267,15 @@
       <c r="E298" s="15"/>
       <c r="F298" s="9"/>
       <c r="G298" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C299" s="21" t="s">
         <v>193</v>
@@ -8251,15 +8284,15 @@
       <c r="E299" s="15"/>
       <c r="F299" s="9"/>
       <c r="G299" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>456</v>
+        <v>103</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C300" s="21" t="s">
         <v>193</v>
@@ -8268,85 +8301,85 @@
       <c r="E300" s="15"/>
       <c r="F300" s="9"/>
       <c r="G300" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C301" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D301" s="15"/>
       <c r="E301" s="15"/>
       <c r="F301" s="9"/>
       <c r="G301" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>106</v>
+        <v>455</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C302" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D302" s="15" t="s">
-        <v>200</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D302" s="15"/>
       <c r="E302" s="15"/>
       <c r="F302" s="9"/>
       <c r="G302" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>687</v>
+        <v>105</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
       <c r="C303" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
       <c r="F303" s="9"/>
       <c r="G303" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>368</v>
+        <v>638</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D304" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="D304" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E304" s="15"/>
       <c r="F304" s="9"/>
       <c r="G304" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>170</v>
+        <v>686</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>369</v>
+        <v>685</v>
       </c>
       <c r="C305" s="21" t="s">
         <v>193</v>
@@ -8355,15 +8388,15 @@
       <c r="E305" s="15"/>
       <c r="F305" s="9"/>
       <c r="G305" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C306" s="21" t="s">
         <v>193</v>
@@ -8372,15 +8405,15 @@
       <c r="E306" s="15"/>
       <c r="F306" s="9"/>
       <c r="G306" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C307" s="21" t="s">
         <v>193</v>
@@ -8389,15 +8422,15 @@
       <c r="E307" s="15"/>
       <c r="F307" s="9"/>
       <c r="G307" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C308" s="21" t="s">
         <v>193</v>
@@ -8406,34 +8439,32 @@
       <c r="E308" s="15"/>
       <c r="F308" s="9"/>
       <c r="G308" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C309" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D309" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D309" s="15"/>
       <c r="E309" s="15"/>
       <c r="F309" s="9"/>
       <c r="G309" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C310" s="21" t="s">
         <v>193</v>
@@ -8442,32 +8473,34 @@
       <c r="E310" s="15"/>
       <c r="F310" s="9"/>
       <c r="G310" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C311" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D311" s="15"/>
+      <c r="D311" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E311" s="15"/>
       <c r="F311" s="9"/>
       <c r="G311" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C312" s="21" t="s">
         <v>193</v>
@@ -8476,15 +8509,15 @@
       <c r="E312" s="15"/>
       <c r="F312" s="9"/>
       <c r="G312" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C313" s="21" t="s">
         <v>193</v>
@@ -8493,15 +8526,15 @@
       <c r="E313" s="15"/>
       <c r="F313" s="9"/>
       <c r="G313" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C314" s="21" t="s">
         <v>193</v>
@@ -8510,15 +8543,15 @@
       <c r="E314" s="15"/>
       <c r="F314" s="9"/>
       <c r="G314" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C315" s="21" t="s">
         <v>193</v>
@@ -8527,15 +8560,15 @@
       <c r="E315" s="15"/>
       <c r="F315" s="9"/>
       <c r="G315" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C316" s="21" t="s">
         <v>193</v>
@@ -8544,34 +8577,32 @@
       <c r="E316" s="15"/>
       <c r="F316" s="9"/>
       <c r="G316" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C317" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D317" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D317" s="15"/>
       <c r="E317" s="15"/>
       <c r="F317" s="9"/>
       <c r="G317" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C318" s="21" t="s">
         <v>193</v>
@@ -8580,49 +8611,51 @@
       <c r="E318" s="15"/>
       <c r="F318" s="9"/>
       <c r="G318" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>455</v>
+        <v>116</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>454</v>
+        <v>380</v>
       </c>
       <c r="C319" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D319" s="15"/>
+      <c r="D319" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E319" s="15"/>
       <c r="F319" s="9"/>
       <c r="G319" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C320" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D320" s="15"/>
       <c r="E320" s="15"/>
       <c r="F320" s="9"/>
       <c r="G320" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>684</v>
+        <v>454</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>685</v>
+        <v>453</v>
       </c>
       <c r="C321" s="21" t="s">
         <v>193</v>
@@ -8631,32 +8664,32 @@
       <c r="E321" s="15"/>
       <c r="F321" s="9"/>
       <c r="G321" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C322" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D322" s="15"/>
       <c r="E322" s="15"/>
       <c r="F322" s="9"/>
       <c r="G322" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>174</v>
+        <v>683</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>385</v>
+        <v>684</v>
       </c>
       <c r="C323" s="21" t="s">
         <v>193</v>
@@ -8665,15 +8698,15 @@
       <c r="E323" s="15"/>
       <c r="F323" s="9"/>
       <c r="G323" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C324" s="21" t="s">
         <v>193</v>
@@ -8682,15 +8715,15 @@
       <c r="E324" s="15"/>
       <c r="F324" s="9"/>
       <c r="G324" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C325" s="21" t="s">
         <v>193</v>
@@ -8699,15 +8732,15 @@
       <c r="E325" s="15"/>
       <c r="F325" s="9"/>
       <c r="G325" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C326" s="21" t="s">
         <v>193</v>
@@ -8716,15 +8749,15 @@
       <c r="E326" s="15"/>
       <c r="F326" s="9"/>
       <c r="G326" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C327" s="21" t="s">
         <v>193</v>
@@ -8733,15 +8766,15 @@
       <c r="E327" s="15"/>
       <c r="F327" s="9"/>
       <c r="G327" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C328" s="21" t="s">
         <v>193</v>
@@ -8750,15 +8783,15 @@
       <c r="E328" s="15"/>
       <c r="F328" s="9"/>
       <c r="G328" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C329" s="21" t="s">
         <v>193</v>
@@ -8767,15 +8800,15 @@
       <c r="E329" s="15"/>
       <c r="F329" s="9"/>
       <c r="G329" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C330" s="21" t="s">
         <v>193</v>
@@ -8784,15 +8817,15 @@
       <c r="E330" s="15"/>
       <c r="F330" s="9"/>
       <c r="G330" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C331" s="21" t="s">
         <v>193</v>
@@ -8801,15 +8834,15 @@
       <c r="E331" s="15"/>
       <c r="F331" s="9"/>
       <c r="G331" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C332" s="21" t="s">
         <v>193</v>
@@ -8818,15 +8851,15 @@
       <c r="E332" s="15"/>
       <c r="F332" s="9"/>
       <c r="G332" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C333" s="21" t="s">
         <v>193</v>
@@ -8835,15 +8868,15 @@
       <c r="E333" s="15"/>
       <c r="F333" s="9"/>
       <c r="G333" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C334" s="21" t="s">
         <v>193</v>
@@ -8852,34 +8885,32 @@
       <c r="E334" s="15"/>
       <c r="F334" s="9"/>
       <c r="G334" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C335" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D335" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D335" s="15"/>
       <c r="E335" s="15"/>
       <c r="F335" s="9"/>
       <c r="G335" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C336" s="21" t="s">
         <v>193</v>
@@ -8888,219 +8919,221 @@
       <c r="E336" s="15"/>
       <c r="F336" s="9"/>
       <c r="G336" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
-        <v>452</v>
+        <v>129</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="C337" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D337" s="15"/>
+      <c r="D337" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E337" s="15"/>
       <c r="F337" s="9"/>
       <c r="G337" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D338" s="15"/>
       <c r="E338" s="15"/>
       <c r="F338" s="9"/>
       <c r="G338" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C339" s="16" t="s">
-        <v>447</v>
+        <v>451</v>
+      </c>
+      <c r="B339" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C339" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D339" s="15"/>
       <c r="E339" s="15"/>
-      <c r="F339" s="15"/>
+      <c r="F339" s="9"/>
       <c r="G339" s="1" t="s">
-        <v>425</v>
+        <v>704</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
-        <v>426</v>
+        <v>131</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C340" s="16" t="s">
-        <v>448</v>
+        <v>398</v>
+      </c>
+      <c r="C340" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="D340" s="15"/>
       <c r="E340" s="15"/>
-      <c r="F340" s="15"/>
+      <c r="F340" s="9"/>
       <c r="G340" s="1" t="s">
-        <v>425</v>
+        <v>704</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B341" s="9" t="s">
-        <v>433</v>
+        <v>1</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D341" s="15"/>
       <c r="E341" s="15"/>
       <c r="F341" s="15"/>
       <c r="G341" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D342" s="15"/>
       <c r="E342" s="15"/>
       <c r="F342" s="15"/>
       <c r="G342" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B343" s="7" t="s">
-        <v>541</v>
+      <c r="A343" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>432</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D343" s="15"/>
       <c r="E343" s="15"/>
       <c r="F343" s="15"/>
       <c r="G343" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="9" t="s">
-        <v>451</v>
+      <c r="A344" s="7" t="s">
+        <v>427</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>640</v>
+        <v>431</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D344" s="15"/>
       <c r="E344" s="15"/>
       <c r="F344" s="15"/>
       <c r="G344" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="B345" s="9" t="s">
-        <v>434</v>
+      <c r="A345" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>540</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D345" s="15"/>
       <c r="E345" s="15"/>
       <c r="F345" s="15"/>
       <c r="G345" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="7" t="s">
-        <v>430</v>
+      <c r="A346" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>435</v>
+        <v>639</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D346" s="15"/>
       <c r="E346" s="15"/>
       <c r="F346" s="15"/>
       <c r="G346" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D347" s="15"/>
       <c r="E347" s="15"/>
       <c r="F347" s="15"/>
       <c r="G347" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
-        <v>274</v>
+        <v>429</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>641</v>
+        <v>434</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D348" s="15"/>
       <c r="E348" s="15"/>
       <c r="F348" s="15"/>
       <c r="G348" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>535</v>
+        <v>441</v>
       </c>
       <c r="C349" s="16" t="s">
         <v>445</v>
@@ -9109,32 +9142,32 @@
       <c r="E349" s="15"/>
       <c r="F349" s="15"/>
       <c r="G349" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
-        <v>438</v>
+        <v>273</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>440</v>
+        <v>640</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D350" s="15"/>
       <c r="E350" s="15"/>
       <c r="F350" s="15"/>
       <c r="G350" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>441</v>
+        <v>534</v>
       </c>
       <c r="C351" s="16" t="s">
         <v>444</v>
@@ -9143,11 +9176,45 @@
       <c r="E351" s="15"/>
       <c r="F351" s="15"/>
       <c r="G351" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C352" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D352" s="15"/>
+      <c r="E352" s="15"/>
+      <c r="F352" s="15"/>
+      <c r="G352" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C353" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="D353" s="15"/>
+      <c r="E353" s="15"/>
+      <c r="F353" s="15"/>
+      <c r="G353" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:G351" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
+  <autoFilter ref="A5:G353" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -9166,10 +9233,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9192,7 +9259,7 @@
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -9287,7 +9354,7 @@
         <v>43592</v>
       </c>
       <c r="B23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -9295,12 +9362,12 @@
         <v>43609</v>
       </c>
       <c r="B24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9308,7 +9375,7 @@
         <v>43643</v>
       </c>
       <c r="B26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -9316,12 +9383,12 @@
         <v>43949</v>
       </c>
       <c r="B27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -9329,7 +9396,7 @@
         <v>44007</v>
       </c>
       <c r="B29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9337,7 +9404,7 @@
         <v>44011</v>
       </c>
       <c r="B30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -9345,7 +9412,7 @@
         <v>44011</v>
       </c>
       <c r="B31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -9353,12 +9420,25 @@
         <v>44036</v>
       </c>
       <c r="B32" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>723</v>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>44159</v>
+      </c>
+      <c r="B34" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4EDAE6-ECEB-4030-A5CA-B87A151FAAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C97A94C-5B47-4BA0-9BF5-6AC73D920780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$353</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$354</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="797">
   <si>
     <t>nt_total</t>
   </si>
@@ -2472,6 +2472,30 @@
   </si>
   <si>
     <t>Rename pi_TricNoHydro to pi_TrichNoHydro</t>
+  </si>
+  <si>
+    <t>Add pi_DiptNonIns</t>
+  </si>
+  <si>
+    <t>Change Log</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>pi_DiptNonIns</t>
+  </si>
+  <si>
+    <t>Class, Order</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Order Diptera OR Class not Insecta</t>
+  </si>
+  <si>
+    <t>OR rather than AND</t>
   </si>
 </sst>
 </file>
@@ -2691,7 +2715,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2795,6 +2819,13 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3161,13 +3192,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:G353"/>
+  <dimension ref="A1:G354"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3196,7 +3227,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>44159</v>
+        <v>44277</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>702</v>
@@ -3204,8 +3235,8 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A359)</f>
-        <v>348</v>
+        <f>SUBTOTAL(3,A6:A360)</f>
+        <v>349</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>703</v>
@@ -4381,30 +4412,32 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>16</v>
+        <v>793</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>296</v>
+        <v>795</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>186</v>
+        <v>794</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="9"/>
+      <c r="F73" s="42" t="s">
+        <v>796</v>
+      </c>
       <c r="G73" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>568</v>
+        <v>296</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>507</v>
+        <v>186</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
@@ -4415,10 +4448,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>507</v>
@@ -4432,13 +4465,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>297</v>
+        <v>253</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>569</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>186</v>
+        <v>507</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
@@ -4449,13 +4482,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>518</v>
+        <v>17</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>519</v>
+        <v>297</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>507</v>
+        <v>186</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
@@ -4466,10 +4499,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>507</v>
@@ -4483,13 +4516,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>667</v>
+        <v>514</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>668</v>
+        <v>515</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>186</v>
+        <v>507</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
@@ -4500,13 +4533,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>18</v>
+        <v>667</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>298</v>
+        <v>668</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
@@ -4517,13 +4550,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>765</v>
+        <v>18</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
@@ -4534,10 +4567,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>190</v>
@@ -4550,17 +4583,17 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>254</v>
+      <c r="A83" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>570</v>
+        <v>766</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
+        <v>190</v>
+      </c>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="9"/>
       <c r="G83" s="1" t="s">
         <v>704</v>
@@ -4568,10 +4601,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>401</v>
+        <v>254</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>717</v>
+        <v>570</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>507</v>
@@ -4585,13 +4618,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>190</v>
+        <v>717</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>507</v>
       </c>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
@@ -4602,13 +4635,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>571</v>
+        <v>718</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
@@ -4619,13 +4652,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
@@ -4636,13 +4669,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>520</v>
+        <v>256</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>641</v>
+        <v>572</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>643</v>
+        <v>186</v>
       </c>
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
@@ -4653,13 +4686,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>757</v>
+        <v>520</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>767</v>
+        <v>641</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>190</v>
+        <v>643</v>
       </c>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
@@ -4670,10 +4703,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C90" s="20" t="s">
         <v>190</v>
@@ -4687,13 +4720,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>669</v>
+        <v>758</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>670</v>
+        <v>771</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
@@ -4704,13 +4737,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>257</v>
+        <v>669</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>521</v>
+        <v>670</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
@@ -4721,13 +4754,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>759</v>
+        <v>257</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>768</v>
+        <v>521</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>190</v>
+        <v>283</v>
       </c>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
@@ -4738,13 +4771,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>299</v>
+        <v>759</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>768</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
@@ -4755,13 +4788,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>760</v>
+        <v>19</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>772</v>
+        <v>299</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
@@ -4772,10 +4805,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>20</v>
+        <v>760</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>300</v>
+        <v>772</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>186</v>
@@ -4789,10 +4822,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>671</v>
+        <v>20</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>672</v>
+        <v>300</v>
       </c>
       <c r="C97" s="20" t="s">
         <v>186</v>
@@ -4806,13 +4839,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>21</v>
+        <v>671</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>301</v>
+        <v>672</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
@@ -4823,13 +4856,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>761</v>
+        <v>21</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>773</v>
+        <v>301</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
@@ -4840,13 +4873,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>22</v>
+        <v>761</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>302</v>
+        <v>773</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
@@ -4857,10 +4890,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>673</v>
+        <v>22</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>674</v>
+        <v>302</v>
       </c>
       <c r="C101" s="20" t="s">
         <v>186</v>
@@ -4874,13 +4907,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>705</v>
+        <v>673</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
@@ -4891,13 +4924,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
@@ -4908,13 +4941,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>714</v>
+        <v>190</v>
       </c>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
@@ -4924,45 +4957,45 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B106" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C106" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="9"/>
       <c r="G106" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>507</v>
+        <v>23</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
@@ -4973,13 +5006,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>258</v>
+        <v>786</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>190</v>
+        <v>642</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>507</v>
       </c>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
@@ -4990,10 +5023,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>708</v>
+        <v>258</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>709</v>
+        <v>573</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>190</v>
@@ -5007,13 +5040,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>304</v>
+        <v>708</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>709</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
@@ -5024,13 +5057,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
@@ -5041,10 +5074,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>676</v>
+        <v>47</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>305</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>187</v>
@@ -5058,13 +5091,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>259</v>
+        <v>675</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>574</v>
+        <v>676</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
@@ -5074,17 +5107,17 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C114" s="16" t="s">
+      <c r="A114" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C114" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
       <c r="F114" s="9"/>
       <c r="G114" s="1" t="s">
         <v>704</v>
@@ -5092,10 +5125,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>186</v>
@@ -5109,10 +5142,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>522</v>
+        <v>49</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>186</v>
@@ -5126,10 +5159,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>308</v>
+        <v>260</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>186</v>
@@ -5143,10 +5176,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>677</v>
+        <v>50</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>678</v>
+        <v>308</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>186</v>
@@ -5160,13 +5193,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>51</v>
+        <v>677</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>309</v>
+        <v>678</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
@@ -5177,10 +5210,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>523</v>
+        <v>51</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>187</v>
@@ -5194,10 +5227,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>310</v>
+        <v>261</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>523</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>187</v>
@@ -5211,13 +5244,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>679</v>
+        <v>52</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>680</v>
+        <v>310</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
@@ -5228,13 +5261,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>524</v>
+        <v>679</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>680</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
@@ -5245,13 +5278,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>762</v>
+        <v>262</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>774</v>
+        <v>524</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
@@ -5262,10 +5295,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>263</v>
+        <v>762</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>525</v>
+        <v>774</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>186</v>
@@ -5279,10 +5312,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>681</v>
+        <v>263</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>682</v>
+        <v>525</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>186</v>
@@ -5296,13 +5329,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>264</v>
+        <v>681</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>526</v>
+        <v>682</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
@@ -5313,13 +5346,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
@@ -5330,10 +5363,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>186</v>
@@ -5347,13 +5380,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>723</v>
+        <v>266</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>726</v>
+        <v>528</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
@@ -5364,13 +5397,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>714</v>
+        <v>187</v>
       </c>
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
@@ -5381,13 +5414,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>190</v>
+        <v>714</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
@@ -5398,13 +5431,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>267</v>
+        <v>725</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>529</v>
+        <v>728</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>
@@ -5415,13 +5448,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>576</v>
+        <v>267</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>529</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
@@ -5432,10 +5465,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>311</v>
+        <v>576</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>190</v>
@@ -5449,10 +5482,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>530</v>
+        <v>41</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>190</v>
@@ -5466,13 +5499,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>510</v>
+        <v>268</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
@@ -5483,16 +5516,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>312</v>
+        <v>510</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>531</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
+        <v>284</v>
+      </c>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
       <c r="F138" s="9"/>
       <c r="G138" s="1" t="s">
         <v>704</v>
@@ -5500,16 +5533,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>532</v>
+        <v>42</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
+        <v>191</v>
+      </c>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
       <c r="F139" s="9"/>
       <c r="G139" s="1" t="s">
         <v>704</v>
@@ -5517,13 +5550,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>719</v>
+        <v>532</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
@@ -5533,14 +5566,14 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
-        <v>404</v>
+      <c r="A141" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>508</v>
+        <v>189</v>
       </c>
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
@@ -5551,13 +5584,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
@@ -5568,10 +5601,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>509</v>
@@ -5585,13 +5618,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>512</v>
+        <v>400</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>533</v>
+        <v>716</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
@@ -5601,45 +5634,45 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="C145" s="21" t="s">
-        <v>197</v>
+      <c r="A145" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>507</v>
       </c>
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
-      <c r="F145" s="7"/>
+      <c r="F145" s="9"/>
       <c r="G145" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>313</v>
+        <v>577</v>
       </c>
       <c r="C146" s="21" t="s">
         <v>197</v>
       </c>
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
-      <c r="F146" s="9"/>
+      <c r="F146" s="7"/>
       <c r="G146" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>314</v>
+        <v>44</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="C147" s="21" t="s">
         <v>197</v>
@@ -5653,44 +5686,44 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>578</v>
+        <v>314</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
-      <c r="F148" s="7"/>
+      <c r="F148" s="9"/>
       <c r="G148" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>315</v>
+        <v>578</v>
       </c>
       <c r="C149" s="21" t="s">
         <v>198</v>
       </c>
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
-      <c r="F149" s="9"/>
+      <c r="F149" s="7"/>
       <c r="G149" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>316</v>
+        <v>135</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>315</v>
       </c>
       <c r="C150" s="21" t="s">
         <v>198</v>
@@ -5704,13 +5737,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
@@ -5721,13 +5754,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>579</v>
+        <v>317</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
@@ -5738,17 +5771,15 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>318</v>
+        <v>579</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>200</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D153" s="16"/>
       <c r="E153" s="16"/>
       <c r="F153" s="9"/>
       <c r="G153" s="1" t="s">
@@ -5757,10 +5788,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C154" s="21" t="s">
         <v>206</v>
@@ -5776,15 +5807,17 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>580</v>
+        <v>319</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D155" s="16"/>
+        <v>206</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="E155" s="16"/>
       <c r="F155" s="9"/>
       <c r="G155" s="1" t="s">
@@ -5793,17 +5826,15 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="C156" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D156" s="16" t="s">
-        <v>200</v>
-      </c>
+      <c r="D156" s="16"/>
       <c r="E156" s="16"/>
       <c r="F156" s="9"/>
       <c r="G156" s="1" t="s">
@@ -5812,15 +5843,17 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C157" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D157" s="16"/>
+      <c r="D157" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="E157" s="16"/>
       <c r="F157" s="9"/>
       <c r="G157" s="1" t="s">
@@ -5829,13 +5862,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
@@ -5846,13 +5879,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>507</v>
+        <v>144</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="D159" s="16"/>
       <c r="E159" s="16"/>
@@ -5863,13 +5896,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="C160" s="21" t="s">
-        <v>239</v>
+        <v>271</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>507</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
@@ -5880,13 +5913,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D161" s="16"/>
       <c r="E161" s="16"/>
@@ -5897,27 +5930,27 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>692</v>
+        <v>583</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D162" s="16"/>
       <c r="E162" s="16"/>
-      <c r="F162" s="7"/>
+      <c r="F162" s="9"/>
       <c r="G162" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>689</v>
+        <v>241</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C163" s="21" t="s">
         <v>242</v>
@@ -5931,10 +5964,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C164" s="21" t="s">
         <v>242</v>
@@ -5948,10 +5981,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C165" s="21" t="s">
         <v>242</v>
@@ -5964,19 +5997,17 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
-        <v>145</v>
+      <c r="A166" s="7" t="s">
+        <v>691</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>584</v>
+        <v>693</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="D166" s="16"/>
-      <c r="E166" s="16" t="s">
-        <v>200</v>
-      </c>
+      <c r="E166" s="16"/>
       <c r="F166" s="7"/>
       <c r="G166" s="1" t="s">
         <v>704</v>
@@ -5984,16 +6015,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>585</v>
+        <v>145</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>584</v>
       </c>
       <c r="C167" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15" t="s">
+      <c r="D167" s="16"/>
+      <c r="E167" s="16" t="s">
         <v>200</v>
       </c>
       <c r="F167" s="7"/>
@@ -6002,11 +6033,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
-        <v>147</v>
+      <c r="A168" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C168" s="21" t="s">
         <v>179</v>
@@ -6021,11 +6052,11 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="9" t="s">
-        <v>148</v>
+      <c r="A169" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C169" s="21" t="s">
         <v>179</v>
@@ -6040,11 +6071,11 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
-        <v>149</v>
+      <c r="A170" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>323</v>
+        <v>587</v>
       </c>
       <c r="C170" s="21" t="s">
         <v>179</v>
@@ -6053,17 +6084,17 @@
       <c r="E170" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F170" s="9"/>
+      <c r="F170" s="7"/>
       <c r="G170" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="9" t="s">
-        <v>150</v>
+      <c r="A171" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C171" s="21" t="s">
         <v>179</v>
@@ -6079,10 +6110,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C172" s="21" t="s">
         <v>179</v>
@@ -6097,11 +6128,11 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
-        <v>152</v>
+      <c r="A173" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>179</v>
@@ -6116,11 +6147,11 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
-        <v>153</v>
+      <c r="A174" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C174" s="21" t="s">
         <v>179</v>
@@ -6135,11 +6166,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="7" t="s">
-        <v>154</v>
+      <c r="A175" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C175" s="21" t="s">
         <v>179</v>
@@ -6154,11 +6185,11 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="9" t="s">
-        <v>155</v>
+      <c r="A176" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C176" s="21" t="s">
         <v>179</v>
@@ -6174,10 +6205,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>330</v>
+        <v>155</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="C177" s="21" t="s">
         <v>179</v>
@@ -6192,17 +6223,19 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="7" t="s">
-        <v>53</v>
+      <c r="A178" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>588</v>
+        <v>330</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
+      <c r="E178" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="F178" s="9"/>
       <c r="G178" s="1" t="s">
         <v>704</v>
@@ -6210,46 +6243,46 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>511</v>
+        <v>53</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>744</v>
+        <v>588</v>
       </c>
       <c r="C179" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
-      <c r="F179" s="9" t="s">
-        <v>748</v>
-      </c>
+      <c r="F179" s="9"/>
       <c r="G179" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="9" t="s">
-        <v>54</v>
+      <c r="A180" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>589</v>
+        <v>744</v>
       </c>
       <c r="C180" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
-      <c r="F180" s="9"/>
+      <c r="F180" s="9" t="s">
+        <v>748</v>
+      </c>
       <c r="G180" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>590</v>
+      <c r="A181" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>589</v>
       </c>
       <c r="C181" s="21" t="s">
         <v>180</v>
@@ -6263,154 +6296,154 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>503</v>
+        <v>272</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>745</v>
+        <v>590</v>
       </c>
       <c r="C182" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
-      <c r="F182" s="9" t="s">
-        <v>748</v>
-      </c>
+      <c r="F182" s="9"/>
       <c r="G182" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>273</v>
+        <v>503</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>591</v>
+        <v>745</v>
       </c>
       <c r="C183" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
-      <c r="F183" s="9"/>
+      <c r="F183" s="9" t="s">
+        <v>748</v>
+      </c>
       <c r="G183" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>517</v>
+        <v>273</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>742</v>
+        <v>591</v>
       </c>
       <c r="C184" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
-      <c r="F184" s="9" t="s">
-        <v>743</v>
-      </c>
+      <c r="F184" s="9"/>
       <c r="G184" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>274</v>
+        <v>517</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>592</v>
+        <v>742</v>
       </c>
       <c r="C185" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
-      <c r="F185" s="9"/>
+      <c r="F185" s="9" t="s">
+        <v>743</v>
+      </c>
       <c r="G185" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>504</v>
+        <v>274</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>746</v>
+        <v>592</v>
       </c>
       <c r="C186" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
-      <c r="F186" s="9" t="s">
-        <v>748</v>
-      </c>
+      <c r="F186" s="9"/>
       <c r="G186" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>275</v>
+        <v>504</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>593</v>
+        <v>746</v>
       </c>
       <c r="C187" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
-      <c r="F187" s="9"/>
+      <c r="F187" s="9" t="s">
+        <v>748</v>
+      </c>
       <c r="G187" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>747</v>
+        <v>275</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>593</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>506</v>
+        <v>180</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
-      <c r="F188" s="9" t="s">
-        <v>748</v>
-      </c>
+      <c r="F188" s="9"/>
       <c r="G188" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B189" s="10" t="s">
-        <v>594</v>
+        <v>505</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>747</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>180</v>
+        <v>506</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
-      <c r="F189" s="9"/>
+      <c r="F189" s="9" t="s">
+        <v>748</v>
+      </c>
       <c r="G189" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C190" s="21" t="s">
         <v>180</v>
@@ -6424,10 +6457,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C191" s="21" t="s">
         <v>180</v>
@@ -6441,10 +6474,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C192" s="21" t="s">
         <v>180</v>
@@ -6458,10 +6491,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C193" s="21" t="s">
         <v>180</v>
@@ -6475,12 +6508,12 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="C194" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="C194" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D194" s="15"/>
@@ -6492,13 +6525,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>407</v>
+        <v>281</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -6509,10 +6542,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>697</v>
+        <v>243</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>700</v>
+        <v>331</v>
       </c>
       <c r="C196" s="16" t="s">
         <v>407</v>
@@ -6526,10 +6559,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C197" s="16" t="s">
         <v>407</v>
@@ -6543,10 +6576,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C198" s="16" t="s">
         <v>407</v>
@@ -6560,13 +6593,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>55</v>
+        <v>699</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>600</v>
+        <v>698</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -6577,10 +6610,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C200" s="16" t="s">
         <v>181</v>
@@ -6594,10 +6627,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C201" s="16" t="s">
         <v>181</v>
@@ -6611,10 +6644,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C202" s="16" t="s">
         <v>181</v>
@@ -6628,10 +6661,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C203" s="16" t="s">
         <v>181</v>
@@ -6645,10 +6678,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>332</v>
+        <v>604</v>
       </c>
       <c r="C204" s="16" t="s">
         <v>181</v>
@@ -6662,10 +6695,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C205" s="16" t="s">
         <v>181</v>
@@ -6679,10 +6712,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C206" s="16" t="s">
         <v>181</v>
@@ -6696,10 +6729,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C207" s="16" t="s">
         <v>181</v>
@@ -6713,10 +6746,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C208" s="16" t="s">
         <v>181</v>
@@ -6729,11 +6762,11 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>337</v>
+      <c r="A209" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="C209" s="16" t="s">
         <v>181</v>
@@ -6746,11 +6779,11 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="7" t="s">
-        <v>66</v>
+      <c r="A210" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C210" s="16" t="s">
         <v>181</v>
@@ -6764,10 +6797,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C211" s="16" t="s">
         <v>181</v>
@@ -6781,10 +6814,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C212" s="16" t="s">
         <v>181</v>
@@ -6798,10 +6831,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>341</v>
+        <v>68</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="C213" s="16" t="s">
         <v>181</v>
@@ -6815,29 +6848,29 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>605</v>
+        <v>69</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
-      <c r="F214" s="7"/>
+      <c r="F214" s="9"/>
       <c r="G214" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C215" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C215" s="16" t="s">
         <v>182</v>
       </c>
       <c r="D215" s="15"/>
@@ -6849,27 +6882,27 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>182</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
-      <c r="F216" s="11"/>
+      <c r="F216" s="7"/>
       <c r="G216" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>608</v>
+        <v>229</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>182</v>
@@ -6883,15 +6916,15 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D218" s="16"/>
+      <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="11"/>
       <c r="G218" s="1" t="s">
@@ -6900,32 +6933,32 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>342</v>
+        <v>609</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D219" s="15"/>
+      <c r="D219" s="16"/>
       <c r="E219" s="15"/>
-      <c r="F219" s="9"/>
+      <c r="F219" s="11"/>
       <c r="G219" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C220" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D220" s="16"/>
+      <c r="D220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="9"/>
       <c r="G220" s="1" t="s">
@@ -6934,15 +6967,15 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D221" s="15"/>
+      <c r="D221" s="16"/>
       <c r="E221" s="15"/>
       <c r="F221" s="9"/>
       <c r="G221" s="1" t="s">
@@ -6951,13 +6984,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>783</v>
+        <v>232</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>784</v>
+        <v>344</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>785</v>
+        <v>182</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
@@ -6968,13 +7001,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>73</v>
+        <v>783</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>345</v>
+        <v>784</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>182</v>
+        <v>785</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
@@ -6985,10 +7018,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>182</v>
@@ -7002,10 +7035,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>182</v>
@@ -7019,10 +7052,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>182</v>
@@ -7036,10 +7069,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>182</v>
@@ -7053,10 +7086,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>182</v>
@@ -7070,10 +7103,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>182</v>
@@ -7087,49 +7120,49 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>610</v>
+        <v>351</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
-      <c r="F230" s="12"/>
+      <c r="F230" s="9"/>
       <c r="G230" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>611</v>
+        <v>76</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>610</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>183</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
-      <c r="F231" s="11"/>
+      <c r="F231" s="12"/>
       <c r="G231" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D232" s="16"/>
+      <c r="D232" s="15"/>
       <c r="E232" s="15"/>
       <c r="F232" s="11"/>
       <c r="G232" s="1" t="s">
@@ -7138,27 +7171,27 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>352</v>
+        <v>78</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>612</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D233" s="15"/>
+      <c r="D233" s="16"/>
       <c r="E233" s="15"/>
-      <c r="F233" s="9"/>
+      <c r="F233" s="11"/>
       <c r="G233" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>183</v>
@@ -7172,10 +7205,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>354</v>
+        <v>80</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>183</v>
@@ -7189,10 +7222,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>183</v>
@@ -7206,10 +7239,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>183</v>
@@ -7223,15 +7256,15 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D238" s="16"/>
+      <c r="D238" s="15"/>
       <c r="E238" s="15"/>
       <c r="F238" s="9"/>
       <c r="G238" s="1" t="s">
@@ -7240,15 +7273,15 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>417</v>
+        <v>84</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D239" s="15"/>
+        <v>183</v>
+      </c>
+      <c r="D239" s="16"/>
       <c r="E239" s="15"/>
       <c r="F239" s="9"/>
       <c r="G239" s="1" t="s">
@@ -7257,13 +7290,13 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>358</v>
+        <v>85</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D240" s="15"/>
       <c r="E240" s="15"/>
@@ -7274,10 +7307,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>203</v>
@@ -7291,10 +7324,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>203</v>
@@ -7308,10 +7341,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>203</v>
@@ -7325,10 +7358,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>203</v>
@@ -7342,10 +7375,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>203</v>
@@ -7359,15 +7392,15 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C246" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D246" s="16"/>
+      <c r="D246" s="15"/>
       <c r="E246" s="15"/>
       <c r="F246" s="9"/>
       <c r="G246" s="1" t="s">
@@ -7376,15 +7409,15 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D247" s="15"/>
+      <c r="D247" s="16"/>
       <c r="E247" s="15"/>
       <c r="F247" s="9"/>
       <c r="G247" s="1" t="s">
@@ -7393,10 +7426,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>366</v>
+        <v>164</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>203</v>
@@ -7410,13 +7443,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>366</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
@@ -7427,37 +7460,35 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>500</v>
+        <v>86</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>499</v>
+        <v>184</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>195</v>
       </c>
       <c r="D250" s="15"/>
       <c r="E250" s="15"/>
-      <c r="F250" s="9" t="s">
-        <v>501</v>
-      </c>
+      <c r="F250" s="9"/>
       <c r="G250" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>763</v>
+        <v>500</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>764</v>
+        <v>499</v>
       </c>
       <c r="C251" s="21" t="s">
         <v>195</v>
       </c>
       <c r="D251" s="15"/>
       <c r="E251" s="15"/>
-      <c r="F251" s="39" t="s">
-        <v>729</v>
+      <c r="F251" s="9" t="s">
+        <v>501</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>704</v>
@@ -7465,46 +7496,46 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>87</v>
+        <v>763</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>185</v>
+        <v>764</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D252" s="15"/>
       <c r="E252" s="15"/>
-      <c r="F252" s="9"/>
+      <c r="F252" s="39" t="s">
+        <v>729</v>
+      </c>
       <c r="G252" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>779</v>
+        <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>780</v>
+        <v>185</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>407</v>
+        <v>180</v>
       </c>
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
-      <c r="F253" s="9" t="s">
-        <v>781</v>
-      </c>
+      <c r="F253" s="9"/>
       <c r="G253" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="9" t="s">
-        <v>405</v>
+      <c r="A254" s="7" t="s">
+        <v>779</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>406</v>
+        <v>780</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>407</v>
@@ -7512,35 +7543,37 @@
       <c r="D254" s="15"/>
       <c r="E254" s="15"/>
       <c r="F254" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B255" s="9" t="s">
-        <v>412</v>
+      <c r="A255" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="C255" s="21" t="s">
-        <v>195</v>
+        <v>407</v>
       </c>
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
-      <c r="F255" s="9"/>
+      <c r="F255" s="9" t="s">
+        <v>782</v>
+      </c>
       <c r="G255" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>195</v>
@@ -7554,10 +7587,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>195</v>
@@ -7571,13 +7604,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C258" s="21" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D258" s="15"/>
       <c r="E258" s="15"/>
@@ -7587,11 +7620,11 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="9" t="s">
-        <v>409</v>
+      <c r="A259" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>188</v>
@@ -7605,10 +7638,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>188</v>
@@ -7621,14 +7654,14 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="7" t="s">
-        <v>92</v>
+      <c r="A261" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C261" s="21" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
@@ -7639,13 +7672,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>458</v>
+        <v>92</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>613</v>
+        <v>410</v>
       </c>
       <c r="C262" s="21" t="s">
-        <v>498</v>
+        <v>195</v>
       </c>
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
@@ -7656,10 +7689,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C263" s="21" t="s">
         <v>498</v>
@@ -7673,10 +7706,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C264" s="21" t="s">
         <v>498</v>
@@ -7690,10 +7723,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C265" s="21" t="s">
         <v>498</v>
@@ -7707,10 +7740,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C266" s="21" t="s">
         <v>498</v>
@@ -7724,10 +7757,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>498</v>
@@ -7741,10 +7774,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C268" s="21" t="s">
         <v>498</v>
@@ -7758,10 +7791,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C269" s="21" t="s">
         <v>498</v>
@@ -7775,10 +7808,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>482</v>
+        <v>620</v>
       </c>
       <c r="C270" s="21" t="s">
         <v>498</v>
@@ -7792,10 +7825,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C271" s="21" t="s">
         <v>498</v>
@@ -7809,10 +7842,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>498</v>
@@ -7826,10 +7859,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C273" s="21" t="s">
         <v>498</v>
@@ -7843,10 +7876,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>498</v>
@@ -7860,10 +7893,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>498</v>
@@ -7877,10 +7910,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>498</v>
@@ -7894,10 +7927,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>498</v>
@@ -7911,10 +7944,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C278" s="21" t="s">
         <v>498</v>
@@ -7928,10 +7961,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C279" s="21" t="s">
         <v>498</v>
@@ -7945,10 +7978,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>498</v>
@@ -7962,10 +7995,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C281" s="21" t="s">
         <v>498</v>
@@ -7979,10 +8012,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C282" s="21" t="s">
         <v>498</v>
@@ -7996,10 +8029,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C283" s="21" t="s">
         <v>498</v>
@@ -8013,10 +8046,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C284" s="21" t="s">
         <v>498</v>
@@ -8030,10 +8063,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C285" s="21" t="s">
         <v>498</v>
@@ -8047,13 +8080,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="B286" s="7" t="s">
-        <v>688</v>
+        <v>481</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>497</v>
       </c>
       <c r="C286" s="21" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
@@ -8064,10 +8097,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>166</v>
+        <v>687</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>621</v>
+        <v>688</v>
       </c>
       <c r="C287" s="21" t="s">
         <v>193</v>
@@ -8081,10 +8114,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C288" s="21" t="s">
         <v>193</v>
@@ -8098,10 +8131,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C289" s="21" t="s">
         <v>193</v>
@@ -8115,17 +8148,15 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C290" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D290" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D290" s="15"/>
       <c r="E290" s="15"/>
       <c r="F290" s="9"/>
       <c r="G290" s="1" t="s">
@@ -8134,15 +8165,17 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C291" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D291" s="15"/>
+      <c r="D291" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E291" s="15"/>
       <c r="F291" s="9"/>
       <c r="G291" s="1" t="s">
@@ -8151,17 +8184,15 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C292" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D292" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D292" s="15"/>
       <c r="E292" s="15"/>
       <c r="F292" s="9"/>
       <c r="G292" s="1" t="s">
@@ -8170,15 +8201,17 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C293" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D293" s="16"/>
+      <c r="D293" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E293" s="15"/>
       <c r="F293" s="9"/>
       <c r="G293" s="1" t="s">
@@ -8187,15 +8220,15 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C294" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D294" s="15"/>
+      <c r="D294" s="16"/>
       <c r="E294" s="15"/>
       <c r="F294" s="9"/>
       <c r="G294" s="1" t="s">
@@ -8204,10 +8237,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B295" s="9" t="s">
-        <v>629</v>
+        <v>98</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>628</v>
       </c>
       <c r="C295" s="21" t="s">
         <v>193</v>
@@ -8221,10 +8254,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C296" s="21" t="s">
         <v>193</v>
@@ -8238,10 +8271,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C297" s="21" t="s">
         <v>193</v>
@@ -8255,10 +8288,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C298" s="21" t="s">
         <v>193</v>
@@ -8272,10 +8305,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C299" s="21" t="s">
         <v>193</v>
@@ -8289,10 +8322,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C300" s="21" t="s">
         <v>193</v>
@@ -8306,10 +8339,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C301" s="21" t="s">
         <v>193</v>
@@ -8323,10 +8356,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>455</v>
+        <v>104</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C302" s="21" t="s">
         <v>193</v>
@@ -8340,13 +8373,13 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>105</v>
+        <v>455</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C303" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
@@ -8357,17 +8390,15 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C304" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D304" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D304" s="15"/>
       <c r="E304" s="15"/>
       <c r="F304" s="9"/>
       <c r="G304" s="1" t="s">
@@ -8376,15 +8407,17 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>686</v>
+        <v>106</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>685</v>
+        <v>638</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D305" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="D305" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E305" s="15"/>
       <c r="F305" s="9"/>
       <c r="G305" s="1" t="s">
@@ -8393,10 +8426,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>169</v>
+        <v>686</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="C306" s="21" t="s">
         <v>193</v>
@@ -8410,10 +8443,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C307" s="21" t="s">
         <v>193</v>
@@ -8427,10 +8460,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C308" s="21" t="s">
         <v>193</v>
@@ -8444,10 +8477,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C309" s="21" t="s">
         <v>193</v>
@@ -8461,10 +8494,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C310" s="21" t="s">
         <v>193</v>
@@ -8478,17 +8511,15 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C311" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D311" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D311" s="15"/>
       <c r="E311" s="15"/>
       <c r="F311" s="9"/>
       <c r="G311" s="1" t="s">
@@ -8497,15 +8528,17 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C312" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D312" s="15"/>
+      <c r="D312" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E312" s="15"/>
       <c r="F312" s="9"/>
       <c r="G312" s="1" t="s">
@@ -8514,10 +8547,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C313" s="21" t="s">
         <v>193</v>
@@ -8531,10 +8564,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C314" s="21" t="s">
         <v>193</v>
@@ -8548,10 +8581,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C315" s="21" t="s">
         <v>193</v>
@@ -8565,10 +8598,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C316" s="21" t="s">
         <v>193</v>
@@ -8582,10 +8615,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C317" s="21" t="s">
         <v>193</v>
@@ -8599,10 +8632,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C318" s="21" t="s">
         <v>193</v>
@@ -8616,17 +8649,15 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C319" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D319" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D319" s="15"/>
       <c r="E319" s="15"/>
       <c r="F319" s="9"/>
       <c r="G319" s="1" t="s">
@@ -8635,15 +8666,17 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C320" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D320" s="15"/>
+      <c r="D320" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E320" s="15"/>
       <c r="F320" s="9"/>
       <c r="G320" s="1" t="s">
@@ -8652,10 +8685,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>454</v>
+        <v>117</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>453</v>
+        <v>381</v>
       </c>
       <c r="C321" s="21" t="s">
         <v>193</v>
@@ -8669,13 +8702,13 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>118</v>
+        <v>454</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>382</v>
+        <v>453</v>
       </c>
       <c r="C322" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D322" s="15"/>
       <c r="E322" s="15"/>
@@ -8686,13 +8719,13 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>683</v>
+        <v>118</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>684</v>
+        <v>382</v>
       </c>
       <c r="C323" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D323" s="15"/>
       <c r="E323" s="15"/>
@@ -8703,10 +8736,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>173</v>
+        <v>683</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>383</v>
+        <v>684</v>
       </c>
       <c r="C324" s="21" t="s">
         <v>193</v>
@@ -8720,10 +8753,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C325" s="21" t="s">
         <v>193</v>
@@ -8737,10 +8770,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C326" s="21" t="s">
         <v>193</v>
@@ -8754,10 +8787,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C327" s="21" t="s">
         <v>193</v>
@@ -8771,10 +8804,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C328" s="21" t="s">
         <v>193</v>
@@ -8788,10 +8821,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C329" s="21" t="s">
         <v>193</v>
@@ -8805,10 +8838,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C330" s="21" t="s">
         <v>193</v>
@@ -8822,10 +8855,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C331" s="21" t="s">
         <v>193</v>
@@ -8839,10 +8872,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C332" s="21" t="s">
         <v>193</v>
@@ -8856,10 +8889,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C333" s="21" t="s">
         <v>193</v>
@@ -8873,10 +8906,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C334" s="21" t="s">
         <v>193</v>
@@ -8890,10 +8923,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C335" s="21" t="s">
         <v>193</v>
@@ -8907,10 +8940,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C336" s="21" t="s">
         <v>193</v>
@@ -8924,17 +8957,15 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C337" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D337" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D337" s="15"/>
       <c r="E337" s="15"/>
       <c r="F337" s="9"/>
       <c r="G337" s="1" t="s">
@@ -8943,15 +8974,17 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D338" s="15"/>
+      <c r="D338" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E338" s="15"/>
       <c r="F338" s="9"/>
       <c r="G338" s="1" t="s">
@@ -8960,10 +8993,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
-        <v>451</v>
+        <v>130</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="C339" s="21" t="s">
         <v>193</v>
@@ -8977,13 +9010,13 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
-        <v>131</v>
+        <v>451</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D340" s="15"/>
       <c r="E340" s="15"/>
@@ -8994,30 +9027,30 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C341" s="16" t="s">
-        <v>446</v>
+        <v>131</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C341" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="D341" s="15"/>
       <c r="E341" s="15"/>
-      <c r="F341" s="15"/>
+      <c r="F341" s="9"/>
       <c r="G341" s="1" t="s">
-        <v>424</v>
+        <v>704</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B342" s="9" t="s">
-        <v>430</v>
+        <v>1</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D342" s="15"/>
       <c r="E342" s="15"/>
@@ -9028,13 +9061,13 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D343" s="15"/>
       <c r="E343" s="15"/>
@@ -9045,13 +9078,13 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D344" s="15"/>
       <c r="E344" s="15"/>
@@ -9061,14 +9094,14 @@
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B345" s="7" t="s">
-        <v>540</v>
+      <c r="A345" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>431</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D345" s="15"/>
       <c r="E345" s="15"/>
@@ -9079,13 +9112,13 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="B346" s="9" t="s">
-        <v>639</v>
+        <v>0</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>540</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D346" s="15"/>
       <c r="E346" s="15"/>
@@ -9095,14 +9128,14 @@
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="7" t="s">
-        <v>428</v>
+      <c r="A347" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>433</v>
+        <v>639</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D347" s="15"/>
       <c r="E347" s="15"/>
@@ -9113,13 +9146,13 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D348" s="15"/>
       <c r="E348" s="15"/>
@@ -9130,10 +9163,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C349" s="16" t="s">
         <v>445</v>
@@ -9147,10 +9180,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
-        <v>273</v>
+        <v>435</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>640</v>
+        <v>441</v>
       </c>
       <c r="C350" s="16" t="s">
         <v>445</v>
@@ -9164,13 +9197,13 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>436</v>
+        <v>273</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>534</v>
+        <v>640</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D351" s="15"/>
       <c r="E351" s="15"/>
@@ -9181,13 +9214,13 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>439</v>
+        <v>534</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D352" s="15"/>
       <c r="E352" s="15"/>
@@ -9198,13 +9231,13 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D353" s="15"/>
       <c r="E353" s="15"/>
@@ -9213,8 +9246,25 @@
         <v>424</v>
       </c>
     </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C354" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="D354" s="15"/>
+      <c r="E354" s="15"/>
+      <c r="F354" s="15"/>
+      <c r="G354" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:G353" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
+  <autoFilter ref="A5:G354" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -9233,10 +9283,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9264,7 +9314,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
-        <v>44036</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -9344,6 +9394,19 @@
         <v>MetricMetadata</v>
       </c>
     </row>
+    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>791</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>792</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43369</v>
@@ -9439,6 +9502,14 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>44277</v>
+      </c>
+      <c r="B36" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C97A94C-5B47-4BA0-9BF5-6AC73D920780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C776BDF-4226-40C3-AF20-D3E39ED576D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$354</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$363</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="816">
   <si>
     <t>nt_total</t>
   </si>
@@ -2496,6 +2496,63 @@
   </si>
   <si>
     <t>OR rather than AND</t>
+  </si>
+  <si>
+    <t>nt_ffg_mah</t>
+  </si>
+  <si>
+    <t>nt_ffg_xyl</t>
+  </si>
+  <si>
+    <t>nt_ffg_pih</t>
+  </si>
+  <si>
+    <t>pi_ffg_mah</t>
+  </si>
+  <si>
+    <t>pi_ffg_xyl</t>
+  </si>
+  <si>
+    <t>pi_ffg_pih</t>
+  </si>
+  <si>
+    <t>pt_ffg_mah</t>
+  </si>
+  <si>
+    <t>pt_ffg_xyl</t>
+  </si>
+  <si>
+    <t>pt_ffg_pih</t>
+  </si>
+  <si>
+    <t>number taxa - Functional Feeding Group (FFG) - macrophyte herbivore (MH)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - macrophyte herbivore (MH)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - macrophyte herbivore (MH)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - piercer-herbivore (PH)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - piercer-herbivore (PH)</t>
+  </si>
+  <si>
+    <t>number taxa - Functional Feeding Group (FFG) - piercer-herbivore (PH)</t>
+  </si>
+  <si>
+    <t>number taxa - Functional Feeding Group (FFG) - xylophage (XY)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - xylophage (XY)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - xylophage (XY)</t>
+  </si>
+  <si>
+    <t>Add new FFG metrics (MAH, PIH, XYL) (nt, pi, pt)</t>
   </si>
 </sst>
 </file>
@@ -3192,13 +3249,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:G354"/>
+  <dimension ref="A1:G363"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="B205" sqref="B205:B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3235,8 +3292,8 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A360)</f>
-        <v>349</v>
+        <f>SUBTOTAL(3,A6:A369)</f>
+        <v>358</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>703</v>
@@ -6695,10 +6752,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>332</v>
+        <v>797</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>806</v>
       </c>
       <c r="C205" s="16" t="s">
         <v>181</v>
@@ -6712,10 +6769,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>333</v>
+        <v>799</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>811</v>
       </c>
       <c r="C206" s="16" t="s">
         <v>181</v>
@@ -6729,10 +6786,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>334</v>
+        <v>798</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>812</v>
       </c>
       <c r="C207" s="16" t="s">
         <v>181</v>
@@ -6746,10 +6803,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>335</v>
+        <v>60</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>332</v>
       </c>
       <c r="C208" s="16" t="s">
         <v>181</v>
@@ -6763,10 +6820,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>336</v>
+        <v>61</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="C209" s="16" t="s">
         <v>181</v>
@@ -6779,11 +6836,11 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>337</v>
+      <c r="A210" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>334</v>
       </c>
       <c r="C210" s="16" t="s">
         <v>181</v>
@@ -6797,10 +6854,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>338</v>
+        <v>63</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="C211" s="16" t="s">
         <v>181</v>
@@ -6814,10 +6871,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>339</v>
+        <v>64</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="C212" s="16" t="s">
         <v>181</v>
@@ -6831,10 +6888,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>340</v>
+        <v>800</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>807</v>
       </c>
       <c r="C213" s="16" t="s">
         <v>181</v>
@@ -6848,10 +6905,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>341</v>
+        <v>802</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>810</v>
       </c>
       <c r="C214" s="16" t="s">
         <v>181</v>
@@ -6865,98 +6922,98 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>605</v>
+        <v>801</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>813</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
-      <c r="F215" s="7"/>
+      <c r="F215" s="9"/>
       <c r="G215" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C216" s="21" t="s">
-        <v>182</v>
+      <c r="A216" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
-      <c r="F216" s="7"/>
+      <c r="F216" s="9"/>
       <c r="G216" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="C217" s="21" t="s">
-        <v>182</v>
+        <v>66</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
-      <c r="F217" s="11"/>
+      <c r="F217" s="9"/>
       <c r="G217" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="C218" s="21" t="s">
-        <v>182</v>
+        <v>67</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
-      <c r="F218" s="11"/>
+      <c r="F218" s="9"/>
       <c r="G218" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="C219" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D219" s="16"/>
+        <v>68</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D219" s="15"/>
       <c r="E219" s="15"/>
-      <c r="F219" s="11"/>
+      <c r="F219" s="9"/>
       <c r="G219" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C220" s="21" t="s">
-        <v>182</v>
+        <v>69</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
@@ -6967,15 +7024,15 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C221" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D221" s="16"/>
+        <v>803</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="9"/>
       <c r="G221" s="1" t="s">
@@ -6984,13 +7041,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C222" s="21" t="s">
-        <v>182</v>
+        <v>805</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
@@ -7001,13 +7058,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="C223" s="21" t="s">
-        <v>785</v>
+        <v>804</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
@@ -7018,95 +7075,95 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C224" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C224" s="16" t="s">
         <v>182</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
-      <c r="F224" s="9"/>
+      <c r="F224" s="7"/>
       <c r="G224" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>346</v>
+        <v>228</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>182</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
-      <c r="F225" s="9"/>
+      <c r="F225" s="7"/>
       <c r="G225" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>347</v>
+        <v>229</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>182</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
-      <c r="F226" s="9"/>
+      <c r="F226" s="11"/>
       <c r="G226" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>348</v>
+        <v>608</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>182</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
-      <c r="F227" s="9"/>
+      <c r="F227" s="11"/>
       <c r="G227" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>349</v>
+        <v>609</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D228" s="15"/>
+      <c r="D228" s="16"/>
       <c r="E228" s="15"/>
-      <c r="F228" s="9"/>
+      <c r="F228" s="11"/>
       <c r="G228" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>182</v>
@@ -7120,15 +7177,15 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D230" s="15"/>
+      <c r="D230" s="16"/>
       <c r="E230" s="15"/>
       <c r="F230" s="9"/>
       <c r="G230" s="1" t="s">
@@ -7137,64 +7194,64 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>610</v>
+        <v>344</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
-      <c r="F231" s="12"/>
+      <c r="F231" s="9"/>
       <c r="G231" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>611</v>
+        <v>783</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>784</v>
       </c>
       <c r="C232" s="21" t="s">
-        <v>183</v>
+        <v>785</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
-      <c r="F232" s="11"/>
+      <c r="F232" s="9"/>
       <c r="G232" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>612</v>
+        <v>73</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>345</v>
       </c>
       <c r="C233" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D233" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="D233" s="15"/>
       <c r="E233" s="15"/>
-      <c r="F233" s="11"/>
+      <c r="F233" s="9"/>
       <c r="G233" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>352</v>
+        <v>233</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="C234" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
@@ -7205,13 +7262,13 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>353</v>
+        <v>74</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="C235" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D235" s="15"/>
       <c r="E235" s="15"/>
@@ -7222,13 +7279,13 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
@@ -7239,13 +7296,13 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
@@ -7256,13 +7313,13 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D238" s="15"/>
       <c r="E238" s="15"/>
@@ -7273,15 +7330,15 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D239" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="D239" s="15"/>
       <c r="E239" s="15"/>
       <c r="F239" s="9"/>
       <c r="G239" s="1" t="s">
@@ -7290,64 +7347,64 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>417</v>
+        <v>76</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>610</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D240" s="15"/>
       <c r="E240" s="15"/>
-      <c r="F240" s="9"/>
+      <c r="F240" s="12"/>
       <c r="G240" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>358</v>
+        <v>77</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>611</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
-      <c r="F241" s="9"/>
+      <c r="F241" s="11"/>
       <c r="G241" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>359</v>
+        <v>78</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>612</v>
       </c>
       <c r="C242" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D242" s="15"/>
+        <v>183</v>
+      </c>
+      <c r="D242" s="16"/>
       <c r="E242" s="15"/>
-      <c r="F242" s="9"/>
+      <c r="F242" s="11"/>
       <c r="G242" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>360</v>
+        <v>79</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="C243" s="21" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
@@ -7358,13 +7415,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>361</v>
+        <v>80</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D244" s="15"/>
       <c r="E244" s="15"/>
@@ -7375,13 +7432,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C245" s="21" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D245" s="15"/>
       <c r="E245" s="15"/>
@@ -7392,13 +7449,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C246" s="21" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D246" s="15"/>
       <c r="E246" s="15"/>
@@ -7409,15 +7466,15 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C247" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D247" s="16"/>
+        <v>183</v>
+      </c>
+      <c r="D247" s="15"/>
       <c r="E247" s="15"/>
       <c r="F247" s="9"/>
       <c r="G247" s="1" t="s">
@@ -7426,15 +7483,15 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C248" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D248" s="15"/>
+        <v>183</v>
+      </c>
+      <c r="D248" s="16"/>
       <c r="E248" s="15"/>
       <c r="F248" s="9"/>
       <c r="G248" s="1" t="s">
@@ -7443,13 +7500,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
@@ -7460,13 +7517,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>358</v>
       </c>
       <c r="C250" s="21" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D250" s="15"/>
       <c r="E250" s="15"/>
@@ -7477,51 +7534,47 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>499</v>
+        <v>158</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="C251" s="21" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D251" s="15"/>
       <c r="E251" s="15"/>
-      <c r="F251" s="9" t="s">
-        <v>501</v>
-      </c>
+      <c r="F251" s="9"/>
       <c r="G251" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>764</v>
+        <v>159</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D252" s="15"/>
       <c r="E252" s="15"/>
-      <c r="F252" s="39" t="s">
-        <v>729</v>
-      </c>
+      <c r="F252" s="9"/>
       <c r="G252" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
@@ -7532,53 +7585,49 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>780</v>
+        <v>161</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="C254" s="21" t="s">
-        <v>407</v>
+        <v>203</v>
       </c>
       <c r="D254" s="15"/>
       <c r="E254" s="15"/>
-      <c r="F254" s="9" t="s">
-        <v>781</v>
-      </c>
+      <c r="F254" s="9"/>
       <c r="G254" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>406</v>
+      <c r="A255" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="C255" s="21" t="s">
-        <v>407</v>
+        <v>203</v>
       </c>
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
-      <c r="F255" s="9" t="s">
-        <v>782</v>
-      </c>
+      <c r="F255" s="9"/>
       <c r="G255" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>412</v>
+        <v>163</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>364</v>
       </c>
       <c r="C256" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D256" s="15"/>
+        <v>203</v>
+      </c>
+      <c r="D256" s="16"/>
       <c r="E256" s="15"/>
       <c r="F256" s="9"/>
       <c r="G256" s="1" t="s">
@@ -7587,13 +7636,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>413</v>
+        <v>164</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="C257" s="21" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D257" s="15"/>
       <c r="E257" s="15"/>
@@ -7604,13 +7653,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="C258" s="21" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D258" s="15"/>
       <c r="E258" s="15"/>
@@ -7621,13 +7670,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>411</v>
+        <v>86</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="C259" s="21" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D259" s="15"/>
       <c r="E259" s="15"/>
@@ -7637,48 +7686,52 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>419</v>
+      <c r="A260" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="C260" s="21" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D260" s="15"/>
       <c r="E260" s="15"/>
-      <c r="F260" s="9"/>
+      <c r="F260" s="9" t="s">
+        <v>501</v>
+      </c>
       <c r="G260" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="B261" s="9" t="s">
-        <v>418</v>
+      <c r="A261" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="C261" s="21" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
-      <c r="F261" s="9"/>
+      <c r="F261" s="39" t="s">
+        <v>729</v>
+      </c>
       <c r="G261" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B262" s="9" t="s">
-        <v>410</v>
+        <v>87</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="C262" s="21" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
@@ -7689,47 +7742,51 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>613</v>
+        <v>779</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="C263" s="21" t="s">
-        <v>498</v>
+        <v>407</v>
       </c>
       <c r="D263" s="15"/>
       <c r="E263" s="15"/>
-      <c r="F263" s="9"/>
+      <c r="F263" s="9" t="s">
+        <v>781</v>
+      </c>
       <c r="G263" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>614</v>
+      <c r="A264" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="C264" s="21" t="s">
-        <v>498</v>
+        <v>407</v>
       </c>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
-      <c r="F264" s="9"/>
+      <c r="F264" s="9" t="s">
+        <v>782</v>
+      </c>
       <c r="G264" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>460</v>
+        <v>88</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>615</v>
+        <v>412</v>
       </c>
       <c r="C265" s="21" t="s">
-        <v>498</v>
+        <v>195</v>
       </c>
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
@@ -7740,13 +7797,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>461</v>
+        <v>89</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>616</v>
+        <v>413</v>
       </c>
       <c r="C266" s="21" t="s">
-        <v>498</v>
+        <v>195</v>
       </c>
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
@@ -7757,13 +7814,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>462</v>
+        <v>90</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>617</v>
+        <v>414</v>
       </c>
       <c r="C267" s="21" t="s">
-        <v>498</v>
+        <v>195</v>
       </c>
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
@@ -7774,13 +7831,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>463</v>
+        <v>91</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>618</v>
+        <v>411</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>498</v>
+        <v>188</v>
       </c>
       <c r="D268" s="15"/>
       <c r="E268" s="15"/>
@@ -7790,14 +7847,14 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="7" t="s">
-        <v>464</v>
+      <c r="A269" s="9" t="s">
+        <v>409</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>619</v>
+        <v>419</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>498</v>
+        <v>188</v>
       </c>
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
@@ -7807,14 +7864,14 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="7" t="s">
-        <v>465</v>
+      <c r="A270" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>620</v>
+        <v>418</v>
       </c>
       <c r="C270" s="21" t="s">
-        <v>498</v>
+        <v>188</v>
       </c>
       <c r="D270" s="15"/>
       <c r="E270" s="15"/>
@@ -7825,13 +7882,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>466</v>
+        <v>92</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>482</v>
+        <v>410</v>
       </c>
       <c r="C271" s="21" t="s">
-        <v>498</v>
+        <v>195</v>
       </c>
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
@@ -7842,10 +7899,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>484</v>
+        <v>613</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>498</v>
@@ -7859,10 +7916,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>483</v>
+        <v>614</v>
       </c>
       <c r="C273" s="21" t="s">
         <v>498</v>
@@ -7876,10 +7933,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>485</v>
+        <v>615</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>498</v>
@@ -7893,10 +7950,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>486</v>
+        <v>616</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>498</v>
@@ -7910,10 +7967,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>487</v>
+        <v>617</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>498</v>
@@ -7927,10 +7984,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>488</v>
+        <v>618</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>498</v>
@@ -7944,10 +8001,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>489</v>
+        <v>619</v>
       </c>
       <c r="C278" s="21" t="s">
         <v>498</v>
@@ -7961,10 +8018,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>490</v>
+        <v>620</v>
       </c>
       <c r="C279" s="21" t="s">
         <v>498</v>
@@ -7978,10 +8035,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>498</v>
@@ -7995,10 +8052,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C281" s="21" t="s">
         <v>498</v>
@@ -8012,10 +8069,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C282" s="21" t="s">
         <v>498</v>
@@ -8029,10 +8086,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C283" s="21" t="s">
         <v>498</v>
@@ -8046,10 +8103,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C284" s="21" t="s">
         <v>498</v>
@@ -8063,10 +8120,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C285" s="21" t="s">
         <v>498</v>
@@ -8080,10 +8137,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C286" s="21" t="s">
         <v>498</v>
@@ -8097,13 +8154,13 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="B287" s="7" t="s">
-        <v>688</v>
+        <v>473</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>489</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
@@ -8114,13 +8171,13 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B288" s="7" t="s">
-        <v>621</v>
+        <v>474</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>490</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
@@ -8131,13 +8188,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B289" s="7" t="s">
-        <v>622</v>
+        <v>475</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>491</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
@@ -8148,13 +8205,13 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B290" s="7" t="s">
-        <v>623</v>
+        <v>476</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>492</v>
       </c>
       <c r="C290" s="21" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
@@ -8165,17 +8222,15 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>624</v>
+        <v>477</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>493</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D291" s="15" t="s">
-        <v>200</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="D291" s="15"/>
       <c r="E291" s="15"/>
       <c r="F291" s="9"/>
       <c r="G291" s="1" t="s">
@@ -8184,13 +8239,13 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B292" s="7" t="s">
-        <v>625</v>
+        <v>478</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>494</v>
       </c>
       <c r="C292" s="21" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
@@ -8201,17 +8256,15 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B293" s="7" t="s">
-        <v>626</v>
+        <v>479</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>495</v>
       </c>
       <c r="C293" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D293" s="15" t="s">
-        <v>200</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="D293" s="15"/>
       <c r="E293" s="15"/>
       <c r="F293" s="9"/>
       <c r="G293" s="1" t="s">
@@ -8220,15 +8273,15 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B294" s="7" t="s">
-        <v>627</v>
+        <v>480</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>496</v>
       </c>
       <c r="C294" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D294" s="16"/>
+        <v>498</v>
+      </c>
+      <c r="D294" s="15"/>
       <c r="E294" s="15"/>
       <c r="F294" s="9"/>
       <c r="G294" s="1" t="s">
@@ -8237,13 +8290,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>628</v>
+        <v>481</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>497</v>
       </c>
       <c r="C295" s="21" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
@@ -8254,10 +8307,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B296" s="9" t="s">
-        <v>629</v>
+        <v>687</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>688</v>
       </c>
       <c r="C296" s="21" t="s">
         <v>193</v>
@@ -8271,10 +8324,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B297" s="9" t="s">
-        <v>630</v>
+        <v>166</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>621</v>
       </c>
       <c r="C297" s="21" t="s">
         <v>193</v>
@@ -8288,10 +8341,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B298" s="9" t="s">
-        <v>631</v>
+        <v>167</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>622</v>
       </c>
       <c r="C298" s="21" t="s">
         <v>193</v>
@@ -8305,10 +8358,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B299" s="9" t="s">
-        <v>632</v>
+        <v>93</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>623</v>
       </c>
       <c r="C299" s="21" t="s">
         <v>193</v>
@@ -8322,15 +8375,17 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B300" s="9" t="s">
-        <v>633</v>
+        <v>94</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>624</v>
       </c>
       <c r="C300" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D300" s="15"/>
+      <c r="D300" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E300" s="15"/>
       <c r="F300" s="9"/>
       <c r="G300" s="1" t="s">
@@ -8339,10 +8394,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B301" s="9" t="s">
-        <v>634</v>
+        <v>95</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>625</v>
       </c>
       <c r="C301" s="21" t="s">
         <v>193</v>
@@ -8356,15 +8411,17 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B302" s="9" t="s">
-        <v>635</v>
+        <v>96</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>626</v>
       </c>
       <c r="C302" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D302" s="15"/>
+      <c r="D302" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E302" s="15"/>
       <c r="F302" s="9"/>
       <c r="G302" s="1" t="s">
@@ -8373,15 +8430,15 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B303" s="9" t="s">
-        <v>636</v>
+        <v>97</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>627</v>
       </c>
       <c r="C303" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D303" s="15"/>
+      <c r="D303" s="16"/>
       <c r="E303" s="15"/>
       <c r="F303" s="9"/>
       <c r="G303" s="1" t="s">
@@ -8390,13 +8447,13 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B304" s="9" t="s">
-        <v>637</v>
+        <v>98</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>628</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D304" s="15"/>
       <c r="E304" s="15"/>
@@ -8407,17 +8464,15 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D305" s="15" t="s">
-        <v>200</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D305" s="15"/>
       <c r="E305" s="15"/>
       <c r="F305" s="9"/>
       <c r="G305" s="1" t="s">
@@ -8426,10 +8481,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>686</v>
+        <v>168</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>685</v>
+        <v>630</v>
       </c>
       <c r="C306" s="21" t="s">
         <v>193</v>
@@ -8443,10 +8498,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>367</v>
+        <v>631</v>
       </c>
       <c r="C307" s="21" t="s">
         <v>193</v>
@@ -8460,10 +8515,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>368</v>
+        <v>632</v>
       </c>
       <c r="C308" s="21" t="s">
         <v>193</v>
@@ -8477,10 +8532,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>369</v>
+        <v>633</v>
       </c>
       <c r="C309" s="21" t="s">
         <v>193</v>
@@ -8494,10 +8549,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>370</v>
+        <v>634</v>
       </c>
       <c r="C310" s="21" t="s">
         <v>193</v>
@@ -8511,10 +8566,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>371</v>
+        <v>635</v>
       </c>
       <c r="C311" s="21" t="s">
         <v>193</v>
@@ -8528,17 +8583,15 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>110</v>
+        <v>455</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>372</v>
+        <v>636</v>
       </c>
       <c r="C312" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D312" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D312" s="15"/>
       <c r="E312" s="15"/>
       <c r="F312" s="9"/>
       <c r="G312" s="1" t="s">
@@ -8547,13 +8600,13 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>373</v>
+        <v>637</v>
       </c>
       <c r="C313" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D313" s="15"/>
       <c r="E313" s="15"/>
@@ -8564,15 +8617,17 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>374</v>
+        <v>638</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D314" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="D314" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E314" s="15"/>
       <c r="F314" s="9"/>
       <c r="G314" s="1" t="s">
@@ -8581,10 +8636,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>375</v>
+        <v>685</v>
       </c>
       <c r="C315" s="21" t="s">
         <v>193</v>
@@ -8598,10 +8653,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C316" s="21" t="s">
         <v>193</v>
@@ -8615,10 +8670,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C317" s="21" t="s">
         <v>193</v>
@@ -8632,10 +8687,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C318" s="21" t="s">
         <v>193</v>
@@ -8649,10 +8704,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C319" s="21" t="s">
         <v>193</v>
@@ -8666,17 +8721,15 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C320" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D320" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D320" s="15"/>
       <c r="E320" s="15"/>
       <c r="F320" s="9"/>
       <c r="G320" s="1" t="s">
@@ -8685,15 +8738,17 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C321" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D321" s="15"/>
+      <c r="D321" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E321" s="15"/>
       <c r="F321" s="9"/>
       <c r="G321" s="1" t="s">
@@ -8702,10 +8757,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>454</v>
+        <v>171</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>453</v>
+        <v>373</v>
       </c>
       <c r="C322" s="21" t="s">
         <v>193</v>
@@ -8719,13 +8774,13 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C323" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D323" s="15"/>
       <c r="E323" s="15"/>
@@ -8736,10 +8791,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>683</v>
+        <v>112</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>684</v>
+        <v>375</v>
       </c>
       <c r="C324" s="21" t="s">
         <v>193</v>
@@ -8753,10 +8808,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C325" s="21" t="s">
         <v>193</v>
@@ -8770,10 +8825,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C326" s="21" t="s">
         <v>193</v>
@@ -8787,10 +8842,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C327" s="21" t="s">
         <v>193</v>
@@ -8804,10 +8859,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C328" s="21" t="s">
         <v>193</v>
@@ -8821,15 +8876,17 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C329" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D329" s="15"/>
+      <c r="D329" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E329" s="15"/>
       <c r="F329" s="9"/>
       <c r="G329" s="1" t="s">
@@ -8838,10 +8895,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C330" s="21" t="s">
         <v>193</v>
@@ -8855,10 +8912,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
-        <v>123</v>
+        <v>454</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="C331" s="21" t="s">
         <v>193</v>
@@ -8872,13 +8929,13 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C332" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D332" s="15"/>
       <c r="E332" s="15"/>
@@ -8889,10 +8946,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
-        <v>125</v>
+        <v>683</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>391</v>
+        <v>684</v>
       </c>
       <c r="C333" s="21" t="s">
         <v>193</v>
@@ -8906,10 +8963,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C334" s="21" t="s">
         <v>193</v>
@@ -8923,10 +8980,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C335" s="21" t="s">
         <v>193</v>
@@ -8940,10 +8997,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C336" s="21" t="s">
         <v>193</v>
@@ -8957,10 +9014,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C337" s="21" t="s">
         <v>193</v>
@@ -8974,17 +9031,15 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D338" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="D338" s="15"/>
       <c r="E338" s="15"/>
       <c r="F338" s="9"/>
       <c r="G338" s="1" t="s">
@@ -8993,10 +9048,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C339" s="21" t="s">
         <v>193</v>
@@ -9010,10 +9065,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
-        <v>451</v>
+        <v>123</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>452</v>
+        <v>389</v>
       </c>
       <c r="C340" s="21" t="s">
         <v>193</v>
@@ -9027,13 +9082,13 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D341" s="15"/>
       <c r="E341" s="15"/>
@@ -9044,166 +9099,168 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C342" s="16" t="s">
-        <v>446</v>
+        <v>125</v>
+      </c>
+      <c r="B342" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C342" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D342" s="15"/>
       <c r="E342" s="15"/>
-      <c r="F342" s="15"/>
+      <c r="F342" s="9"/>
       <c r="G342" s="1" t="s">
-        <v>424</v>
+        <v>704</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C343" s="16" t="s">
-        <v>447</v>
+        <v>392</v>
+      </c>
+      <c r="C343" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D343" s="15"/>
       <c r="E343" s="15"/>
-      <c r="F343" s="15"/>
+      <c r="F343" s="9"/>
       <c r="G343" s="1" t="s">
-        <v>424</v>
+        <v>704</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
-        <v>426</v>
+        <v>126</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C344" s="16" t="s">
-        <v>448</v>
+        <v>393</v>
+      </c>
+      <c r="C344" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D344" s="15"/>
       <c r="E344" s="15"/>
-      <c r="F344" s="15"/>
+      <c r="F344" s="9"/>
       <c r="G344" s="1" t="s">
-        <v>424</v>
+        <v>704</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
-        <v>427</v>
+        <v>127</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C345" s="16" t="s">
-        <v>447</v>
+        <v>394</v>
+      </c>
+      <c r="C345" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D345" s="15"/>
       <c r="E345" s="15"/>
-      <c r="F345" s="15"/>
+      <c r="F345" s="9"/>
       <c r="G345" s="1" t="s">
-        <v>424</v>
+        <v>704</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B346" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C346" s="16" t="s">
-        <v>448</v>
+      <c r="A346" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C346" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D346" s="15"/>
       <c r="E346" s="15"/>
-      <c r="F346" s="15"/>
+      <c r="F346" s="9"/>
       <c r="G346" s="1" t="s">
-        <v>424</v>
+        <v>704</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="9" t="s">
-        <v>450</v>
+      <c r="A347" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C347" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="D347" s="15"/>
+        <v>396</v>
+      </c>
+      <c r="C347" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D347" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="E347" s="15"/>
-      <c r="F347" s="15"/>
+      <c r="F347" s="9"/>
       <c r="G347" s="1" t="s">
-        <v>424</v>
+        <v>704</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
-        <v>428</v>
+        <v>130</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C348" s="16" t="s">
-        <v>449</v>
+        <v>397</v>
+      </c>
+      <c r="C348" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D348" s="15"/>
       <c r="E348" s="15"/>
-      <c r="F348" s="15"/>
+      <c r="F348" s="9"/>
       <c r="G348" s="1" t="s">
-        <v>424</v>
+        <v>704</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C349" s="16" t="s">
-        <v>445</v>
+        <v>452</v>
+      </c>
+      <c r="C349" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D349" s="15"/>
       <c r="E349" s="15"/>
-      <c r="F349" s="15"/>
+      <c r="F349" s="9"/>
       <c r="G349" s="1" t="s">
-        <v>424</v>
+        <v>704</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
-        <v>435</v>
+        <v>131</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="C350" s="16" t="s">
-        <v>445</v>
+        <v>398</v>
+      </c>
+      <c r="C350" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="D350" s="15"/>
       <c r="E350" s="15"/>
-      <c r="F350" s="15"/>
+      <c r="F350" s="9"/>
       <c r="G350" s="1" t="s">
-        <v>424</v>
+        <v>704</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B351" s="9" t="s">
-        <v>640</v>
+        <v>1</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D351" s="15"/>
       <c r="E351" s="15"/>
@@ -9214,13 +9271,13 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>534</v>
+        <v>430</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D352" s="15"/>
       <c r="E352" s="15"/>
@@ -9231,13 +9288,13 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D353" s="15"/>
       <c r="E353" s="15"/>
@@ -9248,13 +9305,13 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D354" s="15"/>
       <c r="E354" s="15"/>
@@ -9263,8 +9320,161 @@
         <v>424</v>
       </c>
     </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C355" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="D355" s="15"/>
+      <c r="E355" s="15"/>
+      <c r="F355" s="15"/>
+      <c r="G355" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B356" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="C356" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="D356" s="15"/>
+      <c r="E356" s="15"/>
+      <c r="F356" s="15"/>
+      <c r="G356" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B357" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C357" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="D357" s="15"/>
+      <c r="E357" s="15"/>
+      <c r="F357" s="15"/>
+      <c r="G357" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B358" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C358" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="D358" s="15"/>
+      <c r="E358" s="15"/>
+      <c r="F358" s="15"/>
+      <c r="G358" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B359" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C359" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="D359" s="15"/>
+      <c r="E359" s="15"/>
+      <c r="F359" s="15"/>
+      <c r="G359" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C360" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="D360" s="15"/>
+      <c r="E360" s="15"/>
+      <c r="F360" s="15"/>
+      <c r="G360" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C361" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="D361" s="15"/>
+      <c r="E361" s="15"/>
+      <c r="F361" s="15"/>
+      <c r="G361" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B362" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C362" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D362" s="15"/>
+      <c r="E362" s="15"/>
+      <c r="F362" s="15"/>
+      <c r="G362" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B363" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C363" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="D363" s="15"/>
+      <c r="E363" s="15"/>
+      <c r="F363" s="15"/>
+      <c r="G363" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:G354" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
+  <autoFilter ref="A5:G363" xr:uid="{78D23023-8E3A-4FAA-9862-23C6DBAAD3A0}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -9283,10 +9493,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9314,7 +9524,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
-        <v>44277</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -9510,6 +9720,14 @@
       </c>
       <c r="B36" t="s">
         <v>789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>44286</v>
+      </c>
+      <c r="B37" t="s">
+        <v>815</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C776BDF-4226-40C3-AF20-D3E39ED576D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECA5FB3-8DE8-44CB-B541-547930B97D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$363</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$G$369</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="831">
   <si>
     <t>nt_total</t>
   </si>
@@ -1103,12 +1103,6 @@
     <t>percent (0-100) individuals - intolerant (tolerance value 2)</t>
   </si>
   <si>
-    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - collector-gatherer (CG)</t>
-  </si>
-  <si>
-    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - collector-filterer (CF)</t>
-  </si>
-  <si>
     <t>percent (0-100) individuals - Functional Feeding Group (FFG) - predator (PR)</t>
   </si>
   <si>
@@ -1118,12 +1112,6 @@
     <t>percent (0-100) individuals - Functional Feeding Group (FFG) - shredder (SH)</t>
   </si>
   <si>
-    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - collector-gatherer (CG)</t>
-  </si>
-  <si>
-    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - collector-filterer (CF)</t>
-  </si>
-  <si>
     <t>percent (0-100) taxa - Functional Feeding Group (FFG) - predator (PR)</t>
   </si>
   <si>
@@ -1907,12 +1895,6 @@
     <t>percent (0-100) taxa - tolerance value - stol ≥ 8</t>
   </si>
   <si>
-    <t>number taxa - Functional Feeding Group (FFG) - collector-gatherer (CG)</t>
-  </si>
-  <si>
-    <t>number taxa - Functional Feeding Group (FFG) - collector-filterer (CF)</t>
-  </si>
-  <si>
     <t>number taxa - Functional Feeding Group (FFG) - predator (PR)</t>
   </si>
   <si>
@@ -2553,6 +2535,69 @@
   </si>
   <si>
     <t>Add new FFG metrics (MAH, PIH, XYL) (nt, pi, pt)</t>
+  </si>
+  <si>
+    <t>Add new FFG metrics (OMN, PAR) (nt, pi, pt)</t>
+  </si>
+  <si>
+    <t>nt_ffg_omn</t>
+  </si>
+  <si>
+    <t>number taxa - Functional Feeding Group (FFG) - omnivore (OM)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - omnivore (OM)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - omnivore (OM)</t>
+  </si>
+  <si>
+    <t>pi_ffg_omn</t>
+  </si>
+  <si>
+    <t>pt_ffg_omn</t>
+  </si>
+  <si>
+    <t>nt_ffg_par</t>
+  </si>
+  <si>
+    <t>number taxa - Functional Feeding Group (FFG) - parasite (PA)</t>
+  </si>
+  <si>
+    <t>pi_ffg_par</t>
+  </si>
+  <si>
+    <t>pt_ffg_par</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - parasite (PA)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - parasite (PA)</t>
+  </si>
+  <si>
+    <t>number taxa - Functional Feeding Group (FFG) - collector-filterer (CF or FC)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - collector-filterer (CF or FC)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - collector-filterer (CF or FC)</t>
+  </si>
+  <si>
+    <t>Update ffg_filt to CF or FC</t>
+  </si>
+  <si>
+    <t>number taxa - Functional Feeding Group (FFG) - collector-gatherer (CG or GC)</t>
+  </si>
+  <si>
+    <t>percent (0-100) individuals - Functional Feeding Group (FFG) - collector-gatherer (CG or GC)</t>
+  </si>
+  <si>
+    <t>percent (0-100) taxa - Functional Feeding Group (FFG) - collector-gatherer (CG or GC)</t>
+  </si>
+  <si>
+    <t>Update ffg_col to CG or GC</t>
   </si>
 </sst>
 </file>
@@ -3249,13 +3294,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:G363"/>
+  <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B205" sqref="B205:B223"/>
+      <selection pane="bottomRight" activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3284,19 +3329,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>44277</v>
+        <v>44294</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <f>SUBTOTAL(3,A6:A369)</f>
-        <v>358</v>
+        <f>SUBTOTAL(3,A6:A375)</f>
+        <v>364</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3307,7 +3352,7 @@
         <v>133</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>178</v>
@@ -3319,7 +3364,7 @@
         <v>177</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3334,7 +3379,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="6"/>
       <c r="G6" s="25" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3349,7 +3394,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="6"/>
       <c r="G7" s="25" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3364,7 +3409,7 @@
       <c r="E8" s="26"/>
       <c r="F8" s="6"/>
       <c r="G8" s="25" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3372,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>205</v>
@@ -3383,15 +3428,15 @@
       <c r="E9" s="17"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>205</v>
@@ -3400,7 +3445,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3408,7 +3453,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>190</v>
@@ -3417,41 +3462,41 @@
       <c r="E11" s="17"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3459,7 +3504,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>189</v>
@@ -3468,7 +3513,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3476,7 +3521,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>189</v>
@@ -3485,7 +3530,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="7"/>
       <c r="G15" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3493,7 +3538,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>189</v>
@@ -3504,7 +3549,7 @@
         <v>202</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3512,7 +3557,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>189</v>
@@ -3521,7 +3566,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3529,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>201</v>
@@ -3540,7 +3585,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="9"/>
       <c r="G18" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,7 +3593,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>186</v>
@@ -3557,7 +3602,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="9"/>
       <c r="G19" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3565,7 +3610,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>187</v>
@@ -3574,15 +3619,15 @@
       <c r="E20" s="16"/>
       <c r="F20" s="9"/>
       <c r="G20" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>190</v>
@@ -3591,15 +3636,15 @@
       <c r="E21" s="16"/>
       <c r="F21" s="9"/>
       <c r="G21" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>190</v>
@@ -3608,7 +3653,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="9"/>
       <c r="G22" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3616,7 +3661,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>186</v>
@@ -3625,15 +3670,15 @@
       <c r="E23" s="16"/>
       <c r="F23" s="9"/>
       <c r="G23" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>186</v>
@@ -3642,7 +3687,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="9"/>
       <c r="G24" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3650,7 +3695,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>186</v>
@@ -3659,7 +3704,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="9"/>
       <c r="G25" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3667,7 +3712,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>186</v>
@@ -3676,7 +3721,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="9"/>
       <c r="G26" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3684,7 +3729,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>186</v>
@@ -3693,7 +3738,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="9"/>
       <c r="G27" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3701,7 +3746,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>186</v>
@@ -3710,7 +3755,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="9"/>
       <c r="G28" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3718,7 +3763,7 @@
         <v>224</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>190</v>
@@ -3727,15 +3772,15 @@
       <c r="E29" s="19"/>
       <c r="F29" s="9"/>
       <c r="G29" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>186</v>
@@ -3744,7 +3789,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="9"/>
       <c r="G30" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3752,7 +3797,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>186</v>
@@ -3763,7 +3808,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="9"/>
       <c r="G31" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3771,7 +3816,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>187</v>
@@ -3780,7 +3825,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="9"/>
       <c r="G32" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3788,7 +3833,7 @@
         <v>223</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>190</v>
@@ -3797,7 +3842,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="9"/>
       <c r="G33" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3805,7 +3850,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>187</v>
@@ -3814,7 +3859,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="9"/>
       <c r="G34" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3822,7 +3867,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>187</v>
@@ -3831,15 +3876,15 @@
       <c r="E35" s="16"/>
       <c r="F35" s="9"/>
       <c r="G35" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>186</v>
@@ -3848,7 +3893,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="9"/>
       <c r="G36" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3856,7 +3901,7 @@
         <v>222</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>190</v>
@@ -3865,15 +3910,15 @@
       <c r="E37" s="16"/>
       <c r="F37" s="9"/>
       <c r="G37" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>190</v>
@@ -3882,7 +3927,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="9"/>
       <c r="G38" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3890,7 +3935,7 @@
         <v>245</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>187</v>
@@ -3899,15 +3944,15 @@
       <c r="E39" s="16"/>
       <c r="F39" s="9"/>
       <c r="G39" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>186</v>
@@ -3916,7 +3961,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="9"/>
       <c r="G40" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3924,7 +3969,7 @@
         <v>246</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>186</v>
@@ -3933,15 +3978,15 @@
       <c r="E41" s="16"/>
       <c r="F41" s="7"/>
       <c r="G41" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>186</v>
@@ -3950,7 +3995,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="7"/>
       <c r="G42" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3958,7 +4003,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>187</v>
@@ -3967,7 +4012,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="7"/>
       <c r="G43" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3975,7 +4020,7 @@
         <v>225</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>190</v>
@@ -3984,7 +4029,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="7"/>
       <c r="G44" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3992,7 +4037,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>186</v>
@@ -4001,7 +4046,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="7"/>
       <c r="G45" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4009,7 +4054,7 @@
         <v>247</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>186</v>
@@ -4018,15 +4063,15 @@
       <c r="E46" s="16"/>
       <c r="F46" s="7"/>
       <c r="G46" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>187</v>
@@ -4035,24 +4080,24 @@
       <c r="E47" s="16"/>
       <c r="F47" s="7"/>
       <c r="G47" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="7"/>
       <c r="G48" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4060,7 +4105,7 @@
         <v>37</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>189</v>
@@ -4069,7 +4114,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="7"/>
       <c r="G49" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4077,7 +4122,7 @@
         <v>226</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>189</v>
@@ -4086,15 +4131,15 @@
       <c r="E50" s="16"/>
       <c r="F50" s="7"/>
       <c r="G50" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>190</v>
@@ -4103,7 +4148,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="7"/>
       <c r="G51" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4111,7 +4156,7 @@
         <v>227</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>190</v>
@@ -4120,7 +4165,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="7"/>
       <c r="G52" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4128,7 +4173,7 @@
         <v>38</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>186</v>
@@ -4137,7 +4182,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="7"/>
       <c r="G53" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4145,7 +4190,7 @@
         <v>248</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>186</v>
@@ -4154,7 +4199,7 @@
       <c r="E54" s="19"/>
       <c r="F54" s="7"/>
       <c r="G54" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4162,7 +4207,7 @@
         <v>249</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>190</v>
@@ -4171,15 +4216,15 @@
       <c r="E55" s="16"/>
       <c r="F55" s="7"/>
       <c r="G55" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>190</v>
@@ -4187,18 +4232,18 @@
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="39" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>190</v>
@@ -4206,10 +4251,10 @@
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="39" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4226,15 +4271,15 @@
       <c r="E58" s="16"/>
       <c r="F58" s="9"/>
       <c r="G58" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>186</v>
@@ -4243,7 +4288,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="9"/>
       <c r="G59" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4260,7 +4305,7 @@
       <c r="E60" s="16"/>
       <c r="F60" s="9"/>
       <c r="G60" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4277,7 +4322,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="9"/>
       <c r="G61" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4294,15 +4339,15 @@
       <c r="E62" s="16"/>
       <c r="F62" s="9"/>
       <c r="G62" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>190</v>
@@ -4311,15 +4356,15 @@
       <c r="E63" s="16"/>
       <c r="F63" s="9"/>
       <c r="G63" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>190</v>
@@ -4328,15 +4373,15 @@
       <c r="E64" s="16"/>
       <c r="F64" s="9"/>
       <c r="G64" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>187</v>
@@ -4345,7 +4390,7 @@
       <c r="E65" s="16"/>
       <c r="F65" s="9"/>
       <c r="G65" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4362,15 +4407,15 @@
       <c r="E66" s="16"/>
       <c r="F66" s="9"/>
       <c r="G66" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>186</v>
@@ -4379,7 +4424,7 @@
       <c r="E67" s="16"/>
       <c r="F67" s="9"/>
       <c r="G67" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4396,7 +4441,7 @@
       <c r="E68" s="16"/>
       <c r="F68" s="9"/>
       <c r="G68" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4413,7 +4458,7 @@
       <c r="E69" s="16"/>
       <c r="F69" s="9"/>
       <c r="G69" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4421,16 +4466,16 @@
         <v>251</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="9"/>
       <c r="G70" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4447,7 +4492,7 @@
       <c r="E71" s="16"/>
       <c r="F71" s="9"/>
       <c r="G71" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4464,26 +4509,26 @@
       <c r="E72" s="16"/>
       <c r="F72" s="9"/>
       <c r="G72" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="42" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4500,7 +4545,7 @@
       <c r="E74" s="16"/>
       <c r="F74" s="9"/>
       <c r="G74" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4508,16 +4553,16 @@
         <v>252</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="9"/>
       <c r="G75" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4525,16 +4570,16 @@
         <v>253</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="9"/>
       <c r="G76" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4551,49 +4596,49 @@
       <c r="E77" s="16"/>
       <c r="F77" s="9"/>
       <c r="G77" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="9"/>
       <c r="G78" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="9"/>
       <c r="G79" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>186</v>
@@ -4602,7 +4647,7 @@
       <c r="E80" s="16"/>
       <c r="F80" s="9"/>
       <c r="G80" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4619,15 +4664,15 @@
       <c r="E81" s="16"/>
       <c r="F81" s="9"/>
       <c r="G81" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>190</v>
@@ -4636,15 +4681,15 @@
       <c r="E82" s="16"/>
       <c r="F82" s="9"/>
       <c r="G82" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>190</v>
@@ -4653,7 +4698,7 @@
       <c r="E83" s="16"/>
       <c r="F83" s="9"/>
       <c r="G83" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4661,41 +4706,41 @@
         <v>254</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="9"/>
       <c r="G84" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="9"/>
       <c r="G85" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>190</v>
@@ -4704,7 +4749,7 @@
       <c r="E86" s="20"/>
       <c r="F86" s="9"/>
       <c r="G86" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4712,7 +4757,7 @@
         <v>255</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>187</v>
@@ -4721,7 +4766,7 @@
       <c r="E87" s="20"/>
       <c r="F87" s="9"/>
       <c r="G87" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4729,7 +4774,7 @@
         <v>256</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>186</v>
@@ -4738,32 +4783,32 @@
       <c r="E88" s="20"/>
       <c r="F88" s="9"/>
       <c r="G88" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="9"/>
       <c r="G89" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="C90" s="20" t="s">
         <v>190</v>
@@ -4772,15 +4817,15 @@
       <c r="E90" s="20"/>
       <c r="F90" s="9"/>
       <c r="G90" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>190</v>
@@ -4789,15 +4834,15 @@
       <c r="E91" s="20"/>
       <c r="F91" s="9"/>
       <c r="G91" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>186</v>
@@ -4806,7 +4851,7 @@
       <c r="E92" s="20"/>
       <c r="F92" s="9"/>
       <c r="G92" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4814,7 +4859,7 @@
         <v>257</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>283</v>
@@ -4823,15 +4868,15 @@
       <c r="E93" s="20"/>
       <c r="F93" s="9"/>
       <c r="G93" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>190</v>
@@ -4840,7 +4885,7 @@
       <c r="E94" s="20"/>
       <c r="F94" s="9"/>
       <c r="G94" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4857,15 +4902,15 @@
       <c r="E95" s="20"/>
       <c r="F95" s="9"/>
       <c r="G95" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>186</v>
@@ -4874,7 +4919,7 @@
       <c r="E96" s="20"/>
       <c r="F96" s="9"/>
       <c r="G96" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4891,15 +4936,15 @@
       <c r="E97" s="20"/>
       <c r="F97" s="9"/>
       <c r="G97" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C98" s="20" t="s">
         <v>186</v>
@@ -4908,7 +4953,7 @@
       <c r="E98" s="20"/>
       <c r="F98" s="9"/>
       <c r="G98" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4925,15 +4970,15 @@
       <c r="E99" s="20"/>
       <c r="F99" s="9"/>
       <c r="G99" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>190</v>
@@ -4942,7 +4987,7 @@
       <c r="E100" s="20"/>
       <c r="F100" s="9"/>
       <c r="G100" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4959,15 +5004,15 @@
       <c r="E101" s="20"/>
       <c r="F101" s="9"/>
       <c r="G101" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C102" s="20" t="s">
         <v>186</v>
@@ -4976,15 +5021,15 @@
       <c r="E102" s="20"/>
       <c r="F102" s="9"/>
       <c r="G102" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C103" s="20" t="s">
         <v>187</v>
@@ -4993,15 +5038,15 @@
       <c r="E103" s="20"/>
       <c r="F103" s="9"/>
       <c r="G103" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C104" s="20" t="s">
         <v>190</v>
@@ -5010,38 +5055,38 @@
       <c r="E104" s="20"/>
       <c r="F104" s="9"/>
       <c r="G104" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="9"/>
       <c r="G105" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>707</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>713</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>190</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -5058,24 +5103,24 @@
       <c r="E107" s="20"/>
       <c r="F107" s="9"/>
       <c r="G107" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
       <c r="F108" s="9"/>
       <c r="G108" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5083,7 +5128,7 @@
         <v>258</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>190</v>
@@ -5092,15 +5137,15 @@
       <c r="E109" s="20"/>
       <c r="F109" s="9"/>
       <c r="G109" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C110" s="20" t="s">
         <v>190</v>
@@ -5109,7 +5154,7 @@
       <c r="E110" s="20"/>
       <c r="F110" s="9"/>
       <c r="G110" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5126,7 +5171,7 @@
       <c r="E111" s="20"/>
       <c r="F111" s="9"/>
       <c r="G111" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5143,15 +5188,15 @@
       <c r="E112" s="20"/>
       <c r="F112" s="9"/>
       <c r="G112" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>187</v>
@@ -5160,7 +5205,7 @@
       <c r="E113" s="20"/>
       <c r="F113" s="9"/>
       <c r="G113" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5168,7 +5213,7 @@
         <v>259</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>186</v>
@@ -5177,7 +5222,7 @@
       <c r="E114" s="20"/>
       <c r="F114" s="9"/>
       <c r="G114" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5194,7 +5239,7 @@
       <c r="E115" s="16"/>
       <c r="F115" s="9"/>
       <c r="G115" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5211,7 +5256,7 @@
       <c r="E116" s="16"/>
       <c r="F116" s="9"/>
       <c r="G116" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5219,7 +5264,7 @@
         <v>260</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>186</v>
@@ -5228,7 +5273,7 @@
       <c r="E117" s="16"/>
       <c r="F117" s="9"/>
       <c r="G117" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5245,15 +5290,15 @@
       <c r="E118" s="16"/>
       <c r="F118" s="9"/>
       <c r="G118" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>186</v>
@@ -5262,7 +5307,7 @@
       <c r="E119" s="16"/>
       <c r="F119" s="9"/>
       <c r="G119" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5279,7 +5324,7 @@
       <c r="E120" s="16"/>
       <c r="F120" s="9"/>
       <c r="G120" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5287,7 +5332,7 @@
         <v>261</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>187</v>
@@ -5296,7 +5341,7 @@
       <c r="E121" s="16"/>
       <c r="F121" s="9"/>
       <c r="G121" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5313,15 +5358,15 @@
       <c r="E122" s="16"/>
       <c r="F122" s="9"/>
       <c r="G122" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>186</v>
@@ -5330,7 +5375,7 @@
       <c r="E123" s="16"/>
       <c r="F123" s="9"/>
       <c r="G123" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -5338,7 +5383,7 @@
         <v>262</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>187</v>
@@ -5347,15 +5392,15 @@
       <c r="E124" s="16"/>
       <c r="F124" s="9"/>
       <c r="G124" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>186</v>
@@ -5364,7 +5409,7 @@
       <c r="E125" s="16"/>
       <c r="F125" s="9"/>
       <c r="G125" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5372,7 +5417,7 @@
         <v>263</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>186</v>
@@ -5381,15 +5426,15 @@
       <c r="E126" s="16"/>
       <c r="F126" s="9"/>
       <c r="G126" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>186</v>
@@ -5398,7 +5443,7 @@
       <c r="E127" s="16"/>
       <c r="F127" s="9"/>
       <c r="G127" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -5406,7 +5451,7 @@
         <v>264</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>187</v>
@@ -5415,7 +5460,7 @@
       <c r="E128" s="16"/>
       <c r="F128" s="9"/>
       <c r="G128" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -5423,7 +5468,7 @@
         <v>265</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>186</v>
@@ -5432,7 +5477,7 @@
       <c r="E129" s="16"/>
       <c r="F129" s="9"/>
       <c r="G129" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5440,7 +5485,7 @@
         <v>266</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>186</v>
@@ -5449,15 +5494,15 @@
       <c r="E130" s="16"/>
       <c r="F130" s="9"/>
       <c r="G130" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>187</v>
@@ -5466,32 +5511,32 @@
       <c r="E131" s="16"/>
       <c r="F131" s="9"/>
       <c r="G131" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
       <c r="F132" s="9"/>
       <c r="G132" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>190</v>
@@ -5500,7 +5545,7 @@
       <c r="E133" s="16"/>
       <c r="F133" s="9"/>
       <c r="G133" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5508,7 +5553,7 @@
         <v>267</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>186</v>
@@ -5517,7 +5562,7 @@
       <c r="E134" s="16"/>
       <c r="F134" s="9"/>
       <c r="G134" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5525,7 +5570,7 @@
         <v>40</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>190</v>
@@ -5534,7 +5579,7 @@
       <c r="E135" s="16"/>
       <c r="F135" s="9"/>
       <c r="G135" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5551,7 +5596,7 @@
       <c r="E136" s="16"/>
       <c r="F136" s="9"/>
       <c r="G136" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5559,7 +5604,7 @@
         <v>268</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>190</v>
@@ -5568,15 +5613,15 @@
       <c r="E137" s="16"/>
       <c r="F137" s="9"/>
       <c r="G137" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>284</v>
@@ -5585,7 +5630,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="9"/>
       <c r="G138" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5602,7 +5647,7 @@
       <c r="E139" s="19"/>
       <c r="F139" s="9"/>
       <c r="G139" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5610,7 +5655,7 @@
         <v>269</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>284</v>
@@ -5619,7 +5664,7 @@
       <c r="E140" s="16"/>
       <c r="F140" s="9"/>
       <c r="G140" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5627,7 +5672,7 @@
         <v>270</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>189</v>
@@ -5636,75 +5681,75 @@
       <c r="E141" s="16"/>
       <c r="F141" s="9"/>
       <c r="G141" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
       <c r="F142" s="9"/>
       <c r="G142" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
       <c r="F143" s="9"/>
       <c r="G143" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
       <c r="F144" s="9"/>
       <c r="G144" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
       <c r="F145" s="9"/>
       <c r="G145" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5712,7 +5757,7 @@
         <v>43</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C146" s="21" t="s">
         <v>197</v>
@@ -5721,7 +5766,7 @@
       <c r="E146" s="16"/>
       <c r="F146" s="7"/>
       <c r="G146" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5738,7 +5783,7 @@
       <c r="E147" s="16"/>
       <c r="F147" s="9"/>
       <c r="G147" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5755,7 +5800,7 @@
       <c r="E148" s="16"/>
       <c r="F148" s="9"/>
       <c r="G148" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5763,7 +5808,7 @@
         <v>134</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C149" s="21" t="s">
         <v>198</v>
@@ -5772,7 +5817,7 @@
       <c r="E149" s="16"/>
       <c r="F149" s="7"/>
       <c r="G149" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5789,7 +5834,7 @@
       <c r="E150" s="16"/>
       <c r="F150" s="9"/>
       <c r="G150" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5806,7 +5851,7 @@
       <c r="E151" s="16"/>
       <c r="F151" s="9"/>
       <c r="G151" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5823,7 +5868,7 @@
       <c r="E152" s="16"/>
       <c r="F152" s="9"/>
       <c r="G152" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5831,7 +5876,7 @@
         <v>138</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C153" s="21" t="s">
         <v>197</v>
@@ -5840,7 +5885,7 @@
       <c r="E153" s="16"/>
       <c r="F153" s="9"/>
       <c r="G153" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5859,7 +5904,7 @@
       <c r="E154" s="16"/>
       <c r="F154" s="9"/>
       <c r="G154" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5878,7 +5923,7 @@
       <c r="E155" s="16"/>
       <c r="F155" s="9"/>
       <c r="G155" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5886,7 +5931,7 @@
         <v>141</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C156" s="21" t="s">
         <v>198</v>
@@ -5895,7 +5940,7 @@
       <c r="E156" s="16"/>
       <c r="F156" s="9"/>
       <c r="G156" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5914,7 +5959,7 @@
       <c r="E157" s="16"/>
       <c r="F157" s="9"/>
       <c r="G157" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5931,7 +5976,7 @@
       <c r="E158" s="16"/>
       <c r="F158" s="9"/>
       <c r="G158" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5948,7 +5993,7 @@
       <c r="E159" s="16"/>
       <c r="F159" s="9"/>
       <c r="G159" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5956,16 +6001,16 @@
         <v>271</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
       <c r="F160" s="9"/>
       <c r="G160" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5973,7 +6018,7 @@
         <v>237</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C161" s="21" t="s">
         <v>239</v>
@@ -5982,7 +6027,7 @@
       <c r="E161" s="16"/>
       <c r="F161" s="9"/>
       <c r="G161" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5990,7 +6035,7 @@
         <v>238</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C162" s="21" t="s">
         <v>240</v>
@@ -5999,7 +6044,7 @@
       <c r="E162" s="16"/>
       <c r="F162" s="9"/>
       <c r="G162" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6007,7 +6052,7 @@
         <v>241</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C163" s="21" t="s">
         <v>242</v>
@@ -6016,15 +6061,15 @@
       <c r="E163" s="16"/>
       <c r="F163" s="7"/>
       <c r="G163" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C164" s="21" t="s">
         <v>242</v>
@@ -6033,15 +6078,15 @@
       <c r="E164" s="16"/>
       <c r="F164" s="7"/>
       <c r="G164" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C165" s="21" t="s">
         <v>242</v>
@@ -6050,15 +6095,15 @@
       <c r="E165" s="16"/>
       <c r="F165" s="7"/>
       <c r="G165" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C166" s="21" t="s">
         <v>242</v>
@@ -6067,7 +6112,7 @@
       <c r="E166" s="16"/>
       <c r="F166" s="7"/>
       <c r="G166" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6075,7 +6120,7 @@
         <v>145</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C167" s="21" t="s">
         <v>179</v>
@@ -6086,7 +6131,7 @@
       </c>
       <c r="F167" s="7"/>
       <c r="G167" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -6094,7 +6139,7 @@
         <v>146</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C168" s="21" t="s">
         <v>179</v>
@@ -6105,7 +6150,7 @@
       </c>
       <c r="F168" s="7"/>
       <c r="G168" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6113,7 +6158,7 @@
         <v>147</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C169" s="21" t="s">
         <v>179</v>
@@ -6124,7 +6169,7 @@
       </c>
       <c r="F169" s="7"/>
       <c r="G169" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6132,7 +6177,7 @@
         <v>148</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C170" s="21" t="s">
         <v>179</v>
@@ -6143,7 +6188,7 @@
       </c>
       <c r="F170" s="7"/>
       <c r="G170" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -6162,7 +6207,7 @@
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6181,7 +6226,7 @@
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6200,7 +6245,7 @@
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -6219,7 +6264,7 @@
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -6238,7 +6283,7 @@
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="1" t="